--- a/experiments/hyperparameters/hyperparemeter_search.xlsx
+++ b/experiments/hyperparameters/hyperparemeter_search.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="118">
+  <si>
+    <t>EXPERIMENT 1</t>
+  </si>
   <si>
     <t>HYPERPARAMETER SEARCH 1</t>
   </si>
@@ -263,7 +266,109 @@
     <t>run52</t>
   </si>
   <si>
-    <t>Alpha divided by 10 after 30 epochs,</t>
+    <t>Alpha divided by 10 after 30 epochs, and then again after 10 epochs</t>
+  </si>
+  <si>
+    <t>EXPERIMENT 2</t>
+  </si>
+  <si>
+    <t>HYPERPARAMETER SEARCH 4</t>
+  </si>
+  <si>
+    <t>run53</t>
+  </si>
+  <si>
+    <t>run54</t>
+  </si>
+  <si>
+    <t>run55</t>
+  </si>
+  <si>
+    <t>run56</t>
+  </si>
+  <si>
+    <t>run57</t>
+  </si>
+  <si>
+    <t>run58</t>
+  </si>
+  <si>
+    <t>run59</t>
+  </si>
+  <si>
+    <t>run60</t>
+  </si>
+  <si>
+    <t>run61</t>
+  </si>
+  <si>
+    <t>run62</t>
+  </si>
+  <si>
+    <t>run63</t>
+  </si>
+  <si>
+    <t>run64</t>
+  </si>
+  <si>
+    <t>run65</t>
+  </si>
+  <si>
+    <t>run66</t>
+  </si>
+  <si>
+    <t>run67</t>
+  </si>
+  <si>
+    <t>run68</t>
+  </si>
+  <si>
+    <t>run69</t>
+  </si>
+  <si>
+    <t>run70</t>
+  </si>
+  <si>
+    <t>run71</t>
+  </si>
+  <si>
+    <t>run72</t>
+  </si>
+  <si>
+    <t>run73</t>
+  </si>
+  <si>
+    <t>run74</t>
+  </si>
+  <si>
+    <t>run75</t>
+  </si>
+  <si>
+    <t>run76</t>
+  </si>
+  <si>
+    <t>run77</t>
+  </si>
+  <si>
+    <t>run78</t>
+  </si>
+  <si>
+    <t>run79</t>
+  </si>
+  <si>
+    <t>run80</t>
+  </si>
+  <si>
+    <t>run81</t>
+  </si>
+  <si>
+    <t>run82</t>
+  </si>
+  <si>
+    <t>10 .^ unifrnd(-6,-1,30,1)</t>
+  </si>
+  <si>
+    <t>10 .^ unifrnd(-4, 1, 30, 1)</t>
   </si>
 </sst>
 </file>
@@ -297,12 +402,18 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -339,9 +450,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -354,6 +469,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -373,10 +492,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J72" activeCellId="0" sqref="J72"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F110" activeCellId="0" sqref="F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -409,433 +528,420 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
         <v>4.01858032309636E-006</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>19.8148065443621</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="0" t="n">
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E4" s="0" t="n">
         <v>0.403</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0.0151</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
-        <v>1.19358138232734E-005</v>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>41.9523538553435</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0.503</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>0.0151</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>0.22</v>
+        <v>0.06</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
-        <v>1.79392416489465E-005</v>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>1.13176203046361</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="A5" s="4" t="n">
+        <v>1.19358138232734E-005</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>41.9523538553435</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>0.226</v>
+        <v>0.503</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>0.0328</v>
+        <v>0.0151</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>0.22</v>
       </c>
       <c r="H5" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
+        <v>1.79392416489465E-005</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>1.13176203046361</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="D6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.226</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.0328</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="n">
         <v>1.90907422969486E-005</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>20.109230821923</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="0" t="n">
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E7" s="0" t="n">
         <v>0.527</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F7" s="0" t="n">
         <v>0.0151</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G7" s="0" t="n">
         <v>0.37</v>
       </c>
-      <c r="H6" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="H7" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="n">
         <v>2.6397912198931E-005</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>0.0342846451308202</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="0" t="n">
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E8" s="0" t="n">
         <v>0.238</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F8" s="0" t="n">
         <v>0.0802</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
-        <v>3.85045809095347E-005</v>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>0.003815984082409</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0.204</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>0.0963</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>0.35</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="4" t="n">
+        <v>3.85045809095347E-005</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>0.003815984082409</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.0963</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="n">
         <v>3.8566307369656E-005</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>1.04676418044599</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="0" t="n">
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E10" s="0" t="n">
         <v>0.183</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>0.0151</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
-        <v>0.000105216417178866</v>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>2.21182387803038</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0.146</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>0.0151</v>
       </c>
       <c r="G10" s="0" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="n">
+        <v>0.000105216417178866</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>2.21182387803038</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0.0151</v>
+      </c>
+      <c r="G11" s="0" t="n">
         <v>0.09</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H11" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="n">
+        <v>0.000148177674561573</v>
+      </c>
+      <c r="B12" s="4" t="n">
+        <v>0.127485643480525</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0.0353</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="n">
+        <v>0.000435545693917001</v>
+      </c>
+      <c r="B13" s="4" t="n">
+        <v>114.536998751119</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0.0151</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="n">
+        <v>0.00048538512489507</v>
+      </c>
+      <c r="B14" s="4" t="n">
+        <v>0.00349680934648399</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="0" t="n">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
-        <v>0.000148177674561573</v>
-      </c>
-      <c r="B11" s="3" t="n">
-        <v>0.127485643480525</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0.108</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>0.0353</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
-        <v>0.000435545693917001</v>
-      </c>
-      <c r="B12" s="3" t="n">
-        <v>114.536998751119</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0.232</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>0.0151</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
-        <v>0.00048538512489507</v>
-      </c>
-      <c r="B13" s="3" t="n">
-        <v>0.00349680934648399</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="E13" s="0" t="n">
+      <c r="E14" s="0" t="n">
         <v>0.083</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F14" s="0" t="n">
         <v>0.0894</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G14" s="0" t="n">
         <v>0.09</v>
       </c>
-      <c r="H13" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+      <c r="H14" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="n">
         <v>0.00115245369567716</v>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>0.0407721285113296</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="0" t="n">
+      <c r="C15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E15" s="0" t="n">
         <v>0.086</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F15" s="0" t="n">
         <v>0.0367</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G15" s="0" t="n">
         <v>0.003</v>
       </c>
-      <c r="H14" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+      <c r="H15" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="n">
         <v>0.00196166958565778</v>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>654.557000601105</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="0" t="n">
+      <c r="C16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E16" s="0" t="n">
         <v>0.082</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>0.0151</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
-        <v>0.00208625677297505</v>
-      </c>
-      <c r="B16" s="3" t="n">
-        <v>0.18852187448211</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>0.085</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>0.0151</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.004</v>
+        <v>0.03</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
-        <v>0.00406339723443987</v>
-      </c>
-      <c r="B17" s="3" t="n">
-        <v>172.280303410619</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="A17" s="4" t="n">
+        <v>0.00208625677297505</v>
+      </c>
+      <c r="B17" s="4" t="n">
+        <v>0.18852187448211</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.079</v>
+        <v>0.085</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>0.0151</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.01</v>
+        <v>0.004</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
-        <v>0.0160210226405506</v>
-      </c>
-      <c r="B18" s="3" t="n">
-        <v>672.610866152973</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="A18" s="4" t="n">
+        <v>0.00406339723443987</v>
+      </c>
+      <c r="B18" s="4" t="n">
+        <v>172.280303410619</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>0.079</v>
@@ -844,102 +950,102 @@
         <v>0.0151</v>
       </c>
       <c r="G18" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="n">
+        <v>0.0160210226405506</v>
+      </c>
+      <c r="B19" s="4" t="n">
+        <v>672.610866152973</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0.0151</v>
+      </c>
+      <c r="G19" s="0" t="n">
         <v>0.008</v>
       </c>
-      <c r="H18" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+      <c r="H19" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="n">
         <v>0.016660915322018</v>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>0.00534800269057661</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="0" t="n">
+      <c r="C20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E19" s="3" t="n">
+      <c r="E20" s="4" t="n">
         <v>20000000000</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
-        <v>0.018650034994404</v>
-      </c>
-      <c r="B20" s="3" t="n">
-        <v>0.0135922640948401</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3" t="n">
-        <v>27000000</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="n">
+        <v>0.018650034994404</v>
+      </c>
+      <c r="B21" s="4" t="n">
+        <v>0.0135922640948401</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>27000000</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="0" t="n">
         <v>0.002</v>
       </c>
-      <c r="H20" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+      <c r="H21" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="n">
         <v>0.0319706958722551</v>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>24.3237350489964</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="0" t="n">
+      <c r="C22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="0" t="n">
         <v>4</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>0.079</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>0.0151</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
-        <v>0.0360289660823857</v>
-      </c>
-      <c r="B22" s="3" t="n">
-        <v>30.065592432435</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>5</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>0.079</v>
@@ -948,134 +1054,131 @@
         <v>0.0151</v>
       </c>
       <c r="G22" s="0" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="n">
+        <v>0.0360289660823857</v>
+      </c>
+      <c r="B23" s="4" t="n">
+        <v>30.065592432435</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0.0151</v>
+      </c>
+      <c r="G23" s="0" t="n">
         <v>0.013</v>
       </c>
-      <c r="H22" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+      <c r="H23" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="n">
         <v>0.0403046300955655</v>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>13.9224313158425</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="0" t="n">
+      <c r="C24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E23" s="3" t="n">
+      <c r="E24" s="4" t="n">
         <v>1700000000000000</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F24" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
-        <v>0.0416438856969318</v>
-      </c>
-      <c r="B24" s="3" t="n">
-        <v>0.441615630387425</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E24" s="3" t="n">
-        <v>200000000000</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>0.0019</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>0.001</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+      <c r="A25" s="4" t="n">
+        <v>0.0416438856969318</v>
+      </c>
+      <c r="B25" s="4" t="n">
+        <v>0.441615630387425</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v>200000000000</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0.0019</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="n">
         <v>0.0477143127548959</v>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>362.340173120484</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="0" t="n">
+      <c r="C26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E26" s="0" t="n">
         <v>0.08</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F26" s="0" t="n">
         <v>0.0151</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="G26" s="0" t="n">
         <v>0.007</v>
       </c>
-      <c r="H25" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
+      <c r="H26" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="n">
         <v>0.118196472380363</v>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>0.158705081874316</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="0" t="n">
+      <c r="C27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E26" s="3" t="n">
+      <c r="E27" s="4" t="n">
         <v>4.4E+017</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
-        <v>0.166692376976655</v>
-      </c>
-      <c r="B27" s="3" t="n">
-        <v>236.980250861124</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E27" s="3" t="n">
-        <v>1.4E+018</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>0</v>
@@ -1084,644 +1187,650 @@
         <v>0.001</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
+      <c r="A28" s="4" t="n">
+        <v>0.166692376976655</v>
+      </c>
+      <c r="B28" s="4" t="n">
+        <v>236.980250861124</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>1.4E+018</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="n">
         <v>0.195167576000051</v>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>0.316073030698462</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="0" t="n">
+      <c r="C29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E28" s="3" t="n">
+      <c r="E29" s="4" t="n">
         <v>200000000000</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F29" s="0" t="n">
         <v>0.0168</v>
       </c>
-      <c r="H28" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
+      <c r="H29" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="n">
         <v>0.20916180975068</v>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>9.63696692139679</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="0" t="n">
+      <c r="C30" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="I29" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
+      <c r="I30" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="n">
         <v>0.234207591842348</v>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>0.225266479037908</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="0" t="n">
+      <c r="C31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="I30" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
+      <c r="I31" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="n">
         <v>0.282505929083114</v>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>37.3747733037578</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="0" t="n">
+      <c r="C32" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="I31" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="n">
+      <c r="I32" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="n">
         <v>0.58494141274888</v>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>181.737298056476</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="0" t="n">
+      <c r="C33" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="I32" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="0" t="s">
+      <c r="I33" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="E36" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="B37" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="0" t="s">
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="0" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
+      <c r="E38" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B41" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="C42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="D42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="E42" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="F42" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="G42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="H42" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="n">
+      <c r="I42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="n">
         <v>1.95353806753189E-005</v>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>0.0329270563182907</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>0.196</v>
-      </c>
-      <c r="F42" s="0" t="n">
-        <v>0.077</v>
-      </c>
-      <c r="G42" s="0" t="n">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="n">
-        <v>5.74635755817239E-005</v>
-      </c>
-      <c r="B43" s="3" t="n">
-        <v>0.00443696160874432</v>
-      </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>0.212</v>
+        <v>0.196</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>0.084</v>
+        <v>0.077</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="n">
-        <v>1.10610306438123E-006</v>
-      </c>
-      <c r="B44" s="3" t="n">
-        <v>0.000338909715960258</v>
-      </c>
-      <c r="C44" s="3" t="s">
+      <c r="A44" s="4" t="n">
+        <v>5.74635755817239E-005</v>
+      </c>
+      <c r="B44" s="4" t="n">
+        <v>0.00443696160874432</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>0.308</v>
+        <v>0.212</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>0.099</v>
+        <v>0.084</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>0.56</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="n">
-        <v>1.4231564382078E-006</v>
-      </c>
-      <c r="B45" s="3" t="n">
-        <v>0.00214765374049253</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="A45" s="4" t="n">
+        <v>1.10610306438123E-006</v>
+      </c>
+      <c r="B45" s="4" t="n">
+        <v>0.000338909715960258</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>0.278</v>
+        <v>0.308</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>0.101</v>
+        <v>0.099</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>0.57</v>
+        <v>0.56</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="n">
-        <v>1.54208600071874E-006</v>
-      </c>
-      <c r="B46" s="3" t="n">
-        <v>0.00217747613620058</v>
-      </c>
-      <c r="C46" s="3" t="s">
+      <c r="A46" s="4" t="n">
+        <v>1.4231564382078E-006</v>
+      </c>
+      <c r="B46" s="4" t="n">
+        <v>0.00214765374049253</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>0.206</v>
+        <v>0.278</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>0.108</v>
+        <v>0.101</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>0.53</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="n">
-        <v>2.14933836088716E-006</v>
-      </c>
-      <c r="B47" s="3" t="n">
-        <v>0.0127298747056998</v>
-      </c>
-      <c r="C47" s="3" t="s">
+      <c r="A47" s="4" t="n">
+        <v>1.54208600071874E-006</v>
+      </c>
+      <c r="B47" s="4" t="n">
+        <v>0.00217747613620058</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>0.226</v>
+        <v>0.206</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>0.114</v>
+        <v>0.108</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>0.63</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="n">
-        <v>7.01978251545733E-005</v>
-      </c>
-      <c r="B48" s="3" t="n">
-        <v>1.16151961891159E-005</v>
-      </c>
-      <c r="C48" s="3" t="s">
+      <c r="A48" s="4" t="n">
+        <v>2.14933836088716E-006</v>
+      </c>
+      <c r="B48" s="4" t="n">
+        <v>0.0127298747056998</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>0.08</v>
+        <v>0.226</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>0.115</v>
+        <v>0.114</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>0.28</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="n">
-        <v>1.82479140350789E-006</v>
-      </c>
-      <c r="B49" s="3" t="n">
-        <v>0.0377388545111771</v>
-      </c>
-      <c r="C49" s="3" t="s">
+      <c r="A49" s="4" t="n">
+        <v>7.01978251545733E-005</v>
+      </c>
+      <c r="B49" s="4" t="n">
+        <v>1.16151961891159E-005</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>0.331</v>
+        <v>0.08</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>0.117</v>
+        <v>0.115</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>0.59</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="n">
-        <v>1.03198644329961E-005</v>
-      </c>
-      <c r="B50" s="3" t="n">
-        <v>7.40077844834827E-005</v>
-      </c>
-      <c r="C50" s="3" t="s">
+      <c r="A50" s="4" t="n">
+        <v>1.82479140350789E-006</v>
+      </c>
+      <c r="B50" s="4" t="n">
+        <v>0.0377388545111771</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>0.242</v>
+        <v>0.331</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>0.117</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>0.5</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="n">
-        <v>1.2500112144408E-005</v>
-      </c>
-      <c r="B51" s="3" t="n">
-        <v>1.81927676909693E-005</v>
-      </c>
-      <c r="C51" s="3" t="s">
+      <c r="A51" s="4" t="n">
+        <v>1.03198644329961E-005</v>
+      </c>
+      <c r="B51" s="4" t="n">
+        <v>7.40077844834827E-005</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>0.209</v>
+        <v>0.242</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>0.117</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="n">
-        <v>7.23258635944392E-006</v>
-      </c>
-      <c r="B52" s="3" t="n">
-        <v>0.00500777479484594</v>
-      </c>
-      <c r="C52" s="3" t="s">
+      <c r="A52" s="4" t="n">
+        <v>1.2500112144408E-005</v>
+      </c>
+      <c r="B52" s="4" t="n">
+        <v>1.81927676909693E-005</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>0.294</v>
+        <v>0.209</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>0.118</v>
+        <v>0.117</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="n">
-        <v>3.14614768104022E-006</v>
-      </c>
-      <c r="B53" s="3" t="n">
-        <v>0.000431893750100302</v>
-      </c>
-      <c r="C53" s="3" t="s">
+      <c r="A53" s="4" t="n">
+        <v>7.23258635944392E-006</v>
+      </c>
+      <c r="B53" s="4" t="n">
+        <v>0.00500777479484594</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>0.313</v>
+        <v>0.294</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>0.119</v>
+        <v>0.118</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>0.63</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="n">
-        <v>3.57454702108591E-006</v>
-      </c>
-      <c r="B54" s="3" t="n">
-        <v>0.0388487377964991</v>
-      </c>
-      <c r="C54" s="3" t="s">
+      <c r="A54" s="4" t="n">
+        <v>3.14614768104022E-006</v>
+      </c>
+      <c r="B54" s="4" t="n">
+        <v>0.000431893750100302</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>0.355</v>
+        <v>0.313</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>0.12</v>
+        <v>0.119</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="n">
-        <v>1.03832710303222E-006</v>
-      </c>
-      <c r="B55" s="3" t="n">
-        <v>0.00300829771122991</v>
-      </c>
-      <c r="C55" s="3" t="s">
+      <c r="A55" s="4" t="n">
+        <v>3.57454702108591E-006</v>
+      </c>
+      <c r="B55" s="4" t="n">
+        <v>0.0388487377964991</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>66</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>0.466</v>
+        <v>0.355</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>0.124</v>
+        <v>0.12</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="n">
-        <v>2.22305235306986E-006</v>
-      </c>
-      <c r="B56" s="3" t="n">
-        <v>0.000542096462785538</v>
-      </c>
-      <c r="C56" s="3" t="s">
+      <c r="A56" s="4" t="n">
+        <v>1.03832710303222E-006</v>
+      </c>
+      <c r="B56" s="4" t="n">
+        <v>0.00300829771122991</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>67</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>0.334</v>
+        <v>0.466</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>0.124</v>
       </c>
       <c r="G56" s="0" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="4" t="n">
+        <v>2.22305235306986E-006</v>
+      </c>
+      <c r="B57" s="4" t="n">
+        <v>0.000542096462785538</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>0.334</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="G57" s="0" t="n">
         <v>0.73</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="E59" s="0" t="s">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="0" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="E60" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="B61" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="0" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="s">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B64" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="B65" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="C65" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="D65" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="E65" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="F65" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="G65" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I64" s="2" t="s">
+      <c r="H65" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="B65" s="0" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="D65" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E65" s="0" t="n">
-        <v>0.453</v>
-      </c>
-      <c r="F65" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="G65" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" s="0" t="s">
-        <v>73</v>
+      <c r="I65" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="B66" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>0.453</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="G66" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="I66" s="0" t="s">
         <v>74</v>
-      </c>
-      <c r="D66" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E66" s="0" t="n">
-        <v>95.248</v>
-      </c>
-      <c r="F66" s="0" t="n">
-        <v>0.039</v>
-      </c>
-      <c r="G66" s="0" t="n">
-        <v>0.99999</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>0</v>
@@ -1733,18 +1842,18 @@
         <v>1</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>0.075</v>
+        <v>95.248</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>0.12</v>
+        <v>0.039</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>0.29</v>
+        <v>0.99999</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
-        <v>1E-005</v>
+        <v>0.0001</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>0</v>
@@ -1753,21 +1862,21 @@
         <v>76</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>0.209</v>
+        <v>0.075</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>0.121</v>
+        <v>0.12</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>0.51</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
-        <v>1E-006</v>
+        <v>1E-005</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>0</v>
@@ -1776,21 +1885,21 @@
         <v>77</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>0.335</v>
+        <v>0.209</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>0.104</v>
+        <v>0.121</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>0.77</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
-        <v>0</v>
+        <v>1E-006</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>0</v>
@@ -1799,86 +1908,617 @@
         <v>78</v>
       </c>
       <c r="D70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="G70" s="0" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D71" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E70" s="0" t="n">
+      <c r="E71" s="0" t="n">
         <v>0.611</v>
       </c>
-      <c r="F70" s="0" t="n">
+      <c r="F71" s="0" t="n">
         <v>0.015</v>
       </c>
-      <c r="G70" s="0" t="n">
+      <c r="G71" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I70" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="s">
+      <c r="I71" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <v>4E-006</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D75" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="E75" s="0" t="n">
+        <v>0.1805</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="G75" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I75" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="B81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="C81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="D81" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="E81" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="F81" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="G81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I73" s="2" t="s">
+      <c r="H81" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
-        <v>4E-006</v>
-      </c>
-      <c r="B74" s="0" t="n">
-        <v>0.0008</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="D74" s="0" t="n">
+      <c r="I81" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="4" t="n">
+        <v>2.37212430659094E-006</v>
+      </c>
+      <c r="B82" s="4" t="n">
+        <v>0.000153030184042259</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D82" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I74" s="0" t="s">
-        <v>82</v>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="4" t="n">
+        <v>2.92658784954665E-006</v>
+      </c>
+      <c r="B83" s="4" t="n">
+        <v>0.613281671174882</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D83" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="4" t="n">
+        <v>3.11925888328523E-006</v>
+      </c>
+      <c r="B84" s="4" t="n">
+        <v>0.00083424047044789</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D84" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="4" t="n">
+        <v>4.64086009894884E-006</v>
+      </c>
+      <c r="B85" s="4" t="n">
+        <v>0.00145975149652255</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="4" t="n">
+        <v>1.1194751961652E-005</v>
+      </c>
+      <c r="B86" s="4" t="n">
+        <v>0.00214462479812596</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D86" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="4" t="n">
+        <v>2.11350915659449E-005</v>
+      </c>
+      <c r="B87" s="4" t="n">
+        <v>0.00204027518128024</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D87" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="4" t="n">
+        <v>2.12620565819161E-005</v>
+      </c>
+      <c r="B88" s="4" t="n">
+        <v>2.2261234522861</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D88" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="4" t="n">
+        <v>5.92481787389536E-005</v>
+      </c>
+      <c r="B89" s="4" t="n">
+        <v>0.00363581666441528</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D89" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="4" t="n">
+        <v>0.000148517666259164</v>
+      </c>
+      <c r="B90" s="4" t="n">
+        <v>0.385037978791714</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D90" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="4" t="n">
+        <v>0.000323225345060388</v>
+      </c>
+      <c r="B91" s="4" t="n">
+        <v>0.046693736064734</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D91" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="4" t="n">
+        <v>0.000451800495706413</v>
+      </c>
+      <c r="B92" s="4" t="n">
+        <v>0.162706410105612</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D92" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="4" t="n">
+        <v>0.000543602270696939</v>
+      </c>
+      <c r="B93" s="4" t="n">
+        <v>0.000189095715104318</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D93" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="4" t="n">
+        <v>0.00070086575351308</v>
+      </c>
+      <c r="B94" s="4" t="n">
+        <v>1.13708526519229</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D94" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="4" t="n">
+        <v>0.000712802041515683</v>
+      </c>
+      <c r="B95" s="4" t="n">
+        <v>0.00657401455755455</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D95" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="4" t="n">
+        <v>0.00169493204815662</v>
+      </c>
+      <c r="B96" s="4" t="n">
+        <v>0.457935644905112</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D96" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="4" t="n">
+        <v>0.00491753848006796</v>
+      </c>
+      <c r="B97" s="4" t="n">
+        <v>0.0299086467558126</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D97" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="4" t="n">
+        <v>0.009730199540858</v>
+      </c>
+      <c r="B98" s="4" t="n">
+        <v>1.35138015113964</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D98" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="4" t="n">
+        <v>0.0158543493861949</v>
+      </c>
+      <c r="B99" s="4" t="n">
+        <v>0.132421974305338</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D99" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="4" t="n">
+        <v>0.0180511461759123</v>
+      </c>
+      <c r="B100" s="4" t="n">
+        <v>1.98269006319899</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D100" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="4" t="n">
+        <v>0.0193203812430167</v>
+      </c>
+      <c r="B101" s="4" t="n">
+        <v>3.39161236924989</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D101" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="4" t="n">
+        <v>0.0222714925955284</v>
+      </c>
+      <c r="B102" s="4" t="n">
+        <v>0.0017523256961147</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D102" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="4" t="n">
+        <v>0.0269112799731758</v>
+      </c>
+      <c r="B103" s="4" t="n">
+        <v>0.448429759066528</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D103" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="4" t="n">
+        <v>0.0377989110124175</v>
+      </c>
+      <c r="B104" s="4" t="n">
+        <v>0.00467719681179643</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="4" t="n">
+        <v>0.0387401858288901</v>
+      </c>
+      <c r="B105" s="4" t="n">
+        <v>0.0496849799771728</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D105" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="4" t="n">
+        <v>0.0459692784925322</v>
+      </c>
+      <c r="B106" s="4" t="n">
+        <v>0.00730849961283516</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D106" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="4" t="n">
+        <v>0.0474653008731745</v>
+      </c>
+      <c r="B107" s="4" t="n">
+        <v>0.357772344667488</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D107" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="4" t="n">
+        <v>0.0603076215584433</v>
+      </c>
+      <c r="B108" s="4" t="n">
+        <v>1.78066366225851</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="D108" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="4" t="n">
+        <v>0.0634249901948429</v>
+      </c>
+      <c r="B109" s="4" t="n">
+        <v>0.510827647752</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D109" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="4" t="n">
+        <v>0.0678888345825249</v>
+      </c>
+      <c r="B110" s="4" t="n">
+        <v>0.00185294947891615</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D110" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="4" t="n">
+        <v>0.0861665111475394</v>
+      </c>
+      <c r="B111" s="4" t="n">
+        <v>2.84541673997607</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="D111" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A40:I40"/>
-    <mergeCell ref="A63:I63"/>
-    <mergeCell ref="A72:I72"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A64:I64"/>
+    <mergeCell ref="A73:I73"/>
+    <mergeCell ref="A79:I79"/>
+    <mergeCell ref="A80:I80"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/experiments/hyperparameters/hyperparemeter_search.xlsx
+++ b/experiments/hyperparameters/hyperparemeter_search.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="174" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="349" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="119">
   <si>
     <t>EXPERIMENT 1</t>
   </si>
@@ -266,7 +266,7 @@
     <t>run52</t>
   </si>
   <si>
-    <t>Alpha divided by 10 after 30 epochs, and then again after 10 epochs</t>
+    <t>Alpha divided by 10 at epoch 30, and again at epoch 40</t>
   </si>
   <si>
     <t>EXPERIMENT 2</t>
@@ -294,6 +294,9 @@
   </si>
   <si>
     <t>run59</t>
+  </si>
+  <si>
+    <t>converges to same point</t>
   </si>
   <si>
     <t>run60</t>
@@ -450,7 +453,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -469,10 +472,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -494,8 +493,8 @@
   </sheetPr>
   <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F110" activeCellId="0" sqref="F110"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C77" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D77" activeCellId="0" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2015,30 +2014,30 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
@@ -2082,6 +2081,15 @@
       <c r="D82" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="E82" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="G82" s="0" t="n">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="n">
@@ -2096,6 +2104,15 @@
       <c r="D83" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="E83" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F83" s="0" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="G83" s="0" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="n">
@@ -2110,6 +2127,15 @@
       <c r="D84" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="E84" s="0" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="F84" s="0" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="G84" s="0" t="n">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="n">
@@ -2124,6 +2150,15 @@
       <c r="D85" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="E85" s="0" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="F85" s="0" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G85" s="0" t="n">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="n">
@@ -2138,6 +2173,15 @@
       <c r="D86" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="E86" s="0" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="F86" s="0" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G86" s="0" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="n">
@@ -2152,6 +2196,15 @@
       <c r="D87" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="E87" s="0" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="F87" s="0" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="G87" s="0" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="n">
@@ -2166,6 +2219,21 @@
       <c r="D88" s="0" t="n">
         <v>7</v>
       </c>
+      <c r="E88" s="0" t="n">
+        <v>0.071</v>
+      </c>
+      <c r="F88" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G88" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H88" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I88" s="0" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="n">
@@ -2175,10 +2243,19 @@
         <v>0.00363581666441528</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>8</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="F89" s="0" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="G89" s="0" t="n">
+        <v>0.54</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2189,10 +2266,16 @@
         <v>0.385037978791714</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>9</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="I90" s="0" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2203,10 +2286,16 @@
         <v>0.046693736064734</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="I91" s="0" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2217,10 +2306,22 @@
         <v>0.162706410105612</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>11</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="F92" s="0" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="G92" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I92" s="0" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2231,10 +2332,19 @@
         <v>0.000189095715104318</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>12</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="F93" s="0" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="G93" s="0" t="n">
+        <v>0.66</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2245,7 +2355,7 @@
         <v>1.13708526519229</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>13</v>
@@ -2259,7 +2369,7 @@
         <v>0.00657401455755455</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>14</v>
@@ -2273,7 +2383,7 @@
         <v>0.457935644905112</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>15</v>
@@ -2287,7 +2397,7 @@
         <v>0.0299086467558126</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>1</v>
@@ -2301,7 +2411,7 @@
         <v>1.35138015113964</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>2</v>
@@ -2315,7 +2425,7 @@
         <v>0.132421974305338</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>3</v>
@@ -2329,7 +2439,7 @@
         <v>1.98269006319899</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>4</v>
@@ -2343,7 +2453,7 @@
         <v>3.39161236924989</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>5</v>
@@ -2357,7 +2467,7 @@
         <v>0.0017523256961147</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>6</v>
@@ -2371,7 +2481,7 @@
         <v>0.448429759066528</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>7</v>
@@ -2385,7 +2495,7 @@
         <v>0.00467719681179643</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>8</v>
@@ -2399,7 +2509,7 @@
         <v>0.0496849799771728</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>9</v>
@@ -2413,7 +2523,7 @@
         <v>0.00730849961283516</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>10</v>
@@ -2427,7 +2537,7 @@
         <v>0.357772344667488</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>11</v>
@@ -2441,7 +2551,7 @@
         <v>1.78066366225851</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>12</v>
@@ -2455,7 +2565,7 @@
         <v>0.510827647752</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>13</v>
@@ -2469,7 +2579,7 @@
         <v>0.00185294947891615</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>14</v>
@@ -2483,7 +2593,7 @@
         <v>2.84541673997607</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>15</v>
@@ -2499,7 +2609,7 @@
         <v>48</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2507,7 +2617,7 @@
         <v>3</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/experiments/hyperparameters/hyperparemeter_search.xlsx
+++ b/experiments/hyperparameters/hyperparemeter_search.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="126">
   <si>
     <t>EXPERIMENT 1</t>
   </si>
@@ -332,6 +332,9 @@
     <t>run70</t>
   </si>
   <si>
+    <t>DIVERGED/ Odd bump in training (probably overflow)</t>
+  </si>
+  <si>
     <t>run71</t>
   </si>
   <si>
@@ -371,7 +374,25 @@
     <t>10 .^ unifrnd(-6,-1,30,1)</t>
   </si>
   <si>
+    <t>High lambda causes convergence to same point</t>
+  </si>
+  <si>
     <t>10 .^ unifrnd(-4, 1, 30, 1)</t>
+  </si>
+  <si>
+    <t>High alpha causes divergence</t>
+  </si>
+  <si>
+    <t>run83</t>
+  </si>
+  <si>
+    <t>EXPERIMENT 2.5</t>
+  </si>
+  <si>
+    <t>run84</t>
+  </si>
+  <si>
+    <t>Network with 0.96/0.04 loss weights</t>
   </si>
 </sst>
 </file>
@@ -491,10 +512,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I115"/>
+  <dimension ref="A1:I123"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C77" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D77" activeCellId="0" sqref="D77"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B87" activeCellId="0" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2274,6 +2295,15 @@
       <c r="E90" s="0" t="n">
         <v>0.046</v>
       </c>
+      <c r="F90" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G90" s="0" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H90" s="0" t="s">
+        <v>12</v>
+      </c>
       <c r="I90" s="0" t="s">
         <v>93</v>
       </c>
@@ -2294,6 +2324,12 @@
       <c r="E91" s="0" t="n">
         <v>0.042</v>
       </c>
+      <c r="F91" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G91" s="0" t="n">
+        <v>0.11</v>
+      </c>
       <c r="I91" s="0" t="s">
         <v>93</v>
       </c>
@@ -2360,6 +2396,18 @@
       <c r="D94" s="0" t="n">
         <v>13</v>
       </c>
+      <c r="E94" s="0" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="F94" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G94" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I94" s="0" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="n">
@@ -2374,6 +2422,18 @@
       <c r="D95" s="0" t="n">
         <v>14</v>
       </c>
+      <c r="E95" s="0" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="F95" s="0" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="G95" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I95" s="0" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="n">
@@ -2388,6 +2448,18 @@
       <c r="D96" s="0" t="n">
         <v>15</v>
       </c>
+      <c r="E96" s="0" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="F96" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G96" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I96" s="0" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="n">
@@ -2402,6 +2474,18 @@
       <c r="D97" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="E97" s="0" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="F97" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G97" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I97" s="0" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="n">
@@ -2416,6 +2500,18 @@
       <c r="D98" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="E98" s="0" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="F98" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G98" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I98" s="0" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="n">
@@ -2430,6 +2526,21 @@
       <c r="D99" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="E99" s="4" t="n">
+        <v>380000000</v>
+      </c>
+      <c r="F99" s="0" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="G99" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H99" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I99" s="0" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="n">
@@ -2439,10 +2550,22 @@
         <v>1.98269006319899</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>4</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="F100" s="0" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="G100" s="0" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I100" s="0" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2453,10 +2576,22 @@
         <v>3.39161236924989</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>5</v>
+      </c>
+      <c r="E101" s="0" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="F101" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G101" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I101" s="0" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2467,10 +2602,22 @@
         <v>0.0017523256961147</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>6</v>
+      </c>
+      <c r="E102" s="4" t="n">
+        <v>43400000000</v>
+      </c>
+      <c r="F102" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G102" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" s="0" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2481,10 +2628,25 @@
         <v>0.448429759066528</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>7</v>
+      </c>
+      <c r="E103" s="4" t="n">
+        <v>1930000000</v>
+      </c>
+      <c r="F103" s="0" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="G103" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H103" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I103" s="0" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2495,10 +2657,25 @@
         <v>0.00467719681179643</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>8</v>
+      </c>
+      <c r="E104" s="4" t="n">
+        <v>636000000000</v>
+      </c>
+      <c r="F104" s="0" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G104" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H104" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I104" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2509,10 +2686,22 @@
         <v>0.0496849799771728</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>9</v>
+      </c>
+      <c r="E105" s="4" t="n">
+        <v>18400000000000</v>
+      </c>
+      <c r="F105" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="I105" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2523,10 +2712,25 @@
         <v>0.00730849961283516</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="E106" s="4" t="n">
+        <v>1040000000000</v>
+      </c>
+      <c r="F106" s="0" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="G106" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H106" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I106" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2537,10 +2741,22 @@
         <v>0.357772344667488</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>11</v>
+      </c>
+      <c r="E107" s="4" t="n">
+        <v>454000000000000</v>
+      </c>
+      <c r="F107" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="I107" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2551,10 +2767,22 @@
         <v>1.78066366225851</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>12</v>
+      </c>
+      <c r="E108" s="4" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="F108" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G108" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2565,10 +2793,25 @@
         <v>0.510827647752</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="E109" s="4" t="n">
+        <v>11100000000000</v>
+      </c>
+      <c r="F109" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G109" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H109" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I109" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2579,10 +2822,22 @@
         <v>0.00185294947891615</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="E110" s="4" t="n">
+        <v>1700000000000000</v>
+      </c>
+      <c r="F110" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G110" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2593,10 +2848,25 @@
         <v>2.84541673997607</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="E111" s="4" t="n">
+        <v>68200000000000</v>
+      </c>
+      <c r="F111" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G111" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="I111" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2609,7 +2879,10 @@
         <v>48</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="G114" s="0" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2617,11 +2890,129 @@
         <v>3</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
+      </c>
+      <c r="G115" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="n">
+        <v>3E-005</v>
+      </c>
+      <c r="B119" s="0" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D119" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="n">
+        <v>3E-005</v>
+      </c>
+      <c r="B123" s="0" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D123" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I123" s="0" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A41:I41"/>
@@ -2629,6 +3020,8 @@
     <mergeCell ref="A73:I73"/>
     <mergeCell ref="A79:I79"/>
     <mergeCell ref="A80:I80"/>
+    <mergeCell ref="A117:I117"/>
+    <mergeCell ref="A121:I121"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/experiments/hyperparameters/hyperparemeter_search.xlsx
+++ b/experiments/hyperparameters/hyperparemeter_search.xlsx
@@ -514,8 +514,8 @@
   </sheetPr>
   <dimension ref="A1:I123"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B87" activeCellId="0" sqref="B87"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B95" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E123" activeCellId="0" sqref="E123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2951,6 +2951,15 @@
       <c r="D119" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="E119" s="0" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="F119" s="0" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="G119" s="0" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
@@ -3006,6 +3015,15 @@
       </c>
       <c r="D123" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="E123" s="0" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="F123" s="0" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="G123" s="0" t="n">
+        <v>0.67</v>
       </c>
       <c r="I123" s="0" t="s">
         <v>125</v>

--- a/experiments/hyperparameters/hyperparemeter_search.xlsx
+++ b/experiments/hyperparameters/hyperparemeter_search.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="349" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="174" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="160">
   <si>
     <t>EXPERIMENT 1</t>
   </si>
@@ -393,6 +393,108 @@
   </si>
   <si>
     <t>Network with 0.96/0.04 loss weights</t>
+  </si>
+  <si>
+    <t>EXPERIMENT 3</t>
+  </si>
+  <si>
+    <t>HYPERPARAMETER SEARCH 5</t>
+  </si>
+  <si>
+    <t>run85</t>
+  </si>
+  <si>
+    <t>run86</t>
+  </si>
+  <si>
+    <t>run87</t>
+  </si>
+  <si>
+    <t>run88</t>
+  </si>
+  <si>
+    <t>run89</t>
+  </si>
+  <si>
+    <t>run90</t>
+  </si>
+  <si>
+    <t>run91</t>
+  </si>
+  <si>
+    <t>run92</t>
+  </si>
+  <si>
+    <t>run93</t>
+  </si>
+  <si>
+    <t>run94</t>
+  </si>
+  <si>
+    <t>run95</t>
+  </si>
+  <si>
+    <t>run96</t>
+  </si>
+  <si>
+    <t>run97</t>
+  </si>
+  <si>
+    <t>run98</t>
+  </si>
+  <si>
+    <t>run99</t>
+  </si>
+  <si>
+    <t>run100</t>
+  </si>
+  <si>
+    <t>run101</t>
+  </si>
+  <si>
+    <t>run102</t>
+  </si>
+  <si>
+    <t>run103</t>
+  </si>
+  <si>
+    <t>run104</t>
+  </si>
+  <si>
+    <t>run105</t>
+  </si>
+  <si>
+    <t>run106</t>
+  </si>
+  <si>
+    <t>run107</t>
+  </si>
+  <si>
+    <t>run108</t>
+  </si>
+  <si>
+    <t>run109</t>
+  </si>
+  <si>
+    <t>run110</t>
+  </si>
+  <si>
+    <t>run111</t>
+  </si>
+  <si>
+    <t>run112</t>
+  </si>
+  <si>
+    <t>run113</t>
+  </si>
+  <si>
+    <t>run114</t>
+  </si>
+  <si>
+    <t>10 .^ unifrnd(-6,-2,30,1)</t>
+  </si>
+  <si>
+    <t>10 .^ unifrnd(-5, 0, 30, 1)</t>
   </si>
 </sst>
 </file>
@@ -512,10 +614,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I123"/>
+  <dimension ref="A1:I165"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B95" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E123" activeCellId="0" sqref="E123"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A110" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E155" activeCellId="0" sqref="E155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3029,8 +3131,557 @@
         <v>125</v>
       </c>
     </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="4" t="n">
+        <v>1.5654E-006</v>
+      </c>
+      <c r="B129" s="4" t="n">
+        <v>0.26921</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D129" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E129" s="4"/>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="4" t="n">
+        <v>3.5554E-006</v>
+      </c>
+      <c r="B130" s="4" t="n">
+        <v>3.0387E-005</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D130" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="4" t="n">
+        <v>1.1537E-005</v>
+      </c>
+      <c r="B131" s="4" t="n">
+        <v>0.2741</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D131" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E131" s="4"/>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="4" t="n">
+        <v>1.1713E-005</v>
+      </c>
+      <c r="B132" s="4" t="n">
+        <v>0.00073872</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D132" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="4" t="n">
+        <v>1.3078E-005</v>
+      </c>
+      <c r="B133" s="4" t="n">
+        <v>5.5114E-005</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D133" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="4" t="n">
+        <v>1.6275E-005</v>
+      </c>
+      <c r="B134" s="4" t="n">
+        <v>7.581E-005</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D134" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="4" t="n">
+        <v>1.8201E-005</v>
+      </c>
+      <c r="B135" s="4" t="n">
+        <v>5.0484E-005</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="D135" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E135" s="4"/>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="4" t="n">
+        <v>2.0148E-005</v>
+      </c>
+      <c r="B136" s="4" t="n">
+        <v>0.0012329</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D136" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E136" s="4"/>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="4" t="n">
+        <v>2.2684E-005</v>
+      </c>
+      <c r="B137" s="4" t="n">
+        <v>0.0007946</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D137" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="4" t="n">
+        <v>3.361E-005</v>
+      </c>
+      <c r="B138" s="4" t="n">
+        <v>0.00052887</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D138" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="4" t="n">
+        <v>3.8006E-005</v>
+      </c>
+      <c r="B139" s="4" t="n">
+        <v>0.00048127</v>
+      </c>
+      <c r="C139" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D139" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="4" t="n">
+        <v>4.0787E-005</v>
+      </c>
+      <c r="B140" s="4" t="n">
+        <v>0.001023</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="D140" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="4" t="n">
+        <v>4.1844E-005</v>
+      </c>
+      <c r="B141" s="4" t="n">
+        <v>0.00084802</v>
+      </c>
+      <c r="C141" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="D141" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="4" t="n">
+        <v>6.5612E-005</v>
+      </c>
+      <c r="B142" s="4" t="n">
+        <v>0.003607</v>
+      </c>
+      <c r="C142" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="D142" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="4" t="n">
+        <v>6.827E-005</v>
+      </c>
+      <c r="B143" s="4" t="n">
+        <v>0.18602</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="D143" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="4" t="n">
+        <v>0.00011998</v>
+      </c>
+      <c r="B144" s="4" t="n">
+        <v>0.045356</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D144" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="4" t="n">
+        <v>0.000143</v>
+      </c>
+      <c r="B145" s="4" t="n">
+        <v>0.00028769</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="D145" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E145" s="4"/>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="4" t="n">
+        <v>0.00025927</v>
+      </c>
+      <c r="B146" s="4" t="n">
+        <v>0.00014377</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D146" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="4" t="n">
+        <v>0.00037919</v>
+      </c>
+      <c r="B147" s="4" t="n">
+        <v>0.0029846</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D147" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E147" s="4"/>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="4" t="n">
+        <v>0.00039582</v>
+      </c>
+      <c r="B148" s="4" t="n">
+        <v>0.027861</v>
+      </c>
+      <c r="C148" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D148" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E148" s="4"/>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="4" t="n">
+        <v>0.00055286</v>
+      </c>
+      <c r="B149" s="4" t="n">
+        <v>0.13127</v>
+      </c>
+      <c r="C149" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D149" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="4" t="n">
+        <v>0.0016262</v>
+      </c>
+      <c r="B150" s="4" t="n">
+        <v>2.8017E-005</v>
+      </c>
+      <c r="C150" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="D150" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="4" t="n">
+        <v>0.0016451</v>
+      </c>
+      <c r="B151" s="4" t="n">
+        <v>0.01021</v>
+      </c>
+      <c r="C151" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="D151" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E151" s="4"/>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="4" t="n">
+        <v>0.0018396</v>
+      </c>
+      <c r="B152" s="4" t="n">
+        <v>0.004497</v>
+      </c>
+      <c r="C152" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D152" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E152" s="4"/>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="4" t="n">
+        <v>0.0021531</v>
+      </c>
+      <c r="B153" s="4" t="n">
+        <v>0.0044713</v>
+      </c>
+      <c r="C153" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D153" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="4" t="n">
+        <v>0.00378</v>
+      </c>
+      <c r="B154" s="4" t="n">
+        <v>0.19318</v>
+      </c>
+      <c r="C154" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="D154" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="4" t="n">
+        <v>0.0037956</v>
+      </c>
+      <c r="B155" s="4" t="n">
+        <v>0.0014238</v>
+      </c>
+      <c r="C155" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="D155" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="4" t="n">
+        <v>0.0044606</v>
+      </c>
+      <c r="B156" s="4" t="n">
+        <v>0.11008</v>
+      </c>
+      <c r="C156" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D156" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E156" s="4"/>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="4" t="n">
+        <v>0.0058469</v>
+      </c>
+      <c r="B157" s="4" t="n">
+        <v>9.3986E-005</v>
+      </c>
+      <c r="C157" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="D157" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E157" s="4"/>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="4" t="n">
+        <v>0.0094124</v>
+      </c>
+      <c r="B158" s="4" t="n">
+        <v>4.3753E-005</v>
+      </c>
+      <c r="C158" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D158" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B160" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2"/>
+      <c r="H164" s="2"/>
+      <c r="I164" s="2"/>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I165" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A41:I41"/>
@@ -3040,6 +3691,9 @@
     <mergeCell ref="A80:I80"/>
     <mergeCell ref="A117:I117"/>
     <mergeCell ref="A121:I121"/>
+    <mergeCell ref="A126:I126"/>
+    <mergeCell ref="A127:I127"/>
+    <mergeCell ref="A164:I164"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/experiments/hyperparameters/hyperparemeter_search.xlsx
+++ b/experiments/hyperparameters/hyperparemeter_search.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="164">
   <si>
     <t>EXPERIMENT 1</t>
   </si>
@@ -482,6 +482,9 @@
     <t>run111</t>
   </si>
   <si>
+    <t>higher</t>
+  </si>
+  <si>
     <t>run112</t>
   </si>
   <si>
@@ -491,10 +494,19 @@
     <t>run114</t>
   </si>
   <si>
+    <t>Notes:</t>
+  </si>
+  <si>
     <t>10 .^ unifrnd(-6,-2,30,1)</t>
   </si>
   <si>
+    <t>For plots deleted points with 6 highest alphas or 6 highest lambdas (if repreated)</t>
+  </si>
+  <si>
     <t>10 .^ unifrnd(-5, 0, 30, 1)</t>
+  </si>
+  <si>
+    <t>run115</t>
   </si>
 </sst>
 </file>
@@ -614,10 +626,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I165"/>
+  <dimension ref="A1:I166"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A110" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E155" activeCellId="0" sqref="E155"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A131" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D166" activeCellId="0" sqref="D166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2874,7 +2886,7 @@
       <c r="D108" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E108" s="4" t="n">
+      <c r="E108" s="0" t="n">
         <v>7.74</v>
       </c>
       <c r="F108" s="0" t="n">
@@ -3199,7 +3211,15 @@
       <c r="D129" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E129" s="4"/>
+      <c r="E129" s="0" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="F129" s="0" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G129" s="0" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="4" t="n">
@@ -3214,6 +3234,15 @@
       <c r="D130" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="E130" s="0" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="F130" s="0" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="G130" s="0" t="n">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="4" t="n">
@@ -3228,7 +3257,15 @@
       <c r="D131" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E131" s="4"/>
+      <c r="E131" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F131" s="0" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="G131" s="0" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="n">
@@ -3243,6 +3280,15 @@
       <c r="D132" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="E132" s="0" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="F132" s="0" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="G132" s="0" t="n">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="n">
@@ -3257,6 +3303,15 @@
       <c r="D133" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="E133" s="0" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="F133" s="0" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="G133" s="0" t="n">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="n">
@@ -3271,6 +3326,15 @@
       <c r="D134" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="E134" s="0" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="F134" s="0" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="G134" s="0" t="n">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="n">
@@ -3285,7 +3349,15 @@
       <c r="D135" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E135" s="4"/>
+      <c r="E135" s="0" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="F135" s="0" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="G135" s="0" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="n">
@@ -3300,7 +3372,15 @@
       <c r="D136" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E136" s="4"/>
+      <c r="E136" s="0" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="F136" s="0" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="G136" s="0" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="4" t="n">
@@ -3315,6 +3395,15 @@
       <c r="D137" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="E137" s="0" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="F137" s="0" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="G137" s="0" t="n">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="4" t="n">
@@ -3329,6 +3418,15 @@
       <c r="D138" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="E138" s="0" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="F138" s="0" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G138" s="0" t="n">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="4" t="n">
@@ -3343,6 +3441,15 @@
       <c r="D139" s="0" t="n">
         <v>11</v>
       </c>
+      <c r="E139" s="0" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="F139" s="0" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="G139" s="0" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="n">
@@ -3357,6 +3464,15 @@
       <c r="D140" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="E140" s="0" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F140" s="0" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="G140" s="0" t="n">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="4" t="n">
@@ -3371,6 +3487,15 @@
       <c r="D141" s="0" t="n">
         <v>13</v>
       </c>
+      <c r="E141" s="0" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="F141" s="0" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="G141" s="0" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="4" t="n">
@@ -3385,6 +3510,15 @@
       <c r="D142" s="0" t="n">
         <v>14</v>
       </c>
+      <c r="E142" s="0" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="F142" s="0" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="G142" s="0" t="n">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="4" t="n">
@@ -3399,6 +3533,18 @@
       <c r="D143" s="0" t="n">
         <v>15</v>
       </c>
+      <c r="E143" s="0" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="F143" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G143" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I143" s="0" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="4" t="n">
@@ -3413,6 +3559,18 @@
       <c r="D144" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="E144" s="0" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="F144" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G144" s="0" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I144" s="0" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="4" t="n">
@@ -3427,7 +3585,15 @@
       <c r="D145" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E145" s="4"/>
+      <c r="E145" s="0" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="F145" s="0" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="G145" s="0" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="4" t="n">
@@ -3442,6 +3608,15 @@
       <c r="D146" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="E146" s="0" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="F146" s="0" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="G146" s="0" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="4" t="n">
@@ -3456,7 +3631,15 @@
       <c r="D147" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E147" s="4"/>
+      <c r="E147" s="0" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="F147" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G147" s="0" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="4" t="n">
@@ -3471,7 +3654,18 @@
       <c r="D148" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E148" s="4"/>
+      <c r="E148" s="0" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="F148" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G148" s="0" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I148" s="0" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="4" t="n">
@@ -3486,6 +3680,18 @@
       <c r="D149" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="E149" s="0" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="F149" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G149" s="0" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I149" s="0" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="4" t="n">
@@ -3500,6 +3706,15 @@
       <c r="D150" s="0" t="n">
         <v>7</v>
       </c>
+      <c r="E150" s="0" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F150" s="0" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="G150" s="0" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="4" t="n">
@@ -3514,7 +3729,18 @@
       <c r="D151" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E151" s="4"/>
+      <c r="E151" s="0" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="F151" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G151" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I151" s="0" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="4" t="n">
@@ -3529,7 +3755,15 @@
       <c r="D152" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E152" s="4"/>
+      <c r="E152" s="0" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="F152" s="0" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="G152" s="0" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="4" t="n">
@@ -3544,6 +3778,18 @@
       <c r="D153" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="E153" s="0" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="F153" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G153" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I153" s="0" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="4" t="n">
@@ -3558,6 +3804,18 @@
       <c r="D154" s="0" t="n">
         <v>11</v>
       </c>
+      <c r="E154" s="0" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="F154" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G154" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I154" s="0" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="4" t="n">
@@ -3572,6 +3830,21 @@
       <c r="D155" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="E155" s="0" t="n">
+        <v>162.36</v>
+      </c>
+      <c r="F155" s="0" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="G155" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H155" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="I155" s="0" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="4" t="n">
@@ -3581,12 +3854,23 @@
         <v>0.11008</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D156" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E156" s="4"/>
+      <c r="E156" s="0" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="F156" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G156" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I156" s="0" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="4" t="n">
@@ -3596,12 +3880,26 @@
         <v>9.3986E-005</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="E157" s="4"/>
+      <c r="E157" s="0" t="n">
+        <v>2443.44</v>
+      </c>
+      <c r="F157" s="0" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="G157" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H157" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="I157" s="0" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="4" t="n">
@@ -3611,23 +3909,44 @@
         <v>4.3753E-005</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>15</v>
+      </c>
+      <c r="E158" s="0" t="n">
+        <v>174586</v>
+      </c>
+      <c r="F158" s="0" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="G158" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H158" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="I158" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B160" s="0" t="s">
         <v>46</v>
       </c>
+      <c r="G160" s="0" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
         <v>48</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
+      </c>
+      <c r="G161" s="0" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3635,7 +3954,7 @@
         <v>3</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3678,6 +3997,20 @@
       </c>
       <c r="I165" s="3" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="n">
+        <v>4E-005</v>
+      </c>
+      <c r="B166" s="0" t="n">
+        <v>7E-005</v>
+      </c>
+      <c r="C166" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="D166" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/experiments/hyperparameters/hyperparemeter_search.xlsx
+++ b/experiments/hyperparameters/hyperparemeter_search.xlsx
@@ -629,7 +629,7 @@
   <dimension ref="A1:I166"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A131" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D166" activeCellId="0" sqref="D166"/>
+      <selection pane="topLeft" activeCell="F163" activeCellId="0" sqref="F163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4011,6 +4011,15 @@
       </c>
       <c r="D166" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E166" s="0" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="F166" s="0" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="G166" s="0" t="n">
+        <v>0.58</v>
       </c>
     </row>
   </sheetData>

--- a/experiments/hyperparameters/hyperparemeter_search.xlsx
+++ b/experiments/hyperparameters/hyperparemeter_search.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="174" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="348" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="161">
   <si>
     <t>EXPERIMENT 1</t>
   </si>
@@ -44,7 +44,10 @@
     <t>Best Threshold</t>
   </si>
   <si>
-    <t>Threshold selection</t>
+    <t>IOU2</t>
+  </si>
+  <si>
+    <t>Thresh2</t>
   </si>
   <si>
     <t>Notes</t>
@@ -53,18 +56,12 @@
     <t>run1</t>
   </si>
   <si>
-    <t>Higher</t>
-  </si>
-  <si>
     <t>run2</t>
   </si>
   <si>
     <t>run3</t>
   </si>
   <si>
-    <t>Only one</t>
-  </si>
-  <si>
     <t>run4</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
     <t>run17</t>
   </si>
   <si>
-    <t>Lower</t>
-  </si>
-  <si>
     <t>run18</t>
   </si>
   <si>
@@ -140,9 +134,6 @@
     <t>run26</t>
   </si>
   <si>
-    <t>All</t>
-  </si>
-  <si>
     <t>run27</t>
   </si>
   <si>
@@ -167,7 +158,7 @@
     <t>10 .^ unifrnd(-6,0,30,1)</t>
   </si>
   <si>
-    <t>IOU 0.01514 is the product of predicting the entire image as 1 (low threshold)</t>
+    <t>IOU 0.015  is the product of predicting the entire image as 1 (low threshold)</t>
   </si>
   <si>
     <t>10 .^ unifrnd(-3, 3, 30, 1)</t>
@@ -179,51 +170,51 @@
     <t>HYPERPARAMETER SEARCH 2</t>
   </si>
   <si>
+    <t>run31</t>
+  </si>
+  <si>
+    <t>run32</t>
+  </si>
+  <si>
+    <t>run33</t>
+  </si>
+  <si>
+    <t>run34</t>
+  </si>
+  <si>
+    <t>run35</t>
+  </si>
+  <si>
+    <t>run36</t>
+  </si>
+  <si>
+    <t>run37</t>
+  </si>
+  <si>
+    <t>run38</t>
+  </si>
+  <si>
+    <t>run39</t>
+  </si>
+  <si>
+    <t>run40</t>
+  </si>
+  <si>
+    <t>run41</t>
+  </si>
+  <si>
+    <t>run42</t>
+  </si>
+  <si>
     <t>run43</t>
   </si>
   <si>
     <t>run44</t>
   </si>
   <si>
-    <t>run32</t>
-  </si>
-  <si>
-    <t>run33</t>
-  </si>
-  <si>
-    <t>run34</t>
-  </si>
-  <si>
-    <t>run36</t>
-  </si>
-  <si>
     <t>run45</t>
   </si>
   <si>
-    <t>run35</t>
-  </si>
-  <si>
-    <t>run41</t>
-  </si>
-  <si>
-    <t>run42</t>
-  </si>
-  <si>
-    <t>run40</t>
-  </si>
-  <si>
-    <t>run38</t>
-  </si>
-  <si>
-    <t>run39</t>
-  </si>
-  <si>
-    <t>run31</t>
-  </si>
-  <si>
-    <t>run37</t>
-  </si>
-  <si>
     <t>10 .^ unifrnd(-6,-4,15,1)</t>
   </si>
   <si>
@@ -386,6 +377,9 @@
     <t>run83</t>
   </si>
   <si>
+    <t>run116</t>
+  </si>
+  <si>
     <t>EXPERIMENT 2.5</t>
   </si>
   <si>
@@ -480,9 +474,6 @@
   </si>
   <si>
     <t>run111</t>
-  </si>
-  <si>
-    <t>higher</t>
   </si>
   <si>
     <t>run112</t>
@@ -626,10 +617,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I166"/>
+  <dimension ref="A1:J167"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A131" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F163" activeCellId="0" sqref="F163"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I53" activeCellId="0" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -641,8 +632,9 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.02551020408163"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.030612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.5051020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.49489795918367"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.18877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -657,6 +649,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
@@ -670,6 +663,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
@@ -699,6 +693,9 @@
       <c r="I3" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
@@ -708,7 +705,7 @@
         <v>19.8148065443621</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1</v>
@@ -717,13 +714,16 @@
         <v>0.403</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0.0151</v>
+        <v>0.015</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>12</v>
+        <v>0.04</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -743,13 +743,16 @@
         <v>0.503</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>0.0151</v>
+        <v>0.015</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>12</v>
+        <v>0.25</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -769,13 +772,16 @@
         <v>0.226</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>0.0328</v>
+        <v>0.073</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>15</v>
+        <v>0.25</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -786,7 +792,7 @@
         <v>20.109230821923</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>4</v>
@@ -795,13 +801,16 @@
         <v>0.527</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>0.0151</v>
+        <v>0.015</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>12</v>
+        <v>0.38</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -812,7 +821,7 @@
         <v>0.0342846451308202</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>5</v>
@@ -821,13 +830,16 @@
         <v>0.238</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>0.0802</v>
+        <v>0.13</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>15</v>
+        <v>0.46</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -838,7 +850,7 @@
         <v>0.003815984082409</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>6</v>
@@ -847,13 +859,16 @@
         <v>0.204</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>0.0963</v>
+        <v>0.17</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>15</v>
+        <v>0.42</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0.223</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -864,7 +879,7 @@
         <v>1.04676418044599</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>7</v>
@@ -873,13 +888,16 @@
         <v>0.183</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>0.0151</v>
+        <v>0.019</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>12</v>
+        <v>0.13</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -890,7 +908,7 @@
         <v>2.21182387803038</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>8</v>
@@ -899,13 +917,16 @@
         <v>0.146</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>0.0151</v>
+        <v>0.015</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>12</v>
+        <v>0.08</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -916,7 +937,7 @@
         <v>0.127485643480525</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>9</v>
@@ -925,13 +946,16 @@
         <v>0.108</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>0.0353</v>
+        <v>0.085</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>15</v>
+        <v>0.13</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -942,7 +966,7 @@
         <v>114.536998751119</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>10</v>
@@ -951,13 +975,16 @@
         <v>0.232</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0.0151</v>
+        <v>0.015</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>12</v>
+        <v>0.17</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -968,7 +995,7 @@
         <v>0.00349680934648399</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>11</v>
@@ -977,13 +1004,16 @@
         <v>0.083</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0.0894</v>
+        <v>0.145</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>15</v>
+        <v>0.13</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0.208</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -994,7 +1024,7 @@
         <v>0.0407721285113296</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>12</v>
@@ -1003,13 +1033,16 @@
         <v>0.086</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.0367</v>
+        <v>0.015</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1020,7 +1053,7 @@
         <v>654.557000601105</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>13</v>
@@ -1029,13 +1062,16 @@
         <v>0.082</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.0151</v>
+        <v>0.015</v>
       </c>
       <c r="G16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="0" t="n">
         <v>0.03</v>
       </c>
-      <c r="H16" s="0" t="s">
-        <v>12</v>
+      <c r="I16" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1046,7 +1082,7 @@
         <v>0.18852187448211</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>14</v>
@@ -1055,13 +1091,16 @@
         <v>0.085</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.0151</v>
+        <v>0.015</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1072,7 +1111,7 @@
         <v>172.280303410619</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>15</v>
@@ -1081,13 +1120,16 @@
         <v>0.079</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.0151</v>
+        <v>0.015</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1098,7 +1140,7 @@
         <v>672.610866152973</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>1</v>
@@ -1107,13 +1149,16 @@
         <v>0.079</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.0151</v>
+        <v>0.015</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1124,7 +1169,7 @@
         <v>0.00534800269057661</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>2</v>
@@ -1136,10 +1181,13 @@
         <v>0</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1150,7 +1198,7 @@
         <v>0.0135922640948401</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>3</v>
@@ -1162,10 +1210,13 @@
         <v>0</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1176,7 +1227,7 @@
         <v>24.3237350489964</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>4</v>
@@ -1185,13 +1236,16 @@
         <v>0.079</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>0.0151</v>
+        <v>0.015</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1202,7 +1256,7 @@
         <v>30.065592432435</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>5</v>
@@ -1211,13 +1265,16 @@
         <v>0.079</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>0.0151</v>
+        <v>0.015</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1228,7 +1285,7 @@
         <v>13.9224313158425</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>6</v>
@@ -1240,10 +1297,13 @@
         <v>0</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1254,7 +1314,7 @@
         <v>0.441615630387425</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>7</v>
@@ -1263,13 +1323,16 @@
         <v>200000000000</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>0.0019</v>
+        <v>0.001</v>
       </c>
       <c r="G25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="H25" s="0" t="s">
-        <v>30</v>
+      <c r="I25" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1280,7 +1343,7 @@
         <v>362.340173120484</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>8</v>
@@ -1289,13 +1352,16 @@
         <v>0.08</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>0.0151</v>
+        <v>0.015</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1306,7 +1372,7 @@
         <v>0.158705081874316</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>9</v>
@@ -1318,13 +1384,16 @@
         <v>0</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>38</v>
+        <v>0</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1335,7 +1404,7 @@
         <v>236.980250861124</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>10</v>
@@ -1347,13 +1416,16 @@
         <v>0</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>38</v>
+        <v>0</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1364,7 +1436,7 @@
         <v>0.316073030698462</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>11</v>
@@ -1373,13 +1445,19 @@
         <v>200000000000</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>0.0168</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>38</v>
+        <v>0.017</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1390,13 +1468,13 @@
         <v>9.63696692139679</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="I30" s="0" t="s">
-        <v>38</v>
+      <c r="J30" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1407,13 +1485,13 @@
         <v>0.225266479037908</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="I31" s="0" t="s">
-        <v>38</v>
+      <c r="J31" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1424,13 +1502,13 @@
         <v>37.3747733037578</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="I32" s="0" t="s">
-        <v>38</v>
+      <c r="J32" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1441,32 +1519,32 @@
         <v>181.737298056476</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="I33" s="0" t="s">
-        <v>38</v>
+      <c r="J33" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1474,15 +1552,15 @@
         <v>3</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1492,6 +1570,7 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
@@ -1521,120 +1600,153 @@
       <c r="I42" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="J42" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="n">
-        <v>1.95353806753189E-005</v>
+        <v>1.03832710303222E-006</v>
       </c>
       <c r="B43" s="4" t="n">
-        <v>0.0329270563182907</v>
+        <v>0.00300829771122991</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>0.196</v>
+        <v>0.466</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>0.077</v>
+        <v>0.318</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>0.28</v>
+        <v>0.96</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>0.92</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="n">
-        <v>5.74635755817239E-005</v>
+        <v>1.10610306438123E-006</v>
       </c>
       <c r="B44" s="4" t="n">
-        <v>0.00443696160874432</v>
+        <v>0.000338909715960258</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>0.212</v>
+        <v>0.308</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>0.084</v>
+        <v>0.219</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>0.31</v>
+        <v>0.62</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>0.62</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="n">
-        <v>1.10610306438123E-006</v>
+        <v>1.4231564382078E-006</v>
       </c>
       <c r="B45" s="4" t="n">
-        <v>0.000338909715960258</v>
+        <v>0.00214765374049253</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>0.308</v>
+        <v>0.278</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>0.099</v>
+        <v>0.182</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>0.56</v>
+        <v>0.62</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>0.242</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>0.62</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="n">
-        <v>1.4231564382078E-006</v>
+        <v>1.54208600071874E-006</v>
       </c>
       <c r="B46" s="4" t="n">
-        <v>0.00214765374049253</v>
+        <v>0.00217747613620058</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>0.278</v>
+        <v>0.206</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>0.101</v>
+        <v>0.227</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>0.57</v>
+        <v>0.67</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>0.62</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="n">
-        <v>1.54208600071874E-006</v>
+        <v>1.82479140350789E-006</v>
       </c>
       <c r="B47" s="4" t="n">
-        <v>0.00217747613620058</v>
+        <v>0.0377388545111771</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>0.206</v>
+        <v>0.331</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>0.108</v>
+        <v>0.246</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>0.53</v>
+        <v>0.62</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>0.62</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1645,7 +1757,7 @@
         <v>0.0127298747056998</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>16</v>
@@ -1654,236 +1766,236 @@
         <v>0.226</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>0.114</v>
+        <v>0.262</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>0.63</v>
+        <v>0.75</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>0.301</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>0.71</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="n">
-        <v>7.01978251545733E-005</v>
+        <v>2.22305235306986E-006</v>
       </c>
       <c r="B49" s="4" t="n">
-        <v>1.16151961891159E-005</v>
+        <v>0.000542096462785538</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>0.08</v>
+        <v>0.334</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>0.115</v>
+        <v>0.292</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>0.28</v>
+        <v>0.79</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>0.79</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="n">
-        <v>1.82479140350789E-006</v>
+        <v>3.14614768104022E-006</v>
       </c>
       <c r="B50" s="4" t="n">
-        <v>0.0377388545111771</v>
+        <v>0.000431893750100302</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>0.331</v>
+        <v>0.313</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>0.117</v>
+        <v>0.275</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>0.59</v>
+        <v>0.71</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>0.71</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="n">
-        <v>1.03198644329961E-005</v>
+        <v>3.57454702108591E-006</v>
       </c>
       <c r="B51" s="4" t="n">
-        <v>7.40077844834827E-005</v>
+        <v>0.0388487377964991</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>0.242</v>
+        <v>0.355</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>0.117</v>
+        <v>0.266</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>0.5</v>
+        <v>0.71</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>0.71</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="n">
-        <v>1.2500112144408E-005</v>
+        <v>7.23258635944392E-006</v>
       </c>
       <c r="B52" s="4" t="n">
-        <v>1.81927676909693E-005</v>
+        <v>0.00500777479484594</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>0.209</v>
+        <v>0.294</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>0.117</v>
+        <v>0.283</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>0.54</v>
+        <v>0.62</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <v>0.62</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="n">
-        <v>7.23258635944392E-006</v>
+        <v>1.03198644329961E-005</v>
       </c>
       <c r="B53" s="4" t="n">
-        <v>0.00500777479484594</v>
+        <v>7.40077844834827E-005</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>0.294</v>
-      </c>
-      <c r="F53" s="0" t="n">
-        <v>0.118</v>
-      </c>
-      <c r="G53" s="0" t="n">
-        <v>0.58</v>
+        <v>0.242</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="n">
-        <v>3.14614768104022E-006</v>
+        <v>1.2500112144408E-005</v>
       </c>
       <c r="B54" s="4" t="n">
-        <v>0.000431893750100302</v>
+        <v>1.81927676909693E-005</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>0.313</v>
-      </c>
-      <c r="F54" s="0" t="n">
-        <v>0.119</v>
-      </c>
-      <c r="G54" s="0" t="n">
-        <v>0.63</v>
+        <v>0.209</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="n">
-        <v>3.57454702108591E-006</v>
+        <v>1.95353806753189E-005</v>
       </c>
       <c r="B55" s="4" t="n">
-        <v>0.0388487377964991</v>
+        <v>0.0329270563182907</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>0.355</v>
-      </c>
-      <c r="F55" s="0" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="G55" s="0" t="n">
-        <v>0.67</v>
+        <v>0.196</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="n">
-        <v>1.03832710303222E-006</v>
+        <v>5.74635755817239E-005</v>
       </c>
       <c r="B56" s="4" t="n">
-        <v>0.00300829771122991</v>
+        <v>0.00443696160874432</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>0.466</v>
-      </c>
-      <c r="F56" s="0" t="n">
-        <v>0.124</v>
-      </c>
-      <c r="G56" s="0" t="n">
-        <v>0.92</v>
+        <v>0.212</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="n">
-        <v>2.22305235306986E-006</v>
+        <v>7.01978251545733E-005</v>
       </c>
       <c r="B57" s="4" t="n">
-        <v>0.000542096462785538</v>
+        <v>1.16151961891159E-005</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>0.334</v>
-      </c>
-      <c r="F57" s="0" t="n">
-        <v>0.124</v>
-      </c>
-      <c r="G57" s="0" t="n">
-        <v>0.73</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1891,12 +2003,12 @@
         <v>3</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1906,6 +2018,7 @@
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
@@ -1935,6 +2048,9 @@
       <c r="I65" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="J65" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
@@ -1944,7 +2060,7 @@
         <v>0.01</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>3</v>
@@ -1958,8 +2074,8 @@
       <c r="G66" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I66" s="0" t="s">
-        <v>74</v>
+      <c r="J66" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1970,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>1</v>
@@ -1993,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>1</v>
@@ -2016,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>2</v>
@@ -2039,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>1</v>
@@ -2062,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>3</v>
@@ -2076,13 +2192,13 @@
       <c r="G71" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I71" s="0" t="s">
-        <v>80</v>
+      <c r="J71" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2092,6 +2208,7 @@
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
@@ -2115,11 +2232,10 @@
       <c r="G74" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H74" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>10</v>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2130,7 +2246,7 @@
         <v>0.0008</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>1</v>
@@ -2144,13 +2260,13 @@
       <c r="G75" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="I75" s="0" t="s">
-        <v>83</v>
+      <c r="J75" s="0" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2160,10 +2276,11 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2173,6 +2290,7 @@
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
@@ -2202,6 +2320,9 @@
       <c r="I81" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="J81" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="n">
@@ -2211,7 +2332,7 @@
         <v>0.000153030184042259</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>1</v>
@@ -2220,10 +2341,16 @@
         <v>0.047</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>0.119</v>
+        <v>0.262</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>0.84</v>
+        <v>0.92</v>
+      </c>
+      <c r="H82" s="0" t="n">
+        <v>0.338</v>
+      </c>
+      <c r="I82" s="0" t="n">
+        <v>0.87</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2234,7 +2361,7 @@
         <v>0.613281671174882</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>2</v>
@@ -2243,10 +2370,16 @@
         <v>0.06</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>0.111</v>
+        <v>0.25</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>0.78</v>
+        <v>0.83</v>
+      </c>
+      <c r="H83" s="0" t="n">
+        <v>0.316</v>
+      </c>
+      <c r="I83" s="0" t="n">
+        <v>0.79</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2257,7 +2390,7 @@
         <v>0.00083424047044789</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>3</v>
@@ -2266,10 +2399,16 @@
         <v>0.043</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>0.119</v>
+        <v>0.266</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>0.74</v>
+        <v>0.79</v>
+      </c>
+      <c r="H84" s="0" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="I84" s="0" t="n">
+        <v>0.79</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2280,7 +2419,7 @@
         <v>0.00145975149652255</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>4</v>
@@ -2289,9 +2428,15 @@
         <v>0.039</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>0.125</v>
+        <v>0.319</v>
       </c>
       <c r="G85" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H85" s="0" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="I85" s="0" t="n">
         <v>0.71</v>
       </c>
     </row>
@@ -2303,7 +2448,7 @@
         <v>0.00214462479812596</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>5</v>
@@ -2312,10 +2457,16 @@
         <v>0.043</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>0.125</v>
+        <v>0.296</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>0.68</v>
+        <v>0.75</v>
+      </c>
+      <c r="H86" s="0" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="I86" s="0" t="n">
+        <v>0.71</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2326,7 +2477,7 @@
         <v>0.00204027518128024</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>6</v>
@@ -2335,9 +2486,15 @@
         <v>0.043</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>0.133</v>
+        <v>0.312</v>
       </c>
       <c r="G87" s="0" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H87" s="0" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I87" s="0" t="n">
         <v>0.58</v>
       </c>
     </row>
@@ -2349,7 +2506,7 @@
         <v>2.2261234522861</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>7</v>
@@ -2361,13 +2518,16 @@
         <v>0.015</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="H88" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I88" s="0" t="s">
-        <v>93</v>
+        <v>0.42</v>
+      </c>
+      <c r="H88" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I88" s="0" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="J88" s="0" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2378,7 +2538,7 @@
         <v>0.00363581666441528</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>8</v>
@@ -2387,9 +2547,15 @@
         <v>0.038</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>0.122</v>
+        <v>0.221</v>
       </c>
       <c r="G89" s="0" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H89" s="0" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="I89" s="0" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -2401,7 +2567,7 @@
         <v>0.385037978791714</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>9</v>
@@ -2413,13 +2579,16 @@
         <v>0.015</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="H90" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I90" s="0" t="s">
-        <v>93</v>
+        <v>0.21</v>
+      </c>
+      <c r="H90" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I90" s="0" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="J90" s="0" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2430,7 +2599,7 @@
         <v>0.046693736064734</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>10</v>
@@ -2442,10 +2611,16 @@
         <v>0.015</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="I91" s="0" t="s">
-        <v>93</v>
+        <v>0.08</v>
+      </c>
+      <c r="H91" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I91" s="0" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J91" s="0" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2456,7 +2631,7 @@
         <v>0.162706410105612</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>11</v>
@@ -2470,8 +2645,14 @@
       <c r="G92" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="I92" s="0" t="s">
-        <v>93</v>
+      <c r="H92" s="0" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="I92" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J92" s="0" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2482,7 +2663,7 @@
         <v>0.000189095715104318</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>12</v>
@@ -2491,10 +2672,16 @@
         <v>0.022</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>0.124</v>
+        <v>0.285</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>0.66</v>
+        <v>0.79</v>
+      </c>
+      <c r="H93" s="0" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="I93" s="0" t="n">
+        <v>0.79</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2505,7 +2692,7 @@
         <v>1.13708526519229</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>13</v>
@@ -2517,10 +2704,16 @@
         <v>0.015</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="I94" s="0" t="s">
-        <v>93</v>
+        <v>0.17</v>
+      </c>
+      <c r="H94" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I94" s="0" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="J94" s="0" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2531,7 +2724,7 @@
         <v>0.00657401455755455</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>14</v>
@@ -2540,13 +2733,19 @@
         <v>0.049</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>0.018</v>
+        <v>0.116</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="I95" s="0" t="s">
-        <v>93</v>
+        <v>0.38</v>
+      </c>
+      <c r="H95" s="0" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="I95" s="0" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="J95" s="0" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2557,7 +2756,7 @@
         <v>0.457935644905112</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>15</v>
@@ -2569,10 +2768,16 @@
         <v>0.015</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I96" s="0" t="s">
-        <v>93</v>
+        <v>0.17</v>
+      </c>
+      <c r="H96" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I96" s="0" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="J96" s="0" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2583,7 +2788,7 @@
         <v>0.0299086467558126</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>1</v>
@@ -2595,10 +2800,16 @@
         <v>0.015</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="I97" s="0" t="s">
-        <v>93</v>
+        <v>0.25</v>
+      </c>
+      <c r="H97" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I97" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J97" s="0" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2609,7 +2820,7 @@
         <v>1.35138015113964</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>2</v>
@@ -2621,10 +2832,16 @@
         <v>0.015</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="I98" s="0" t="s">
-        <v>93</v>
+        <v>0.08</v>
+      </c>
+      <c r="H98" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I98" s="0" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J98" s="0" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2635,7 +2852,7 @@
         <v>0.132421974305338</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>3</v>
@@ -2644,16 +2861,19 @@
         <v>380000000</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>0.018</v>
+        <v>0.014</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="H99" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I99" s="0" t="s">
-        <v>105</v>
+        <v>1</v>
+      </c>
+      <c r="H99" s="0" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="I99" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" s="0" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2664,7 +2884,7 @@
         <v>1.98269006319899</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>4</v>
@@ -2673,13 +2893,19 @@
         <v>0.042</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>0.017</v>
+        <v>0.015</v>
       </c>
       <c r="G100" s="0" t="n">
         <v>0.13</v>
       </c>
-      <c r="I100" s="0" t="s">
-        <v>93</v>
+      <c r="H100" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I100" s="0" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="J100" s="0" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2690,7 +2916,7 @@
         <v>3.39161236924989</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>5</v>
@@ -2702,10 +2928,16 @@
         <v>0.015</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="I101" s="0" t="s">
-        <v>93</v>
+        <v>0.08</v>
+      </c>
+      <c r="H101" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I101" s="0" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J101" s="0" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2716,7 +2948,7 @@
         <v>0.0017523256961147</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>6</v>
@@ -2725,13 +2957,19 @@
         <v>43400000000</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>0.015</v>
+        <v>0.005</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" s="0" t="s">
-        <v>105</v>
+        <v>1</v>
+      </c>
+      <c r="H102" s="0" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="I102" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" s="0" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2742,7 +2980,7 @@
         <v>0.448429759066528</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>7</v>
@@ -2751,16 +2989,19 @@
         <v>1930000000</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>0.023</v>
+        <v>0.016</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="H103" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I103" s="0" t="s">
-        <v>105</v>
+        <v>1</v>
+      </c>
+      <c r="H103" s="0" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="I103" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" s="0" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2771,7 +3012,7 @@
         <v>0.00467719681179643</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>8</v>
@@ -2780,16 +3021,19 @@
         <v>636000000000</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>0.035</v>
+        <v>0.032</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="H104" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I104" s="0" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="H104" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I104" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2800,7 +3044,7 @@
         <v>0.0496849799771728</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>9</v>
@@ -2809,13 +3053,19 @@
         <v>18400000000000</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H105" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="I105" s="0" t="s">
-        <v>38</v>
+        <v>0.015</v>
+      </c>
+      <c r="G105" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H105" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I105" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2826,7 +3076,7 @@
         <v>0.00730849961283516</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>10</v>
@@ -2835,16 +3085,19 @@
         <v>1040000000000</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>0.074</v>
+        <v>0.097</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="H106" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I106" s="0" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="H106" s="0" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="I106" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2855,7 +3108,7 @@
         <v>0.357772344667488</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>11</v>
@@ -2864,13 +3117,19 @@
         <v>454000000000000</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H107" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="I107" s="0" t="s">
-        <v>38</v>
+        <v>0.015</v>
+      </c>
+      <c r="G107" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H107" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I107" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2881,7 +3140,7 @@
         <v>1.78066366225851</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>12</v>
@@ -2890,13 +3149,19 @@
         <v>7.74</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="G108" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I108" s="0" t="s">
-        <v>38</v>
+      <c r="H108" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2907,7 +3172,7 @@
         <v>0.510827647752</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>1</v>
@@ -2919,13 +3184,16 @@
         <v>0.015</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="H109" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I109" s="0" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="H109" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I109" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2936,7 +3204,7 @@
         <v>0.00185294947891615</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>2</v>
@@ -2945,13 +3213,19 @@
         <v>1700000000000000</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>0.015</v>
+        <v>0.007</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" s="0" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="H110" s="0" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="I110" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2962,7 +3236,7 @@
         <v>2.84541673997607</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>3</v>
@@ -2971,32 +3245,35 @@
         <v>68200000000000</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="G111" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="H111" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="I111" s="0" t="s">
-        <v>38</v>
+      <c r="H111" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3004,15 +3281,15 @@
         <v>3</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -3022,6 +3299,7 @@
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="3" t="s">
@@ -3051,6 +3329,9 @@
       <c r="I118" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="J118" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="n">
@@ -3060,7 +3341,7 @@
         <v>0.002</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>1</v>
@@ -3069,973 +3350,839 @@
         <v>0.026</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>0.133</v>
+        <v>0.37</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="2" t="s">
+        <v>0.71</v>
+      </c>
+      <c r="H119" s="0" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="I119" s="0" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="n">
+        <v>2E-005</v>
+      </c>
+      <c r="B120" s="0" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="D120" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2"/>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H123" s="3"/>
+      <c r="I123" s="3"/>
+      <c r="J123" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="n">
+        <v>3E-005</v>
+      </c>
+      <c r="B124" s="0" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D124" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E124" s="0" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="F124" s="0" t="n">
+        <v>0.328</v>
+      </c>
+      <c r="G124" s="0" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H124" s="0" t="n">
+        <v>0.382</v>
+      </c>
+      <c r="I124" s="0" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="J124" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
-      <c r="I121" s="2"/>
-    </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="3" t="s">
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B129" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C129" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D129" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E122" s="3" t="s">
+      <c r="E129" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F122" s="3" t="s">
+      <c r="F129" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G122" s="3" t="s">
+      <c r="G129" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H122" s="3" t="s">
+      <c r="H129" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I122" s="3" t="s">
+      <c r="I129" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="n">
-        <v>3E-005</v>
-      </c>
-      <c r="B123" s="0" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="C123" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="D123" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E123" s="0" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="F123" s="0" t="n">
-        <v>0.131</v>
-      </c>
-      <c r="G123" s="0" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="I123" s="0" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
-    </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="2"/>
-      <c r="H127" s="2"/>
-      <c r="I127" s="2"/>
-    </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H128" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I128" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="4" t="n">
-        <v>1.5654E-006</v>
-      </c>
-      <c r="B129" s="4" t="n">
-        <v>0.26921</v>
-      </c>
-      <c r="C129" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="D129" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E129" s="0" t="n">
-        <v>0.059</v>
-      </c>
-      <c r="F129" s="0" t="n">
-        <v>0.055</v>
-      </c>
-      <c r="G129" s="0" t="n">
-        <v>0.52</v>
+      <c r="J129" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="4" t="n">
-        <v>3.5554E-006</v>
+        <v>1.5654E-006</v>
       </c>
       <c r="B130" s="4" t="n">
-        <v>3.0387E-005</v>
+        <v>0.26921</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>0.036</v>
+        <v>0.059</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>0.122</v>
+        <v>0.092</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>0.89</v>
+        <v>0.54</v>
+      </c>
+      <c r="H130" s="0" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="I130" s="0" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="4" t="n">
-        <v>1.1537E-005</v>
+        <v>3.5554E-006</v>
       </c>
       <c r="B131" s="4" t="n">
-        <v>0.2741</v>
+        <v>3.0387E-005</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>0.04</v>
+        <v>0.036</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>0.107</v>
+        <v>0.315</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>0.45</v>
+        <v>0.96</v>
+      </c>
+      <c r="H131" s="0" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="I131" s="0" t="n">
+        <v>0.96</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="n">
-        <v>1.1713E-005</v>
+        <v>1.1537E-005</v>
       </c>
       <c r="B132" s="4" t="n">
-        <v>0.00073872</v>
+        <v>0.2741</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>0.031</v>
-      </c>
-      <c r="F132" s="0" t="n">
-        <v>0.128</v>
-      </c>
-      <c r="G132" s="0" t="n">
-        <v>0.85</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="n">
-        <v>1.3078E-005</v>
+        <v>1.1713E-005</v>
       </c>
       <c r="B133" s="4" t="n">
-        <v>5.5114E-005</v>
+        <v>0.00073872</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>0.044</v>
-      </c>
-      <c r="F133" s="0" t="n">
-        <v>0.129</v>
-      </c>
-      <c r="G133" s="0" t="n">
-        <v>0.9</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="n">
-        <v>1.6275E-005</v>
+        <v>1.3078E-005</v>
       </c>
       <c r="B134" s="4" t="n">
-        <v>7.581E-005</v>
+        <v>5.5114E-005</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>0.032</v>
-      </c>
-      <c r="F134" s="0" t="n">
-        <v>0.129</v>
-      </c>
-      <c r="G134" s="0" t="n">
-        <v>0.88</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="n">
-        <v>1.8201E-005</v>
+        <v>1.6275E-005</v>
       </c>
       <c r="B135" s="4" t="n">
-        <v>5.0484E-005</v>
+        <v>7.581E-005</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="F135" s="0" t="n">
-        <v>0.127</v>
-      </c>
-      <c r="G135" s="0" t="n">
-        <v>0.75</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="n">
-        <v>2.0148E-005</v>
+        <v>1.8201E-005</v>
       </c>
       <c r="B136" s="4" t="n">
-        <v>0.0012329</v>
+        <v>5.0484E-005</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>0.026</v>
-      </c>
-      <c r="F136" s="0" t="n">
-        <v>0.126</v>
-      </c>
-      <c r="G136" s="0" t="n">
-        <v>0.75</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="4" t="n">
-        <v>2.2684E-005</v>
+        <v>2.0148E-005</v>
       </c>
       <c r="B137" s="4" t="n">
-        <v>0.0007946</v>
+        <v>0.0012329</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E137" s="0" t="n">
         <v>0.026</v>
       </c>
-      <c r="F137" s="0" t="n">
-        <v>0.124</v>
-      </c>
-      <c r="G137" s="0" t="n">
-        <v>0.77</v>
-      </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="4" t="n">
-        <v>3.361E-005</v>
+        <v>2.2684E-005</v>
       </c>
       <c r="B138" s="4" t="n">
-        <v>0.00052887</v>
+        <v>0.0007946</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E138" s="0" t="n">
         <v>0.026</v>
       </c>
-      <c r="F138" s="0" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="G138" s="0" t="n">
-        <v>0.71</v>
-      </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="4" t="n">
-        <v>3.8006E-005</v>
+        <v>3.361E-005</v>
       </c>
       <c r="B139" s="4" t="n">
-        <v>0.00048127</v>
+        <v>0.00052887</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="F139" s="0" t="n">
-        <v>0.127</v>
-      </c>
-      <c r="G139" s="0" t="n">
-        <v>0.78</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="n">
-        <v>4.0787E-005</v>
+        <v>3.8006E-005</v>
       </c>
       <c r="B140" s="4" t="n">
-        <v>0.001023</v>
+        <v>0.00048127</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="F140" s="0" t="n">
-        <v>0.128</v>
-      </c>
-      <c r="G140" s="0" t="n">
-        <v>0.74</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="4" t="n">
-        <v>4.1844E-005</v>
+        <v>4.0787E-005</v>
       </c>
       <c r="B141" s="4" t="n">
-        <v>0.00084802</v>
+        <v>0.001023</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>0.024</v>
-      </c>
-      <c r="F141" s="0" t="n">
-        <v>0.123</v>
-      </c>
-      <c r="G141" s="0" t="n">
-        <v>0.63</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="4" t="n">
-        <v>6.5612E-005</v>
+        <v>4.1844E-005</v>
       </c>
       <c r="B142" s="4" t="n">
-        <v>0.003607</v>
+        <v>0.00084802</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>0.023</v>
-      </c>
-      <c r="F142" s="0" t="n">
-        <v>0.122</v>
-      </c>
-      <c r="G142" s="0" t="n">
-        <v>0.71</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="4" t="n">
-        <v>6.827E-005</v>
+        <v>6.5612E-005</v>
       </c>
       <c r="B143" s="4" t="n">
-        <v>0.18602</v>
+        <v>0.003607</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>0.043</v>
-      </c>
-      <c r="F143" s="0" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="G143" s="0" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="I143" s="0" t="s">
-        <v>93</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="4" t="n">
-        <v>0.00011998</v>
+        <v>6.827E-005</v>
       </c>
       <c r="B144" s="4" t="n">
-        <v>0.045356</v>
+        <v>0.18602</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E144" s="0" t="n">
         <v>0.043</v>
       </c>
-      <c r="F144" s="0" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="G144" s="0" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="I144" s="0" t="s">
-        <v>93</v>
+      <c r="J144" s="0" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="4" t="n">
-        <v>0.000143</v>
+        <v>0.00011998</v>
       </c>
       <c r="B145" s="4" t="n">
-        <v>0.00028769</v>
+        <v>0.045356</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>0.022</v>
-      </c>
-      <c r="F145" s="0" t="n">
-        <v>0.136</v>
-      </c>
-      <c r="G145" s="0" t="n">
-        <v>0.66</v>
+        <v>0.043</v>
+      </c>
+      <c r="J145" s="0" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="4" t="n">
-        <v>0.00025927</v>
+        <v>0.000143</v>
       </c>
       <c r="B146" s="4" t="n">
-        <v>0.00014377</v>
+        <v>0.00028769</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="F146" s="0" t="n">
-        <v>0.061</v>
-      </c>
-      <c r="G146" s="0" t="n">
-        <v>0.2</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="4" t="n">
-        <v>0.00037919</v>
+        <v>0.00025927</v>
       </c>
       <c r="B147" s="4" t="n">
-        <v>0.0029846</v>
+        <v>0.00014377</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="F147" s="0" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="G147" s="0" t="n">
-        <v>0.52</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="4" t="n">
-        <v>0.00039582</v>
+        <v>0.00037919</v>
       </c>
       <c r="B148" s="4" t="n">
-        <v>0.027861</v>
+        <v>0.0029846</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E148" s="0" t="n">
-        <v>0.043</v>
-      </c>
-      <c r="F148" s="0" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="G148" s="0" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="I148" s="0" t="s">
-        <v>93</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="4" t="n">
-        <v>0.00055286</v>
+        <v>0.00039582</v>
       </c>
       <c r="B149" s="4" t="n">
-        <v>0.13127</v>
+        <v>0.027861</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E149" s="0" t="n">
         <v>0.043</v>
       </c>
-      <c r="F149" s="0" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="G149" s="0" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="I149" s="0" t="s">
-        <v>93</v>
+      <c r="J149" s="0" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="4" t="n">
-        <v>0.0016262</v>
+        <v>0.00055286</v>
       </c>
       <c r="B150" s="4" t="n">
-        <v>2.8017E-005</v>
+        <v>0.13127</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>0.035</v>
-      </c>
-      <c r="F150" s="0" t="n">
-        <v>0.068</v>
-      </c>
-      <c r="G150" s="0" t="n">
-        <v>0.11</v>
+        <v>0.043</v>
+      </c>
+      <c r="J150" s="0" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="4" t="n">
-        <v>0.0016451</v>
+        <v>0.0016262</v>
       </c>
       <c r="B151" s="4" t="n">
-        <v>0.01021</v>
+        <v>2.8017E-005</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="F151" s="0" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="G151" s="0" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="I151" s="0" t="s">
-        <v>93</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="4" t="n">
-        <v>0.0018396</v>
+        <v>0.0016451</v>
       </c>
       <c r="B152" s="4" t="n">
-        <v>0.004497</v>
+        <v>0.01021</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>0.024</v>
-      </c>
-      <c r="F152" s="0" t="n">
-        <v>0.127</v>
-      </c>
-      <c r="G152" s="0" t="n">
-        <v>0.44</v>
+        <v>0.042</v>
+      </c>
+      <c r="J152" s="0" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="4" t="n">
-        <v>0.0021531</v>
+        <v>0.0018396</v>
       </c>
       <c r="B153" s="4" t="n">
-        <v>0.0044713</v>
+        <v>0.004497</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>0.129</v>
-      </c>
-      <c r="F153" s="0" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="G153" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I153" s="0" t="s">
-        <v>93</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="4" t="n">
-        <v>0.00378</v>
+        <v>0.0021531</v>
       </c>
       <c r="B154" s="4" t="n">
-        <v>0.19318</v>
+        <v>0.0044713</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="F154" s="0" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="G154" s="0" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="I154" s="0" t="s">
-        <v>93</v>
+        <v>0.129</v>
+      </c>
+      <c r="J154" s="0" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="4" t="n">
-        <v>0.0037956</v>
+        <v>0.00378</v>
       </c>
       <c r="B155" s="4" t="n">
-        <v>0.0014238</v>
+        <v>0.19318</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>162.36</v>
-      </c>
-      <c r="F155" s="0" t="n">
-        <v>0.062</v>
-      </c>
-      <c r="G155" s="0" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="H155" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="I155" s="0" t="s">
-        <v>38</v>
+        <v>0.042</v>
+      </c>
+      <c r="J155" s="0" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="4" t="n">
-        <v>0.0044606</v>
+        <v>0.0037956</v>
       </c>
       <c r="B156" s="4" t="n">
-        <v>0.11008</v>
+        <v>0.0014238</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="F156" s="0" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="G156" s="0" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="I156" s="0" t="s">
-        <v>93</v>
+        <v>162.36</v>
+      </c>
+      <c r="J156" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="4" t="n">
-        <v>0.0058469</v>
+        <v>0.0044606</v>
       </c>
       <c r="B157" s="4" t="n">
-        <v>9.3986E-005</v>
+        <v>0.11008</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>2443.44</v>
-      </c>
-      <c r="F157" s="0" t="n">
-        <v>0.085</v>
-      </c>
-      <c r="G157" s="0" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="H157" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="I157" s="0" t="s">
-        <v>38</v>
+        <v>0.042</v>
+      </c>
+      <c r="J157" s="0" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="4" t="n">
+        <v>0.0058469</v>
+      </c>
+      <c r="B158" s="4" t="n">
+        <v>9.3986E-005</v>
+      </c>
+      <c r="C158" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="D158" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E158" s="0" t="n">
+        <v>2443.44</v>
+      </c>
+      <c r="J158" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="4" t="n">
         <v>0.0094124</v>
       </c>
-      <c r="B158" s="4" t="n">
+      <c r="B159" s="4" t="n">
         <v>4.3753E-005</v>
       </c>
-      <c r="C158" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="D158" s="0" t="n">
+      <c r="C159" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D159" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="E158" s="0" t="n">
+      <c r="E159" s="0" t="n">
         <v>174586</v>
       </c>
-      <c r="F158" s="0" t="n">
-        <v>0.058</v>
-      </c>
-      <c r="G158" s="0" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="H158" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="I158" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B160" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G160" s="0" t="s">
-        <v>159</v>
+      <c r="J159" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="s">
-        <v>48</v>
-      </c>
       <c r="B161" s="0" t="s">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="G161" s="0" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="G162" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B162" s="0" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B164" s="2"/>
-      <c r="C164" s="2"/>
-      <c r="D164" s="2"/>
-      <c r="E164" s="2"/>
-      <c r="F164" s="2"/>
-      <c r="G164" s="2"/>
-      <c r="H164" s="2"/>
-      <c r="I164" s="2"/>
+      <c r="B163" s="0" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="3" t="s">
+      <c r="A165" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
+      <c r="H165" s="2"/>
+      <c r="I165" s="2"/>
+      <c r="J165" s="2"/>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="B166" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="C166" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D165" s="3" t="s">
+      <c r="D166" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E165" s="3" t="s">
+      <c r="E166" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F165" s="3" t="s">
+      <c r="F166" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G165" s="3" t="s">
+      <c r="G166" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H165" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I165" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="n">
+      <c r="H166" s="3"/>
+      <c r="I166" s="3"/>
+      <c r="J166" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="n">
         <v>4E-005</v>
       </c>
-      <c r="B166" s="0" t="n">
+      <c r="B167" s="0" t="n">
         <v>7E-005</v>
       </c>
-      <c r="C166" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="D166" s="0" t="n">
+      <c r="C167" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="D167" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E166" s="0" t="n">
+      <c r="E167" s="0" t="n">
         <v>0.017</v>
       </c>
-      <c r="F166" s="0" t="n">
+      <c r="F167" s="0" t="n">
         <v>0.149</v>
       </c>
-      <c r="G166" s="0" t="n">
+      <c r="G167" s="0" t="n">
         <v>0.58</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="A64:I64"/>
-    <mergeCell ref="A73:I73"/>
-    <mergeCell ref="A79:I79"/>
-    <mergeCell ref="A80:I80"/>
-    <mergeCell ref="A117:I117"/>
-    <mergeCell ref="A121:I121"/>
-    <mergeCell ref="A126:I126"/>
-    <mergeCell ref="A127:I127"/>
-    <mergeCell ref="A164:I164"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="A79:J79"/>
+    <mergeCell ref="A80:J80"/>
+    <mergeCell ref="A117:J117"/>
+    <mergeCell ref="A122:J122"/>
+    <mergeCell ref="A127:J127"/>
+    <mergeCell ref="A128:J128"/>
+    <mergeCell ref="A165:J165"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/experiments/hyperparameters/hyperparemeter_search.xlsx
+++ b/experiments/hyperparameters/hyperparemeter_search.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="348" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="174" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="162">
   <si>
     <t>EXPERIMENT 1</t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>Alpha divided by 10 at epoch 30, and again at epoch 40</t>
+  </si>
+  <si>
+    <t>run117</t>
   </si>
   <si>
     <t>EXPERIMENT 2</t>
@@ -619,8 +622,8 @@
   </sheetPr>
   <dimension ref="A1:J167"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I53" activeCellId="0" sqref="I53"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A125" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F134" activeCellId="0" sqref="F134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1910,6 +1913,18 @@
       <c r="E53" s="0" t="n">
         <v>0.242</v>
       </c>
+      <c r="F53" s="0" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="I53" s="0" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="n">
@@ -1927,6 +1942,18 @@
       <c r="E54" s="0" t="n">
         <v>0.209</v>
       </c>
+      <c r="F54" s="0" t="n">
+        <v>0.259</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <v>0.298</v>
+      </c>
+      <c r="I54" s="0" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="n">
@@ -1944,6 +1971,18 @@
       <c r="E55" s="0" t="n">
         <v>0.196</v>
       </c>
+      <c r="F55" s="0" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="n">
@@ -1961,6 +2000,18 @@
       <c r="E56" s="0" t="n">
         <v>0.212</v>
       </c>
+      <c r="F56" s="0" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="n">
@@ -1977,6 +2028,18 @@
       </c>
       <c r="E57" s="0" t="n">
         <v>0.08</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>0.307</v>
+      </c>
+      <c r="I57" s="0" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2069,9 +2132,15 @@
         <v>0.453</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="G66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J66" s="0" t="s">
@@ -2095,10 +2164,16 @@
         <v>95.248</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>0.039</v>
+        <v>0.038</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>0.99999</v>
+        <v>1</v>
+      </c>
+      <c r="H67" s="0" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="I67" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2118,9 +2193,15 @@
         <v>0.075</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>0.12</v>
+        <v>0.211</v>
       </c>
       <c r="G68" s="0" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H68" s="0" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="I68" s="0" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -2141,10 +2222,16 @@
         <v>0.209</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>0.121</v>
+        <v>0.266</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>0.51</v>
+        <v>0.58</v>
+      </c>
+      <c r="H69" s="0" t="n">
+        <v>0.292</v>
+      </c>
+      <c r="I69" s="0" t="n">
+        <v>0.58</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2164,10 +2251,16 @@
         <v>0.335</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>0.104</v>
+        <v>0.235</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>0.77</v>
+        <v>0.83</v>
+      </c>
+      <c r="H70" s="0" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I70" s="0" t="n">
+        <v>0.83</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2187,9 +2280,15 @@
         <v>0.611</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>0.015</v>
+        <v>0.01</v>
       </c>
       <c r="G71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I71" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J71" s="0" t="s">
@@ -2232,8 +2331,12 @@
       <c r="G74" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
+      <c r="H74" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="J74" s="3" t="s">
         <v>11</v>
       </c>
@@ -2255,18 +2358,38 @@
         <v>0.1805</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>0.133</v>
+        <v>0.368</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
+      </c>
+      <c r="H75" s="0" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="I75" s="0" t="n">
+        <v>0.83</v>
       </c>
       <c r="J75" s="0" t="s">
         <v>80</v>
       </c>
     </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <v>3E-006</v>
+      </c>
+      <c r="B76" s="0" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2280,7 +2403,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2332,7 +2455,7 @@
         <v>0.000153030184042259</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>1</v>
@@ -2361,7 +2484,7 @@
         <v>0.613281671174882</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>2</v>
@@ -2390,7 +2513,7 @@
         <v>0.00083424047044789</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>3</v>
@@ -2419,7 +2542,7 @@
         <v>0.00145975149652255</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>4</v>
@@ -2448,7 +2571,7 @@
         <v>0.00214462479812596</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>5</v>
@@ -2477,7 +2600,7 @@
         <v>0.00204027518128024</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>6</v>
@@ -2506,7 +2629,7 @@
         <v>2.2261234522861</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>7</v>
@@ -2527,7 +2650,7 @@
         <v>0.42</v>
       </c>
       <c r="J88" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2538,7 +2661,7 @@
         <v>0.00363581666441528</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>8</v>
@@ -2567,7 +2690,7 @@
         <v>0.385037978791714</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>9</v>
@@ -2588,7 +2711,7 @@
         <v>0.21</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2599,7 +2722,7 @@
         <v>0.046693736064734</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>10</v>
@@ -2620,7 +2743,7 @@
         <v>0.08</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2631,7 +2754,7 @@
         <v>0.162706410105612</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>11</v>
@@ -2652,7 +2775,7 @@
         <v>0.25</v>
       </c>
       <c r="J92" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2663,7 +2786,7 @@
         <v>0.000189095715104318</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>12</v>
@@ -2692,7 +2815,7 @@
         <v>1.13708526519229</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>13</v>
@@ -2713,7 +2836,7 @@
         <v>0.17</v>
       </c>
       <c r="J94" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2724,7 +2847,7 @@
         <v>0.00657401455755455</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>14</v>
@@ -2745,7 +2868,7 @@
         <v>0.38</v>
       </c>
       <c r="J95" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2756,7 +2879,7 @@
         <v>0.457935644905112</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>15</v>
@@ -2777,7 +2900,7 @@
         <v>0.17</v>
       </c>
       <c r="J96" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2788,7 +2911,7 @@
         <v>0.0299086467558126</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>1</v>
@@ -2809,7 +2932,7 @@
         <v>0.25</v>
       </c>
       <c r="J97" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2820,7 +2943,7 @@
         <v>1.35138015113964</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>2</v>
@@ -2841,7 +2964,7 @@
         <v>0.08</v>
       </c>
       <c r="J98" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2852,7 +2975,7 @@
         <v>0.132421974305338</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>3</v>
@@ -2873,7 +2996,7 @@
         <v>1</v>
       </c>
       <c r="J99" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2884,7 +3007,7 @@
         <v>1.98269006319899</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>4</v>
@@ -2905,7 +3028,7 @@
         <v>0.13</v>
       </c>
       <c r="J100" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2916,7 +3039,7 @@
         <v>3.39161236924989</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>5</v>
@@ -2937,7 +3060,7 @@
         <v>0.08</v>
       </c>
       <c r="J101" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2948,7 +3071,7 @@
         <v>0.0017523256961147</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>6</v>
@@ -2969,7 +3092,7 @@
         <v>1</v>
       </c>
       <c r="J102" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2980,7 +3103,7 @@
         <v>0.448429759066528</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>7</v>
@@ -3001,7 +3124,7 @@
         <v>1</v>
       </c>
       <c r="J103" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3012,7 +3135,7 @@
         <v>0.00467719681179643</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>8</v>
@@ -3044,7 +3167,7 @@
         <v>0.0496849799771728</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>9</v>
@@ -3076,7 +3199,7 @@
         <v>0.00730849961283516</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>10</v>
@@ -3108,7 +3231,7 @@
         <v>0.357772344667488</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>11</v>
@@ -3140,7 +3263,7 @@
         <v>1.78066366225851</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>12</v>
@@ -3172,7 +3295,7 @@
         <v>0.510827647752</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>1</v>
@@ -3204,7 +3327,7 @@
         <v>0.00185294947891615</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>2</v>
@@ -3236,7 +3359,7 @@
         <v>2.84541673997607</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>3</v>
@@ -3270,10 +3393,10 @@
         <v>45</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3281,10 +3404,10 @@
         <v>3</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3341,7 +3464,7 @@
         <v>0.002</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>1</v>
@@ -3370,7 +3493,7 @@
         <v>0.002</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>2</v>
@@ -3378,7 +3501,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -3426,7 +3549,7 @@
         <v>0.003</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>2</v>
@@ -3447,12 +3570,12 @@
         <v>0.71</v>
       </c>
       <c r="J124" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -3466,7 +3589,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -3518,7 +3641,7 @@
         <v>0.26921</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>1</v>
@@ -3547,7 +3670,7 @@
         <v>3.0387E-005</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>2</v>
@@ -3576,13 +3699,25 @@
         <v>0.2741</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E132" s="0" t="n">
         <v>0.04</v>
+      </c>
+      <c r="F132" s="0" t="n">
+        <v>0.211</v>
+      </c>
+      <c r="G132" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H132" s="0" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I132" s="0" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3593,13 +3728,25 @@
         <v>0.00073872</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D133" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E133" s="0" t="n">
         <v>0.031</v>
+      </c>
+      <c r="F133" s="0" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="G133" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H133" s="0" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="I133" s="0" t="n">
+        <v>0.92</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3610,7 +3757,7 @@
         <v>5.5114E-005</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>5</v>
@@ -3627,7 +3774,7 @@
         <v>7.581E-005</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>6</v>
@@ -3644,7 +3791,7 @@
         <v>5.0484E-005</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>7</v>
@@ -3661,7 +3808,7 @@
         <v>0.0012329</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D137" s="0" t="n">
         <v>8</v>
@@ -3678,7 +3825,7 @@
         <v>0.0007946</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>9</v>
@@ -3695,7 +3842,7 @@
         <v>0.00052887</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>10</v>
@@ -3712,7 +3859,7 @@
         <v>0.00048127</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>11</v>
@@ -3729,7 +3876,7 @@
         <v>0.001023</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>12</v>
@@ -3746,7 +3893,7 @@
         <v>0.00084802</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>13</v>
@@ -3763,7 +3910,7 @@
         <v>0.003607</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>14</v>
@@ -3780,7 +3927,7 @@
         <v>0.18602</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D144" s="0" t="n">
         <v>15</v>
@@ -3789,7 +3936,7 @@
         <v>0.043</v>
       </c>
       <c r="J144" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3800,7 +3947,7 @@
         <v>0.045356</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D145" s="0" t="n">
         <v>1</v>
@@ -3809,7 +3956,7 @@
         <v>0.043</v>
       </c>
       <c r="J145" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3820,7 +3967,7 @@
         <v>0.00028769</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>2</v>
@@ -3837,7 +3984,7 @@
         <v>0.00014377</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>3</v>
@@ -3854,7 +4001,7 @@
         <v>0.0029846</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>4</v>
@@ -3871,7 +4018,7 @@
         <v>0.027861</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>5</v>
@@ -3880,7 +4027,7 @@
         <v>0.043</v>
       </c>
       <c r="J149" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3891,7 +4038,7 @@
         <v>0.13127</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>6</v>
@@ -3900,7 +4047,7 @@
         <v>0.043</v>
       </c>
       <c r="J150" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3911,7 +4058,7 @@
         <v>2.8017E-005</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>7</v>
@@ -3928,7 +4075,7 @@
         <v>0.01021</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>8</v>
@@ -3937,7 +4084,7 @@
         <v>0.042</v>
       </c>
       <c r="J152" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3948,7 +4095,7 @@
         <v>0.004497</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>9</v>
@@ -3965,7 +4112,7 @@
         <v>0.0044713</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>10</v>
@@ -3974,7 +4121,7 @@
         <v>0.129</v>
       </c>
       <c r="J154" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3985,7 +4132,7 @@
         <v>0.19318</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>11</v>
@@ -3994,7 +4141,7 @@
         <v>0.042</v>
       </c>
       <c r="J155" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4005,7 +4152,7 @@
         <v>0.0014238</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D156" s="0" t="n">
         <v>12</v>
@@ -4025,7 +4172,7 @@
         <v>0.11008</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>13</v>
@@ -4034,7 +4181,7 @@
         <v>0.042</v>
       </c>
       <c r="J157" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4045,7 +4192,7 @@
         <v>9.3986E-005</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>14</v>
@@ -4065,7 +4212,7 @@
         <v>4.3753E-005</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>15</v>
@@ -4082,7 +4229,7 @@
         <v>43</v>
       </c>
       <c r="G161" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4090,10 +4237,10 @@
         <v>45</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G162" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4101,7 +4248,7 @@
         <v>3</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4154,7 +4301,7 @@
         <v>7E-005</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>1</v>

--- a/experiments/hyperparameters/hyperparemeter_search.xlsx
+++ b/experiments/hyperparameters/hyperparemeter_search.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="163">
   <si>
     <t>EXPERIMENT 1</t>
   </si>
@@ -494,13 +494,16 @@
     <t>10 .^ unifrnd(-6,-2,30,1)</t>
   </si>
   <si>
-    <t>For plots deleted points with 6 highest alphas or 6 highest lambdas (if repreated)</t>
+    <t>For plots deleted points with 6 highest alphas or 6 highest lambdas (if repeated)</t>
   </si>
   <si>
     <t>10 .^ unifrnd(-5, 0, 30, 1)</t>
   </si>
   <si>
     <t>run115</t>
+  </si>
+  <si>
+    <t>run118</t>
   </si>
 </sst>
 </file>
@@ -620,10 +623,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J167"/>
+  <dimension ref="A1:J168"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A125" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F134" activeCellId="0" sqref="F134"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A135" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B168" activeCellId="0" sqref="B168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3765,6 +3768,18 @@
       <c r="E134" s="0" t="n">
         <v>0.044</v>
       </c>
+      <c r="F134" s="0" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="G134" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H134" s="0" t="n">
+        <v>0.366</v>
+      </c>
+      <c r="I134" s="0" t="n">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="n">
@@ -3782,6 +3797,18 @@
       <c r="E135" s="0" t="n">
         <v>0.032</v>
       </c>
+      <c r="F135" s="0" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="G135" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H135" s="0" t="n">
+        <v>0.376</v>
+      </c>
+      <c r="I135" s="0" t="n">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="n">
@@ -3799,6 +3826,18 @@
       <c r="E136" s="0" t="n">
         <v>0.028</v>
       </c>
+      <c r="F136" s="0" t="n">
+        <v>0.307</v>
+      </c>
+      <c r="G136" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H136" s="0" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="I136" s="0" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="4" t="n">
@@ -3816,6 +3855,18 @@
       <c r="E137" s="0" t="n">
         <v>0.026</v>
       </c>
+      <c r="F137" s="0" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="G137" s="0" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H137" s="0" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="I137" s="0" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="4" t="n">
@@ -3833,6 +3884,18 @@
       <c r="E138" s="0" t="n">
         <v>0.026</v>
       </c>
+      <c r="F138" s="0" t="n">
+        <v>0.321</v>
+      </c>
+      <c r="G138" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H138" s="0" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="I138" s="0" t="n">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="4" t="n">
@@ -3850,6 +3913,18 @@
       <c r="E139" s="0" t="n">
         <v>0.026</v>
       </c>
+      <c r="F139" s="0" t="n">
+        <v>0.323</v>
+      </c>
+      <c r="G139" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H139" s="0" t="n">
+        <v>0.378</v>
+      </c>
+      <c r="I139" s="0" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="n">
@@ -3867,6 +3942,18 @@
       <c r="E140" s="0" t="n">
         <v>0.027</v>
       </c>
+      <c r="F140" s="0" t="n">
+        <v>0.334</v>
+      </c>
+      <c r="G140" s="0" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H140" s="0" t="n">
+        <v>0.387</v>
+      </c>
+      <c r="I140" s="0" t="n">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="4" t="n">
@@ -3884,6 +3971,18 @@
       <c r="E141" s="0" t="n">
         <v>0.025</v>
       </c>
+      <c r="F141" s="0" t="n">
+        <v>0.321</v>
+      </c>
+      <c r="G141" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H141" s="0" t="n">
+        <v>0.374</v>
+      </c>
+      <c r="I141" s="0" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="4" t="n">
@@ -3901,6 +4000,18 @@
       <c r="E142" s="0" t="n">
         <v>0.024</v>
       </c>
+      <c r="F142" s="0" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G142" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H142" s="0" t="n">
+        <v>0.369</v>
+      </c>
+      <c r="I142" s="0" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="4" t="n">
@@ -3918,6 +4029,18 @@
       <c r="E143" s="0" t="n">
         <v>0.023</v>
       </c>
+      <c r="F143" s="0" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="G143" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H143" s="0" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="I143" s="0" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="4" t="n">
@@ -3935,6 +4058,18 @@
       <c r="E144" s="0" t="n">
         <v>0.043</v>
       </c>
+      <c r="F144" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G144" s="0" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H144" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I144" s="0" t="n">
+        <v>0.13</v>
+      </c>
       <c r="J144" s="0" t="s">
         <v>91</v>
       </c>
@@ -3955,6 +4090,18 @@
       <c r="E145" s="0" t="n">
         <v>0.043</v>
       </c>
+      <c r="F145" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G145" s="0" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H145" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I145" s="0" t="n">
+        <v>0.13</v>
+      </c>
       <c r="J145" s="0" t="s">
         <v>91</v>
       </c>
@@ -3975,6 +4122,18 @@
       <c r="E146" s="0" t="n">
         <v>0.022</v>
       </c>
+      <c r="F146" s="0" t="n">
+        <v>0.314</v>
+      </c>
+      <c r="G146" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H146" s="0" t="n">
+        <v>0.373</v>
+      </c>
+      <c r="I146" s="0" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="4" t="n">
@@ -3992,6 +4151,18 @@
       <c r="E147" s="0" t="n">
         <v>0.036</v>
       </c>
+      <c r="F147" s="0" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G147" s="0" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H147" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I147" s="0" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="4" t="n">
@@ -4008,6 +4179,18 @@
       </c>
       <c r="E148" s="0" t="n">
         <v>0.028</v>
+      </c>
+      <c r="F148" s="0" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G148" s="0" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H148" s="0" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I148" s="0" t="n">
+        <v>0.54</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4314,6 +4497,17 @@
       </c>
       <c r="G167" s="0" t="n">
         <v>0.58</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="n">
+        <v>4E-005</v>
+      </c>
+      <c r="B168" s="0" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="C168" s="0" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/experiments/hyperparameters/hyperparemeter_search.xlsx
+++ b/experiments/hyperparameters/hyperparemeter_search.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="174" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="87" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="163">
   <si>
     <t>EXPERIMENT 1</t>
   </si>
@@ -494,7 +494,7 @@
     <t>10 .^ unifrnd(-6,-2,30,1)</t>
   </si>
   <si>
-    <t>For plots deleted points with 6 highest alphas or 6 highest lambdas (if repeated)</t>
+    <t>For plots deleted points with 10 highest alphas or 10 highest lambdas (if repeated)</t>
   </si>
   <si>
     <t>10 .^ unifrnd(-5, 0, 30, 1)</t>
@@ -625,8 +625,8 @@
   </sheetPr>
   <dimension ref="A1:J168"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A135" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B168" activeCellId="0" sqref="B168"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A141" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G162" activeCellId="0" sqref="G162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4209,6 +4209,18 @@
       <c r="E149" s="0" t="n">
         <v>0.043</v>
       </c>
+      <c r="F149" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G149" s="0" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H149" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I149" s="0" t="n">
+        <v>0.08</v>
+      </c>
       <c r="J149" s="0" t="s">
         <v>91</v>
       </c>
@@ -4229,6 +4241,18 @@
       <c r="E150" s="0" t="n">
         <v>0.043</v>
       </c>
+      <c r="F150" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G150" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H150" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I150" s="0" t="n">
+        <v>0.04</v>
+      </c>
       <c r="J150" s="0" t="s">
         <v>91</v>
       </c>
@@ -4249,6 +4273,18 @@
       <c r="E151" s="0" t="n">
         <v>0.035</v>
       </c>
+      <c r="F151" s="0" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="G151" s="0" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H151" s="0" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="I151" s="0" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="4" t="n">
@@ -4266,6 +4302,18 @@
       <c r="E152" s="0" t="n">
         <v>0.042</v>
       </c>
+      <c r="F152" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G152" s="0" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H152" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I152" s="0" t="n">
+        <v>0.08</v>
+      </c>
       <c r="J152" s="0" t="s">
         <v>91</v>
       </c>
@@ -4286,6 +4334,18 @@
       <c r="E153" s="0" t="n">
         <v>0.024</v>
       </c>
+      <c r="F153" s="0" t="n">
+        <v>0.289</v>
+      </c>
+      <c r="G153" s="0" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H153" s="0" t="n">
+        <v>0.366</v>
+      </c>
+      <c r="I153" s="0" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="4" t="n">
@@ -4303,8 +4363,17 @@
       <c r="E154" s="0" t="n">
         <v>0.129</v>
       </c>
-      <c r="J154" s="0" t="s">
-        <v>91</v>
+      <c r="F154" s="0" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="G154" s="0" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H154" s="0" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="I154" s="0" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4323,6 +4392,18 @@
       <c r="E155" s="0" t="n">
         <v>0.042</v>
       </c>
+      <c r="F155" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G155" s="0" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H155" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I155" s="0" t="n">
+        <v>0.08</v>
+      </c>
       <c r="J155" s="0" t="s">
         <v>91</v>
       </c>
@@ -4343,6 +4424,18 @@
       <c r="E156" s="0" t="n">
         <v>162.36</v>
       </c>
+      <c r="F156" s="0" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="G156" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H156" s="0" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I156" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="J156" s="0" t="s">
         <v>36</v>
       </c>
@@ -4363,6 +4456,18 @@
       <c r="E157" s="0" t="n">
         <v>0.042</v>
       </c>
+      <c r="F157" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G157" s="0" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H157" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I157" s="0" t="n">
+        <v>0.13</v>
+      </c>
       <c r="J157" s="0" t="s">
         <v>91</v>
       </c>
@@ -4383,6 +4488,18 @@
       <c r="E158" s="0" t="n">
         <v>2443.44</v>
       </c>
+      <c r="F158" s="0" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="G158" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H158" s="0" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="I158" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="J158" s="0" t="s">
         <v>36</v>
       </c>
@@ -4402,6 +4519,18 @@
       </c>
       <c r="E159" s="0" t="n">
         <v>174586</v>
+      </c>
+      <c r="F159" s="0" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="G159" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H159" s="0" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="I159" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="J159" s="0" t="s">
         <v>36</v>
@@ -4470,8 +4599,12 @@
       <c r="G166" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H166" s="3"/>
-      <c r="I166" s="3"/>
+      <c r="H166" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I166" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="J166" s="3" t="s">
         <v>11</v>
       </c>
@@ -4493,10 +4626,16 @@
         <v>0.017</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>0.149</v>
+        <v>0.329</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>0.58</v>
+        <v>0.83</v>
+      </c>
+      <c r="H167" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I167" s="0" t="n">
+        <v>0.83</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4508,6 +4647,9 @@
       </c>
       <c r="C168" s="0" t="s">
         <v>162</v>
+      </c>
+      <c r="D168" s="0" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/experiments/hyperparameters/hyperparemeter_search.xlsx
+++ b/experiments/hyperparameters/hyperparemeter_search.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="87" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="89" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="164">
   <si>
     <t>EXPERIMENT 1</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>run117</t>
+  </si>
+  <si>
+    <t>selected with the new IOU</t>
   </si>
   <si>
     <t>EXPERIMENT 2</t>
@@ -625,8 +628,8 @@
   </sheetPr>
   <dimension ref="A1:J168"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A141" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G162" activeCellId="0" sqref="G162"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A79" activeCellId="0" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2389,10 +2392,28 @@
       <c r="D76" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="E76" s="0" t="n">
+        <v>0.2085</v>
+      </c>
+      <c r="F76" s="0" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="G76" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H76" s="0" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="I76" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J76" s="0" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2406,7 +2427,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2458,7 +2479,7 @@
         <v>0.000153030184042259</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>1</v>
@@ -2487,7 +2508,7 @@
         <v>0.613281671174882</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>2</v>
@@ -2516,7 +2537,7 @@
         <v>0.00083424047044789</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>3</v>
@@ -2545,7 +2566,7 @@
         <v>0.00145975149652255</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>4</v>
@@ -2574,7 +2595,7 @@
         <v>0.00214462479812596</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>5</v>
@@ -2603,7 +2624,7 @@
         <v>0.00204027518128024</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>6</v>
@@ -2632,7 +2653,7 @@
         <v>2.2261234522861</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>7</v>
@@ -2653,7 +2674,7 @@
         <v>0.42</v>
       </c>
       <c r="J88" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2664,7 +2685,7 @@
         <v>0.00363581666441528</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>8</v>
@@ -2693,7 +2714,7 @@
         <v>0.385037978791714</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>9</v>
@@ -2714,7 +2735,7 @@
         <v>0.21</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2725,7 +2746,7 @@
         <v>0.046693736064734</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>10</v>
@@ -2746,7 +2767,7 @@
         <v>0.08</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2757,7 +2778,7 @@
         <v>0.162706410105612</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>11</v>
@@ -2778,7 +2799,7 @@
         <v>0.25</v>
       </c>
       <c r="J92" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2789,7 +2810,7 @@
         <v>0.000189095715104318</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>12</v>
@@ -2818,7 +2839,7 @@
         <v>1.13708526519229</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>13</v>
@@ -2839,7 +2860,7 @@
         <v>0.17</v>
       </c>
       <c r="J94" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2850,7 +2871,7 @@
         <v>0.00657401455755455</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>14</v>
@@ -2871,7 +2892,7 @@
         <v>0.38</v>
       </c>
       <c r="J95" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2882,7 +2903,7 @@
         <v>0.457935644905112</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>15</v>
@@ -2903,7 +2924,7 @@
         <v>0.17</v>
       </c>
       <c r="J96" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2914,7 +2935,7 @@
         <v>0.0299086467558126</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>1</v>
@@ -2935,7 +2956,7 @@
         <v>0.25</v>
       </c>
       <c r="J97" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2946,7 +2967,7 @@
         <v>1.35138015113964</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>2</v>
@@ -2967,7 +2988,7 @@
         <v>0.08</v>
       </c>
       <c r="J98" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2978,7 +2999,7 @@
         <v>0.132421974305338</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>3</v>
@@ -2999,7 +3020,7 @@
         <v>1</v>
       </c>
       <c r="J99" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3010,7 +3031,7 @@
         <v>1.98269006319899</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>4</v>
@@ -3031,7 +3052,7 @@
         <v>0.13</v>
       </c>
       <c r="J100" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3042,7 +3063,7 @@
         <v>3.39161236924989</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>5</v>
@@ -3063,7 +3084,7 @@
         <v>0.08</v>
       </c>
       <c r="J101" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3074,7 +3095,7 @@
         <v>0.0017523256961147</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>6</v>
@@ -3095,7 +3116,7 @@
         <v>1</v>
       </c>
       <c r="J102" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3106,7 +3127,7 @@
         <v>0.448429759066528</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>7</v>
@@ -3127,7 +3148,7 @@
         <v>1</v>
       </c>
       <c r="J103" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3138,7 +3159,7 @@
         <v>0.00467719681179643</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>8</v>
@@ -3170,7 +3191,7 @@
         <v>0.0496849799771728</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>9</v>
@@ -3202,7 +3223,7 @@
         <v>0.00730849961283516</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>10</v>
@@ -3234,7 +3255,7 @@
         <v>0.357772344667488</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>11</v>
@@ -3266,7 +3287,7 @@
         <v>1.78066366225851</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>12</v>
@@ -3298,7 +3319,7 @@
         <v>0.510827647752</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>1</v>
@@ -3330,7 +3351,7 @@
         <v>0.00185294947891615</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>2</v>
@@ -3362,7 +3383,7 @@
         <v>2.84541673997607</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>3</v>
@@ -3396,10 +3417,10 @@
         <v>45</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3407,10 +3428,10 @@
         <v>3</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3467,7 +3488,7 @@
         <v>0.002</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>1</v>
@@ -3496,15 +3517,33 @@
         <v>0.002</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="E120" s="0" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="F120" s="0" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="G120" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H120" s="0" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="I120" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="J120" s="0" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -3552,7 +3591,7 @@
         <v>0.003</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>2</v>
@@ -3573,12 +3612,12 @@
         <v>0.71</v>
       </c>
       <c r="J124" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -3592,7 +3631,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -3644,7 +3683,7 @@
         <v>0.26921</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>1</v>
@@ -3673,7 +3712,7 @@
         <v>3.0387E-005</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>2</v>
@@ -3702,7 +3741,7 @@
         <v>0.2741</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>3</v>
@@ -3731,7 +3770,7 @@
         <v>0.00073872</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D133" s="0" t="n">
         <v>4</v>
@@ -3760,7 +3799,7 @@
         <v>5.5114E-005</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>5</v>
@@ -3789,7 +3828,7 @@
         <v>7.581E-005</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>6</v>
@@ -3818,7 +3857,7 @@
         <v>5.0484E-005</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>7</v>
@@ -3847,7 +3886,7 @@
         <v>0.0012329</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D137" s="0" t="n">
         <v>8</v>
@@ -3876,7 +3915,7 @@
         <v>0.0007946</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>9</v>
@@ -3905,7 +3944,7 @@
         <v>0.00052887</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>10</v>
@@ -3934,7 +3973,7 @@
         <v>0.00048127</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>11</v>
@@ -3963,7 +4002,7 @@
         <v>0.001023</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>12</v>
@@ -3992,7 +4031,7 @@
         <v>0.00084802</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>13</v>
@@ -4021,7 +4060,7 @@
         <v>0.003607</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>14</v>
@@ -4050,7 +4089,7 @@
         <v>0.18602</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D144" s="0" t="n">
         <v>15</v>
@@ -4071,7 +4110,7 @@
         <v>0.13</v>
       </c>
       <c r="J144" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4082,7 +4121,7 @@
         <v>0.045356</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D145" s="0" t="n">
         <v>1</v>
@@ -4103,7 +4142,7 @@
         <v>0.13</v>
       </c>
       <c r="J145" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4114,7 +4153,7 @@
         <v>0.00028769</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>2</v>
@@ -4143,7 +4182,7 @@
         <v>0.00014377</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>3</v>
@@ -4172,7 +4211,7 @@
         <v>0.0029846</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>4</v>
@@ -4201,7 +4240,7 @@
         <v>0.027861</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>5</v>
@@ -4222,7 +4261,7 @@
         <v>0.08</v>
       </c>
       <c r="J149" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4233,7 +4272,7 @@
         <v>0.13127</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>6</v>
@@ -4254,7 +4293,7 @@
         <v>0.04</v>
       </c>
       <c r="J150" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4265,7 +4304,7 @@
         <v>2.8017E-005</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>7</v>
@@ -4294,7 +4333,7 @@
         <v>0.01021</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>8</v>
@@ -4315,7 +4354,7 @@
         <v>0.08</v>
       </c>
       <c r="J152" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4326,7 +4365,7 @@
         <v>0.004497</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>9</v>
@@ -4355,7 +4394,7 @@
         <v>0.0044713</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>10</v>
@@ -4384,7 +4423,7 @@
         <v>0.19318</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>11</v>
@@ -4405,7 +4444,7 @@
         <v>0.08</v>
       </c>
       <c r="J155" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4416,7 +4455,7 @@
         <v>0.0014238</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D156" s="0" t="n">
         <v>12</v>
@@ -4448,7 +4487,7 @@
         <v>0.11008</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>13</v>
@@ -4469,7 +4508,7 @@
         <v>0.13</v>
       </c>
       <c r="J157" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4480,7 +4519,7 @@
         <v>9.3986E-005</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>14</v>
@@ -4512,7 +4551,7 @@
         <v>4.3753E-005</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>15</v>
@@ -4541,7 +4580,7 @@
         <v>43</v>
       </c>
       <c r="G161" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4549,10 +4588,10 @@
         <v>45</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G162" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4560,7 +4599,7 @@
         <v>3</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4617,7 +4656,7 @@
         <v>7E-005</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>1</v>
@@ -4646,10 +4685,13 @@
         <v>0.0004</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>16</v>
+      </c>
+      <c r="J168" s="0" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/experiments/hyperparameters/hyperparemeter_search.xlsx
+++ b/experiments/hyperparameters/hyperparemeter_search.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="173">
   <si>
     <t>EXPERIMENT 1</t>
   </si>
@@ -507,6 +507,33 @@
   </si>
   <si>
     <t>run118</t>
+  </si>
+  <si>
+    <t>TESTING DATA NEEDS</t>
+  </si>
+  <si>
+    <t>run119</t>
+  </si>
+  <si>
+    <t>Trained with  9 patients</t>
+  </si>
+  <si>
+    <t>run120</t>
+  </si>
+  <si>
+    <t>Trained with 18 patients</t>
+  </si>
+  <si>
+    <t>run121</t>
+  </si>
+  <si>
+    <t>Trained with 27 patients</t>
+  </si>
+  <si>
+    <t>run122</t>
+  </si>
+  <si>
+    <t>Trained with 36 patients</t>
   </si>
 </sst>
 </file>
@@ -626,10 +653,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J168"/>
+  <dimension ref="A1:J174"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A79" activeCellId="0" sqref="A79"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A157" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D176" activeCellId="0" sqref="D176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4692,6 +4719,79 @@
       </c>
       <c r="J168" s="0" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E170" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="n">
+        <v>4E-005</v>
+      </c>
+      <c r="B171" s="0" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="C171" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D171" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="n">
+        <v>4E-005</v>
+      </c>
+      <c r="B172" s="0" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="C172" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="D172" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J172" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="n">
+        <v>4E-005</v>
+      </c>
+      <c r="B173" s="0" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="C173" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D173" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="J173" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="n">
+        <v>4E-005</v>
+      </c>
+      <c r="B174" s="0" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="C174" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="D174" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J174" s="0" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/experiments/hyperparameters/hyperparemeter_search.xlsx
+++ b/experiments/hyperparameters/hyperparemeter_search.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="89" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="90" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -655,8 +655,8 @@
   </sheetPr>
   <dimension ref="A1:J174"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A157" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D176" activeCellId="0" sqref="D176"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A149" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D168" activeCellId="0" sqref="D168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4716,6 +4716,21 @@
       </c>
       <c r="D168" s="0" t="n">
         <v>16</v>
+      </c>
+      <c r="E168" s="0" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="F168" s="0" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="G168" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H168" s="0" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="I168" s="0" t="n">
+        <v>0.87</v>
       </c>
       <c r="J168" s="0" t="s">
         <v>82</v>

--- a/experiments/hyperparameters/hyperparemeter_search.xlsx
+++ b/experiments/hyperparameters/hyperparemeter_search.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="90" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="44" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="273">
   <si>
     <t>EXPERIMENT 1</t>
   </si>
@@ -509,31 +509,331 @@
     <t>run118</t>
   </si>
   <si>
-    <t>TESTING DATA NEEDS</t>
+    <t>EXPERIMENT 5</t>
+  </si>
+  <si>
+    <t>10 .^ unifrnd(-6,-3,20,1)</t>
+  </si>
+  <si>
+    <t>10 .^ unifrnd(-5, -2, 20, 1)</t>
+  </si>
+  <si>
+    <t>FOLD 1</t>
+  </si>
+  <si>
+    <t>Sensitivity at 1 FP</t>
   </si>
   <si>
     <t>run119</t>
   </si>
   <si>
-    <t>Trained with  9 patients</t>
-  </si>
-  <si>
     <t>run120</t>
   </si>
   <si>
-    <t>Trained with 18 patients</t>
-  </si>
-  <si>
     <t>run121</t>
   </si>
   <si>
-    <t>Trained with 27 patients</t>
-  </si>
-  <si>
     <t>run122</t>
   </si>
   <si>
-    <t>Trained with 36 patients</t>
+    <t>run123</t>
+  </si>
+  <si>
+    <t>run124</t>
+  </si>
+  <si>
+    <t>run125</t>
+  </si>
+  <si>
+    <t>run126</t>
+  </si>
+  <si>
+    <t>run127</t>
+  </si>
+  <si>
+    <t>run128</t>
+  </si>
+  <si>
+    <t>run129</t>
+  </si>
+  <si>
+    <t>run130</t>
+  </si>
+  <si>
+    <t>run131</t>
+  </si>
+  <si>
+    <t>run132</t>
+  </si>
+  <si>
+    <t>run133</t>
+  </si>
+  <si>
+    <t>run134</t>
+  </si>
+  <si>
+    <t>run135</t>
+  </si>
+  <si>
+    <t>run136</t>
+  </si>
+  <si>
+    <t>run137</t>
+  </si>
+  <si>
+    <t>run138</t>
+  </si>
+  <si>
+    <t>FOLD 2</t>
+  </si>
+  <si>
+    <t>run139</t>
+  </si>
+  <si>
+    <t>run140</t>
+  </si>
+  <si>
+    <t>run141</t>
+  </si>
+  <si>
+    <t>run142</t>
+  </si>
+  <si>
+    <t>run143</t>
+  </si>
+  <si>
+    <t>run144</t>
+  </si>
+  <si>
+    <t>run145</t>
+  </si>
+  <si>
+    <t>run146</t>
+  </si>
+  <si>
+    <t>run147</t>
+  </si>
+  <si>
+    <t>run148</t>
+  </si>
+  <si>
+    <t>run149</t>
+  </si>
+  <si>
+    <t>run150</t>
+  </si>
+  <si>
+    <t>run151</t>
+  </si>
+  <si>
+    <t>run152</t>
+  </si>
+  <si>
+    <t>run153</t>
+  </si>
+  <si>
+    <t>run154</t>
+  </si>
+  <si>
+    <t>run155</t>
+  </si>
+  <si>
+    <t>run156</t>
+  </si>
+  <si>
+    <t>run157</t>
+  </si>
+  <si>
+    <t>run158</t>
+  </si>
+  <si>
+    <t>FOLD 3</t>
+  </si>
+  <si>
+    <t>run159</t>
+  </si>
+  <si>
+    <t>run160</t>
+  </si>
+  <si>
+    <t>run161</t>
+  </si>
+  <si>
+    <t>run162</t>
+  </si>
+  <si>
+    <t>run163</t>
+  </si>
+  <si>
+    <t>run164</t>
+  </si>
+  <si>
+    <t>run165</t>
+  </si>
+  <si>
+    <t>run166</t>
+  </si>
+  <si>
+    <t>run167</t>
+  </si>
+  <si>
+    <t>run168</t>
+  </si>
+  <si>
+    <t>run169</t>
+  </si>
+  <si>
+    <t>run170</t>
+  </si>
+  <si>
+    <t>run171</t>
+  </si>
+  <si>
+    <t>run172</t>
+  </si>
+  <si>
+    <t>run173</t>
+  </si>
+  <si>
+    <t>run174</t>
+  </si>
+  <si>
+    <t>run175</t>
+  </si>
+  <si>
+    <t>run176</t>
+  </si>
+  <si>
+    <t>run177</t>
+  </si>
+  <si>
+    <t>run178</t>
+  </si>
+  <si>
+    <t>FOLD 4</t>
+  </si>
+  <si>
+    <t>run179</t>
+  </si>
+  <si>
+    <t>run180</t>
+  </si>
+  <si>
+    <t>run181</t>
+  </si>
+  <si>
+    <t>run182</t>
+  </si>
+  <si>
+    <t>run183</t>
+  </si>
+  <si>
+    <t>run184</t>
+  </si>
+  <si>
+    <t>run185</t>
+  </si>
+  <si>
+    <t>run186</t>
+  </si>
+  <si>
+    <t>run187</t>
+  </si>
+  <si>
+    <t>run188</t>
+  </si>
+  <si>
+    <t>run189</t>
+  </si>
+  <si>
+    <t>run190</t>
+  </si>
+  <si>
+    <t>run191</t>
+  </si>
+  <si>
+    <t>run192</t>
+  </si>
+  <si>
+    <t>run193</t>
+  </si>
+  <si>
+    <t>run194</t>
+  </si>
+  <si>
+    <t>run195</t>
+  </si>
+  <si>
+    <t>run196</t>
+  </si>
+  <si>
+    <t>run197</t>
+  </si>
+  <si>
+    <t>run198</t>
+  </si>
+  <si>
+    <t>FOLD 5</t>
+  </si>
+  <si>
+    <t>run199</t>
+  </si>
+  <si>
+    <t>run200</t>
+  </si>
+  <si>
+    <t>run201</t>
+  </si>
+  <si>
+    <t>run202</t>
+  </si>
+  <si>
+    <t>run203</t>
+  </si>
+  <si>
+    <t>run204</t>
+  </si>
+  <si>
+    <t>run205</t>
+  </si>
+  <si>
+    <t>run206</t>
+  </si>
+  <si>
+    <t>run207</t>
+  </si>
+  <si>
+    <t>run208</t>
+  </si>
+  <si>
+    <t>run209</t>
+  </si>
+  <si>
+    <t>run210</t>
+  </si>
+  <si>
+    <t>run211</t>
+  </si>
+  <si>
+    <t>run212</t>
+  </si>
+  <si>
+    <t>run213</t>
+  </si>
+  <si>
+    <t>run214</t>
+  </si>
+  <si>
+    <t>run215</t>
+  </si>
+  <si>
+    <t>run216</t>
+  </si>
+  <si>
+    <t>run217</t>
+  </si>
+  <si>
+    <t>run218</t>
   </si>
 </sst>
 </file>
@@ -615,7 +915,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -636,6 +936,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -653,10 +969,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J174"/>
+  <dimension ref="A1:J289"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A149" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D168" activeCellId="0" sqref="D168"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A257" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D289" activeCellId="0" sqref="D289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -665,7 +981,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.91836734693878"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.02551020408163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1071428571429"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.02551020408163"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.030612244898"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.49489795918367"/>
@@ -4736,81 +5052,1310 @@
         <v>82</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E170" s="0" t="s">
+    <row r="170" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="5" t="s">
         <v>164</v>
       </c>
+      <c r="B170" s="5"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5"/>
+      <c r="H170" s="6"/>
+      <c r="I170" s="6"/>
+      <c r="J170" s="6"/>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="n">
-        <v>4E-005</v>
-      </c>
-      <c r="B171" s="0" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="C171" s="0" t="s">
+      <c r="G171" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B172" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="D171" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J171" s="0" t="s">
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B173" s="0" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="n">
-        <v>4E-005</v>
-      </c>
-      <c r="B172" s="0" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="C172" s="0" t="s">
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D172" s="0" t="n">
+      <c r="B175" s="8"/>
+      <c r="C175" s="8"/>
+      <c r="D175" s="8"/>
+      <c r="E175" s="8"/>
+      <c r="F175" s="8"/>
+      <c r="G175" s="8"/>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J172" s="0" t="s">
+      <c r="B176" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E176" s="3" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="n">
-        <v>4E-005</v>
-      </c>
-      <c r="B173" s="0" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="C173" s="0" t="s">
+      <c r="F176" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G176" s="3"/>
+      <c r="H176" s="3"/>
+      <c r="I176" s="3"/>
+      <c r="J176" s="3"/>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="4" t="n">
+        <v>1.0142E-006</v>
+      </c>
+      <c r="B177" s="4" t="n">
+        <v>9.604E-005</v>
+      </c>
+      <c r="C177" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="D173" s="0" t="n">
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="4" t="n">
+        <v>1.0233E-006</v>
+      </c>
+      <c r="B178" s="4" t="n">
+        <v>0.0002448</v>
+      </c>
+      <c r="C178" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="4" t="n">
+        <v>1.0841E-006</v>
+      </c>
+      <c r="B179" s="4" t="n">
+        <v>0.0032389</v>
+      </c>
+      <c r="C179" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="4" t="n">
+        <v>1.8351E-006</v>
+      </c>
+      <c r="B180" s="4" t="n">
+        <v>0.00026536</v>
+      </c>
+      <c r="C180" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="4" t="n">
+        <v>1.884E-006</v>
+      </c>
+      <c r="B181" s="4" t="n">
+        <v>0.00041019</v>
+      </c>
+      <c r="C181" s="0" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="4" t="n">
+        <v>5.3708E-006</v>
+      </c>
+      <c r="B182" s="4" t="n">
+        <v>0.0043428</v>
+      </c>
+      <c r="C182" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="4" t="n">
+        <v>9.8779E-006</v>
+      </c>
+      <c r="B183" s="4" t="n">
+        <v>0.0013152</v>
+      </c>
+      <c r="C183" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="4" t="n">
+        <v>1.3695E-005</v>
+      </c>
+      <c r="B184" s="4" t="n">
+        <v>0.0022697</v>
+      </c>
+      <c r="C184" s="0" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="4" t="n">
+        <v>1.4248E-005</v>
+      </c>
+      <c r="B185" s="4" t="n">
+        <v>0.0011763</v>
+      </c>
+      <c r="C185" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="4" t="n">
+        <v>2.2204E-005</v>
+      </c>
+      <c r="B186" s="4" t="n">
+        <v>0.0082486</v>
+      </c>
+      <c r="C186" s="0" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="4" t="n">
+        <v>6.8759E-005</v>
+      </c>
+      <c r="B187" s="4" t="n">
+        <v>0.0011636</v>
+      </c>
+      <c r="C187" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="4" t="n">
+        <v>9.2493E-005</v>
+      </c>
+      <c r="B188" s="4" t="n">
+        <v>0.007235</v>
+      </c>
+      <c r="C188" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="4" t="n">
+        <v>0.00010145</v>
+      </c>
+      <c r="B189" s="4" t="n">
+        <v>4.1566E-005</v>
+      </c>
+      <c r="C189" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="4" t="n">
+        <v>0.00013277</v>
+      </c>
+      <c r="B190" s="4" t="n">
+        <v>3.0331E-005</v>
+      </c>
+      <c r="C190" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="4" t="n">
+        <v>0.00014112</v>
+      </c>
+      <c r="B191" s="4" t="n">
+        <v>0.00013957</v>
+      </c>
+      <c r="C191" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="4" t="n">
+        <v>0.00015218</v>
+      </c>
+      <c r="B192" s="4" t="n">
+        <v>0.0092628</v>
+      </c>
+      <c r="C192" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="4" t="n">
+        <v>0.0001619</v>
+      </c>
+      <c r="B193" s="4" t="n">
+        <v>4.2377E-005</v>
+      </c>
+      <c r="C193" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="4" t="n">
+        <v>0.00018239</v>
+      </c>
+      <c r="B194" s="4" t="n">
+        <v>0.00065686</v>
+      </c>
+      <c r="C194" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="4" t="n">
+        <v>0.00020334</v>
+      </c>
+      <c r="B195" s="4" t="n">
+        <v>0.0017722</v>
+      </c>
+      <c r="C195" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="4" t="n">
+        <v>0.00033756</v>
+      </c>
+      <c r="B196" s="4" t="n">
+        <v>4.865E-005</v>
+      </c>
+      <c r="C196" s="0" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="4"/>
+      <c r="B197" s="4"/>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B198" s="8"/>
+      <c r="C198" s="8"/>
+      <c r="D198" s="8"/>
+      <c r="E198" s="8"/>
+      <c r="F198" s="8"/>
+      <c r="G198" s="8"/>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C199" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J173" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="n">
-        <v>4E-005</v>
-      </c>
-      <c r="B174" s="0" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="C174" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="D174" s="0" t="n">
+      <c r="D199" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J174" s="0" t="s">
-        <v>172</v>
+      <c r="E199" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G199" s="3"/>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="4" t="n">
+        <v>1.3046E-006</v>
+      </c>
+      <c r="B200" s="4" t="n">
+        <v>0.0081469</v>
+      </c>
+      <c r="C200" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="4" t="n">
+        <v>1.7997E-006</v>
+      </c>
+      <c r="B201" s="4" t="n">
+        <v>7.1376E-005</v>
+      </c>
+      <c r="C201" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="4" t="n">
+        <v>5.0152E-006</v>
+      </c>
+      <c r="B202" s="4" t="n">
+        <v>0.0076164</v>
+      </c>
+      <c r="C202" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="4" t="n">
+        <v>5.1798E-006</v>
+      </c>
+      <c r="B203" s="4" t="n">
+        <v>1.7388E-005</v>
+      </c>
+      <c r="C203" s="0" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="4" t="n">
+        <v>6.2983E-006</v>
+      </c>
+      <c r="B204" s="4" t="n">
+        <v>0.0030497</v>
+      </c>
+      <c r="C204" s="0" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="4" t="n">
+        <v>7.9168E-006</v>
+      </c>
+      <c r="B205" s="4" t="n">
+        <v>0.00010315</v>
+      </c>
+      <c r="C205" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="4" t="n">
+        <v>1.0965E-005</v>
+      </c>
+      <c r="B206" s="4" t="n">
+        <v>0.0013602</v>
+      </c>
+      <c r="C206" s="0" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="4" t="n">
+        <v>1.5319E-005</v>
+      </c>
+      <c r="B207" s="4" t="n">
+        <v>0.00096282</v>
+      </c>
+      <c r="C207" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="4" t="n">
+        <v>2.7644E-005</v>
+      </c>
+      <c r="B208" s="4" t="n">
+        <v>0.0040169</v>
+      </c>
+      <c r="C208" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="4" t="n">
+        <v>3.1701E-005</v>
+      </c>
+      <c r="B209" s="4" t="n">
+        <v>1.9898E-005</v>
+      </c>
+      <c r="C209" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="4" t="n">
+        <v>4.6209E-005</v>
+      </c>
+      <c r="B210" s="4" t="n">
+        <v>0.00033514</v>
+      </c>
+      <c r="C210" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="4" t="n">
+        <v>6.5702E-005</v>
+      </c>
+      <c r="B211" s="4" t="n">
+        <v>0.0023599</v>
+      </c>
+      <c r="C211" s="0" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="4" t="n">
+        <v>8.735E-005</v>
+      </c>
+      <c r="B212" s="4" t="n">
+        <v>0.00076194</v>
+      </c>
+      <c r="C212" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="4" t="n">
+        <v>0.00010395</v>
+      </c>
+      <c r="B213" s="4" t="n">
+        <v>1.2382E-005</v>
+      </c>
+      <c r="C213" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="4" t="n">
+        <v>0.00010891</v>
+      </c>
+      <c r="B214" s="4" t="n">
+        <v>0.00032943</v>
+      </c>
+      <c r="C214" s="0" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="4" t="n">
+        <v>0.00012128</v>
+      </c>
+      <c r="B215" s="4" t="n">
+        <v>1.4192E-005</v>
+      </c>
+      <c r="C215" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="4" t="n">
+        <v>0.00013277</v>
+      </c>
+      <c r="B216" s="4" t="n">
+        <v>0.0001822</v>
+      </c>
+      <c r="C216" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="4" t="n">
+        <v>0.00020519</v>
+      </c>
+      <c r="B217" s="4" t="n">
+        <v>0.00048907</v>
+      </c>
+      <c r="C217" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="4" t="n">
+        <v>0.00021098</v>
+      </c>
+      <c r="B218" s="4" t="n">
+        <v>1.4903E-005</v>
+      </c>
+      <c r="C218" s="0" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="4" t="n">
+        <v>0.00029057</v>
+      </c>
+      <c r="B219" s="4" t="n">
+        <v>0.0020068</v>
+      </c>
+      <c r="C219" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B222" s="8"/>
+      <c r="C222" s="8"/>
+      <c r="D222" s="8"/>
+      <c r="E222" s="8"/>
+      <c r="F222" s="8"/>
+      <c r="G222" s="8"/>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G223" s="3"/>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="4" t="n">
+        <v>1.1525E-006</v>
+      </c>
+      <c r="B224" s="4" t="n">
+        <v>0.0088613</v>
+      </c>
+      <c r="C224" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="4" t="n">
+        <v>1.9541E-006</v>
+      </c>
+      <c r="B225" s="4" t="n">
+        <v>0.0029732</v>
+      </c>
+      <c r="C225" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="4" t="n">
+        <v>2.5457E-006</v>
+      </c>
+      <c r="B226" s="4" t="n">
+        <v>0.0023058</v>
+      </c>
+      <c r="C226" s="0" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="4" t="n">
+        <v>2.5719E-006</v>
+      </c>
+      <c r="B227" s="4" t="n">
+        <v>1.5295E-005</v>
+      </c>
+      <c r="C227" s="0" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="4" t="n">
+        <v>2.6422E-006</v>
+      </c>
+      <c r="B228" s="4" t="n">
+        <v>4.3111E-005</v>
+      </c>
+      <c r="C228" s="0" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="4" t="n">
+        <v>4.1739E-006</v>
+      </c>
+      <c r="B229" s="4" t="n">
+        <v>8.9233E-005</v>
+      </c>
+      <c r="C229" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="4" t="n">
+        <v>5.2851E-006</v>
+      </c>
+      <c r="B230" s="4" t="n">
+        <v>0.0011654</v>
+      </c>
+      <c r="C230" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="4" t="n">
+        <v>6.1969E-006</v>
+      </c>
+      <c r="B231" s="4" t="n">
+        <v>0.0030468</v>
+      </c>
+      <c r="C231" s="0" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="4" t="n">
+        <v>1.2174E-005</v>
+      </c>
+      <c r="B232" s="4" t="n">
+        <v>1.0253E-005</v>
+      </c>
+      <c r="C232" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="4" t="n">
+        <v>1.6923E-005</v>
+      </c>
+      <c r="B233" s="4" t="n">
+        <v>0.0085398</v>
+      </c>
+      <c r="C233" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="4" t="n">
+        <v>3.1471E-005</v>
+      </c>
+      <c r="B234" s="4" t="n">
+        <v>0.0016365</v>
+      </c>
+      <c r="C234" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="4" t="n">
+        <v>3.5402E-005</v>
+      </c>
+      <c r="B235" s="4" t="n">
+        <v>0.0034775</v>
+      </c>
+      <c r="C235" s="0" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="4" t="n">
+        <v>0.00010075</v>
+      </c>
+      <c r="B236" s="4" t="n">
+        <v>0.00054477</v>
+      </c>
+      <c r="C236" s="0" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="4" t="n">
+        <v>0.00011874</v>
+      </c>
+      <c r="B237" s="4" t="n">
+        <v>0.0008241</v>
+      </c>
+      <c r="C237" s="0" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="4" t="n">
+        <v>0.0001528</v>
+      </c>
+      <c r="B238" s="4" t="n">
+        <v>1.237E-005</v>
+      </c>
+      <c r="C238" s="0" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="4" t="n">
+        <v>0.00030354</v>
+      </c>
+      <c r="B239" s="4" t="n">
+        <v>0.00023357</v>
+      </c>
+      <c r="C239" s="0" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="4" t="n">
+        <v>0.00040619</v>
+      </c>
+      <c r="B240" s="4" t="n">
+        <v>3.9005E-005</v>
+      </c>
+      <c r="C240" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="4" t="n">
+        <v>0.00042135</v>
+      </c>
+      <c r="B241" s="4" t="n">
+        <v>0.0005247</v>
+      </c>
+      <c r="C241" s="0" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="4" t="n">
+        <v>0.00045896</v>
+      </c>
+      <c r="B242" s="4" t="n">
+        <v>0.0015115</v>
+      </c>
+      <c r="C242" s="0" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="4" t="n">
+        <v>0.0005339</v>
+      </c>
+      <c r="B243" s="4" t="n">
+        <v>0.0042897</v>
+      </c>
+      <c r="C243" s="0" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B245" s="8"/>
+      <c r="C245" s="8"/>
+      <c r="D245" s="8"/>
+      <c r="E245" s="8"/>
+      <c r="F245" s="8"/>
+      <c r="G245" s="8"/>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F246" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G246" s="3"/>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="4" t="n">
+        <v>1.184E-006</v>
+      </c>
+      <c r="B247" s="4" t="n">
+        <v>2.6828E-005</v>
+      </c>
+      <c r="C247" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="4" t="n">
+        <v>1.2401E-006</v>
+      </c>
+      <c r="B248" s="4" t="n">
+        <v>2.4106E-005</v>
+      </c>
+      <c r="C248" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="4" t="n">
+        <v>1.6061E-006</v>
+      </c>
+      <c r="B249" s="4" t="n">
+        <v>0.0013852</v>
+      </c>
+      <c r="C249" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="4" t="n">
+        <v>1.9214E-006</v>
+      </c>
+      <c r="B250" s="4" t="n">
+        <v>0.0041538</v>
+      </c>
+      <c r="C250" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="4" t="n">
+        <v>2.2533E-006</v>
+      </c>
+      <c r="B251" s="4" t="n">
+        <v>0.00017461</v>
+      </c>
+      <c r="C251" s="0" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="4" t="n">
+        <v>3.3368E-006</v>
+      </c>
+      <c r="B252" s="4" t="n">
+        <v>0.0094434</v>
+      </c>
+      <c r="C252" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="4" t="n">
+        <v>3.5201E-006</v>
+      </c>
+      <c r="B253" s="4" t="n">
+        <v>0.0040985</v>
+      </c>
+      <c r="C253" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="4" t="n">
+        <v>6.3087E-006</v>
+      </c>
+      <c r="B254" s="4" t="n">
+        <v>0.0015637</v>
+      </c>
+      <c r="C254" s="0" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="4" t="n">
+        <v>6.9586E-006</v>
+      </c>
+      <c r="B255" s="4" t="n">
+        <v>1.1856E-005</v>
+      </c>
+      <c r="C255" s="0" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="4" t="n">
+        <v>8.8822E-006</v>
+      </c>
+      <c r="B256" s="4" t="n">
+        <v>0.00021993</v>
+      </c>
+      <c r="C256" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="4" t="n">
+        <v>1.3367E-005</v>
+      </c>
+      <c r="B257" s="4" t="n">
+        <v>0.0065187</v>
+      </c>
+      <c r="C257" s="0" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="4" t="n">
+        <v>1.6922E-005</v>
+      </c>
+      <c r="B258" s="4" t="n">
+        <v>0.00035985</v>
+      </c>
+      <c r="C258" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="4" t="n">
+        <v>2.129E-005</v>
+      </c>
+      <c r="B259" s="4" t="n">
+        <v>0.00014556</v>
+      </c>
+      <c r="C259" s="0" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="4" t="n">
+        <v>2.9596E-005</v>
+      </c>
+      <c r="B260" s="4" t="n">
+        <v>0.0013433</v>
+      </c>
+      <c r="C260" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="4" t="n">
+        <v>5.2853E-005</v>
+      </c>
+      <c r="B261" s="4" t="n">
+        <v>0.0022414</v>
+      </c>
+      <c r="C261" s="0" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="4" t="n">
+        <v>6.7666E-005</v>
+      </c>
+      <c r="B262" s="4" t="n">
+        <v>0.0004469</v>
+      </c>
+      <c r="C262" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="4" t="n">
+        <v>7.7972E-005</v>
+      </c>
+      <c r="B263" s="4" t="n">
+        <v>0.00016623</v>
+      </c>
+      <c r="C263" s="0" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="4" t="n">
+        <v>0.0003556</v>
+      </c>
+      <c r="B264" s="4" t="n">
+        <v>0.0001298</v>
+      </c>
+      <c r="C264" s="0" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="4" t="n">
+        <v>0.00048796</v>
+      </c>
+      <c r="B265" s="4" t="n">
+        <v>0.0011746</v>
+      </c>
+      <c r="C265" s="0" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="4" t="n">
+        <v>0.00060909</v>
+      </c>
+      <c r="B266" s="4" t="n">
+        <v>0.0021742</v>
+      </c>
+      <c r="C266" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B268" s="8"/>
+      <c r="C268" s="8"/>
+      <c r="D268" s="8"/>
+      <c r="E268" s="8"/>
+      <c r="F268" s="8"/>
+      <c r="G268" s="8"/>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F269" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G269" s="3"/>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="4" t="n">
+        <v>1.168E-006</v>
+      </c>
+      <c r="B270" s="4" t="n">
+        <v>0.00075123</v>
+      </c>
+      <c r="C270" s="0" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="4" t="n">
+        <v>1.6246E-006</v>
+      </c>
+      <c r="B271" s="4" t="n">
+        <v>0.00014036</v>
+      </c>
+      <c r="C271" s="0" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="4" t="n">
+        <v>2.5423E-006</v>
+      </c>
+      <c r="B272" s="4" t="n">
+        <v>0.00028934</v>
+      </c>
+      <c r="C272" s="0" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="4" t="n">
+        <v>3.0206E-006</v>
+      </c>
+      <c r="B273" s="4" t="n">
+        <v>0.000835</v>
+      </c>
+      <c r="C273" s="0" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="4" t="n">
+        <v>3.1572E-006</v>
+      </c>
+      <c r="B274" s="4" t="n">
+        <v>0.00028199</v>
+      </c>
+      <c r="C274" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="4" t="n">
+        <v>7.4662E-006</v>
+      </c>
+      <c r="B275" s="4" t="n">
+        <v>2.8634E-005</v>
+      </c>
+      <c r="C275" s="0" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="4" t="n">
+        <v>1.3895E-005</v>
+      </c>
+      <c r="B276" s="4" t="n">
+        <v>4.3236E-005</v>
+      </c>
+      <c r="C276" s="0" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="4" t="n">
+        <v>1.8327E-005</v>
+      </c>
+      <c r="B277" s="4" t="n">
+        <v>0.00033783</v>
+      </c>
+      <c r="C277" s="0" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="4" t="n">
+        <v>2.086E-005</v>
+      </c>
+      <c r="B278" s="4" t="n">
+        <v>1.6489E-005</v>
+      </c>
+      <c r="C278" s="0" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="4" t="n">
+        <v>3.6832E-005</v>
+      </c>
+      <c r="B279" s="4" t="n">
+        <v>0.0090524</v>
+      </c>
+      <c r="C279" s="0" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="4" t="n">
+        <v>3.8073E-005</v>
+      </c>
+      <c r="B280" s="4" t="n">
+        <v>1.7867E-005</v>
+      </c>
+      <c r="C280" s="0" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="4" t="n">
+        <v>4.3127E-005</v>
+      </c>
+      <c r="B281" s="4" t="n">
+        <v>0.0022427</v>
+      </c>
+      <c r="C281" s="0" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="4" t="n">
+        <v>4.6419E-005</v>
+      </c>
+      <c r="B282" s="4" t="n">
+        <v>6.0039E-005</v>
+      </c>
+      <c r="C282" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="4" t="n">
+        <v>4.8813E-005</v>
+      </c>
+      <c r="B283" s="4" t="n">
+        <v>6.2692E-005</v>
+      </c>
+      <c r="C283" s="0" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="4" t="n">
+        <v>7.7068E-005</v>
+      </c>
+      <c r="B284" s="4" t="n">
+        <v>5.9073E-005</v>
+      </c>
+      <c r="C284" s="0" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="4" t="n">
+        <v>0.00027972</v>
+      </c>
+      <c r="B285" s="4" t="n">
+        <v>2.8384E-005</v>
+      </c>
+      <c r="C285" s="0" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="4" t="n">
+        <v>0.00046318</v>
+      </c>
+      <c r="B286" s="4" t="n">
+        <v>0.0079559</v>
+      </c>
+      <c r="C286" s="0" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="4" t="n">
+        <v>0.00067943</v>
+      </c>
+      <c r="B287" s="4" t="n">
+        <v>0.00015135</v>
+      </c>
+      <c r="C287" s="0" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="4" t="n">
+        <v>0.00084265</v>
+      </c>
+      <c r="B288" s="4" t="n">
+        <v>0.0084705</v>
+      </c>
+      <c r="C288" s="0" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="4" t="n">
+        <v>0.00090503</v>
+      </c>
+      <c r="B289" s="4" t="n">
+        <v>5.9722E-005</v>
+      </c>
+      <c r="C289" s="0" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="18">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A41:J41"/>
@@ -4823,6 +6368,12 @@
     <mergeCell ref="A127:J127"/>
     <mergeCell ref="A128:J128"/>
     <mergeCell ref="A165:J165"/>
+    <mergeCell ref="A170:G170"/>
+    <mergeCell ref="A175:G175"/>
+    <mergeCell ref="A198:G198"/>
+    <mergeCell ref="A222:G222"/>
+    <mergeCell ref="A245:G245"/>
+    <mergeCell ref="A268:G268"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/experiments/hyperparameters/hyperparemeter_search.xlsx
+++ b/experiments/hyperparameters/hyperparemeter_search.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="285">
   <si>
     <t>EXPERIMENT 1</t>
   </si>
@@ -509,12 +509,15 @@
     <t>run118</t>
   </si>
   <si>
-    <t>EXPERIMENT 5</t>
+    <t>EXPERIMENT 4</t>
   </si>
   <si>
     <t>10 .^ unifrnd(-6,-3,20,1)</t>
   </si>
   <si>
+    <t>5 folds</t>
+  </si>
+  <si>
     <t>10 .^ unifrnd(-5, -2, 20, 1)</t>
   </si>
   <si>
@@ -527,6 +530,9 @@
     <t>run119</t>
   </si>
   <si>
+    <t>restarted</t>
+  </si>
+  <si>
     <t>run120</t>
   </si>
   <si>
@@ -834,6 +840,36 @@
   </si>
   <si>
     <t>run218</t>
+  </si>
+  <si>
+    <t>run219</t>
+  </si>
+  <si>
+    <t>fold1</t>
+  </si>
+  <si>
+    <t>run220</t>
+  </si>
+  <si>
+    <t>fold2</t>
+  </si>
+  <si>
+    <t>run221</t>
+  </si>
+  <si>
+    <t>fold3</t>
+  </si>
+  <si>
+    <t>run222</t>
+  </si>
+  <si>
+    <t>fold4</t>
+  </si>
+  <si>
+    <t>run223</t>
+  </si>
+  <si>
+    <t>fold5</t>
   </si>
 </sst>
 </file>
@@ -867,12 +903,24 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor rgb="FF0000FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -915,13 +963,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -932,7 +984,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -940,16 +1008,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -969,10 +1037,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J289"/>
+  <dimension ref="A1:J297"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A257" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D289" activeCellId="0" sqref="D289"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A280" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A196" activeCellId="0" sqref="177:196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -989,7 +1057,7 @@
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1004,117 +1072,117 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+    <row r="4" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="n">
         <v>4.01858032309636E-006</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="5" t="n">
         <v>19.8148065443621</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="6" t="n">
         <v>0.403</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="6" t="n">
         <v>0.015</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="6" t="n">
         <v>0.04</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="6" t="n">
         <v>0.03</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="6" t="n">
         <v>0.04</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+    <row r="5" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="n">
         <v>1.19358138232734E-005</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="5" t="n">
         <v>41.9523538553435</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="6" t="n">
         <v>0.503</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="6" t="n">
         <v>0.015</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="6" t="n">
         <v>0.25</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="6" t="n">
         <v>0.03</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="6" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="7" t="n">
         <v>1.79392416489465E-005</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="7" t="n">
         <v>1.13176203046361</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="0" t="n">
@@ -1136,72 +1204,72 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+    <row r="7" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="n">
         <v>1.90907422969486E-005</v>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="5" t="n">
         <v>20.109230821923</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="6" t="n">
         <v>0.527</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="6" t="n">
         <v>0.015</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="6" t="n">
         <v>0.38</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="6" t="n">
         <v>0.03</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="6" t="n">
         <v>0.38</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+    <row r="8" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="n">
         <v>2.6397912198931E-005</v>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="8" t="n">
         <v>0.0342846451308202</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="9" t="n">
         <v>0.238</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="9" t="n">
         <v>0.13</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="9" t="n">
         <v>0.46</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="9" t="n">
         <v>0.194</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="9" t="n">
         <v>0.42</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
+      <c r="A9" s="7" t="n">
         <v>3.85045809095347E-005</v>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="7" t="n">
         <v>0.003815984082409</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="0" t="n">
@@ -1223,72 +1291,72 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
+    <row r="10" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="n">
         <v>3.8566307369656E-005</v>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="5" t="n">
         <v>1.04676418044599</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="6" t="n">
         <v>0.183</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="6" t="n">
         <v>0.019</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="6" t="n">
         <v>0.13</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="6" t="n">
         <v>0.036</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="6" t="n">
         <v>0.13</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
+    <row r="11" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
         <v>0.000105216417178866</v>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="5" t="n">
         <v>2.21182387803038</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="6" t="n">
         <v>0.146</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="6" t="n">
         <v>0.015</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="6" t="n">
         <v>0.08</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="6" t="n">
         <v>0.03</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="6" t="n">
         <v>0.08</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
+      <c r="A12" s="7" t="n">
         <v>0.000148177674561573</v>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="7" t="n">
         <v>0.127485643480525</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="0" t="n">
@@ -1310,573 +1378,573 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
+    <row r="13" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="n">
         <v>0.000435545693917001</v>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="5" t="n">
         <v>114.536998751119</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="6" t="n">
         <v>0.232</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="6" t="n">
         <v>0.015</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="6" t="n">
         <v>0.17</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="6" t="n">
         <v>0.03</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13" s="6" t="n">
         <v>0.17</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
+    <row r="14" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="n">
         <v>0.00048538512489507</v>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="8" t="n">
         <v>0.00349680934648399</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="9" t="n">
         <v>0.083</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="9" t="n">
         <v>0.145</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="9" t="n">
         <v>0.13</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="9" t="n">
         <v>0.208</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14" s="9" t="n">
         <v>0.13</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
+    <row r="15" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="n">
         <v>0.00115245369567716</v>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="5" t="n">
         <v>0.0407721285113296</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="6" t="n">
         <v>0.086</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="6" t="n">
         <v>0.015</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15" s="6" t="n">
         <v>0.03</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
+    <row r="16" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="n">
         <v>0.00196166958565778</v>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="5" t="n">
         <v>654.557000601105</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="6" t="n">
         <v>0.082</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="6" t="n">
         <v>0.015</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16" s="6" t="n">
         <v>0.03</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
+    <row r="17" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="n">
         <v>0.00208625677297505</v>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="5" t="n">
         <v>0.18852187448211</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="6" t="n">
         <v>0.085</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17" s="6" t="n">
         <v>0.015</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17" s="6" t="n">
         <v>0.03</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
+    <row r="18" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="n">
         <v>0.00406339723443987</v>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18" s="5" t="n">
         <v>172.280303410619</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="6" t="n">
         <v>0.079</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18" s="6" t="n">
         <v>0.015</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18" s="6" t="n">
         <v>0.03</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I18" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
+    <row r="19" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="n">
         <v>0.0160210226405506</v>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19" s="5" t="n">
         <v>672.610866152973</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="6" t="n">
         <v>0.079</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="6" t="n">
         <v>0.015</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19" s="6" t="n">
         <v>0.03</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I19" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="n">
+    <row r="20" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="n">
         <v>0.016660915322018</v>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="5" t="n">
         <v>0.00534800269057661</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="E20" s="4" t="n">
+      <c r="E20" s="5" t="n">
         <v>20000000000</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="I20" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="n">
+    <row r="21" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="n">
         <v>0.018650034994404</v>
       </c>
-      <c r="B21" s="4" t="n">
+      <c r="B21" s="5" t="n">
         <v>0.0135922640948401</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="E21" s="4" t="n">
+      <c r="E21" s="5" t="n">
         <v>27000000</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="I21" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="n">
+    <row r="22" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="n">
         <v>0.0319706958722551</v>
       </c>
-      <c r="B22" s="4" t="n">
+      <c r="B22" s="5" t="n">
         <v>24.3237350489964</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22" s="6" t="n">
         <v>0.079</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22" s="6" t="n">
         <v>0.015</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="G22" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22" s="6" t="n">
         <v>0.03</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="I22" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="n">
+    <row r="23" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="n">
         <v>0.0360289660823857</v>
       </c>
-      <c r="B23" s="4" t="n">
+      <c r="B23" s="5" t="n">
         <v>30.065592432435</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23" s="6" t="n">
         <v>0.079</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23" s="6" t="n">
         <v>0.015</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="G23" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="H23" s="6" t="n">
         <v>0.03</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="I23" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="n">
+    <row r="24" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="n">
         <v>0.0403046300955655</v>
       </c>
-      <c r="B24" s="4" t="n">
+      <c r="B24" s="5" t="n">
         <v>13.9224313158425</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="E24" s="4" t="n">
+      <c r="E24" s="5" t="n">
         <v>1700000000000000</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="G24" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="H24" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="I24" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="n">
+    <row r="25" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="n">
         <v>0.0416438856969318</v>
       </c>
-      <c r="B25" s="4" t="n">
+      <c r="B25" s="5" t="n">
         <v>0.441615630387425</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="E25" s="4" t="n">
+      <c r="E25" s="5" t="n">
         <v>200000000000</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25" s="6" t="n">
         <v>0.001</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="G25" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="H25" s="6" t="n">
         <v>0.001</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="I25" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="n">
+    <row r="26" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="n">
         <v>0.0477143127548959</v>
       </c>
-      <c r="B26" s="4" t="n">
+      <c r="B26" s="5" t="n">
         <v>362.340173120484</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26" s="6" t="n">
         <v>0.08</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26" s="6" t="n">
         <v>0.015</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="G26" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="H26" s="6" t="n">
         <v>0.03</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="I26" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="n">
+    <row r="27" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="n">
         <v>0.118196472380363</v>
       </c>
-      <c r="B27" s="4" t="n">
+      <c r="B27" s="5" t="n">
         <v>0.158705081874316</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="E27" s="4" t="n">
+      <c r="E27" s="5" t="n">
         <v>4.4E+017</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="G27" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="H27" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="I27" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="J27" s="0" t="s">
+      <c r="J27" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="n">
+    <row r="28" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="n">
         <v>0.166692376976655</v>
       </c>
-      <c r="B28" s="4" t="n">
+      <c r="B28" s="5" t="n">
         <v>236.980250861124</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="E28" s="4" t="n">
+      <c r="E28" s="5" t="n">
         <v>1.4E+018</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="G28" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="H28" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="I28" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="J28" s="0" t="s">
+      <c r="J28" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="n">
+    <row r="29" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="n">
         <v>0.195167576000051</v>
       </c>
-      <c r="B29" s="4" t="n">
+      <c r="B29" s="5" t="n">
         <v>0.316073030698462</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="E29" s="4" t="n">
+      <c r="E29" s="5" t="n">
         <v>200000000000</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29" s="6" t="n">
         <v>0.017</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="G29" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="H29" s="6" t="n">
         <v>0.035</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="I29" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="J29" s="0" t="s">
+      <c r="J29" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="n">
+    <row r="30" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="n">
         <v>0.20916180975068</v>
       </c>
-      <c r="B30" s="4" t="n">
+      <c r="B30" s="5" t="n">
         <v>9.63696692139679</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="J30" s="0" t="s">
+      <c r="J30" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="n">
+    <row r="31" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="n">
         <v>0.234207591842348</v>
       </c>
-      <c r="B31" s="4" t="n">
+      <c r="B31" s="5" t="n">
         <v>0.225266479037908</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="J31" s="0" t="s">
+      <c r="J31" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="n">
+    <row r="32" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="n">
         <v>0.282505929083114</v>
       </c>
-      <c r="B32" s="4" t="n">
+      <c r="B32" s="5" t="n">
         <v>37.3747733037578</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="J32" s="0" t="s">
+      <c r="J32" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="n">
+    <row r="33" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="n">
         <v>0.58494141274888</v>
       </c>
-      <c r="B33" s="4" t="n">
+      <c r="B33" s="5" t="n">
         <v>181.737298056476</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="J33" s="0" t="s">
+      <c r="J33" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1911,175 +1979,175 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G42" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="I42" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="J42" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="n">
+    <row r="43" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="8" t="n">
         <v>1.03832710303222E-006</v>
       </c>
-      <c r="B43" s="4" t="n">
+      <c r="B43" s="8" t="n">
         <v>0.00300829771122991</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43" s="9" t="n">
         <v>0.466</v>
       </c>
-      <c r="F43" s="0" t="n">
+      <c r="F43" s="9" t="n">
         <v>0.318</v>
       </c>
-      <c r="G43" s="0" t="n">
+      <c r="G43" s="9" t="n">
         <v>0.96</v>
       </c>
-      <c r="H43" s="0" t="n">
+      <c r="H43" s="9" t="n">
         <v>0.363</v>
       </c>
-      <c r="I43" s="0" t="n">
+      <c r="I43" s="9" t="n">
         <v>0.92</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="n">
+    <row r="44" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5" t="n">
         <v>1.10610306438123E-006</v>
       </c>
-      <c r="B44" s="4" t="n">
+      <c r="B44" s="5" t="n">
         <v>0.000338909715960258</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44" s="6" t="n">
         <v>0.308</v>
       </c>
-      <c r="F44" s="0" t="n">
+      <c r="F44" s="6" t="n">
         <v>0.219</v>
       </c>
-      <c r="G44" s="0" t="n">
+      <c r="G44" s="6" t="n">
         <v>0.62</v>
       </c>
-      <c r="H44" s="0" t="n">
+      <c r="H44" s="6" t="n">
         <v>0.276</v>
       </c>
-      <c r="I44" s="0" t="n">
+      <c r="I44" s="6" t="n">
         <v>0.62</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="n">
+    <row r="45" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5" t="n">
         <v>1.4231564382078E-006</v>
       </c>
-      <c r="B45" s="4" t="n">
+      <c r="B45" s="5" t="n">
         <v>0.00214765374049253</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45" s="6" t="n">
         <v>0.278</v>
       </c>
-      <c r="F45" s="0" t="n">
+      <c r="F45" s="6" t="n">
         <v>0.182</v>
       </c>
-      <c r="G45" s="0" t="n">
+      <c r="G45" s="6" t="n">
         <v>0.62</v>
       </c>
-      <c r="H45" s="0" t="n">
+      <c r="H45" s="6" t="n">
         <v>0.242</v>
       </c>
-      <c r="I45" s="0" t="n">
+      <c r="I45" s="6" t="n">
         <v>0.62</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="n">
+    <row r="46" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5" t="n">
         <v>1.54208600071874E-006</v>
       </c>
-      <c r="B46" s="4" t="n">
+      <c r="B46" s="5" t="n">
         <v>0.00217747613620058</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="0" t="n">
+      <c r="D46" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E46" s="6" t="n">
         <v>0.206</v>
       </c>
-      <c r="F46" s="0" t="n">
+      <c r="F46" s="6" t="n">
         <v>0.227</v>
       </c>
-      <c r="G46" s="0" t="n">
+      <c r="G46" s="6" t="n">
         <v>0.67</v>
       </c>
-      <c r="H46" s="0" t="n">
+      <c r="H46" s="6" t="n">
         <v>0.27</v>
       </c>
-      <c r="I46" s="0" t="n">
+      <c r="I46" s="6" t="n">
         <v>0.62</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="n">
+      <c r="A47" s="7" t="n">
         <v>1.82479140350789E-006</v>
       </c>
-      <c r="B47" s="4" t="n">
+      <c r="B47" s="7" t="n">
         <v>0.0377388545111771</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="7" t="s">
         <v>55</v>
       </c>
       <c r="D47" s="0" t="n">
@@ -2102,13 +2170,13 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="n">
+      <c r="A48" s="7" t="n">
         <v>2.14933836088716E-006</v>
       </c>
-      <c r="B48" s="4" t="n">
+      <c r="B48" s="7" t="n">
         <v>0.0127298747056998</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="7" t="s">
         <v>56</v>
       </c>
       <c r="D48" s="0" t="n">
@@ -2130,72 +2198,72 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="n">
+    <row r="49" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="8" t="n">
         <v>2.22305235306986E-006</v>
       </c>
-      <c r="B49" s="4" t="n">
+      <c r="B49" s="8" t="n">
         <v>0.000542096462785538</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="D49" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="E49" s="9" t="n">
         <v>0.334</v>
       </c>
-      <c r="F49" s="0" t="n">
+      <c r="F49" s="9" t="n">
         <v>0.292</v>
       </c>
-      <c r="G49" s="0" t="n">
+      <c r="G49" s="9" t="n">
         <v>0.79</v>
       </c>
-      <c r="H49" s="0" t="n">
+      <c r="H49" s="9" t="n">
         <v>0.362</v>
       </c>
-      <c r="I49" s="0" t="n">
+      <c r="I49" s="9" t="n">
         <v>0.79</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="n">
+    <row r="50" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="8" t="n">
         <v>3.14614768104022E-006</v>
       </c>
-      <c r="B50" s="4" t="n">
+      <c r="B50" s="8" t="n">
         <v>0.000431893750100302</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D50" s="0" t="n">
+      <c r="D50" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="E50" s="0" t="n">
+      <c r="E50" s="9" t="n">
         <v>0.313</v>
       </c>
-      <c r="F50" s="0" t="n">
+      <c r="F50" s="9" t="n">
         <v>0.275</v>
       </c>
-      <c r="G50" s="0" t="n">
+      <c r="G50" s="9" t="n">
         <v>0.71</v>
       </c>
-      <c r="H50" s="0" t="n">
+      <c r="H50" s="9" t="n">
         <v>0.32</v>
       </c>
-      <c r="I50" s="0" t="n">
+      <c r="I50" s="9" t="n">
         <v>0.71</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="n">
+      <c r="A51" s="7" t="n">
         <v>3.57454702108591E-006</v>
       </c>
-      <c r="B51" s="4" t="n">
+      <c r="B51" s="7" t="n">
         <v>0.0388487377964991</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D51" s="0" t="n">
@@ -2217,43 +2285,43 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="n">
+    <row r="52" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="8" t="n">
         <v>7.23258635944392E-006</v>
       </c>
-      <c r="B52" s="4" t="n">
+      <c r="B52" s="8" t="n">
         <v>0.00500777479484594</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D52" s="0" t="n">
+      <c r="D52" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="E52" s="0" t="n">
+      <c r="E52" s="9" t="n">
         <v>0.294</v>
       </c>
-      <c r="F52" s="0" t="n">
+      <c r="F52" s="9" t="n">
         <v>0.283</v>
       </c>
-      <c r="G52" s="0" t="n">
+      <c r="G52" s="9" t="n">
         <v>0.62</v>
       </c>
-      <c r="H52" s="0" t="n">
+      <c r="H52" s="9" t="n">
         <v>0.343</v>
       </c>
-      <c r="I52" s="0" t="n">
+      <c r="I52" s="9" t="n">
         <v>0.62</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="n">
+      <c r="A53" s="7" t="n">
         <v>1.03198644329961E-005</v>
       </c>
-      <c r="B53" s="4" t="n">
+      <c r="B53" s="7" t="n">
         <v>7.40077844834827E-005</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="7" t="s">
         <v>61</v>
       </c>
       <c r="D53" s="0" t="n">
@@ -2276,13 +2344,13 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="n">
+      <c r="A54" s="7" t="n">
         <v>1.2500112144408E-005</v>
       </c>
-      <c r="B54" s="4" t="n">
+      <c r="B54" s="7" t="n">
         <v>1.81927676909693E-005</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="7" t="s">
         <v>62</v>
       </c>
       <c r="D54" s="0" t="n">
@@ -2304,72 +2372,72 @@
         <v>0.58</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="n">
+    <row r="55" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="5" t="n">
         <v>1.95353806753189E-005</v>
       </c>
-      <c r="B55" s="4" t="n">
+      <c r="B55" s="5" t="n">
         <v>0.0329270563182907</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D55" s="0" t="n">
+      <c r="D55" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="E55" s="0" t="n">
+      <c r="E55" s="6" t="n">
         <v>0.196</v>
       </c>
-      <c r="F55" s="0" t="n">
+      <c r="F55" s="6" t="n">
         <v>0.111</v>
       </c>
-      <c r="G55" s="0" t="n">
+      <c r="G55" s="6" t="n">
         <v>0.33</v>
       </c>
-      <c r="H55" s="0" t="n">
+      <c r="H55" s="6" t="n">
         <v>0.176</v>
       </c>
-      <c r="I55" s="0" t="n">
+      <c r="I55" s="6" t="n">
         <v>0.29</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="n">
+    <row r="56" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="5" t="n">
         <v>5.74635755817239E-005</v>
       </c>
-      <c r="B56" s="4" t="n">
+      <c r="B56" s="5" t="n">
         <v>0.00443696160874432</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D56" s="0" t="n">
+      <c r="D56" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="E56" s="0" t="n">
+      <c r="E56" s="6" t="n">
         <v>0.212</v>
       </c>
-      <c r="F56" s="0" t="n">
+      <c r="F56" s="6" t="n">
         <v>0.148</v>
       </c>
-      <c r="G56" s="0" t="n">
+      <c r="G56" s="6" t="n">
         <v>0.38</v>
       </c>
-      <c r="H56" s="0" t="n">
+      <c r="H56" s="6" t="n">
         <v>0.202</v>
       </c>
-      <c r="I56" s="0" t="n">
+      <c r="I56" s="6" t="n">
         <v>0.38</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="n">
+      <c r="A57" s="7" t="n">
         <v>7.01978251545733E-005</v>
       </c>
-      <c r="B57" s="4" t="n">
+      <c r="B57" s="7" t="n">
         <v>1.16151961891159E-005</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="7" t="s">
         <v>65</v>
       </c>
       <c r="D57" s="0" t="n">
@@ -2419,48 +2487,48 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E65" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="F65" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="G65" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H65" s="3" t="s">
+      <c r="H65" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I65" s="3" t="s">
+      <c r="I65" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J65" s="3" t="s">
+      <c r="J65" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2645,48 +2713,48 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="F74" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G74" s="3" t="s">
+      <c r="G74" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H74" s="3" t="s">
+      <c r="H74" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I74" s="3" t="s">
+      <c r="I74" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J74" s="3" t="s">
+      <c r="J74" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2754,7 +2822,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>83</v>
       </c>
@@ -2769,56 +2837,56 @@
       <c r="J79" s="1"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E81" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="F81" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="G81" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H81" s="3" t="s">
+      <c r="H81" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I81" s="3" t="s">
+      <c r="I81" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J81" s="3" t="s">
+      <c r="J81" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="4" t="n">
+      <c r="A82" s="7" t="n">
         <v>2.37212430659094E-006</v>
       </c>
-      <c r="B82" s="4" t="n">
+      <c r="B82" s="7" t="n">
         <v>0.000153030184042259</v>
       </c>
       <c r="C82" s="0" t="s">
@@ -2844,10 +2912,10 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="4" t="n">
+      <c r="A83" s="7" t="n">
         <v>2.92658784954665E-006</v>
       </c>
-      <c r="B83" s="4" t="n">
+      <c r="B83" s="7" t="n">
         <v>0.613281671174882</v>
       </c>
       <c r="C83" s="0" t="s">
@@ -2873,10 +2941,10 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="4" t="n">
+      <c r="A84" s="7" t="n">
         <v>3.11925888328523E-006</v>
       </c>
-      <c r="B84" s="4" t="n">
+      <c r="B84" s="7" t="n">
         <v>0.00083424047044789</v>
       </c>
       <c r="C84" s="0" t="s">
@@ -2901,130 +2969,130 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="4" t="n">
+    <row r="85" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="8" t="n">
         <v>4.64086009894884E-006</v>
       </c>
-      <c r="B85" s="4" t="n">
+      <c r="B85" s="8" t="n">
         <v>0.00145975149652255</v>
       </c>
-      <c r="C85" s="0" t="s">
+      <c r="C85" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D85" s="0" t="n">
+      <c r="D85" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="E85" s="0" t="n">
+      <c r="E85" s="9" t="n">
         <v>0.039</v>
       </c>
-      <c r="F85" s="0" t="n">
+      <c r="F85" s="9" t="n">
         <v>0.319</v>
       </c>
-      <c r="G85" s="0" t="n">
+      <c r="G85" s="9" t="n">
         <v>0.75</v>
       </c>
-      <c r="H85" s="0" t="n">
+      <c r="H85" s="9" t="n">
         <v>0.364</v>
       </c>
-      <c r="I85" s="0" t="n">
+      <c r="I85" s="9" t="n">
         <v>0.71</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="4" t="n">
+    <row r="86" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="8" t="n">
         <v>1.1194751961652E-005</v>
       </c>
-      <c r="B86" s="4" t="n">
+      <c r="B86" s="8" t="n">
         <v>0.00214462479812596</v>
       </c>
-      <c r="C86" s="0" t="s">
+      <c r="C86" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D86" s="0" t="n">
+      <c r="D86" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="E86" s="0" t="n">
+      <c r="E86" s="9" t="n">
         <v>0.043</v>
       </c>
-      <c r="F86" s="0" t="n">
+      <c r="F86" s="9" t="n">
         <v>0.296</v>
       </c>
-      <c r="G86" s="0" t="n">
+      <c r="G86" s="9" t="n">
         <v>0.75</v>
       </c>
-      <c r="H86" s="0" t="n">
+      <c r="H86" s="9" t="n">
         <v>0.362</v>
       </c>
-      <c r="I86" s="0" t="n">
+      <c r="I86" s="9" t="n">
         <v>0.71</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="4" t="n">
+    <row r="87" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="8" t="n">
         <v>2.11350915659449E-005</v>
       </c>
-      <c r="B87" s="4" t="n">
+      <c r="B87" s="8" t="n">
         <v>0.00204027518128024</v>
       </c>
-      <c r="C87" s="0" t="s">
+      <c r="C87" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D87" s="0" t="n">
+      <c r="D87" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="E87" s="0" t="n">
+      <c r="E87" s="9" t="n">
         <v>0.043</v>
       </c>
-      <c r="F87" s="0" t="n">
+      <c r="F87" s="9" t="n">
         <v>0.312</v>
       </c>
-      <c r="G87" s="0" t="n">
+      <c r="G87" s="9" t="n">
         <v>0.58</v>
       </c>
-      <c r="H87" s="0" t="n">
+      <c r="H87" s="9" t="n">
         <v>0.39</v>
       </c>
-      <c r="I87" s="0" t="n">
+      <c r="I87" s="9" t="n">
         <v>0.58</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="4" t="n">
+    <row r="88" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="5" t="n">
         <v>2.12620565819161E-005</v>
       </c>
-      <c r="B88" s="4" t="n">
+      <c r="B88" s="5" t="n">
         <v>2.2261234522861</v>
       </c>
-      <c r="C88" s="0" t="s">
+      <c r="C88" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D88" s="0" t="n">
+      <c r="D88" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="E88" s="0" t="n">
+      <c r="E88" s="6" t="n">
         <v>0.071</v>
       </c>
-      <c r="F88" s="0" t="n">
+      <c r="F88" s="6" t="n">
         <v>0.015</v>
       </c>
-      <c r="G88" s="0" t="n">
+      <c r="G88" s="6" t="n">
         <v>0.42</v>
       </c>
-      <c r="H88" s="0" t="n">
+      <c r="H88" s="6" t="n">
         <v>0.03</v>
       </c>
-      <c r="I88" s="0" t="n">
+      <c r="I88" s="6" t="n">
         <v>0.42</v>
       </c>
-      <c r="J88" s="0" t="s">
+      <c r="J88" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="4" t="n">
+      <c r="A89" s="7" t="n">
         <v>5.92481787389536E-005</v>
       </c>
-      <c r="B89" s="4" t="n">
+      <c r="B89" s="7" t="n">
         <v>0.00363581666441528</v>
       </c>
       <c r="C89" s="0" t="s">
@@ -3049,704 +3117,704 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="4" t="n">
+    <row r="90" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="5" t="n">
         <v>0.000148517666259164</v>
       </c>
-      <c r="B90" s="4" t="n">
+      <c r="B90" s="5" t="n">
         <v>0.385037978791714</v>
       </c>
-      <c r="C90" s="0" t="s">
+      <c r="C90" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D90" s="0" t="n">
+      <c r="D90" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="E90" s="0" t="n">
+      <c r="E90" s="6" t="n">
         <v>0.046</v>
       </c>
-      <c r="F90" s="0" t="n">
+      <c r="F90" s="6" t="n">
         <v>0.015</v>
       </c>
-      <c r="G90" s="0" t="n">
+      <c r="G90" s="6" t="n">
         <v>0.21</v>
       </c>
-      <c r="H90" s="0" t="n">
+      <c r="H90" s="6" t="n">
         <v>0.03</v>
       </c>
-      <c r="I90" s="0" t="n">
+      <c r="I90" s="6" t="n">
         <v>0.21</v>
       </c>
-      <c r="J90" s="0" t="s">
+      <c r="J90" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="4" t="n">
+    <row r="91" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="5" t="n">
         <v>0.000323225345060388</v>
       </c>
-      <c r="B91" s="4" t="n">
+      <c r="B91" s="5" t="n">
         <v>0.046693736064734</v>
       </c>
-      <c r="C91" s="0" t="s">
+      <c r="C91" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D91" s="0" t="n">
+      <c r="D91" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="E91" s="0" t="n">
+      <c r="E91" s="6" t="n">
         <v>0.042</v>
       </c>
-      <c r="F91" s="0" t="n">
+      <c r="F91" s="6" t="n">
         <v>0.015</v>
       </c>
-      <c r="G91" s="0" t="n">
+      <c r="G91" s="6" t="n">
         <v>0.08</v>
       </c>
-      <c r="H91" s="0" t="n">
+      <c r="H91" s="6" t="n">
         <v>0.03</v>
       </c>
-      <c r="I91" s="0" t="n">
+      <c r="I91" s="6" t="n">
         <v>0.08</v>
       </c>
-      <c r="J91" s="0" t="s">
+      <c r="J91" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="4" t="n">
+    <row r="92" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="5" t="n">
         <v>0.000451800495706413</v>
       </c>
-      <c r="B92" s="4" t="n">
+      <c r="B92" s="5" t="n">
         <v>0.162706410105612</v>
       </c>
-      <c r="C92" s="0" t="s">
+      <c r="C92" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D92" s="0" t="n">
+      <c r="D92" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="E92" s="0" t="n">
+      <c r="E92" s="6" t="n">
         <v>0.047</v>
       </c>
-      <c r="F92" s="0" t="n">
+      <c r="F92" s="6" t="n">
         <v>0.017</v>
       </c>
-      <c r="G92" s="0" t="n">
+      <c r="G92" s="6" t="n">
         <v>0.25</v>
       </c>
-      <c r="H92" s="0" t="n">
+      <c r="H92" s="6" t="n">
         <v>0.034</v>
       </c>
-      <c r="I92" s="0" t="n">
+      <c r="I92" s="6" t="n">
         <v>0.25</v>
       </c>
-      <c r="J92" s="0" t="s">
+      <c r="J92" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="4" t="n">
+    <row r="93" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="8" t="n">
         <v>0.000543602270696939</v>
       </c>
-      <c r="B93" s="4" t="n">
+      <c r="B93" s="8" t="n">
         <v>0.000189095715104318</v>
       </c>
-      <c r="C93" s="0" t="s">
+      <c r="C93" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D93" s="0" t="n">
+      <c r="D93" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="E93" s="0" t="n">
+      <c r="E93" s="9" t="n">
         <v>0.022</v>
       </c>
-      <c r="F93" s="0" t="n">
+      <c r="F93" s="9" t="n">
         <v>0.285</v>
       </c>
-      <c r="G93" s="0" t="n">
+      <c r="G93" s="9" t="n">
         <v>0.79</v>
       </c>
-      <c r="H93" s="0" t="n">
+      <c r="H93" s="9" t="n">
         <v>0.333</v>
       </c>
-      <c r="I93" s="0" t="n">
+      <c r="I93" s="9" t="n">
         <v>0.79</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="4" t="n">
+    <row r="94" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="5" t="n">
         <v>0.00070086575351308</v>
       </c>
-      <c r="B94" s="4" t="n">
+      <c r="B94" s="5" t="n">
         <v>1.13708526519229</v>
       </c>
-      <c r="C94" s="0" t="s">
+      <c r="C94" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D94" s="0" t="n">
+      <c r="D94" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="E94" s="0" t="n">
+      <c r="E94" s="6" t="n">
         <v>0.043</v>
       </c>
-      <c r="F94" s="0" t="n">
+      <c r="F94" s="6" t="n">
         <v>0.015</v>
       </c>
-      <c r="G94" s="0" t="n">
+      <c r="G94" s="6" t="n">
         <v>0.17</v>
       </c>
-      <c r="H94" s="0" t="n">
+      <c r="H94" s="6" t="n">
         <v>0.03</v>
       </c>
-      <c r="I94" s="0" t="n">
+      <c r="I94" s="6" t="n">
         <v>0.17</v>
       </c>
-      <c r="J94" s="0" t="s">
+      <c r="J94" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="4" t="n">
+    <row r="95" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="5" t="n">
         <v>0.000712802041515683</v>
       </c>
-      <c r="B95" s="4" t="n">
+      <c r="B95" s="5" t="n">
         <v>0.00657401455755455</v>
       </c>
-      <c r="C95" s="0" t="s">
+      <c r="C95" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D95" s="0" t="n">
+      <c r="D95" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="E95" s="0" t="n">
+      <c r="E95" s="6" t="n">
         <v>0.049</v>
       </c>
-      <c r="F95" s="0" t="n">
+      <c r="F95" s="6" t="n">
         <v>0.116</v>
       </c>
-      <c r="G95" s="0" t="n">
+      <c r="G95" s="6" t="n">
         <v>0.38</v>
       </c>
-      <c r="H95" s="0" t="n">
+      <c r="H95" s="6" t="n">
         <v>0.203</v>
       </c>
-      <c r="I95" s="0" t="n">
+      <c r="I95" s="6" t="n">
         <v>0.38</v>
       </c>
-      <c r="J95" s="0" t="s">
+      <c r="J95" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="4" t="n">
+    <row r="96" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="5" t="n">
         <v>0.00169493204815662</v>
       </c>
-      <c r="B96" s="4" t="n">
+      <c r="B96" s="5" t="n">
         <v>0.457935644905112</v>
       </c>
-      <c r="C96" s="0" t="s">
+      <c r="C96" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D96" s="0" t="n">
+      <c r="D96" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="E96" s="0" t="n">
+      <c r="E96" s="6" t="n">
         <v>0.044</v>
       </c>
-      <c r="F96" s="0" t="n">
+      <c r="F96" s="6" t="n">
         <v>0.015</v>
       </c>
-      <c r="G96" s="0" t="n">
+      <c r="G96" s="6" t="n">
         <v>0.17</v>
       </c>
-      <c r="H96" s="0" t="n">
+      <c r="H96" s="6" t="n">
         <v>0.03</v>
       </c>
-      <c r="I96" s="0" t="n">
+      <c r="I96" s="6" t="n">
         <v>0.17</v>
       </c>
-      <c r="J96" s="0" t="s">
+      <c r="J96" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="4" t="n">
+    <row r="97" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="5" t="n">
         <v>0.00491753848006796</v>
       </c>
-      <c r="B97" s="4" t="n">
+      <c r="B97" s="5" t="n">
         <v>0.0299086467558126</v>
       </c>
-      <c r="C97" s="0" t="s">
+      <c r="C97" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D97" s="0" t="n">
+      <c r="D97" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E97" s="0" t="n">
+      <c r="E97" s="6" t="n">
         <v>0.048</v>
       </c>
-      <c r="F97" s="0" t="n">
+      <c r="F97" s="6" t="n">
         <v>0.015</v>
       </c>
-      <c r="G97" s="0" t="n">
+      <c r="G97" s="6" t="n">
         <v>0.25</v>
       </c>
-      <c r="H97" s="0" t="n">
+      <c r="H97" s="6" t="n">
         <v>0.03</v>
       </c>
-      <c r="I97" s="0" t="n">
+      <c r="I97" s="6" t="n">
         <v>0.25</v>
       </c>
-      <c r="J97" s="0" t="s">
+      <c r="J97" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="4" t="n">
+    <row r="98" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="5" t="n">
         <v>0.009730199540858</v>
       </c>
-      <c r="B98" s="4" t="n">
+      <c r="B98" s="5" t="n">
         <v>1.35138015113964</v>
       </c>
-      <c r="C98" s="0" t="s">
+      <c r="C98" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D98" s="0" t="n">
+      <c r="D98" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="E98" s="0" t="n">
+      <c r="E98" s="6" t="n">
         <v>0.041</v>
       </c>
-      <c r="F98" s="0" t="n">
+      <c r="F98" s="6" t="n">
         <v>0.015</v>
       </c>
-      <c r="G98" s="0" t="n">
+      <c r="G98" s="6" t="n">
         <v>0.08</v>
       </c>
-      <c r="H98" s="0" t="n">
+      <c r="H98" s="6" t="n">
         <v>0.03</v>
       </c>
-      <c r="I98" s="0" t="n">
+      <c r="I98" s="6" t="n">
         <v>0.08</v>
       </c>
-      <c r="J98" s="0" t="s">
+      <c r="J98" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="4" t="n">
+    <row r="99" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="5" t="n">
         <v>0.0158543493861949</v>
       </c>
-      <c r="B99" s="4" t="n">
+      <c r="B99" s="5" t="n">
         <v>0.132421974305338</v>
       </c>
-      <c r="C99" s="0" t="s">
+      <c r="C99" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D99" s="0" t="n">
+      <c r="D99" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="E99" s="4" t="n">
+      <c r="E99" s="5" t="n">
         <v>380000000</v>
       </c>
-      <c r="F99" s="0" t="n">
+      <c r="F99" s="6" t="n">
         <v>0.014</v>
       </c>
-      <c r="G99" s="0" t="n">
+      <c r="G99" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H99" s="0" t="n">
+      <c r="H99" s="6" t="n">
         <v>0.022</v>
       </c>
-      <c r="I99" s="0" t="n">
+      <c r="I99" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="J99" s="0" t="s">
+      <c r="J99" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="4" t="n">
+    <row r="100" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="5" t="n">
         <v>0.0180511461759123</v>
       </c>
-      <c r="B100" s="4" t="n">
+      <c r="B100" s="5" t="n">
         <v>1.98269006319899</v>
       </c>
-      <c r="C100" s="0" t="s">
+      <c r="C100" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D100" s="0" t="n">
+      <c r="D100" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="E100" s="0" t="n">
+      <c r="E100" s="6" t="n">
         <v>0.042</v>
       </c>
-      <c r="F100" s="0" t="n">
+      <c r="F100" s="6" t="n">
         <v>0.015</v>
       </c>
-      <c r="G100" s="0" t="n">
+      <c r="G100" s="6" t="n">
         <v>0.13</v>
       </c>
-      <c r="H100" s="0" t="n">
+      <c r="H100" s="6" t="n">
         <v>0.03</v>
       </c>
-      <c r="I100" s="0" t="n">
+      <c r="I100" s="6" t="n">
         <v>0.13</v>
       </c>
-      <c r="J100" s="0" t="s">
+      <c r="J100" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="4" t="n">
+    <row r="101" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="5" t="n">
         <v>0.0193203812430167</v>
       </c>
-      <c r="B101" s="4" t="n">
+      <c r="B101" s="5" t="n">
         <v>3.39161236924989</v>
       </c>
-      <c r="C101" s="0" t="s">
+      <c r="C101" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D101" s="0" t="n">
+      <c r="D101" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="E101" s="0" t="n">
+      <c r="E101" s="6" t="n">
         <v>0.042</v>
       </c>
-      <c r="F101" s="0" t="n">
+      <c r="F101" s="6" t="n">
         <v>0.015</v>
       </c>
-      <c r="G101" s="0" t="n">
+      <c r="G101" s="6" t="n">
         <v>0.08</v>
       </c>
-      <c r="H101" s="0" t="n">
+      <c r="H101" s="6" t="n">
         <v>0.03</v>
       </c>
-      <c r="I101" s="0" t="n">
+      <c r="I101" s="6" t="n">
         <v>0.08</v>
       </c>
-      <c r="J101" s="0" t="s">
+      <c r="J101" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="4" t="n">
+    <row r="102" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="5" t="n">
         <v>0.0222714925955284</v>
       </c>
-      <c r="B102" s="4" t="n">
+      <c r="B102" s="5" t="n">
         <v>0.0017523256961147</v>
       </c>
-      <c r="C102" s="0" t="s">
+      <c r="C102" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D102" s="0" t="n">
+      <c r="D102" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="E102" s="4" t="n">
+      <c r="E102" s="5" t="n">
         <v>43400000000</v>
       </c>
-      <c r="F102" s="0" t="n">
+      <c r="F102" s="6" t="n">
         <v>0.005</v>
       </c>
-      <c r="G102" s="0" t="n">
+      <c r="G102" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H102" s="0" t="n">
+      <c r="H102" s="6" t="n">
         <v>0.009</v>
       </c>
-      <c r="I102" s="0" t="n">
+      <c r="I102" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="J102" s="0" t="s">
+      <c r="J102" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="4" t="n">
+    <row r="103" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="5" t="n">
         <v>0.0269112799731758</v>
       </c>
-      <c r="B103" s="4" t="n">
+      <c r="B103" s="5" t="n">
         <v>0.448429759066528</v>
       </c>
-      <c r="C103" s="0" t="s">
+      <c r="C103" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D103" s="0" t="n">
+      <c r="D103" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="E103" s="4" t="n">
+      <c r="E103" s="5" t="n">
         <v>1930000000</v>
       </c>
-      <c r="F103" s="0" t="n">
+      <c r="F103" s="6" t="n">
         <v>0.016</v>
       </c>
-      <c r="G103" s="0" t="n">
+      <c r="G103" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H103" s="0" t="n">
+      <c r="H103" s="6" t="n">
         <v>0.017</v>
       </c>
-      <c r="I103" s="0" t="n">
+      <c r="I103" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="J103" s="0" t="s">
+      <c r="J103" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="4" t="n">
+    <row r="104" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="5" t="n">
         <v>0.0377989110124175</v>
       </c>
-      <c r="B104" s="4" t="n">
+      <c r="B104" s="5" t="n">
         <v>0.00467719681179643</v>
       </c>
-      <c r="C104" s="0" t="s">
+      <c r="C104" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D104" s="0" t="n">
+      <c r="D104" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="E104" s="4" t="n">
+      <c r="E104" s="5" t="n">
         <v>636000000000</v>
       </c>
-      <c r="F104" s="0" t="n">
+      <c r="F104" s="6" t="n">
         <v>0.032</v>
       </c>
-      <c r="G104" s="0" t="n">
+      <c r="G104" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H104" s="0" t="n">
+      <c r="H104" s="6" t="n">
         <v>0.05</v>
       </c>
-      <c r="I104" s="0" t="n">
+      <c r="I104" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="J104" s="0" t="s">
+      <c r="J104" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="4" t="n">
+    <row r="105" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="5" t="n">
         <v>0.0387401858288901</v>
       </c>
-      <c r="B105" s="4" t="n">
+      <c r="B105" s="5" t="n">
         <v>0.0496849799771728</v>
       </c>
-      <c r="C105" s="0" t="s">
+      <c r="C105" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D105" s="0" t="n">
+      <c r="D105" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="E105" s="4" t="n">
+      <c r="E105" s="5" t="n">
         <v>18400000000000</v>
       </c>
-      <c r="F105" s="0" t="n">
+      <c r="F105" s="6" t="n">
         <v>0.015</v>
       </c>
-      <c r="G105" s="0" t="n">
+      <c r="G105" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H105" s="0" t="n">
+      <c r="H105" s="6" t="n">
         <v>0.03</v>
       </c>
-      <c r="I105" s="0" t="n">
+      <c r="I105" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="J105" s="0" t="s">
+      <c r="J105" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="4" t="n">
+    <row r="106" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="5" t="n">
         <v>0.0459692784925322</v>
       </c>
-      <c r="B106" s="4" t="n">
+      <c r="B106" s="5" t="n">
         <v>0.00730849961283516</v>
       </c>
-      <c r="C106" s="0" t="s">
+      <c r="C106" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D106" s="0" t="n">
+      <c r="D106" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="E106" s="4" t="n">
+      <c r="E106" s="5" t="n">
         <v>1040000000000</v>
       </c>
-      <c r="F106" s="0" t="n">
+      <c r="F106" s="6" t="n">
         <v>0.097</v>
       </c>
-      <c r="G106" s="0" t="n">
+      <c r="G106" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H106" s="0" t="n">
+      <c r="H106" s="6" t="n">
         <v>0.164</v>
       </c>
-      <c r="I106" s="0" t="n">
+      <c r="I106" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="J106" s="0" t="s">
+      <c r="J106" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="4" t="n">
+    <row r="107" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="5" t="n">
         <v>0.0474653008731745</v>
       </c>
-      <c r="B107" s="4" t="n">
+      <c r="B107" s="5" t="n">
         <v>0.357772344667488</v>
       </c>
-      <c r="C107" s="0" t="s">
+      <c r="C107" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D107" s="0" t="n">
+      <c r="D107" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="E107" s="4" t="n">
+      <c r="E107" s="5" t="n">
         <v>454000000000000</v>
       </c>
-      <c r="F107" s="0" t="n">
+      <c r="F107" s="6" t="n">
         <v>0.015</v>
       </c>
-      <c r="G107" s="0" t="n">
+      <c r="G107" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H107" s="0" t="n">
+      <c r="H107" s="6" t="n">
         <v>0.03</v>
       </c>
-      <c r="I107" s="0" t="n">
+      <c r="I107" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="J107" s="0" t="s">
+      <c r="J107" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="4" t="n">
+    <row r="108" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="5" t="n">
         <v>0.0603076215584433</v>
       </c>
-      <c r="B108" s="4" t="n">
+      <c r="B108" s="5" t="n">
         <v>1.78066366225851</v>
       </c>
-      <c r="C108" s="0" t="s">
+      <c r="C108" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D108" s="0" t="n">
+      <c r="D108" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="E108" s="0" t="n">
+      <c r="E108" s="6" t="n">
         <v>7.74</v>
       </c>
-      <c r="F108" s="0" t="n">
+      <c r="F108" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="G108" s="0" t="n">
+      <c r="G108" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H108" s="0" t="n">
+      <c r="H108" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="I108" s="0" t="n">
+      <c r="I108" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="J108" s="0" t="s">
+      <c r="J108" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="4" t="n">
+    <row r="109" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="5" t="n">
         <v>0.0634249901948429</v>
       </c>
-      <c r="B109" s="4" t="n">
+      <c r="B109" s="5" t="n">
         <v>0.510827647752</v>
       </c>
-      <c r="C109" s="0" t="s">
+      <c r="C109" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D109" s="0" t="n">
+      <c r="D109" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E109" s="4" t="n">
+      <c r="E109" s="5" t="n">
         <v>11100000000000</v>
       </c>
-      <c r="F109" s="0" t="n">
+      <c r="F109" s="6" t="n">
         <v>0.015</v>
       </c>
-      <c r="G109" s="0" t="n">
+      <c r="G109" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H109" s="0" t="n">
+      <c r="H109" s="6" t="n">
         <v>0.03</v>
       </c>
-      <c r="I109" s="0" t="n">
+      <c r="I109" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="J109" s="0" t="s">
+      <c r="J109" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="4" t="n">
+    <row r="110" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="5" t="n">
         <v>0.0678888345825249</v>
       </c>
-      <c r="B110" s="4" t="n">
+      <c r="B110" s="5" t="n">
         <v>0.00185294947891615</v>
       </c>
-      <c r="C110" s="0" t="s">
+      <c r="C110" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D110" s="0" t="n">
+      <c r="D110" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="E110" s="4" t="n">
+      <c r="E110" s="5" t="n">
         <v>1700000000000000</v>
       </c>
-      <c r="F110" s="0" t="n">
+      <c r="F110" s="6" t="n">
         <v>0.007</v>
       </c>
-      <c r="G110" s="0" t="n">
+      <c r="G110" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H110" s="0" t="n">
+      <c r="H110" s="6" t="n">
         <v>0.008</v>
       </c>
-      <c r="I110" s="0" t="n">
+      <c r="I110" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="J110" s="0" t="s">
+      <c r="J110" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="4" t="n">
+    <row r="111" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="5" t="n">
         <v>0.0861665111475394</v>
       </c>
-      <c r="B111" s="4" t="n">
+      <c r="B111" s="5" t="n">
         <v>2.84541673997607</v>
       </c>
-      <c r="C111" s="0" t="s">
+      <c r="C111" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D111" s="0" t="n">
+      <c r="D111" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="E111" s="4" t="n">
+      <c r="E111" s="5" t="n">
         <v>68200000000000</v>
       </c>
-      <c r="F111" s="0" t="n">
+      <c r="F111" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="G111" s="0" t="n">
+      <c r="G111" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H111" s="0" t="n">
+      <c r="H111" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="I111" s="0" t="n">
+      <c r="I111" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="J111" s="0" t="s">
+      <c r="J111" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3778,48 +3846,48 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="2" t="s">
+      <c r="A117" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
-      <c r="I117" s="2"/>
-      <c r="J117" s="2"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="3" t="s">
+      <c r="A118" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D118" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="E118" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F118" s="3" t="s">
+      <c r="F118" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G118" s="3" t="s">
+      <c r="G118" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H118" s="3" t="s">
+      <c r="H118" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I118" s="3" t="s">
+      <c r="I118" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J118" s="3" t="s">
+      <c r="J118" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3885,44 +3953,44 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="2" t="s">
+      <c r="A122" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
-      <c r="G122" s="2"/>
-      <c r="H122" s="2"/>
-      <c r="I122" s="2"/>
-      <c r="J122" s="2"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
+      <c r="I122" s="3"/>
+      <c r="J122" s="3"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="3" t="s">
+      <c r="A123" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="D123" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E123" s="3" t="s">
+      <c r="E123" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F123" s="3" t="s">
+      <c r="F123" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G123" s="3" t="s">
+      <c r="G123" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H123" s="3"/>
-      <c r="I123" s="3"/>
-      <c r="J123" s="3" t="s">
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3958,7 +4026,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
         <v>126</v>
       </c>
@@ -3973,114 +4041,114 @@
       <c r="J127" s="1"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="2" t="s">
+      <c r="A128" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
-      <c r="I128" s="2"/>
-      <c r="J128" s="2"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3"/>
+      <c r="I128" s="3"/>
+      <c r="J128" s="3"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="3" t="s">
+      <c r="A129" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C129" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D129" s="3" t="s">
+      <c r="D129" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E129" s="3" t="s">
+      <c r="E129" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F129" s="3" t="s">
+      <c r="F129" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G129" s="3" t="s">
+      <c r="G129" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H129" s="3" t="s">
+      <c r="H129" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I129" s="3" t="s">
+      <c r="I129" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J129" s="3" t="s">
+      <c r="J129" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="4" t="n">
+    <row r="130" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="5" t="n">
         <v>1.5654E-006</v>
       </c>
-      <c r="B130" s="4" t="n">
+      <c r="B130" s="5" t="n">
         <v>0.26921</v>
       </c>
-      <c r="C130" s="0" t="s">
+      <c r="C130" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D130" s="0" t="n">
+      <c r="D130" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E130" s="0" t="n">
+      <c r="E130" s="6" t="n">
         <v>0.059</v>
       </c>
-      <c r="F130" s="0" t="n">
+      <c r="F130" s="6" t="n">
         <v>0.092</v>
       </c>
-      <c r="G130" s="0" t="n">
+      <c r="G130" s="6" t="n">
         <v>0.54</v>
       </c>
-      <c r="H130" s="0" t="n">
+      <c r="H130" s="6" t="n">
         <v>0.127</v>
       </c>
-      <c r="I130" s="0" t="n">
+      <c r="I130" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="4" t="n">
+    <row r="131" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="8" t="n">
         <v>3.5554E-006</v>
       </c>
-      <c r="B131" s="4" t="n">
+      <c r="B131" s="8" t="n">
         <v>3.0387E-005</v>
       </c>
-      <c r="C131" s="0" t="s">
+      <c r="C131" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D131" s="0" t="n">
+      <c r="D131" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="E131" s="0" t="n">
+      <c r="E131" s="9" t="n">
         <v>0.036</v>
       </c>
-      <c r="F131" s="0" t="n">
+      <c r="F131" s="9" t="n">
         <v>0.315</v>
       </c>
-      <c r="G131" s="0" t="n">
+      <c r="G131" s="9" t="n">
         <v>0.96</v>
       </c>
-      <c r="H131" s="0" t="n">
+      <c r="H131" s="9" t="n">
         <v>0.362</v>
       </c>
-      <c r="I131" s="0" t="n">
+      <c r="I131" s="9" t="n">
         <v>0.96</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="4" t="n">
+      <c r="A132" s="7" t="n">
         <v>1.1537E-005</v>
       </c>
-      <c r="B132" s="4" t="n">
+      <c r="B132" s="7" t="n">
         <v>0.2741</v>
       </c>
       <c r="C132" s="0" t="s">
@@ -4106,10 +4174,10 @@
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="4" t="n">
+      <c r="A133" s="7" t="n">
         <v>1.1713E-005</v>
       </c>
-      <c r="B133" s="4" t="n">
+      <c r="B133" s="7" t="n">
         <v>0.00073872</v>
       </c>
       <c r="C133" s="0" t="s">
@@ -4135,10 +4203,10 @@
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="4" t="n">
+      <c r="A134" s="7" t="n">
         <v>1.3078E-005</v>
       </c>
-      <c r="B134" s="4" t="n">
+      <c r="B134" s="7" t="n">
         <v>5.5114E-005</v>
       </c>
       <c r="C134" s="0" t="s">
@@ -4163,40 +4231,40 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="4" t="n">
+    <row r="135" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="8" t="n">
         <v>1.6275E-005</v>
       </c>
-      <c r="B135" s="4" t="n">
+      <c r="B135" s="8" t="n">
         <v>7.581E-005</v>
       </c>
-      <c r="C135" s="0" t="s">
+      <c r="C135" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="D135" s="0" t="n">
+      <c r="D135" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="E135" s="0" t="n">
+      <c r="E135" s="9" t="n">
         <v>0.032</v>
       </c>
-      <c r="F135" s="0" t="n">
+      <c r="F135" s="9" t="n">
         <v>0.317</v>
       </c>
-      <c r="G135" s="0" t="n">
+      <c r="G135" s="9" t="n">
         <v>0.92</v>
       </c>
-      <c r="H135" s="0" t="n">
+      <c r="H135" s="9" t="n">
         <v>0.376</v>
       </c>
-      <c r="I135" s="0" t="n">
+      <c r="I135" s="9" t="n">
         <v>0.92</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="4" t="n">
+      <c r="A136" s="7" t="n">
         <v>1.8201E-005</v>
       </c>
-      <c r="B136" s="4" t="n">
+      <c r="B136" s="7" t="n">
         <v>5.0484E-005</v>
       </c>
       <c r="C136" s="0" t="s">
@@ -4222,10 +4290,10 @@
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="4" t="n">
+      <c r="A137" s="7" t="n">
         <v>2.0148E-005</v>
       </c>
-      <c r="B137" s="4" t="n">
+      <c r="B137" s="7" t="n">
         <v>0.0012329</v>
       </c>
       <c r="C137" s="0" t="s">
@@ -4250,156 +4318,156 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="4" t="n">
+    <row r="138" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="8" t="n">
         <v>2.2684E-005</v>
       </c>
-      <c r="B138" s="4" t="n">
+      <c r="B138" s="8" t="n">
         <v>0.0007946</v>
       </c>
-      <c r="C138" s="0" t="s">
+      <c r="C138" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D138" s="0" t="n">
+      <c r="D138" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="E138" s="0" t="n">
+      <c r="E138" s="9" t="n">
         <v>0.026</v>
       </c>
-      <c r="F138" s="0" t="n">
+      <c r="F138" s="9" t="n">
         <v>0.321</v>
       </c>
-      <c r="G138" s="0" t="n">
+      <c r="G138" s="9" t="n">
         <v>0.87</v>
       </c>
-      <c r="H138" s="0" t="n">
+      <c r="H138" s="9" t="n">
         <v>0.368</v>
       </c>
-      <c r="I138" s="0" t="n">
+      <c r="I138" s="9" t="n">
         <v>0.83</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="4" t="n">
+    <row r="139" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="8" t="n">
         <v>3.361E-005</v>
       </c>
-      <c r="B139" s="4" t="n">
+      <c r="B139" s="8" t="n">
         <v>0.00052887</v>
       </c>
-      <c r="C139" s="0" t="s">
+      <c r="C139" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D139" s="0" t="n">
+      <c r="D139" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="E139" s="0" t="n">
+      <c r="E139" s="9" t="n">
         <v>0.026</v>
       </c>
-      <c r="F139" s="0" t="n">
+      <c r="F139" s="9" t="n">
         <v>0.323</v>
       </c>
-      <c r="G139" s="0" t="n">
+      <c r="G139" s="9" t="n">
         <v>0.79</v>
       </c>
-      <c r="H139" s="0" t="n">
+      <c r="H139" s="9" t="n">
         <v>0.378</v>
       </c>
-      <c r="I139" s="0" t="n">
+      <c r="I139" s="9" t="n">
         <v>0.79</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="4" t="n">
+    <row r="140" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="8" t="n">
         <v>3.8006E-005</v>
       </c>
-      <c r="B140" s="4" t="n">
+      <c r="B140" s="8" t="n">
         <v>0.00048127</v>
       </c>
-      <c r="C140" s="0" t="s">
+      <c r="C140" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D140" s="0" t="n">
+      <c r="D140" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="E140" s="0" t="n">
+      <c r="E140" s="9" t="n">
         <v>0.027</v>
       </c>
-      <c r="F140" s="0" t="n">
+      <c r="F140" s="9" t="n">
         <v>0.334</v>
       </c>
-      <c r="G140" s="0" t="n">
+      <c r="G140" s="9" t="n">
         <v>0.83</v>
       </c>
-      <c r="H140" s="0" t="n">
+      <c r="H140" s="9" t="n">
         <v>0.387</v>
       </c>
-      <c r="I140" s="0" t="n">
+      <c r="I140" s="9" t="n">
         <v>0.83</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="4" t="n">
+    <row r="141" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="8" t="n">
         <v>4.0787E-005</v>
       </c>
-      <c r="B141" s="4" t="n">
+      <c r="B141" s="8" t="n">
         <v>0.001023</v>
       </c>
-      <c r="C141" s="0" t="s">
+      <c r="C141" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="D141" s="0" t="n">
+      <c r="D141" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="E141" s="0" t="n">
+      <c r="E141" s="9" t="n">
         <v>0.025</v>
       </c>
-      <c r="F141" s="0" t="n">
+      <c r="F141" s="9" t="n">
         <v>0.321</v>
       </c>
-      <c r="G141" s="0" t="n">
+      <c r="G141" s="9" t="n">
         <v>0.79</v>
       </c>
-      <c r="H141" s="0" t="n">
+      <c r="H141" s="9" t="n">
         <v>0.374</v>
       </c>
-      <c r="I141" s="0" t="n">
+      <c r="I141" s="9" t="n">
         <v>0.79</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="4" t="n">
+    <row r="142" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="8" t="n">
         <v>4.1844E-005</v>
       </c>
-      <c r="B142" s="4" t="n">
+      <c r="B142" s="8" t="n">
         <v>0.00084802</v>
       </c>
-      <c r="C142" s="0" t="s">
+      <c r="C142" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D142" s="0" t="n">
+      <c r="D142" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="E142" s="0" t="n">
+      <c r="E142" s="9" t="n">
         <v>0.024</v>
       </c>
-      <c r="F142" s="0" t="n">
+      <c r="F142" s="9" t="n">
         <v>0.315</v>
       </c>
-      <c r="G142" s="0" t="n">
+      <c r="G142" s="9" t="n">
         <v>0.66</v>
       </c>
-      <c r="H142" s="0" t="n">
+      <c r="H142" s="9" t="n">
         <v>0.369</v>
       </c>
-      <c r="I142" s="0" t="n">
+      <c r="I142" s="9" t="n">
         <v>0.66</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="4" t="n">
+      <c r="A143" s="7" t="n">
         <v>6.5612E-005</v>
       </c>
-      <c r="B143" s="4" t="n">
+      <c r="B143" s="7" t="n">
         <v>0.003607</v>
       </c>
       <c r="C143" s="0" t="s">
@@ -4424,75 +4492,75 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="4" t="n">
+    <row r="144" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="5" t="n">
         <v>6.827E-005</v>
       </c>
-      <c r="B144" s="4" t="n">
+      <c r="B144" s="5" t="n">
         <v>0.18602</v>
       </c>
-      <c r="C144" s="0" t="s">
+      <c r="C144" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D144" s="0" t="n">
+      <c r="D144" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="E144" s="0" t="n">
+      <c r="E144" s="6" t="n">
         <v>0.043</v>
       </c>
-      <c r="F144" s="0" t="n">
+      <c r="F144" s="6" t="n">
         <v>0.015</v>
       </c>
-      <c r="G144" s="0" t="n">
+      <c r="G144" s="6" t="n">
         <v>0.13</v>
       </c>
-      <c r="H144" s="0" t="n">
+      <c r="H144" s="6" t="n">
         <v>0.03</v>
       </c>
-      <c r="I144" s="0" t="n">
+      <c r="I144" s="6" t="n">
         <v>0.13</v>
       </c>
-      <c r="J144" s="0" t="s">
+      <c r="J144" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="4" t="n">
+    <row r="145" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="5" t="n">
         <v>0.00011998</v>
       </c>
-      <c r="B145" s="4" t="n">
+      <c r="B145" s="5" t="n">
         <v>0.045356</v>
       </c>
-      <c r="C145" s="0" t="s">
+      <c r="C145" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D145" s="0" t="n">
+      <c r="D145" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E145" s="0" t="n">
+      <c r="E145" s="6" t="n">
         <v>0.043</v>
       </c>
-      <c r="F145" s="0" t="n">
+      <c r="F145" s="6" t="n">
         <v>0.015</v>
       </c>
-      <c r="G145" s="0" t="n">
+      <c r="G145" s="6" t="n">
         <v>0.13</v>
       </c>
-      <c r="H145" s="0" t="n">
+      <c r="H145" s="6" t="n">
         <v>0.03</v>
       </c>
-      <c r="I145" s="0" t="n">
+      <c r="I145" s="6" t="n">
         <v>0.13</v>
       </c>
-      <c r="J145" s="0" t="s">
+      <c r="J145" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="4" t="n">
+      <c r="A146" s="7" t="n">
         <v>0.000143</v>
       </c>
-      <c r="B146" s="4" t="n">
+      <c r="B146" s="7" t="n">
         <v>0.00028769</v>
       </c>
       <c r="C146" s="0" t="s">
@@ -4518,10 +4586,10 @@
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="4" t="n">
+      <c r="A147" s="7" t="n">
         <v>0.00025927</v>
       </c>
-      <c r="B147" s="4" t="n">
+      <c r="B147" s="7" t="n">
         <v>0.00014377</v>
       </c>
       <c r="C147" s="0" t="s">
@@ -4547,10 +4615,10 @@
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="4" t="n">
+      <c r="A148" s="7" t="n">
         <v>0.00037919</v>
       </c>
-      <c r="B148" s="4" t="n">
+      <c r="B148" s="7" t="n">
         <v>0.0029846</v>
       </c>
       <c r="C148" s="0" t="s">
@@ -4575,75 +4643,75 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="4" t="n">
+    <row r="149" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="5" t="n">
         <v>0.00039582</v>
       </c>
-      <c r="B149" s="4" t="n">
+      <c r="B149" s="5" t="n">
         <v>0.027861</v>
       </c>
-      <c r="C149" s="0" t="s">
+      <c r="C149" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D149" s="0" t="n">
+      <c r="D149" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="E149" s="0" t="n">
+      <c r="E149" s="6" t="n">
         <v>0.043</v>
       </c>
-      <c r="F149" s="0" t="n">
+      <c r="F149" s="6" t="n">
         <v>0.015</v>
       </c>
-      <c r="G149" s="0" t="n">
+      <c r="G149" s="6" t="n">
         <v>0.08</v>
       </c>
-      <c r="H149" s="0" t="n">
+      <c r="H149" s="6" t="n">
         <v>0.03</v>
       </c>
-      <c r="I149" s="0" t="n">
+      <c r="I149" s="6" t="n">
         <v>0.08</v>
       </c>
-      <c r="J149" s="0" t="s">
+      <c r="J149" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="4" t="n">
+    <row r="150" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="5" t="n">
         <v>0.00055286</v>
       </c>
-      <c r="B150" s="4" t="n">
+      <c r="B150" s="5" t="n">
         <v>0.13127</v>
       </c>
-      <c r="C150" s="0" t="s">
+      <c r="C150" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D150" s="0" t="n">
+      <c r="D150" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="E150" s="0" t="n">
+      <c r="E150" s="6" t="n">
         <v>0.043</v>
       </c>
-      <c r="F150" s="0" t="n">
+      <c r="F150" s="6" t="n">
         <v>0.015</v>
       </c>
-      <c r="G150" s="0" t="n">
+      <c r="G150" s="6" t="n">
         <v>0.04</v>
       </c>
-      <c r="H150" s="0" t="n">
+      <c r="H150" s="6" t="n">
         <v>0.03</v>
       </c>
-      <c r="I150" s="0" t="n">
+      <c r="I150" s="6" t="n">
         <v>0.04</v>
       </c>
-      <c r="J150" s="0" t="s">
+      <c r="J150" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="4" t="n">
+      <c r="A151" s="7" t="n">
         <v>0.0016262</v>
       </c>
-      <c r="B151" s="4" t="n">
+      <c r="B151" s="7" t="n">
         <v>2.8017E-005</v>
       </c>
       <c r="C151" s="0" t="s">
@@ -4668,43 +4736,43 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="4" t="n">
+    <row r="152" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="5" t="n">
         <v>0.0016451</v>
       </c>
-      <c r="B152" s="4" t="n">
+      <c r="B152" s="5" t="n">
         <v>0.01021</v>
       </c>
-      <c r="C152" s="0" t="s">
+      <c r="C152" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D152" s="0" t="n">
+      <c r="D152" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="E152" s="0" t="n">
+      <c r="E152" s="6" t="n">
         <v>0.042</v>
       </c>
-      <c r="F152" s="0" t="n">
+      <c r="F152" s="6" t="n">
         <v>0.015</v>
       </c>
-      <c r="G152" s="0" t="n">
+      <c r="G152" s="6" t="n">
         <v>0.08</v>
       </c>
-      <c r="H152" s="0" t="n">
+      <c r="H152" s="6" t="n">
         <v>0.03</v>
       </c>
-      <c r="I152" s="0" t="n">
+      <c r="I152" s="6" t="n">
         <v>0.08</v>
       </c>
-      <c r="J152" s="0" t="s">
+      <c r="J152" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="4" t="n">
+      <c r="A153" s="7" t="n">
         <v>0.0018396</v>
       </c>
-      <c r="B153" s="4" t="n">
+      <c r="B153" s="7" t="n">
         <v>0.004497</v>
       </c>
       <c r="C153" s="0" t="s">
@@ -4729,192 +4797,192 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="4" t="n">
+    <row r="154" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="5" t="n">
         <v>0.0021531</v>
       </c>
-      <c r="B154" s="4" t="n">
+      <c r="B154" s="5" t="n">
         <v>0.0044713</v>
       </c>
-      <c r="C154" s="0" t="s">
+      <c r="C154" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D154" s="0" t="n">
+      <c r="D154" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="E154" s="0" t="n">
+      <c r="E154" s="6" t="n">
         <v>0.129</v>
       </c>
-      <c r="F154" s="0" t="n">
+      <c r="F154" s="6" t="n">
         <v>0.031</v>
       </c>
-      <c r="G154" s="0" t="n">
+      <c r="G154" s="6" t="n">
         <v>0.08</v>
       </c>
-      <c r="H154" s="0" t="n">
+      <c r="H154" s="6" t="n">
         <v>0.038</v>
       </c>
-      <c r="I154" s="0" t="n">
+      <c r="I154" s="6" t="n">
         <v>0.04</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="4" t="n">
+    <row r="155" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="5" t="n">
         <v>0.00378</v>
       </c>
-      <c r="B155" s="4" t="n">
+      <c r="B155" s="5" t="n">
         <v>0.19318</v>
       </c>
-      <c r="C155" s="0" t="s">
+      <c r="C155" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D155" s="0" t="n">
+      <c r="D155" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="E155" s="0" t="n">
+      <c r="E155" s="6" t="n">
         <v>0.042</v>
       </c>
-      <c r="F155" s="0" t="n">
+      <c r="F155" s="6" t="n">
         <v>0.015</v>
       </c>
-      <c r="G155" s="0" t="n">
+      <c r="G155" s="6" t="n">
         <v>0.08</v>
       </c>
-      <c r="H155" s="0" t="n">
+      <c r="H155" s="6" t="n">
         <v>0.03</v>
       </c>
-      <c r="I155" s="0" t="n">
+      <c r="I155" s="6" t="n">
         <v>0.08</v>
       </c>
-      <c r="J155" s="0" t="s">
+      <c r="J155" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="4" t="n">
+    <row r="156" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="5" t="n">
         <v>0.0037956</v>
       </c>
-      <c r="B156" s="4" t="n">
+      <c r="B156" s="5" t="n">
         <v>0.0014238</v>
       </c>
-      <c r="C156" s="0" t="s">
+      <c r="C156" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D156" s="0" t="n">
+      <c r="D156" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="E156" s="0" t="n">
+      <c r="E156" s="6" t="n">
         <v>162.36</v>
       </c>
-      <c r="F156" s="0" t="n">
+      <c r="F156" s="6" t="n">
         <v>0.076</v>
       </c>
-      <c r="G156" s="0" t="n">
+      <c r="G156" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H156" s="0" t="n">
+      <c r="H156" s="6" t="n">
         <v>0.13</v>
       </c>
-      <c r="I156" s="0" t="n">
+      <c r="I156" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="J156" s="0" t="s">
+      <c r="J156" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="4" t="n">
+    <row r="157" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="5" t="n">
         <v>0.0044606</v>
       </c>
-      <c r="B157" s="4" t="n">
+      <c r="B157" s="5" t="n">
         <v>0.11008</v>
       </c>
-      <c r="C157" s="0" t="s">
+      <c r="C157" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D157" s="0" t="n">
+      <c r="D157" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="E157" s="0" t="n">
+      <c r="E157" s="6" t="n">
         <v>0.042</v>
       </c>
-      <c r="F157" s="0" t="n">
+      <c r="F157" s="6" t="n">
         <v>0.015</v>
       </c>
-      <c r="G157" s="0" t="n">
+      <c r="G157" s="6" t="n">
         <v>0.13</v>
       </c>
-      <c r="H157" s="0" t="n">
+      <c r="H157" s="6" t="n">
         <v>0.03</v>
       </c>
-      <c r="I157" s="0" t="n">
+      <c r="I157" s="6" t="n">
         <v>0.13</v>
       </c>
-      <c r="J157" s="0" t="s">
+      <c r="J157" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="4" t="n">
+    <row r="158" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="5" t="n">
         <v>0.0058469</v>
       </c>
-      <c r="B158" s="4" t="n">
+      <c r="B158" s="5" t="n">
         <v>9.3986E-005</v>
       </c>
-      <c r="C158" s="0" t="s">
+      <c r="C158" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D158" s="0" t="n">
+      <c r="D158" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="E158" s="0" t="n">
+      <c r="E158" s="6" t="n">
         <v>2443.44</v>
       </c>
-      <c r="F158" s="0" t="n">
+      <c r="F158" s="6" t="n">
         <v>0.098</v>
       </c>
-      <c r="G158" s="0" t="n">
+      <c r="G158" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H158" s="0" t="n">
+      <c r="H158" s="6" t="n">
         <v>0.171</v>
       </c>
-      <c r="I158" s="0" t="n">
+      <c r="I158" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="J158" s="0" t="s">
+      <c r="J158" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="4" t="n">
+    <row r="159" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="5" t="n">
         <v>0.0094124</v>
       </c>
-      <c r="B159" s="4" t="n">
+      <c r="B159" s="5" t="n">
         <v>4.3753E-005</v>
       </c>
-      <c r="C159" s="0" t="s">
+      <c r="C159" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D159" s="0" t="n">
+      <c r="D159" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="E159" s="0" t="n">
+      <c r="E159" s="6" t="n">
         <v>174586</v>
       </c>
-      <c r="F159" s="0" t="n">
+      <c r="F159" s="6" t="n">
         <v>0.066</v>
       </c>
-      <c r="G159" s="0" t="n">
+      <c r="G159" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H159" s="0" t="n">
+      <c r="H159" s="6" t="n">
         <v>0.129</v>
       </c>
-      <c r="I159" s="0" t="n">
+      <c r="I159" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="J159" s="0" t="s">
+      <c r="J159" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4946,48 +5014,48 @@
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="2" t="s">
+      <c r="A165" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B165" s="2"/>
-      <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
-      <c r="E165" s="2"/>
-      <c r="F165" s="2"/>
-      <c r="G165" s="2"/>
-      <c r="H165" s="2"/>
-      <c r="I165" s="2"/>
-      <c r="J165" s="2"/>
+      <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
+      <c r="E165" s="3"/>
+      <c r="F165" s="3"/>
+      <c r="G165" s="3"/>
+      <c r="H165" s="3"/>
+      <c r="I165" s="3"/>
+      <c r="J165" s="3"/>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="3" t="s">
+      <c r="A166" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B166" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="C166" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D166" s="3" t="s">
+      <c r="D166" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E166" s="3" t="s">
+      <c r="E166" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F166" s="3" t="s">
+      <c r="F166" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G166" s="3" t="s">
+      <c r="G166" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H166" s="3" t="s">
+      <c r="H166" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I166" s="3" t="s">
+      <c r="I166" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J166" s="3" t="s">
+      <c r="J166" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5052,19 +5120,19 @@
         <v>82</v>
       </c>
     </row>
-    <row r="170" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="5" t="s">
+    <row r="170" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="B170" s="5"/>
-      <c r="C170" s="5"/>
-      <c r="D170" s="5"/>
-      <c r="E170" s="5"/>
-      <c r="F170" s="5"/>
-      <c r="G170" s="5"/>
-      <c r="H170" s="6"/>
-      <c r="I170" s="6"/>
-      <c r="J170" s="6"/>
+      <c r="B170" s="10"/>
+      <c r="C170" s="10"/>
+      <c r="D170" s="10"/>
+      <c r="E170" s="10"/>
+      <c r="F170" s="10"/>
+      <c r="G170" s="10"/>
+      <c r="H170" s="1"/>
+      <c r="I170" s="1"/>
+      <c r="J170" s="1"/>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G171" s="0" t="s">
@@ -5078,1284 +5146,2033 @@
       <c r="B172" s="0" t="s">
         <v>165</v>
       </c>
+      <c r="G172" s="0" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B175" s="8"/>
-      <c r="C175" s="8"/>
-      <c r="D175" s="8"/>
-      <c r="E175" s="8"/>
-      <c r="F175" s="8"/>
-      <c r="G175" s="8"/>
+      <c r="A175" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B175" s="11"/>
+      <c r="C175" s="11"/>
+      <c r="D175" s="11"/>
+      <c r="E175" s="11"/>
+      <c r="F175" s="11"/>
+      <c r="G175" s="11"/>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="3" t="s">
+      <c r="A176" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B176" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="C176" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D176" s="3" t="s">
+      <c r="D176" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E176" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F176" s="3" t="s">
+      <c r="E176" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F176" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G176" s="3"/>
-      <c r="H176" s="3"/>
-      <c r="I176" s="3"/>
-      <c r="J176" s="3"/>
-    </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="4" t="n">
+      <c r="G176" s="4"/>
+      <c r="H176" s="4"/>
+      <c r="I176" s="4"/>
+      <c r="J176" s="4"/>
+    </row>
+    <row r="177" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="5" t="n">
         <v>1.0142E-006</v>
       </c>
-      <c r="B177" s="4" t="n">
+      <c r="B177" s="5" t="n">
         <v>9.604E-005</v>
       </c>
-      <c r="C177" s="0" t="s">
+      <c r="C177" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D177" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E177" s="6" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="F177" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="178" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="5" t="n">
+        <v>1.0233E-006</v>
+      </c>
+      <c r="B178" s="5" t="n">
+        <v>0.0002448</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D178" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E178" s="6" t="n">
+        <v>0.049</v>
+      </c>
+    </row>
+    <row r="179" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="5" t="n">
+        <v>1.0841E-006</v>
+      </c>
+      <c r="B179" s="5" t="n">
+        <v>0.0032389</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D179" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E179" s="6" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="F179" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="180" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="5" t="n">
+        <v>1.8351E-006</v>
+      </c>
+      <c r="B180" s="5" t="n">
+        <v>0.00026536</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D180" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E180" s="6" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="F180" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="181" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="5" t="n">
+        <v>1.884E-006</v>
+      </c>
+      <c r="B181" s="5" t="n">
+        <v>0.00041019</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D181" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E181" s="6" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F181" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="182" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="5" t="n">
+        <v>5.3708E-006</v>
+      </c>
+      <c r="B182" s="5" t="n">
+        <v>0.0043428</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D182" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E182" s="6" t="n">
+        <v>0.089</v>
+      </c>
+    </row>
+    <row r="183" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="5" t="n">
+        <v>9.8779E-006</v>
+      </c>
+      <c r="B183" s="5" t="n">
+        <v>0.0013152</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D183" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="E183" s="6" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="F183" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="7" t="n">
+        <v>1.3695E-005</v>
+      </c>
+      <c r="B184" s="7" t="n">
+        <v>0.0022697</v>
+      </c>
+      <c r="C184" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="D184" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E184" s="0" t="n">
+        <v>0.208</v>
+      </c>
+      <c r="F184" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="7" t="n">
+        <v>1.4248E-005</v>
+      </c>
+      <c r="B185" s="7" t="n">
+        <v>0.0011763</v>
+      </c>
+      <c r="C185" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D185" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E185" s="0" t="n">
+        <v>0.238</v>
+      </c>
+      <c r="F185" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="7" t="n">
+        <v>2.2204E-005</v>
+      </c>
+      <c r="B186" s="7" t="n">
+        <v>0.0082486</v>
+      </c>
+      <c r="C186" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="D186" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E186" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F186" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="7" t="n">
+        <v>6.8759E-005</v>
+      </c>
+      <c r="B187" s="7" t="n">
+        <v>0.0011636</v>
+      </c>
+      <c r="C187" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="D187" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E187" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F187" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="188" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="8" t="n">
+        <v>9.2493E-005</v>
+      </c>
+      <c r="B188" s="8" t="n">
+        <v>0.007235</v>
+      </c>
+      <c r="C188" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D188" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="E188" s="9" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="7" t="n">
+        <v>0.00010145</v>
+      </c>
+      <c r="B189" s="7" t="n">
+        <v>4.1566E-005</v>
+      </c>
+      <c r="C189" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D189" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E189" s="0" t="n">
+        <v>0.259</v>
+      </c>
+      <c r="F189" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="190" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="8" t="n">
+        <v>0.00013277</v>
+      </c>
+      <c r="B190" s="8" t="n">
+        <v>3.0331E-005</v>
+      </c>
+      <c r="C190" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D190" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="E190" s="9" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="F190" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="191" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="8" t="n">
+        <v>0.00014112</v>
+      </c>
+      <c r="B191" s="8" t="n">
+        <v>0.00013957</v>
+      </c>
+      <c r="C191" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D191" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="E191" s="9" t="n">
+        <v>0.444</v>
+      </c>
+    </row>
+    <row r="192" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="5" t="n">
+        <v>0.00015218</v>
+      </c>
+      <c r="B192" s="5" t="n">
+        <v>0.0092628</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D192" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="E192" s="6" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="F192" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="193" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="8" t="n">
+        <v>0.0001619</v>
+      </c>
+      <c r="B193" s="8" t="n">
+        <v>4.2377E-005</v>
+      </c>
+      <c r="C193" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D193" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="E193" s="9" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="F193" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="194" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="8" t="n">
+        <v>0.00018239</v>
+      </c>
+      <c r="B194" s="8" t="n">
+        <v>0.00065686</v>
+      </c>
+      <c r="C194" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D194" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="E194" s="9" t="n">
+        <v>0.421</v>
+      </c>
+      <c r="F194" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="7" t="n">
+        <v>0.00020334</v>
+      </c>
+      <c r="B195" s="7" t="n">
+        <v>0.0017722</v>
+      </c>
+      <c r="C195" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="D195" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E195" s="0" t="n">
+        <v>0.308</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="7" t="n">
+        <v>0.00033756</v>
+      </c>
+      <c r="B196" s="7" t="n">
+        <v>4.865E-005</v>
+      </c>
+      <c r="C196" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="D196" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E196" s="0" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="F196" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="7"/>
+      <c r="B197" s="7"/>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B198" s="11"/>
+      <c r="C198" s="11"/>
+      <c r="D198" s="11"/>
+      <c r="E198" s="11"/>
+      <c r="F198" s="11"/>
+      <c r="G198" s="11"/>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E199" s="4" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="4" t="n">
-        <v>1.0233E-006</v>
-      </c>
-      <c r="B178" s="4" t="n">
-        <v>0.0002448</v>
-      </c>
-      <c r="C178" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="4" t="n">
-        <v>1.0841E-006</v>
-      </c>
-      <c r="B179" s="4" t="n">
-        <v>0.0032389</v>
-      </c>
-      <c r="C179" s="0" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="4" t="n">
-        <v>1.8351E-006</v>
-      </c>
-      <c r="B180" s="4" t="n">
-        <v>0.00026536</v>
-      </c>
-      <c r="C180" s="0" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="4" t="n">
-        <v>1.884E-006</v>
-      </c>
-      <c r="B181" s="4" t="n">
-        <v>0.00041019</v>
-      </c>
-      <c r="C181" s="0" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="4" t="n">
-        <v>5.3708E-006</v>
-      </c>
-      <c r="B182" s="4" t="n">
-        <v>0.0043428</v>
-      </c>
-      <c r="C182" s="0" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="4" t="n">
-        <v>9.8779E-006</v>
-      </c>
-      <c r="B183" s="4" t="n">
-        <v>0.0013152</v>
-      </c>
-      <c r="C183" s="0" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="4" t="n">
-        <v>1.3695E-005</v>
-      </c>
-      <c r="B184" s="4" t="n">
-        <v>0.0022697</v>
-      </c>
-      <c r="C184" s="0" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="4" t="n">
-        <v>1.4248E-005</v>
-      </c>
-      <c r="B185" s="4" t="n">
-        <v>0.0011763</v>
-      </c>
-      <c r="C185" s="0" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="4" t="n">
-        <v>2.2204E-005</v>
-      </c>
-      <c r="B186" s="4" t="n">
-        <v>0.0082486</v>
-      </c>
-      <c r="C186" s="0" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="4" t="n">
-        <v>6.8759E-005</v>
-      </c>
-      <c r="B187" s="4" t="n">
-        <v>0.0011636</v>
-      </c>
-      <c r="C187" s="0" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="4" t="n">
-        <v>9.2493E-005</v>
-      </c>
-      <c r="B188" s="4" t="n">
-        <v>0.007235</v>
-      </c>
-      <c r="C188" s="0" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="4" t="n">
-        <v>0.00010145</v>
-      </c>
-      <c r="B189" s="4" t="n">
-        <v>4.1566E-005</v>
-      </c>
-      <c r="C189" s="0" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="4" t="n">
+      <c r="F199" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G199" s="4"/>
+    </row>
+    <row r="200" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="5" t="n">
+        <v>1.3046E-006</v>
+      </c>
+      <c r="B200" s="5" t="n">
+        <v>0.0081469</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D200" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="E200" s="6" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="201" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="5" t="n">
+        <v>1.7997E-006</v>
+      </c>
+      <c r="B201" s="5" t="n">
+        <v>7.1376E-005</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D201" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="E201" s="6" t="n">
+        <v>0.011</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="7" t="n">
+        <v>5.0152E-006</v>
+      </c>
+      <c r="B202" s="7" t="n">
+        <v>0.0076164</v>
+      </c>
+      <c r="C202" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="D202" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E202" s="0" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="203" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="5" t="n">
+        <v>5.1798E-006</v>
+      </c>
+      <c r="B203" s="5" t="n">
+        <v>1.7388E-005</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D203" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="E203" s="6" t="n">
+        <v>0.028</v>
+      </c>
+    </row>
+    <row r="204" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="5" t="n">
+        <v>6.2983E-006</v>
+      </c>
+      <c r="B204" s="5" t="n">
+        <v>0.0030497</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D204" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="E204" s="6" t="n">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row r="205" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="5" t="n">
+        <v>7.9168E-006</v>
+      </c>
+      <c r="B205" s="5" t="n">
+        <v>0.00010315</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D205" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="E205" s="6" t="n">
+        <v>0.135</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="7" t="n">
+        <v>1.0965E-005</v>
+      </c>
+      <c r="B206" s="7" t="n">
+        <v>0.0013602</v>
+      </c>
+      <c r="C206" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="D206" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E206" s="0" t="n">
+        <v>0.174</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="7" t="n">
+        <v>1.5319E-005</v>
+      </c>
+      <c r="B207" s="7" t="n">
+        <v>0.00096282</v>
+      </c>
+      <c r="C207" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D207" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E207" s="0" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="208" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="8" t="n">
+        <v>2.7644E-005</v>
+      </c>
+      <c r="B208" s="8" t="n">
+        <v>0.0040169</v>
+      </c>
+      <c r="C208" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D208" s="9" t="n">
+        <v>29</v>
+      </c>
+      <c r="E208" s="9" t="n">
+        <v>0.304</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="7" t="n">
+        <v>3.1701E-005</v>
+      </c>
+      <c r="B209" s="7" t="n">
+        <v>1.9898E-005</v>
+      </c>
+      <c r="C209" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="D209" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E209" s="0" t="n">
+        <v>0.209</v>
+      </c>
+    </row>
+    <row r="210" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="8" t="n">
+        <v>4.6209E-005</v>
+      </c>
+      <c r="B210" s="8" t="n">
+        <v>0.00033514</v>
+      </c>
+      <c r="C210" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D210" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="E210" s="9" t="n">
+        <v>0.286</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="7" t="n">
+        <v>6.5702E-005</v>
+      </c>
+      <c r="B211" s="7" t="n">
+        <v>0.0023599</v>
+      </c>
+      <c r="C211" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="D211" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E211" s="0" t="n">
+        <v>0.169</v>
+      </c>
+    </row>
+    <row r="212" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="8" t="n">
+        <v>8.735E-005</v>
+      </c>
+      <c r="B212" s="8" t="n">
+        <v>0.00076194</v>
+      </c>
+      <c r="C212" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D212" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="E212" s="9" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="7" t="n">
+        <v>0.00010395</v>
+      </c>
+      <c r="B213" s="7" t="n">
+        <v>1.2382E-005</v>
+      </c>
+      <c r="C213" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="D213" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E213" s="0" t="n">
+        <v>0.163</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="7" t="n">
+        <v>0.00010891</v>
+      </c>
+      <c r="B214" s="7" t="n">
+        <v>0.00032943</v>
+      </c>
+      <c r="C214" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="D214" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E214" s="0" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="215" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="8" t="n">
+        <v>0.00012128</v>
+      </c>
+      <c r="B215" s="8" t="n">
+        <v>1.4192E-005</v>
+      </c>
+      <c r="C215" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D215" s="9" t="n">
+        <v>26</v>
+      </c>
+      <c r="E215" s="9" t="n">
+        <v>0.273</v>
+      </c>
+    </row>
+    <row r="216" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="12" t="n">
         <v>0.00013277</v>
       </c>
-      <c r="B190" s="4" t="n">
-        <v>3.0331E-005</v>
-      </c>
-      <c r="C190" s="0" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="4" t="n">
-        <v>0.00014112</v>
-      </c>
-      <c r="B191" s="4" t="n">
-        <v>0.00013957</v>
-      </c>
-      <c r="C191" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="4" t="n">
-        <v>0.00015218</v>
-      </c>
-      <c r="B192" s="4" t="n">
-        <v>0.0092628</v>
-      </c>
-      <c r="C192" s="0" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="4" t="n">
-        <v>0.0001619</v>
-      </c>
-      <c r="B193" s="4" t="n">
-        <v>4.2377E-005</v>
-      </c>
-      <c r="C193" s="0" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="4" t="n">
-        <v>0.00018239</v>
-      </c>
-      <c r="B194" s="4" t="n">
-        <v>0.00065686</v>
-      </c>
-      <c r="C194" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="4" t="n">
-        <v>0.00020334</v>
-      </c>
-      <c r="B195" s="4" t="n">
-        <v>0.0017722</v>
-      </c>
-      <c r="C195" s="0" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="4" t="n">
-        <v>0.00033756</v>
-      </c>
-      <c r="B196" s="4" t="n">
-        <v>4.865E-005</v>
-      </c>
-      <c r="C196" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="4"/>
-      <c r="B197" s="4"/>
-    </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B198" s="8"/>
-      <c r="C198" s="8"/>
-      <c r="D198" s="8"/>
-      <c r="E198" s="8"/>
-      <c r="F198" s="8"/>
-      <c r="G198" s="8"/>
-    </row>
-    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="3" t="s">
+      <c r="B216" s="12" t="n">
+        <v>0.0001822</v>
+      </c>
+      <c r="C216" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D216" s="13" t="n">
+        <v>27</v>
+      </c>
+      <c r="E216" s="13" t="n">
+        <v>0.261</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="7" t="n">
+        <v>0.00020519</v>
+      </c>
+      <c r="B217" s="7" t="n">
+        <v>0.00048907</v>
+      </c>
+      <c r="C217" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="D217" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E217" s="0" t="n">
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="7" t="n">
+        <v>0.00021098</v>
+      </c>
+      <c r="B218" s="7" t="n">
+        <v>1.4903E-005</v>
+      </c>
+      <c r="C218" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="D218" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E218" s="0" t="n">
+        <v>0.211</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="7" t="n">
+        <v>0.00029057</v>
+      </c>
+      <c r="B219" s="7" t="n">
+        <v>0.0020068</v>
+      </c>
+      <c r="C219" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="D219" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E219" s="0" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B222" s="11"/>
+      <c r="C222" s="11"/>
+      <c r="D222" s="11"/>
+      <c r="E222" s="11"/>
+      <c r="F222" s="11"/>
+      <c r="G222" s="11"/>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="B223" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C199" s="3" t="s">
+      <c r="C223" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D199" s="3" t="s">
+      <c r="D223" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E199" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F199" s="3" t="s">
+      <c r="E223" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F223" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G199" s="3"/>
-    </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="4" t="n">
-        <v>1.3046E-006</v>
-      </c>
-      <c r="B200" s="4" t="n">
-        <v>0.0081469</v>
-      </c>
-      <c r="C200" s="0" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="4" t="n">
-        <v>1.7997E-006</v>
-      </c>
-      <c r="B201" s="4" t="n">
-        <v>7.1376E-005</v>
-      </c>
-      <c r="C201" s="0" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="4" t="n">
-        <v>5.0152E-006</v>
-      </c>
-      <c r="B202" s="4" t="n">
-        <v>0.0076164</v>
-      </c>
-      <c r="C202" s="0" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="4" t="n">
-        <v>5.1798E-006</v>
-      </c>
-      <c r="B203" s="4" t="n">
-        <v>1.7388E-005</v>
-      </c>
-      <c r="C203" s="0" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="4" t="n">
-        <v>6.2983E-006</v>
-      </c>
-      <c r="B204" s="4" t="n">
-        <v>0.0030497</v>
-      </c>
-      <c r="C204" s="0" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="4" t="n">
-        <v>7.9168E-006</v>
-      </c>
-      <c r="B205" s="4" t="n">
-        <v>0.00010315</v>
-      </c>
-      <c r="C205" s="0" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="4" t="n">
-        <v>1.0965E-005</v>
-      </c>
-      <c r="B206" s="4" t="n">
-        <v>0.0013602</v>
-      </c>
-      <c r="C206" s="0" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="4" t="n">
-        <v>1.5319E-005</v>
-      </c>
-      <c r="B207" s="4" t="n">
-        <v>0.00096282</v>
-      </c>
-      <c r="C207" s="0" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="4" t="n">
-        <v>2.7644E-005</v>
-      </c>
-      <c r="B208" s="4" t="n">
-        <v>0.0040169</v>
-      </c>
-      <c r="C208" s="0" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="4" t="n">
-        <v>3.1701E-005</v>
-      </c>
-      <c r="B209" s="4" t="n">
-        <v>1.9898E-005</v>
-      </c>
-      <c r="C209" s="0" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="4" t="n">
-        <v>4.6209E-005</v>
-      </c>
-      <c r="B210" s="4" t="n">
-        <v>0.00033514</v>
-      </c>
-      <c r="C210" s="0" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="4" t="n">
-        <v>6.5702E-005</v>
-      </c>
-      <c r="B211" s="4" t="n">
-        <v>0.0023599</v>
-      </c>
-      <c r="C211" s="0" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="4" t="n">
-        <v>8.735E-005</v>
-      </c>
-      <c r="B212" s="4" t="n">
-        <v>0.00076194</v>
-      </c>
-      <c r="C212" s="0" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="4" t="n">
-        <v>0.00010395</v>
-      </c>
-      <c r="B213" s="4" t="n">
-        <v>1.2382E-005</v>
-      </c>
-      <c r="C213" s="0" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="4" t="n">
-        <v>0.00010891</v>
-      </c>
-      <c r="B214" s="4" t="n">
-        <v>0.00032943</v>
-      </c>
-      <c r="C214" s="0" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="4" t="n">
-        <v>0.00012128</v>
-      </c>
-      <c r="B215" s="4" t="n">
-        <v>1.4192E-005</v>
-      </c>
-      <c r="C215" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="4" t="n">
-        <v>0.00013277</v>
-      </c>
-      <c r="B216" s="4" t="n">
-        <v>0.0001822</v>
-      </c>
-      <c r="C216" s="0" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="4" t="n">
-        <v>0.00020519</v>
-      </c>
-      <c r="B217" s="4" t="n">
-        <v>0.00048907</v>
-      </c>
-      <c r="C217" s="0" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="4" t="n">
-        <v>0.00021098</v>
-      </c>
-      <c r="B218" s="4" t="n">
-        <v>1.4903E-005</v>
-      </c>
-      <c r="C218" s="0" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="4" t="n">
-        <v>0.00029057</v>
-      </c>
-      <c r="B219" s="4" t="n">
-        <v>0.0020068</v>
-      </c>
-      <c r="C219" s="0" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="B222" s="8"/>
-      <c r="C222" s="8"/>
-      <c r="D222" s="8"/>
-      <c r="E222" s="8"/>
-      <c r="F222" s="8"/>
-      <c r="G222" s="8"/>
-    </row>
-    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="3" t="s">
+      <c r="G223" s="4"/>
+    </row>
+    <row r="224" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="5" t="n">
+        <v>1.1525E-006</v>
+      </c>
+      <c r="B224" s="5" t="n">
+        <v>0.0088613</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D224" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E224" s="6" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="225" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="5" t="n">
+        <v>1.9541E-006</v>
+      </c>
+      <c r="B225" s="5" t="n">
+        <v>0.0029732</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D225" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B223" s="3" t="s">
+      <c r="E225" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="5" t="n">
+        <v>2.5457E-006</v>
+      </c>
+      <c r="B226" s="5" t="n">
+        <v>0.0023058</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D226" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="C223" s="3" t="s">
+      <c r="E226" s="6" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="227" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="5" t="n">
+        <v>2.5719E-006</v>
+      </c>
+      <c r="B227" s="5" t="n">
+        <v>1.5295E-005</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D227" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="D223" s="3" t="s">
+      <c r="E227" s="6" t="n">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="228" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="5" t="n">
+        <v>2.6422E-006</v>
+      </c>
+      <c r="B228" s="5" t="n">
+        <v>4.3111E-005</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D228" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="E223" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F223" s="3" t="s">
+      <c r="E228" s="6" t="n">
+        <v>0.019</v>
+      </c>
+    </row>
+    <row r="229" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="5" t="n">
+        <v>4.1739E-006</v>
+      </c>
+      <c r="B229" s="5" t="n">
+        <v>8.9233E-005</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D229" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E229" s="6" t="n">
+        <v>0.051</v>
+      </c>
+    </row>
+    <row r="230" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="5" t="n">
+        <v>5.2851E-006</v>
+      </c>
+      <c r="B230" s="5" t="n">
+        <v>0.0011654</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D230" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="E230" s="6" t="n">
+        <v>0.029</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="7" t="n">
+        <v>6.1969E-006</v>
+      </c>
+      <c r="B231" s="7" t="n">
+        <v>0.0030468</v>
+      </c>
+      <c r="C231" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="D231" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E231" s="0" t="n">
+        <v>0.143</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="7" t="n">
+        <v>1.2174E-005</v>
+      </c>
+      <c r="B232" s="7" t="n">
+        <v>1.0253E-005</v>
+      </c>
+      <c r="C232" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="D232" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E232" s="0" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="233" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="5" t="n">
+        <v>1.6923E-005</v>
+      </c>
+      <c r="B233" s="5" t="n">
+        <v>0.0085398</v>
+      </c>
+      <c r="C233" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D233" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="E233" s="6" t="n">
+        <v>0.069</v>
+      </c>
+    </row>
+    <row r="234" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="8" t="n">
+        <v>3.1471E-005</v>
+      </c>
+      <c r="B234" s="8" t="n">
+        <v>0.0016365</v>
+      </c>
+      <c r="C234" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="D234" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="G223" s="3"/>
-    </row>
-    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="4" t="n">
-        <v>1.1525E-006</v>
-      </c>
-      <c r="B224" s="4" t="n">
-        <v>0.0088613</v>
-      </c>
-      <c r="C224" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="4" t="n">
-        <v>1.9541E-006</v>
-      </c>
-      <c r="B225" s="4" t="n">
-        <v>0.0029732</v>
-      </c>
-      <c r="C225" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="4" t="n">
-        <v>2.5457E-006</v>
-      </c>
-      <c r="B226" s="4" t="n">
-        <v>0.0023058</v>
-      </c>
-      <c r="C226" s="0" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="4" t="n">
-        <v>2.5719E-006</v>
-      </c>
-      <c r="B227" s="4" t="n">
-        <v>1.5295E-005</v>
-      </c>
-      <c r="C227" s="0" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="4" t="n">
-        <v>2.6422E-006</v>
-      </c>
-      <c r="B228" s="4" t="n">
-        <v>4.3111E-005</v>
-      </c>
-      <c r="C228" s="0" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="4" t="n">
-        <v>4.1739E-006</v>
-      </c>
-      <c r="B229" s="4" t="n">
-        <v>8.9233E-005</v>
-      </c>
-      <c r="C229" s="0" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="4" t="n">
-        <v>5.2851E-006</v>
-      </c>
-      <c r="B230" s="4" t="n">
-        <v>0.0011654</v>
-      </c>
-      <c r="C230" s="0" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="4" t="n">
-        <v>6.1969E-006</v>
-      </c>
-      <c r="B231" s="4" t="n">
-        <v>0.0030468</v>
-      </c>
-      <c r="C231" s="0" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="4" t="n">
-        <v>1.2174E-005</v>
-      </c>
-      <c r="B232" s="4" t="n">
-        <v>1.0253E-005</v>
-      </c>
-      <c r="C232" s="0" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="4" t="n">
-        <v>1.6923E-005</v>
-      </c>
-      <c r="B233" s="4" t="n">
-        <v>0.0085398</v>
-      </c>
-      <c r="C233" s="0" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="4" t="n">
-        <v>3.1471E-005</v>
-      </c>
-      <c r="B234" s="4" t="n">
-        <v>0.0016365</v>
-      </c>
-      <c r="C234" s="0" t="s">
-        <v>221</v>
+      <c r="E234" s="9" t="n">
+        <v>0.363</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="4" t="n">
+      <c r="A235" s="7" t="n">
         <v>3.5402E-005</v>
       </c>
-      <c r="B235" s="4" t="n">
+      <c r="B235" s="7" t="n">
         <v>0.0034775</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
+      </c>
+      <c r="D235" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E235" s="0" t="n">
+        <v>0.106</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="4" t="n">
+      <c r="A236" s="7" t="n">
         <v>0.00010075</v>
       </c>
-      <c r="B236" s="4" t="n">
+      <c r="B236" s="7" t="n">
         <v>0.00054477</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="4" t="n">
+        <v>225</v>
+      </c>
+      <c r="D236" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E236" s="0" t="n">
+        <v>0.231</v>
+      </c>
+    </row>
+    <row r="237" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="8" t="n">
         <v>0.00011874</v>
       </c>
-      <c r="B237" s="4" t="n">
+      <c r="B237" s="8" t="n">
         <v>0.0008241</v>
       </c>
-      <c r="C237" s="0" t="s">
-        <v>224</v>
+      <c r="C237" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D237" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="E237" s="9" t="n">
+        <v>0.333</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="4" t="n">
+      <c r="A238" s="7" t="n">
         <v>0.0001528</v>
       </c>
-      <c r="B238" s="4" t="n">
+      <c r="B238" s="7" t="n">
         <v>1.237E-005</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
+      </c>
+      <c r="D238" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E238" s="0" t="n">
+        <v>0.227</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="4" t="n">
+      <c r="A239" s="7" t="n">
         <v>0.00030354</v>
       </c>
-      <c r="B239" s="4" t="n">
+      <c r="B239" s="7" t="n">
         <v>0.00023357</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
+      </c>
+      <c r="D239" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E239" s="0" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="4" t="n">
+      <c r="A240" s="7" t="n">
         <v>0.00040619</v>
       </c>
-      <c r="B240" s="4" t="n">
+      <c r="B240" s="7" t="n">
         <v>3.9005E-005</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="4" t="n">
+        <v>229</v>
+      </c>
+      <c r="D240" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E240" s="0" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="241" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="8" t="n">
         <v>0.00042135</v>
       </c>
-      <c r="B241" s="4" t="n">
+      <c r="B241" s="8" t="n">
         <v>0.0005247</v>
       </c>
-      <c r="C241" s="0" t="s">
-        <v>228</v>
+      <c r="C241" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D241" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="E241" s="9" t="n">
+        <v>0.272</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="4" t="n">
+      <c r="A242" s="7" t="n">
         <v>0.00045896</v>
       </c>
-      <c r="B242" s="4" t="n">
+      <c r="B242" s="7" t="n">
         <v>0.0015115</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="4" t="n">
+        <v>231</v>
+      </c>
+      <c r="D242" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E242" s="0" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="243" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="5" t="n">
         <v>0.0005339</v>
       </c>
-      <c r="B243" s="4" t="n">
+      <c r="B243" s="5" t="n">
         <v>0.0042897</v>
       </c>
-      <c r="C243" s="0" t="s">
-        <v>230</v>
+      <c r="C243" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D243" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="E243" s="6" t="n">
+        <v>0.119</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="B245" s="8"/>
-      <c r="C245" s="8"/>
-      <c r="D245" s="8"/>
-      <c r="E245" s="8"/>
-      <c r="F245" s="8"/>
-      <c r="G245" s="8"/>
+      <c r="A245" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B245" s="11"/>
+      <c r="C245" s="11"/>
+      <c r="D245" s="11"/>
+      <c r="E245" s="11"/>
+      <c r="F245" s="11"/>
+      <c r="G245" s="11"/>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="3" t="s">
+      <c r="A246" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B246" s="3" t="s">
+      <c r="B246" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C246" s="3" t="s">
+      <c r="C246" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D246" s="3" t="s">
+      <c r="D246" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E246" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F246" s="3" t="s">
+      <c r="E246" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F246" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G246" s="3"/>
-    </row>
-    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="4" t="n">
+      <c r="G246" s="4"/>
+    </row>
+    <row r="247" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="5" t="n">
         <v>1.184E-006</v>
       </c>
-      <c r="B247" s="4" t="n">
+      <c r="B247" s="5" t="n">
         <v>2.6828E-005</v>
       </c>
-      <c r="C247" s="0" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="4" t="n">
+      <c r="C247" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D247" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E247" s="6" t="n">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row r="248" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="5" t="n">
         <v>1.2401E-006</v>
       </c>
-      <c r="B248" s="4" t="n">
+      <c r="B248" s="5" t="n">
         <v>2.4106E-005</v>
       </c>
-      <c r="C248" s="0" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="4" t="n">
+      <c r="C248" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D248" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E248" s="6" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="249" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="5" t="n">
         <v>1.6061E-006</v>
       </c>
-      <c r="B249" s="4" t="n">
+      <c r="B249" s="5" t="n">
         <v>0.0013852</v>
       </c>
-      <c r="C249" s="0" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="4" t="n">
+      <c r="C249" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D249" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E249" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="5" t="n">
         <v>1.9214E-006</v>
       </c>
-      <c r="B250" s="4" t="n">
+      <c r="B250" s="5" t="n">
         <v>0.0041538</v>
       </c>
-      <c r="C250" s="0" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="4" t="n">
+      <c r="C250" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D250" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E250" s="6" t="n">
+        <v>0.037</v>
+      </c>
+    </row>
+    <row r="251" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="5" t="n">
         <v>2.2533E-006</v>
       </c>
-      <c r="B251" s="4" t="n">
+      <c r="B251" s="5" t="n">
         <v>0.00017461</v>
       </c>
-      <c r="C251" s="0" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="4" t="n">
+      <c r="C251" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D251" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E251" s="6" t="n">
+        <v>0.058</v>
+      </c>
+    </row>
+    <row r="252" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="5" t="n">
         <v>3.3368E-006</v>
       </c>
-      <c r="B252" s="4" t="n">
+      <c r="B252" s="5" t="n">
         <v>0.0094434</v>
       </c>
-      <c r="C252" s="0" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="4" t="n">
+      <c r="C252" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D252" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E252" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="5" t="n">
         <v>3.5201E-006</v>
       </c>
-      <c r="B253" s="4" t="n">
+      <c r="B253" s="5" t="n">
         <v>0.0040985</v>
       </c>
-      <c r="C253" s="0" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="4" t="n">
+      <c r="C253" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D253" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="E253" s="6" t="n">
+        <v>0.078</v>
+      </c>
+    </row>
+    <row r="254" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="5" t="n">
         <v>6.3087E-006</v>
       </c>
-      <c r="B254" s="4" t="n">
+      <c r="B254" s="5" t="n">
         <v>0.0015637</v>
       </c>
-      <c r="C254" s="0" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="4" t="n">
+      <c r="C254" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D254" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="E254" s="6" t="n">
+        <v>0.019</v>
+      </c>
+    </row>
+    <row r="255" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="5" t="n">
         <v>6.9586E-006</v>
       </c>
-      <c r="B255" s="4" t="n">
+      <c r="B255" s="5" t="n">
         <v>1.1856E-005</v>
       </c>
-      <c r="C255" s="0" t="s">
-        <v>240</v>
+      <c r="C255" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D255" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="E255" s="6" t="n">
+        <v>0.049</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="4" t="n">
+      <c r="A256" s="7" t="n">
         <v>8.8822E-006</v>
       </c>
-      <c r="B256" s="4" t="n">
+      <c r="B256" s="7" t="n">
         <v>0.00021993</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="4" t="n">
+        <v>243</v>
+      </c>
+      <c r="D256" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E256" s="0" t="n">
+        <v>0.145</v>
+      </c>
+    </row>
+    <row r="257" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="8" t="n">
         <v>1.3367E-005</v>
       </c>
-      <c r="B257" s="4" t="n">
+      <c r="B257" s="8" t="n">
         <v>0.0065187</v>
       </c>
-      <c r="C257" s="0" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="4" t="n">
+      <c r="C257" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="D257" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="E257" s="9" t="n">
+        <v>0.195</v>
+      </c>
+    </row>
+    <row r="258" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="5" t="n">
         <v>1.6922E-005</v>
       </c>
-      <c r="B258" s="4" t="n">
+      <c r="B258" s="5" t="n">
         <v>0.00035985</v>
       </c>
-      <c r="C258" s="0" t="s">
-        <v>243</v>
+      <c r="C258" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D258" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="E258" s="6" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="4" t="n">
-        <v>2.129E-005</v>
-      </c>
-      <c r="B259" s="4" t="n">
+      <c r="A259" s="7" t="n">
+        <v>2.9596E-005</v>
+      </c>
+      <c r="B259" s="7" t="n">
+        <v>0.0013433</v>
+      </c>
+      <c r="C259" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="D259" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E259" s="0" t="n">
+        <v>0.157</v>
+      </c>
+    </row>
+    <row r="260" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="12" t="n">
+        <v>5.2853E-005</v>
+      </c>
+      <c r="B260" s="12" t="n">
+        <v>0.0022414</v>
+      </c>
+      <c r="C260" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="D260" s="13" t="n">
+        <v>14</v>
+      </c>
+      <c r="E260" s="13" t="n">
+        <v>0.097</v>
+      </c>
+    </row>
+    <row r="261" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="8" t="n">
+        <v>6.7666E-005</v>
+      </c>
+      <c r="B261" s="8" t="n">
+        <v>0.0004469</v>
+      </c>
+      <c r="C261" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D261" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="E261" s="9" t="n">
+        <v>0.179</v>
+      </c>
+    </row>
+    <row r="262" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="8" t="n">
+        <v>7.7972E-005</v>
+      </c>
+      <c r="B262" s="8" t="n">
+        <v>0.00016623</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D262" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="E262" s="9" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="7" t="n">
+        <v>0.0003556</v>
+      </c>
+      <c r="B263" s="7" t="n">
+        <v>0.0001298</v>
+      </c>
+      <c r="C263" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="D263" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E263" s="0" t="n">
+        <v>0.167</v>
+      </c>
+    </row>
+    <row r="264" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="5" t="n">
+        <v>0.00048796</v>
+      </c>
+      <c r="B264" s="5" t="n">
+        <v>0.0011746</v>
+      </c>
+      <c r="C264" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D264" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="E264" s="6" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="265" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="8" t="n">
+        <v>0.00060909</v>
+      </c>
+      <c r="B265" s="8" t="n">
+        <v>0.0021742</v>
+      </c>
+      <c r="C265" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D265" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="E265" s="9" t="n">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="266" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="5" t="n">
+        <v>0.00092129</v>
+      </c>
+      <c r="B266" s="5" t="n">
         <v>0.00014556</v>
       </c>
-      <c r="C259" s="0" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="4" t="n">
-        <v>2.9596E-005</v>
-      </c>
-      <c r="B260" s="4" t="n">
-        <v>0.0013433</v>
-      </c>
-      <c r="C260" s="0" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="4" t="n">
-        <v>5.2853E-005</v>
-      </c>
-      <c r="B261" s="4" t="n">
-        <v>0.0022414</v>
-      </c>
-      <c r="C261" s="0" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="4" t="n">
-        <v>6.7666E-005</v>
-      </c>
-      <c r="B262" s="4" t="n">
-        <v>0.0004469</v>
-      </c>
-      <c r="C262" s="0" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="4" t="n">
-        <v>7.7972E-005</v>
-      </c>
-      <c r="B263" s="4" t="n">
-        <v>0.00016623</v>
-      </c>
-      <c r="C263" s="0" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="4" t="n">
-        <v>0.0003556</v>
-      </c>
-      <c r="B264" s="4" t="n">
-        <v>0.0001298</v>
-      </c>
-      <c r="C264" s="0" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="4" t="n">
-        <v>0.00048796</v>
-      </c>
-      <c r="B265" s="4" t="n">
-        <v>0.0011746</v>
-      </c>
-      <c r="C265" s="0" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="4" t="n">
-        <v>0.00060909</v>
-      </c>
-      <c r="B266" s="4" t="n">
-        <v>0.0021742</v>
-      </c>
-      <c r="C266" s="0" t="s">
-        <v>251</v>
+      <c r="C266" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D266" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="E266" s="6" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="B268" s="8"/>
-      <c r="C268" s="8"/>
-      <c r="D268" s="8"/>
-      <c r="E268" s="8"/>
-      <c r="F268" s="8"/>
-      <c r="G268" s="8"/>
+      <c r="A268" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="B268" s="11"/>
+      <c r="C268" s="11"/>
+      <c r="D268" s="11"/>
+      <c r="E268" s="11"/>
+      <c r="F268" s="11"/>
+      <c r="G268" s="11"/>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="3" t="s">
+      <c r="A269" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B269" s="3" t="s">
+      <c r="B269" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C269" s="3" t="s">
+      <c r="C269" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D269" s="3" t="s">
+      <c r="D269" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E269" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F269" s="3" t="s">
+      <c r="E269" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F269" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G269" s="3"/>
-    </row>
-    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="4" t="n">
+      <c r="G269" s="4"/>
+    </row>
+    <row r="270" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="5" t="n">
         <v>1.168E-006</v>
       </c>
-      <c r="B270" s="4" t="n">
+      <c r="B270" s="5" t="n">
         <v>0.00075123</v>
       </c>
-      <c r="C270" s="0" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="4" t="n">
+      <c r="C270" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D270" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E270" s="6" t="n">
+        <v>0.027</v>
+      </c>
+    </row>
+    <row r="271" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="5" t="n">
         <v>1.6246E-006</v>
       </c>
-      <c r="B271" s="4" t="n">
+      <c r="B271" s="5" t="n">
         <v>0.00014036</v>
       </c>
-      <c r="C271" s="0" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="4" t="n">
+      <c r="C271" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D271" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="E271" s="6" t="n">
+        <v>0.019</v>
+      </c>
+    </row>
+    <row r="272" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="5" t="n">
         <v>2.5423E-006</v>
       </c>
-      <c r="B272" s="4" t="n">
+      <c r="B272" s="5" t="n">
         <v>0.00028934</v>
       </c>
-      <c r="C272" s="0" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="4" t="n">
+      <c r="C272" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D272" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="E272" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="5" t="n">
         <v>3.0206E-006</v>
       </c>
-      <c r="B273" s="4" t="n">
+      <c r="B273" s="5" t="n">
         <v>0.000835</v>
       </c>
-      <c r="C273" s="0" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="4" t="n">
+      <c r="C273" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D273" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="E273" s="6" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="274" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="5" t="n">
         <v>3.1572E-006</v>
       </c>
-      <c r="B274" s="4" t="n">
+      <c r="B274" s="5" t="n">
         <v>0.00028199</v>
       </c>
-      <c r="C274" s="0" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="4" t="n">
+      <c r="C274" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D274" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E274" s="6" t="n">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="275" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="5" t="n">
         <v>7.4662E-006</v>
       </c>
-      <c r="B275" s="4" t="n">
+      <c r="B275" s="5" t="n">
         <v>2.8634E-005</v>
       </c>
-      <c r="C275" s="0" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="4" t="n">
+      <c r="C275" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D275" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="E275" s="6" t="n">
+        <v>0.051</v>
+      </c>
+    </row>
+    <row r="276" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="5" t="n">
         <v>1.3895E-005</v>
       </c>
-      <c r="B276" s="4" t="n">
+      <c r="B276" s="5" t="n">
         <v>4.3236E-005</v>
       </c>
-      <c r="C276" s="0" t="s">
-        <v>259</v>
+      <c r="C276" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D276" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E276" s="6" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="4" t="n">
+      <c r="A277" s="7" t="n">
         <v>1.8327E-005</v>
       </c>
-      <c r="B277" s="4" t="n">
+      <c r="B277" s="7" t="n">
         <v>0.00033783</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
+      </c>
+      <c r="D277" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E277" s="0" t="n">
+        <v>0.093</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="4" t="n">
+      <c r="A278" s="7" t="n">
         <v>2.086E-005</v>
       </c>
-      <c r="B278" s="4" t="n">
+      <c r="B278" s="7" t="n">
         <v>1.6489E-005</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
+      </c>
+      <c r="D278" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E278" s="0" t="n">
+        <v>0.096</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="4" t="n">
+      <c r="A279" s="7" t="n">
         <v>3.6832E-005</v>
       </c>
-      <c r="B279" s="4" t="n">
+      <c r="B279" s="7" t="n">
         <v>0.0090524</v>
       </c>
       <c r="C279" s="0" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="4" t="n">
+        <v>264</v>
+      </c>
+      <c r="D279" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E279" s="0" t="n">
+        <v>0.138</v>
+      </c>
+    </row>
+    <row r="280" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="5" t="n">
         <v>3.8073E-005</v>
       </c>
-      <c r="B280" s="4" t="n">
+      <c r="B280" s="5" t="n">
         <v>1.7867E-005</v>
       </c>
-      <c r="C280" s="0" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="4" t="n">
+      <c r="C280" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D280" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E280" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="8" t="n">
         <v>4.3127E-005</v>
       </c>
-      <c r="B281" s="4" t="n">
+      <c r="B281" s="8" t="n">
         <v>0.0022427</v>
       </c>
-      <c r="C281" s="0" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="4" t="n">
+      <c r="C281" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D281" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E281" s="9" t="n">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="282" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="8" t="n">
         <v>4.6419E-005</v>
       </c>
-      <c r="B282" s="4" t="n">
+      <c r="B282" s="8" t="n">
         <v>6.0039E-005</v>
       </c>
-      <c r="C282" s="0" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="4" t="n">
+      <c r="C282" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="D282" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E282" s="9" t="n">
+        <v>0.262</v>
+      </c>
+    </row>
+    <row r="283" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="8" t="n">
         <v>4.8813E-005</v>
       </c>
-      <c r="B283" s="4" t="n">
+      <c r="B283" s="8" t="n">
         <v>6.2692E-005</v>
       </c>
-      <c r="C283" s="0" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="4" t="n">
+      <c r="C283" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="D283" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="E283" s="9" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="284" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="8" t="n">
         <v>7.7068E-005</v>
       </c>
-      <c r="B284" s="4" t="n">
+      <c r="B284" s="8" t="n">
         <v>5.9073E-005</v>
       </c>
-      <c r="C284" s="0" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="4" t="n">
+      <c r="C284" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D284" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E284" s="9" t="n">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="285" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="5" t="n">
         <v>0.00027972</v>
       </c>
-      <c r="B285" s="4" t="n">
+      <c r="B285" s="5" t="n">
         <v>2.8384E-005</v>
       </c>
-      <c r="C285" s="0" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="4" t="n">
+      <c r="C285" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D285" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E285" s="6" t="n">
+        <v>0.074</v>
+      </c>
+    </row>
+    <row r="286" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="8" t="n">
         <v>0.00046318</v>
       </c>
-      <c r="B286" s="4" t="n">
+      <c r="B286" s="8" t="n">
         <v>0.0079559</v>
       </c>
-      <c r="C286" s="0" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="4" t="n">
+      <c r="C286" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="D286" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="E286" s="9" t="n">
+        <v>0.296</v>
+      </c>
+    </row>
+    <row r="287" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="5" t="n">
         <v>0.00067943</v>
       </c>
-      <c r="B287" s="4" t="n">
+      <c r="B287" s="5" t="n">
         <v>0.00015135</v>
       </c>
-      <c r="C287" s="0" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="4" t="n">
+      <c r="C287" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D287" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="E287" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="5" t="n">
         <v>0.00084265</v>
       </c>
-      <c r="B288" s="4" t="n">
+      <c r="B288" s="5" t="n">
         <v>0.0084705</v>
       </c>
-      <c r="C288" s="0" t="s">
-        <v>271</v>
+      <c r="C288" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D288" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="E288" s="6" t="n">
+        <v>0.039</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="4" t="n">
+      <c r="A289" s="7" t="n">
         <v>0.00090503</v>
       </c>
-      <c r="B289" s="4" t="n">
+      <c r="B289" s="7" t="n">
         <v>5.9722E-005</v>
       </c>
       <c r="C289" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
+      </c>
+      <c r="D289" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E289" s="0" t="n">
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B291" s="11"/>
+      <c r="C291" s="11"/>
+      <c r="D291" s="11"/>
+      <c r="E291" s="11"/>
+      <c r="F291" s="11"/>
+      <c r="G291" s="11"/>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C292" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D292" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E292" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F292" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="7" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="B293" s="7" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="C293" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="F293" s="0" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="7" t="n">
+        <v>7E-005</v>
+      </c>
+      <c r="B294" s="7" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="C294" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="F294" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="7" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="B295" s="7" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="C295" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="F295" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="7" t="n">
+        <v>7E-005</v>
+      </c>
+      <c r="B296" s="7" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="C296" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="F296" s="0" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="7" t="n">
+        <v>8E-005</v>
+      </c>
+      <c r="B297" s="7" t="n">
+        <v>9E-005</v>
+      </c>
+      <c r="C297" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="F297" s="0" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A41:J41"/>
@@ -6374,6 +7191,7 @@
     <mergeCell ref="A222:G222"/>
     <mergeCell ref="A245:G245"/>
     <mergeCell ref="A268:G268"/>
+    <mergeCell ref="A291:G291"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/experiments/hyperparameters/hyperparemeter_search.xlsx
+++ b/experiments/hyperparameters/hyperparemeter_search.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="290">
-  <si>
-    <t>EXPERIMENT 1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="433">
+  <si>
+    <t>EXPERIMENT 2</t>
   </si>
   <si>
     <t>HYPERPARAMETER SEARCH 1</t>
@@ -284,7 +284,7 @@
     <t>selected with FROC</t>
   </si>
   <si>
-    <t>EXPERIMENT 2</t>
+    <t>EXPERIMENT 2_2</t>
   </si>
   <si>
     <t>HYPERPARAMETER SEARCH 4</t>
@@ -416,123 +416,129 @@
     <t>Network with 0.98/0.02 loss weights</t>
   </si>
   <si>
+    <t>3_old</t>
+  </si>
+  <si>
+    <t>HYPERPARAMETER SEARCH 5</t>
+  </si>
+  <si>
+    <t>run85</t>
+  </si>
+  <si>
+    <t>run86</t>
+  </si>
+  <si>
+    <t>high threshold </t>
+  </si>
+  <si>
+    <t>run87</t>
+  </si>
+  <si>
+    <t>run88</t>
+  </si>
+  <si>
+    <t>run89</t>
+  </si>
+  <si>
+    <t>run90</t>
+  </si>
+  <si>
+    <t>run91</t>
+  </si>
+  <si>
+    <t>run92</t>
+  </si>
+  <si>
+    <t>run93</t>
+  </si>
+  <si>
+    <t>run94</t>
+  </si>
+  <si>
+    <t>run95</t>
+  </si>
+  <si>
+    <t>run96</t>
+  </si>
+  <si>
+    <t>run97</t>
+  </si>
+  <si>
+    <t>run98</t>
+  </si>
+  <si>
+    <t>run99</t>
+  </si>
+  <si>
+    <t>run100</t>
+  </si>
+  <si>
+    <t>run101</t>
+  </si>
+  <si>
+    <t>run102</t>
+  </si>
+  <si>
+    <t>run103</t>
+  </si>
+  <si>
+    <t>run104</t>
+  </si>
+  <si>
+    <t>run105</t>
+  </si>
+  <si>
+    <t>run106</t>
+  </si>
+  <si>
+    <t>run107</t>
+  </si>
+  <si>
+    <t>run108</t>
+  </si>
+  <si>
+    <t>run109</t>
+  </si>
+  <si>
+    <t>looks weird</t>
+  </si>
+  <si>
+    <t>run110</t>
+  </si>
+  <si>
+    <t>run111</t>
+  </si>
+  <si>
+    <t>run112</t>
+  </si>
+  <si>
+    <t>run113</t>
+  </si>
+  <si>
+    <t>run114</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>10 .^ unifrnd(-6,-2,30,1)</t>
+  </si>
+  <si>
+    <t>For plots deleted points with 10 highest alphas or 10 highest lambdas (if repeated)</t>
+  </si>
+  <si>
+    <t>10 .^ unifrnd(-5, 0, 30, 1)</t>
+  </si>
+  <si>
+    <t>run115</t>
+  </si>
+  <si>
+    <t>run118</t>
+  </si>
+  <si>
     <t>EXPERIMENT 3</t>
   </si>
   <si>
-    <t>HYPERPARAMETER SEARCH 5</t>
-  </si>
-  <si>
-    <t>run85</t>
-  </si>
-  <si>
-    <t>run86</t>
-  </si>
-  <si>
-    <t>run87</t>
-  </si>
-  <si>
-    <t>run88</t>
-  </si>
-  <si>
-    <t>run89</t>
-  </si>
-  <si>
-    <t>run90</t>
-  </si>
-  <si>
-    <t>run91</t>
-  </si>
-  <si>
-    <t>run92</t>
-  </si>
-  <si>
-    <t>run93</t>
-  </si>
-  <si>
-    <t>run94</t>
-  </si>
-  <si>
-    <t>run95</t>
-  </si>
-  <si>
-    <t>run96</t>
-  </si>
-  <si>
-    <t>run97</t>
-  </si>
-  <si>
-    <t>run98</t>
-  </si>
-  <si>
-    <t>run99</t>
-  </si>
-  <si>
-    <t>run100</t>
-  </si>
-  <si>
-    <t>run101</t>
-  </si>
-  <si>
-    <t>run102</t>
-  </si>
-  <si>
-    <t>run103</t>
-  </si>
-  <si>
-    <t>run104</t>
-  </si>
-  <si>
-    <t>run105</t>
-  </si>
-  <si>
-    <t>run106</t>
-  </si>
-  <si>
-    <t>run107</t>
-  </si>
-  <si>
-    <t>run108</t>
-  </si>
-  <si>
-    <t>run109</t>
-  </si>
-  <si>
-    <t>run110</t>
-  </si>
-  <si>
-    <t>run111</t>
-  </si>
-  <si>
-    <t>run112</t>
-  </si>
-  <si>
-    <t>run113</t>
-  </si>
-  <si>
-    <t>run114</t>
-  </si>
-  <si>
-    <t>Notes:</t>
-  </si>
-  <si>
-    <t>10 .^ unifrnd(-6,-2,30,1)</t>
-  </si>
-  <si>
-    <t>For plots deleted points with 10 highest alphas or 10 highest lambdas (if repeated)</t>
-  </si>
-  <si>
-    <t>10 .^ unifrnd(-5, 0, 30, 1)</t>
-  </si>
-  <si>
-    <t>run115</t>
-  </si>
-  <si>
-    <t>run118</t>
-  </si>
-  <si>
-    <t>EXPERIMENT 4</t>
-  </si>
-  <si>
     <t>10 .^ unifrnd(-6,-3,20,1)</t>
   </si>
   <si>
@@ -885,6 +891,429 @@
   </si>
   <si>
     <t>fold5</t>
+  </si>
+  <si>
+    <t>10 .^ unifrnd(-5,-1,25,1)</t>
+  </si>
+  <si>
+    <t>10 .^ unifrnd(-4, -1, 25, 1)</t>
+  </si>
+  <si>
+    <t>run224</t>
+  </si>
+  <si>
+    <t>run225</t>
+  </si>
+  <si>
+    <t>run226</t>
+  </si>
+  <si>
+    <t>run227</t>
+  </si>
+  <si>
+    <t>run228</t>
+  </si>
+  <si>
+    <t>run229</t>
+  </si>
+  <si>
+    <t>run230</t>
+  </si>
+  <si>
+    <t>run231</t>
+  </si>
+  <si>
+    <t>may be a small validation set, 5.8 is the greatest FP</t>
+  </si>
+  <si>
+    <t>run232</t>
+  </si>
+  <si>
+    <t>another small val set, 3 is the greatest FP</t>
+  </si>
+  <si>
+    <t>run233</t>
+  </si>
+  <si>
+    <t>run234</t>
+  </si>
+  <si>
+    <t>run235</t>
+  </si>
+  <si>
+    <t>Only 3 FP but looks good</t>
+  </si>
+  <si>
+    <t>run236</t>
+  </si>
+  <si>
+    <t>run237</t>
+  </si>
+  <si>
+    <t>run238</t>
+  </si>
+  <si>
+    <t>Max is 3 FP</t>
+  </si>
+  <si>
+    <t>run239</t>
+  </si>
+  <si>
+    <t>run240</t>
+  </si>
+  <si>
+    <t>run241</t>
+  </si>
+  <si>
+    <t>run242</t>
+  </si>
+  <si>
+    <t>run243</t>
+  </si>
+  <si>
+    <t>run244</t>
+  </si>
+  <si>
+    <t>run245</t>
+  </si>
+  <si>
+    <t>run246</t>
+  </si>
+  <si>
+    <t>run247</t>
+  </si>
+  <si>
+    <t>run248</t>
+  </si>
+  <si>
+    <t>run249</t>
+  </si>
+  <si>
+    <t>run250</t>
+  </si>
+  <si>
+    <t>run251</t>
+  </si>
+  <si>
+    <t>run252</t>
+  </si>
+  <si>
+    <t>run253</t>
+  </si>
+  <si>
+    <t>run254</t>
+  </si>
+  <si>
+    <t>run255</t>
+  </si>
+  <si>
+    <t>run256</t>
+  </si>
+  <si>
+    <t>run257</t>
+  </si>
+  <si>
+    <t>run258</t>
+  </si>
+  <si>
+    <t>run259</t>
+  </si>
+  <si>
+    <t>run260</t>
+  </si>
+  <si>
+    <t>run261</t>
+  </si>
+  <si>
+    <t>run262</t>
+  </si>
+  <si>
+    <t>run263</t>
+  </si>
+  <si>
+    <t>run264</t>
+  </si>
+  <si>
+    <t>run265</t>
+  </si>
+  <si>
+    <t>run266</t>
+  </si>
+  <si>
+    <t>run267</t>
+  </si>
+  <si>
+    <t>run268</t>
+  </si>
+  <si>
+    <t>run269</t>
+  </si>
+  <si>
+    <t>run270</t>
+  </si>
+  <si>
+    <t>run271</t>
+  </si>
+  <si>
+    <t>run272</t>
+  </si>
+  <si>
+    <t>run273</t>
+  </si>
+  <si>
+    <t>run274</t>
+  </si>
+  <si>
+    <t>run275</t>
+  </si>
+  <si>
+    <t>run276</t>
+  </si>
+  <si>
+    <t>run277</t>
+  </si>
+  <si>
+    <t>run278</t>
+  </si>
+  <si>
+    <t>run279</t>
+  </si>
+  <si>
+    <t>low predictions</t>
+  </si>
+  <si>
+    <t>run280</t>
+  </si>
+  <si>
+    <t>run281</t>
+  </si>
+  <si>
+    <t>run282</t>
+  </si>
+  <si>
+    <t>run283</t>
+  </si>
+  <si>
+    <t>run284</t>
+  </si>
+  <si>
+    <t>run285</t>
+  </si>
+  <si>
+    <t>run286</t>
+  </si>
+  <si>
+    <t>run287</t>
+  </si>
+  <si>
+    <t>run288</t>
+  </si>
+  <si>
+    <t>run289</t>
+  </si>
+  <si>
+    <t>kinda big jump</t>
+  </si>
+  <si>
+    <t>run290</t>
+  </si>
+  <si>
+    <t>run291</t>
+  </si>
+  <si>
+    <t>run292</t>
+  </si>
+  <si>
+    <t>run293</t>
+  </si>
+  <si>
+    <t>run294</t>
+  </si>
+  <si>
+    <t>run295</t>
+  </si>
+  <si>
+    <t>run296</t>
+  </si>
+  <si>
+    <t>run297</t>
+  </si>
+  <si>
+    <t>run298</t>
+  </si>
+  <si>
+    <t>run299</t>
+  </si>
+  <si>
+    <t>run300</t>
+  </si>
+  <si>
+    <t>run301</t>
+  </si>
+  <si>
+    <t>run302</t>
+  </si>
+  <si>
+    <t>run303</t>
+  </si>
+  <si>
+    <t>run304</t>
+  </si>
+  <si>
+    <t>run305</t>
+  </si>
+  <si>
+    <t>run306</t>
+  </si>
+  <si>
+    <t>run307</t>
+  </si>
+  <si>
+    <t>run308</t>
+  </si>
+  <si>
+    <t>run309</t>
+  </si>
+  <si>
+    <t>run310</t>
+  </si>
+  <si>
+    <t>run311</t>
+  </si>
+  <si>
+    <t>run312</t>
+  </si>
+  <si>
+    <t>run313</t>
+  </si>
+  <si>
+    <t>run314</t>
+  </si>
+  <si>
+    <t>run315</t>
+  </si>
+  <si>
+    <t>run316</t>
+  </si>
+  <si>
+    <t>run317</t>
+  </si>
+  <si>
+    <t>run318</t>
+  </si>
+  <si>
+    <t>run319</t>
+  </si>
+  <si>
+    <t>run320</t>
+  </si>
+  <si>
+    <t>run321</t>
+  </si>
+  <si>
+    <t>run322</t>
+  </si>
+  <si>
+    <t>run323</t>
+  </si>
+  <si>
+    <t>run324</t>
+  </si>
+  <si>
+    <t>run325</t>
+  </si>
+  <si>
+    <t>run326</t>
+  </si>
+  <si>
+    <t>run327</t>
+  </si>
+  <si>
+    <t>run328</t>
+  </si>
+  <si>
+    <t>run329</t>
+  </si>
+  <si>
+    <t>run330</t>
+  </si>
+  <si>
+    <t>run331</t>
+  </si>
+  <si>
+    <t>run332</t>
+  </si>
+  <si>
+    <t>run333</t>
+  </si>
+  <si>
+    <t>run334</t>
+  </si>
+  <si>
+    <t>run335</t>
+  </si>
+  <si>
+    <t>run336</t>
+  </si>
+  <si>
+    <t>run337</t>
+  </si>
+  <si>
+    <t>run338</t>
+  </si>
+  <si>
+    <t>run339</t>
+  </si>
+  <si>
+    <t>run340</t>
+  </si>
+  <si>
+    <t>run341</t>
+  </si>
+  <si>
+    <t>run342</t>
+  </si>
+  <si>
+    <t>run343</t>
+  </si>
+  <si>
+    <t>run344</t>
+  </si>
+  <si>
+    <t>run345</t>
+  </si>
+  <si>
+    <t>run346</t>
+  </si>
+  <si>
+    <t>run347</t>
+  </si>
+  <si>
+    <t>run348</t>
+  </si>
+  <si>
+    <t>run349</t>
+  </si>
+  <si>
+    <t>run350</t>
+  </si>
+  <si>
+    <t>run351</t>
+  </si>
+  <si>
+    <t>run352</t>
+  </si>
+  <si>
+    <t>run353</t>
+  </si>
+  <si>
+    <t>EXPERIMENT 3_2</t>
+  </si>
+  <si>
+    <t>10 .^ unifrnd(-5,-4,20,1)</t>
+  </si>
+  <si>
+    <t>10 .^ unifrnd(-3, 0, 20, 1)</t>
   </si>
 </sst>
 </file>
@@ -1052,10 +1481,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K306"/>
+  <dimension ref="A1:K469"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A129" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J139" activeCellId="0" sqref="J139"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A451" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A463" activeCellId="0" sqref="A463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4756,65 +5185,71 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="9" t="n">
+    <row r="139" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="5" t="n">
         <v>1.5654E-006</v>
       </c>
-      <c r="B139" s="9" t="n">
+      <c r="B139" s="5" t="n">
         <v>0.26921</v>
       </c>
-      <c r="C139" s="10" t="s">
+      <c r="C139" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D139" s="10" t="n">
+      <c r="D139" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E139" s="10" t="n">
+      <c r="E139" s="6" t="n">
         <v>0.059</v>
       </c>
-      <c r="F139" s="10" t="n">
+      <c r="F139" s="6" t="n">
         <v>0.092</v>
       </c>
-      <c r="G139" s="10" t="n">
+      <c r="G139" s="6" t="n">
         <v>0.54</v>
       </c>
-      <c r="H139" s="10" t="n">
+      <c r="H139" s="6" t="n">
         <v>0.127</v>
       </c>
-      <c r="I139" s="10" t="n">
+      <c r="I139" s="6" t="n">
         <v>0.5</v>
       </c>
-      <c r="J139" s="10" t="n">
+      <c r="J139" s="6" t="n">
         <v>0.04</v>
       </c>
     </row>
-    <row r="140" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="9" t="n">
+    <row r="140" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="5" t="n">
         <v>3.5554E-006</v>
       </c>
-      <c r="B140" s="9" t="n">
+      <c r="B140" s="5" t="n">
         <v>3.0387E-005</v>
       </c>
-      <c r="C140" s="10" t="s">
+      <c r="C140" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D140" s="10" t="n">
+      <c r="D140" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="E140" s="10" t="n">
+      <c r="E140" s="6" t="n">
         <v>0.036</v>
       </c>
-      <c r="F140" s="10" t="n">
+      <c r="F140" s="6" t="n">
         <v>0.315</v>
       </c>
-      <c r="G140" s="10" t="n">
+      <c r="G140" s="6" t="n">
         <v>0.96</v>
       </c>
-      <c r="H140" s="10" t="n">
+      <c r="H140" s="6" t="n">
         <v>0.362</v>
       </c>
-      <c r="I140" s="10" t="n">
+      <c r="I140" s="6" t="n">
         <v>0.96</v>
+      </c>
+      <c r="J140" s="6" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="K140" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="141" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4825,7 +5260,7 @@
         <v>0.2741</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D141" s="10" t="n">
         <v>3</v>
@@ -4845,63 +5280,75 @@
       <c r="I141" s="10" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="142" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="9" t="n">
+      <c r="J141" s="10" t="n">
+        <v>0.225</v>
+      </c>
+    </row>
+    <row r="142" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="5" t="n">
         <v>1.1713E-005</v>
       </c>
-      <c r="B142" s="9" t="n">
+      <c r="B142" s="5" t="n">
         <v>0.00073872</v>
       </c>
-      <c r="C142" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D142" s="10" t="n">
+      <c r="C142" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D142" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="E142" s="10" t="n">
+      <c r="E142" s="6" t="n">
         <v>0.031</v>
       </c>
-      <c r="F142" s="10" t="n">
+      <c r="F142" s="6" t="n">
         <v>0.311</v>
       </c>
-      <c r="G142" s="10" t="n">
+      <c r="G142" s="6" t="n">
         <v>0.92</v>
       </c>
-      <c r="H142" s="10" t="n">
+      <c r="H142" s="6" t="n">
         <v>0.368</v>
       </c>
-      <c r="I142" s="10" t="n">
+      <c r="I142" s="6" t="n">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="143" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="9" t="n">
+      <c r="J142" s="6" t="n">
+        <v>0.095</v>
+      </c>
+    </row>
+    <row r="143" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="5" t="n">
         <v>1.3078E-005</v>
       </c>
-      <c r="B143" s="9" t="n">
+      <c r="B143" s="5" t="n">
         <v>5.5114E-005</v>
       </c>
-      <c r="C143" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D143" s="10" t="n">
+      <c r="C143" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D143" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="E143" s="10" t="n">
+      <c r="E143" s="6" t="n">
         <v>0.044</v>
       </c>
-      <c r="F143" s="10" t="n">
+      <c r="F143" s="6" t="n">
         <v>0.308</v>
       </c>
-      <c r="G143" s="10" t="n">
+      <c r="G143" s="6" t="n">
         <v>0.96</v>
       </c>
-      <c r="H143" s="10" t="n">
+      <c r="H143" s="6" t="n">
         <v>0.366</v>
       </c>
-      <c r="I143" s="10" t="n">
+      <c r="I143" s="6" t="n">
         <v>0.92</v>
+      </c>
+      <c r="J143" s="6" t="n">
+        <v>0.069</v>
+      </c>
+      <c r="K143" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="144" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4912,7 +5359,7 @@
         <v>7.581E-005</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D144" s="10" t="n">
         <v>6</v>
@@ -4932,63 +5379,72 @@
       <c r="I144" s="10" t="n">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="145" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="9" t="n">
+      <c r="J144" s="10" t="n">
+        <v>0.134</v>
+      </c>
+    </row>
+    <row r="145" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="5" t="n">
         <v>1.8201E-005</v>
       </c>
-      <c r="B145" s="9" t="n">
+      <c r="B145" s="5" t="n">
         <v>5.0484E-005</v>
       </c>
-      <c r="C145" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D145" s="10" t="n">
+      <c r="C145" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D145" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="E145" s="10" t="n">
+      <c r="E145" s="6" t="n">
         <v>0.028</v>
       </c>
-      <c r="F145" s="10" t="n">
+      <c r="F145" s="6" t="n">
         <v>0.307</v>
       </c>
-      <c r="G145" s="10" t="n">
+      <c r="G145" s="6" t="n">
         <v>0.79</v>
       </c>
-      <c r="H145" s="10" t="n">
+      <c r="H145" s="6" t="n">
         <v>0.364</v>
       </c>
-      <c r="I145" s="10" t="n">
+      <c r="I145" s="6" t="n">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="146" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="9" t="n">
+      <c r="J145" s="6" t="n">
+        <v>0.055</v>
+      </c>
+    </row>
+    <row r="146" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="5" t="n">
         <v>2.0148E-005</v>
       </c>
-      <c r="B146" s="9" t="n">
+      <c r="B146" s="5" t="n">
         <v>0.0012329</v>
       </c>
-      <c r="C146" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D146" s="10" t="n">
+      <c r="C146" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D146" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="E146" s="10" t="n">
+      <c r="E146" s="6" t="n">
         <v>0.026</v>
       </c>
-      <c r="F146" s="10" t="n">
+      <c r="F146" s="6" t="n">
         <v>0.309</v>
       </c>
-      <c r="G146" s="10" t="n">
+      <c r="G146" s="6" t="n">
         <v>0.83</v>
       </c>
-      <c r="H146" s="10" t="n">
+      <c r="H146" s="6" t="n">
         <v>0.364</v>
       </c>
-      <c r="I146" s="10" t="n">
+      <c r="I146" s="6" t="n">
         <v>0.79</v>
+      </c>
+      <c r="J146" s="6" t="n">
+        <v>0.093</v>
       </c>
     </row>
     <row r="147" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4999,7 +5455,7 @@
         <v>0.0007946</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D147" s="10" t="n">
         <v>9</v>
@@ -5018,6 +5474,9 @@
       </c>
       <c r="I147" s="10" t="n">
         <v>0.83</v>
+      </c>
+      <c r="J147" s="10" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="148" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5028,7 +5487,7 @@
         <v>0.00052887</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D148" s="10" t="n">
         <v>10</v>
@@ -5047,6 +5506,9 @@
       </c>
       <c r="I148" s="10" t="n">
         <v>0.79</v>
+      </c>
+      <c r="J148" s="10" t="n">
+        <v>0.185</v>
       </c>
     </row>
     <row r="149" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5057,7 +5519,7 @@
         <v>0.00048127</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D149" s="10" t="n">
         <v>11</v>
@@ -5077,185 +5539,206 @@
       <c r="I149" s="10" t="n">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="150" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="9" t="n">
+      <c r="J149" s="10" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="150" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="7" t="n">
         <v>4.0787E-005</v>
       </c>
-      <c r="B150" s="9" t="n">
+      <c r="B150" s="7" t="n">
         <v>0.001023</v>
       </c>
-      <c r="C150" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D150" s="10" t="n">
+      <c r="C150" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D150" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="E150" s="10" t="n">
+      <c r="E150" s="8" t="n">
         <v>0.025</v>
       </c>
-      <c r="F150" s="10" t="n">
+      <c r="F150" s="8" t="n">
         <v>0.321</v>
       </c>
-      <c r="G150" s="10" t="n">
+      <c r="G150" s="8" t="n">
         <v>0.79</v>
       </c>
-      <c r="H150" s="10" t="n">
+      <c r="H150" s="8" t="n">
         <v>0.374</v>
       </c>
-      <c r="I150" s="10" t="n">
+      <c r="I150" s="8" t="n">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="151" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="9" t="n">
+      <c r="J150" s="8" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="151" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="7" t="n">
         <v>4.1844E-005</v>
       </c>
-      <c r="B151" s="9" t="n">
+      <c r="B151" s="7" t="n">
         <v>0.00084802</v>
       </c>
-      <c r="C151" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D151" s="10" t="n">
+      <c r="C151" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D151" s="8" t="n">
         <v>13</v>
       </c>
-      <c r="E151" s="10" t="n">
+      <c r="E151" s="8" t="n">
         <v>0.024</v>
       </c>
-      <c r="F151" s="10" t="n">
+      <c r="F151" s="8" t="n">
         <v>0.315</v>
       </c>
-      <c r="G151" s="10" t="n">
+      <c r="G151" s="8" t="n">
         <v>0.66</v>
       </c>
-      <c r="H151" s="10" t="n">
+      <c r="H151" s="8" t="n">
         <v>0.369</v>
       </c>
-      <c r="I151" s="10" t="n">
+      <c r="I151" s="8" t="n">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="152" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="9" t="n">
+      <c r="J151" s="8" t="n">
+        <v>0.288</v>
+      </c>
+    </row>
+    <row r="152" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="7" t="n">
         <v>6.5612E-005</v>
       </c>
-      <c r="B152" s="9" t="n">
+      <c r="B152" s="7" t="n">
         <v>0.003607</v>
       </c>
-      <c r="C152" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="D152" s="10" t="n">
+      <c r="C152" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D152" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="E152" s="10" t="n">
+      <c r="E152" s="8" t="n">
         <v>0.023</v>
       </c>
-      <c r="F152" s="10" t="n">
+      <c r="F152" s="8" t="n">
         <v>0.303</v>
       </c>
-      <c r="G152" s="10" t="n">
+      <c r="G152" s="8" t="n">
         <v>0.75</v>
       </c>
-      <c r="H152" s="10" t="n">
+      <c r="H152" s="8" t="n">
         <v>0.368</v>
       </c>
-      <c r="I152" s="10" t="n">
+      <c r="I152" s="8" t="n">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="153" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="9" t="n">
+      <c r="J152" s="8" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="153" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="5" t="n">
         <v>6.827E-005</v>
       </c>
-      <c r="B153" s="9" t="n">
+      <c r="B153" s="5" t="n">
         <v>0.18602</v>
       </c>
-      <c r="C153" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="D153" s="10" t="n">
+      <c r="C153" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D153" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="E153" s="10" t="n">
+      <c r="E153" s="6" t="n">
         <v>0.043</v>
       </c>
-      <c r="F153" s="10" t="n">
+      <c r="F153" s="6" t="n">
         <v>0.015</v>
       </c>
-      <c r="G153" s="10" t="n">
+      <c r="G153" s="6" t="n">
         <v>0.13</v>
       </c>
-      <c r="H153" s="10" t="n">
+      <c r="H153" s="6" t="n">
         <v>0.03</v>
       </c>
-      <c r="I153" s="10" t="n">
+      <c r="I153" s="6" t="n">
         <v>0.13</v>
       </c>
-      <c r="K153" s="10" t="s">
+      <c r="J153" s="6" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="K153" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="154" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="9" t="n">
+    <row r="154" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="5" t="n">
         <v>0.00011998</v>
       </c>
-      <c r="B154" s="9" t="n">
+      <c r="B154" s="5" t="n">
         <v>0.045356</v>
       </c>
-      <c r="C154" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D154" s="10" t="n">
+      <c r="C154" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D154" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E154" s="10" t="n">
+      <c r="E154" s="6" t="n">
         <v>0.043</v>
       </c>
-      <c r="F154" s="10" t="n">
+      <c r="F154" s="6" t="n">
         <v>0.015</v>
       </c>
-      <c r="G154" s="10" t="n">
+      <c r="G154" s="6" t="n">
         <v>0.13</v>
       </c>
-      <c r="H154" s="10" t="n">
+      <c r="H154" s="6" t="n">
         <v>0.03</v>
       </c>
-      <c r="I154" s="10" t="n">
+      <c r="I154" s="6" t="n">
         <v>0.13</v>
       </c>
-      <c r="K154" s="10" t="s">
+      <c r="J154" s="6" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="K154" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="155" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="9" t="n">
+    <row r="155" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="7" t="n">
         <v>0.000143</v>
       </c>
-      <c r="B155" s="9" t="n">
+      <c r="B155" s="7" t="n">
         <v>0.00028769</v>
       </c>
-      <c r="C155" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="D155" s="10" t="n">
+      <c r="C155" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D155" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="E155" s="10" t="n">
+      <c r="E155" s="8" t="n">
         <v>0.022</v>
       </c>
-      <c r="F155" s="10" t="n">
+      <c r="F155" s="8" t="n">
         <v>0.314</v>
       </c>
-      <c r="G155" s="10" t="n">
+      <c r="G155" s="8" t="n">
         <v>0.67</v>
       </c>
-      <c r="H155" s="10" t="n">
+      <c r="H155" s="8" t="n">
         <v>0.373</v>
       </c>
-      <c r="I155" s="10" t="n">
+      <c r="I155" s="8" t="n">
         <v>0.67</v>
+      </c>
+      <c r="J155" s="8" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="156" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5266,7 +5749,7 @@
         <v>0.00014377</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D156" s="10" t="n">
         <v>3</v>
@@ -5286,97 +5769,109 @@
       <c r="I156" s="10" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="157" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="9" t="n">
+      <c r="J156" s="10" t="n">
+        <v>0.282</v>
+      </c>
+    </row>
+    <row r="157" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="7" t="n">
         <v>0.00037919</v>
       </c>
-      <c r="B157" s="9" t="n">
+      <c r="B157" s="7" t="n">
         <v>0.0029846</v>
       </c>
-      <c r="C157" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D157" s="10" t="n">
+      <c r="C157" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D157" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="E157" s="10" t="n">
+      <c r="E157" s="8" t="n">
         <v>0.028</v>
       </c>
-      <c r="F157" s="10" t="n">
+      <c r="F157" s="8" t="n">
         <v>0.305</v>
       </c>
-      <c r="G157" s="10" t="n">
+      <c r="G157" s="8" t="n">
         <v>0.54</v>
       </c>
-      <c r="H157" s="10" t="n">
+      <c r="H157" s="8" t="n">
         <v>0.355</v>
       </c>
-      <c r="I157" s="10" t="n">
+      <c r="I157" s="8" t="n">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="158" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="9" t="n">
+      <c r="J157" s="8" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="158" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="5" t="n">
         <v>0.00039582</v>
       </c>
-      <c r="B158" s="9" t="n">
+      <c r="B158" s="5" t="n">
         <v>0.027861</v>
       </c>
-      <c r="C158" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D158" s="10" t="n">
+      <c r="C158" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D158" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="E158" s="10" t="n">
+      <c r="E158" s="6" t="n">
         <v>0.043</v>
       </c>
-      <c r="F158" s="10" t="n">
+      <c r="F158" s="6" t="n">
         <v>0.015</v>
       </c>
-      <c r="G158" s="10" t="n">
+      <c r="G158" s="6" t="n">
         <v>0.08</v>
       </c>
-      <c r="H158" s="10" t="n">
+      <c r="H158" s="6" t="n">
         <v>0.03</v>
       </c>
-      <c r="I158" s="10" t="n">
+      <c r="I158" s="6" t="n">
         <v>0.08</v>
       </c>
-      <c r="K158" s="10" t="s">
+      <c r="J158" s="6" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="K158" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="159" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="9" t="n">
+    <row r="159" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="5" t="n">
         <v>0.00055286</v>
       </c>
-      <c r="B159" s="9" t="n">
+      <c r="B159" s="5" t="n">
         <v>0.13127</v>
       </c>
-      <c r="C159" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="D159" s="10" t="n">
+      <c r="C159" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D159" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="E159" s="10" t="n">
+      <c r="E159" s="6" t="n">
         <v>0.043</v>
       </c>
-      <c r="F159" s="10" t="n">
+      <c r="F159" s="6" t="n">
         <v>0.015</v>
       </c>
-      <c r="G159" s="10" t="n">
+      <c r="G159" s="6" t="n">
         <v>0.04</v>
       </c>
-      <c r="H159" s="10" t="n">
+      <c r="H159" s="6" t="n">
         <v>0.03</v>
       </c>
-      <c r="I159" s="10" t="n">
+      <c r="I159" s="6" t="n">
         <v>0.04</v>
       </c>
-      <c r="K159" s="10" t="s">
+      <c r="J159" s="6" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="K159" s="6" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5388,7 +5883,7 @@
         <v>2.8017E-005</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D160" s="10" t="n">
         <v>7</v>
@@ -5408,66 +5903,75 @@
       <c r="I160" s="10" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="161" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="9" t="n">
+      <c r="J160" s="10" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="161" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="5" t="n">
         <v>0.0016451</v>
       </c>
-      <c r="B161" s="9" t="n">
+      <c r="B161" s="5" t="n">
         <v>0.01021</v>
       </c>
-      <c r="C161" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D161" s="10" t="n">
+      <c r="C161" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D161" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="E161" s="10" t="n">
+      <c r="E161" s="6" t="n">
         <v>0.042</v>
       </c>
-      <c r="F161" s="10" t="n">
+      <c r="F161" s="6" t="n">
         <v>0.015</v>
       </c>
-      <c r="G161" s="10" t="n">
+      <c r="G161" s="6" t="n">
         <v>0.08</v>
       </c>
-      <c r="H161" s="10" t="n">
+      <c r="H161" s="6" t="n">
         <v>0.03</v>
       </c>
-      <c r="I161" s="10" t="n">
+      <c r="I161" s="6" t="n">
         <v>0.08</v>
       </c>
-      <c r="K161" s="10" t="s">
+      <c r="J161" s="6" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="K161" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="162" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="9" t="n">
+    <row r="162" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="7" t="n">
         <v>0.0018396</v>
       </c>
-      <c r="B162" s="9" t="n">
+      <c r="B162" s="7" t="n">
         <v>0.004497</v>
       </c>
-      <c r="C162" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="D162" s="10" t="n">
+      <c r="C162" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D162" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="E162" s="10" t="n">
+      <c r="E162" s="8" t="n">
         <v>0.024</v>
       </c>
-      <c r="F162" s="10" t="n">
+      <c r="F162" s="8" t="n">
         <v>0.289</v>
       </c>
-      <c r="G162" s="10" t="n">
+      <c r="G162" s="8" t="n">
         <v>0.58</v>
       </c>
-      <c r="H162" s="10" t="n">
+      <c r="H162" s="8" t="n">
         <v>0.366</v>
       </c>
-      <c r="I162" s="10" t="n">
+      <c r="I162" s="8" t="n">
         <v>0.54</v>
+      </c>
+      <c r="J162" s="8" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="163" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5478,7 +5982,7 @@
         <v>0.0044713</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D163" s="10" t="n">
         <v>10</v>
@@ -5498,164 +6002,185 @@
       <c r="I163" s="10" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="164" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="9" t="n">
+      <c r="J163" s="10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K163" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="5" t="n">
         <v>0.00378</v>
       </c>
-      <c r="B164" s="9" t="n">
+      <c r="B164" s="5" t="n">
         <v>0.19318</v>
       </c>
-      <c r="C164" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D164" s="10" t="n">
+      <c r="C164" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D164" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="E164" s="10" t="n">
+      <c r="E164" s="6" t="n">
         <v>0.042</v>
       </c>
-      <c r="F164" s="10" t="n">
+      <c r="F164" s="6" t="n">
         <v>0.015</v>
       </c>
-      <c r="G164" s="10" t="n">
+      <c r="G164" s="6" t="n">
         <v>0.08</v>
       </c>
-      <c r="H164" s="10" t="n">
+      <c r="H164" s="6" t="n">
         <v>0.03</v>
       </c>
-      <c r="I164" s="10" t="n">
+      <c r="I164" s="6" t="n">
         <v>0.08</v>
       </c>
-      <c r="K164" s="10" t="s">
+      <c r="J164" s="6" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="K164" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="165" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="9" t="n">
+    <row r="165" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="5" t="n">
         <v>0.0037956</v>
       </c>
-      <c r="B165" s="9" t="n">
+      <c r="B165" s="5" t="n">
         <v>0.0014238</v>
       </c>
-      <c r="C165" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D165" s="10" t="n">
+      <c r="C165" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D165" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="E165" s="10" t="n">
+      <c r="E165" s="6" t="n">
         <v>162.36</v>
       </c>
-      <c r="F165" s="10" t="n">
+      <c r="F165" s="6" t="n">
         <v>0.076</v>
       </c>
-      <c r="G165" s="10" t="n">
+      <c r="G165" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H165" s="10" t="n">
+      <c r="H165" s="6" t="n">
         <v>0.13</v>
       </c>
-      <c r="I165" s="10" t="n">
+      <c r="I165" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="K165" s="10" t="s">
+      <c r="J165" s="6" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="K165" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="166" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="9" t="n">
+    <row r="166" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="5" t="n">
         <v>0.0044606</v>
       </c>
-      <c r="B166" s="9" t="n">
+      <c r="B166" s="5" t="n">
         <v>0.11008</v>
       </c>
-      <c r="C166" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="D166" s="10" t="n">
+      <c r="C166" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D166" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="E166" s="10" t="n">
+      <c r="E166" s="6" t="n">
         <v>0.042</v>
       </c>
-      <c r="F166" s="10" t="n">
+      <c r="F166" s="6" t="n">
         <v>0.015</v>
       </c>
-      <c r="G166" s="10" t="n">
+      <c r="G166" s="6" t="n">
         <v>0.13</v>
       </c>
-      <c r="H166" s="10" t="n">
+      <c r="H166" s="6" t="n">
         <v>0.03</v>
       </c>
-      <c r="I166" s="10" t="n">
+      <c r="I166" s="6" t="n">
         <v>0.13</v>
       </c>
-      <c r="K166" s="10" t="s">
+      <c r="J166" s="6" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="K166" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="167" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="9" t="n">
+    <row r="167" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="5" t="n">
         <v>0.0058469</v>
       </c>
-      <c r="B167" s="9" t="n">
+      <c r="B167" s="5" t="n">
         <v>9.3986E-005</v>
       </c>
-      <c r="C167" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D167" s="10" t="n">
+      <c r="C167" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D167" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="E167" s="10" t="n">
+      <c r="E167" s="6" t="n">
         <v>2443.44</v>
       </c>
-      <c r="F167" s="10" t="n">
+      <c r="F167" s="6" t="n">
         <v>0.098</v>
       </c>
-      <c r="G167" s="10" t="n">
+      <c r="G167" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H167" s="10" t="n">
+      <c r="H167" s="6" t="n">
         <v>0.171</v>
       </c>
-      <c r="I167" s="10" t="n">
+      <c r="I167" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="K167" s="10" t="s">
+      <c r="J167" s="6" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="K167" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="168" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="9" t="n">
+    <row r="168" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="5" t="n">
         <v>0.0094124</v>
       </c>
-      <c r="B168" s="9" t="n">
+      <c r="B168" s="5" t="n">
         <v>4.3753E-005</v>
       </c>
-      <c r="C168" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D168" s="10" t="n">
+      <c r="C168" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D168" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="E168" s="10" t="n">
+      <c r="E168" s="6" t="n">
         <v>174586</v>
       </c>
-      <c r="F168" s="10" t="n">
+      <c r="F168" s="6" t="n">
         <v>0.066</v>
       </c>
-      <c r="G168" s="10" t="n">
+      <c r="G168" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H168" s="10" t="n">
+      <c r="H168" s="6" t="n">
         <v>0.129</v>
       </c>
-      <c r="I168" s="10" t="n">
+      <c r="I168" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="K168" s="10" t="s">
+      <c r="J168" s="6" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="K168" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5664,7 +6189,7 @@
         <v>46</v>
       </c>
       <c r="G170" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5672,10 +6197,10 @@
         <v>48</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G171" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5683,7 +6208,7 @@
         <v>3</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5729,7 +6254,9 @@
       <c r="I175" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J175" s="4"/>
+      <c r="J175" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="K175" s="4" t="s">
         <v>12</v>
       </c>
@@ -5742,7 +6269,7 @@
         <v>7E-005</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D176" s="0" t="n">
         <v>1</v>
@@ -5761,6 +6288,9 @@
       </c>
       <c r="I176" s="0" t="n">
         <v>0.83</v>
+      </c>
+      <c r="J176" s="0" t="n">
+        <v>0.331</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5771,7 +6301,7 @@
         <v>0.0004</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>16</v>
@@ -5791,2020 +6321,4578 @@
       <c r="I177" s="0" t="n">
         <v>0.87</v>
       </c>
+      <c r="J177" s="0" t="n">
+        <v>0.36</v>
+      </c>
       <c r="K177" s="0" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="179" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="B179" s="12"/>
-      <c r="C179" s="12"/>
-      <c r="D179" s="12"/>
-      <c r="E179" s="12"/>
-      <c r="F179" s="12"/>
-      <c r="G179" s="12"/>
-      <c r="H179" s="1"/>
-      <c r="I179" s="1"/>
-      <c r="J179" s="1"/>
-      <c r="K179" s="1"/>
-    </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G180" s="0" t="s">
-        <v>165</v>
-      </c>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K178" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="180" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B180" s="12"/>
+      <c r="C180" s="12"/>
+      <c r="D180" s="12"/>
+      <c r="E180" s="12"/>
+      <c r="F180" s="12"/>
+      <c r="G180" s="12"/>
+      <c r="H180" s="1"/>
+      <c r="I180" s="1"/>
+      <c r="J180" s="1"/>
+      <c r="K180" s="1"/>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B181" s="0" t="s">
-        <v>172</v>
-      </c>
       <c r="G181" s="0" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B182" s="0" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="13" t="s">
+      <c r="G182" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="B184" s="13"/>
-      <c r="C184" s="13"/>
-      <c r="D184" s="13"/>
-      <c r="E184" s="13"/>
-      <c r="F184" s="13"/>
-      <c r="G184" s="13"/>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B183" s="0" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="4" t="s">
+      <c r="A185" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B185" s="13"/>
+      <c r="C185" s="13"/>
+      <c r="D185" s="13"/>
+      <c r="E185" s="13"/>
+      <c r="F185" s="13"/>
+      <c r="G185" s="13"/>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B185" s="4" t="s">
+      <c r="B186" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C185" s="4" t="s">
+      <c r="C186" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D185" s="4" t="s">
+      <c r="D186" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E185" s="4" t="s">
+      <c r="E186" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F185" s="4" t="s">
+      <c r="F186" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G185" s="4"/>
-      <c r="H185" s="4"/>
-      <c r="I185" s="4"/>
-      <c r="J185" s="4"/>
-      <c r="K185" s="4"/>
-    </row>
-    <row r="186" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="5" t="n">
-        <v>1.0142E-006</v>
-      </c>
-      <c r="B186" s="5" t="n">
-        <v>9.604E-005</v>
-      </c>
-      <c r="C186" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D186" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E186" s="6" t="n">
-        <v>0.023</v>
-      </c>
+      <c r="G186" s="4"/>
+      <c r="H186" s="4"/>
+      <c r="I186" s="4"/>
+      <c r="J186" s="4"/>
+      <c r="K186" s="4"/>
     </row>
     <row r="187" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="5" t="n">
-        <v>1.0233E-006</v>
+        <v>1.0142E-006</v>
       </c>
       <c r="B187" s="5" t="n">
-        <v>0.0002448</v>
+        <v>9.604E-005</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D187" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E187" s="6" t="n">
-        <v>0.049</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="188" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="5" t="n">
-        <v>1.0841E-006</v>
+        <v>1.0233E-006</v>
       </c>
       <c r="B188" s="5" t="n">
-        <v>0.0032389</v>
+        <v>0.0002448</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D188" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E188" s="6" t="n">
-        <v>0.028</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="189" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="5" t="n">
-        <v>1.8351E-006</v>
+        <v>1.0841E-006</v>
       </c>
       <c r="B189" s="5" t="n">
-        <v>0.00026536</v>
+        <v>0.0032389</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D189" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E189" s="6" t="n">
-        <v>0.039</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="190" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="5" t="n">
-        <v>1.884E-006</v>
+        <v>1.8351E-006</v>
       </c>
       <c r="B190" s="5" t="n">
-        <v>0.00041019</v>
+        <v>0.00026536</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D190" s="6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E190" s="6" t="n">
-        <v>0.025</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="191" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="5" t="n">
-        <v>5.3708E-006</v>
+        <v>1.884E-006</v>
       </c>
       <c r="B191" s="5" t="n">
-        <v>0.0043428</v>
+        <v>0.00041019</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D191" s="6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E191" s="6" t="n">
-        <v>0.089</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="192" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="5" t="n">
+        <v>5.3708E-006</v>
+      </c>
+      <c r="B192" s="5" t="n">
+        <v>0.0043428</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D192" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E192" s="6" t="n">
+        <v>0.089</v>
+      </c>
+    </row>
+    <row r="193" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="5" t="n">
         <v>9.8779E-006</v>
       </c>
-      <c r="B192" s="5" t="n">
+      <c r="B193" s="5" t="n">
         <v>0.0013152</v>
       </c>
-      <c r="C192" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D192" s="6" t="n">
+      <c r="C193" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D193" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="E192" s="6" t="n">
+      <c r="E193" s="6" t="n">
         <v>0.074</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="11" t="n">
-        <v>1.3695E-005</v>
-      </c>
-      <c r="B193" s="11" t="n">
-        <v>0.0022697</v>
-      </c>
-      <c r="C193" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="D193" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E193" s="0" t="n">
-        <v>0.208</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="11" t="n">
-        <v>1.4248E-005</v>
+        <v>1.3695E-005</v>
       </c>
       <c r="B194" s="11" t="n">
-        <v>0.0011763</v>
+        <v>0.0022697</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D194" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E194" s="0" t="n">
-        <v>0.238</v>
+        <v>0.208</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="11" t="n">
-        <v>2.2204E-005</v>
+        <v>1.4248E-005</v>
       </c>
       <c r="B195" s="11" t="n">
-        <v>0.0082486</v>
+        <v>0.0011763</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D195" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E195" s="0" t="n">
-        <v>0.2</v>
+        <v>0.238</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="11" t="n">
+        <v>2.2204E-005</v>
+      </c>
+      <c r="B196" s="11" t="n">
+        <v>0.0082486</v>
+      </c>
+      <c r="C196" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="D196" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E196" s="0" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="11" t="n">
         <v>6.8759E-005</v>
       </c>
-      <c r="B196" s="11" t="n">
+      <c r="B197" s="11" t="n">
         <v>0.0011636</v>
       </c>
-      <c r="C196" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="D196" s="0" t="n">
+      <c r="C197" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="D197" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E196" s="0" t="n">
+      <c r="E197" s="0" t="n">
         <v>0.25</v>
       </c>
     </row>
-    <row r="197" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="7" t="n">
+    <row r="198" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="7" t="n">
         <v>9.2493E-005</v>
       </c>
-      <c r="B197" s="7" t="n">
+      <c r="B198" s="7" t="n">
         <v>0.007235</v>
       </c>
-      <c r="C197" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="D197" s="8" t="n">
+      <c r="C198" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D198" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="E197" s="8" t="n">
+      <c r="E198" s="8" t="n">
         <v>0.48</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="11" t="n">
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="11" t="n">
         <v>0.00010145</v>
       </c>
-      <c r="B198" s="11" t="n">
+      <c r="B199" s="11" t="n">
         <v>4.1566E-005</v>
       </c>
-      <c r="C198" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="D198" s="0" t="n">
+      <c r="C199" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="D199" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E198" s="0" t="n">
+      <c r="E199" s="0" t="n">
         <v>0.259</v>
-      </c>
-    </row>
-    <row r="199" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="7" t="n">
-        <v>0.00013277</v>
-      </c>
-      <c r="B199" s="7" t="n">
-        <v>3.0331E-005</v>
-      </c>
-      <c r="C199" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D199" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="E199" s="8" t="n">
-        <v>0.479</v>
       </c>
     </row>
     <row r="200" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="7" t="n">
+        <v>0.00013277</v>
+      </c>
+      <c r="B200" s="7" t="n">
+        <v>3.0331E-005</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D200" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="E200" s="8" t="n">
+        <v>0.479</v>
+      </c>
+    </row>
+    <row r="201" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="7" t="n">
         <v>0.00014112</v>
       </c>
-      <c r="B200" s="7" t="n">
+      <c r="B201" s="7" t="n">
         <v>0.00013957</v>
       </c>
-      <c r="C200" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="D200" s="8" t="n">
+      <c r="C201" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D201" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="E200" s="8" t="n">
+      <c r="E201" s="8" t="n">
         <v>0.444</v>
       </c>
     </row>
-    <row r="201" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="5" t="n">
+    <row r="202" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="5" t="n">
         <v>0.00015218</v>
       </c>
-      <c r="B201" s="5" t="n">
+      <c r="B202" s="5" t="n">
         <v>0.0092628</v>
       </c>
-      <c r="C201" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D201" s="6" t="n">
+      <c r="C202" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D202" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="E201" s="6" t="n">
+      <c r="E202" s="6" t="n">
         <v>0.043</v>
-      </c>
-    </row>
-    <row r="202" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="7" t="n">
-        <v>0.0001619</v>
-      </c>
-      <c r="B202" s="7" t="n">
-        <v>4.2377E-005</v>
-      </c>
-      <c r="C202" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="D202" s="8" t="n">
-        <v>17</v>
-      </c>
-      <c r="E202" s="8" t="n">
-        <v>0.364</v>
       </c>
     </row>
     <row r="203" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="7" t="n">
+        <v>0.0001619</v>
+      </c>
+      <c r="B203" s="7" t="n">
+        <v>4.2377E-005</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D203" s="8" t="n">
+        <v>17</v>
+      </c>
+      <c r="E203" s="8" t="n">
+        <v>0.364</v>
+      </c>
+    </row>
+    <row r="204" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="7" t="n">
         <v>0.00018239</v>
       </c>
-      <c r="B203" s="7" t="n">
+      <c r="B204" s="7" t="n">
         <v>0.00065686</v>
       </c>
-      <c r="C203" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="D203" s="8" t="n">
+      <c r="C204" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D204" s="8" t="n">
         <v>18</v>
       </c>
-      <c r="E203" s="8" t="n">
+      <c r="E204" s="8" t="n">
         <v>0.421</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="11" t="n">
-        <v>0.00020334</v>
-      </c>
-      <c r="B204" s="11" t="n">
-        <v>0.0017722</v>
-      </c>
-      <c r="C204" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="D204" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="E204" s="0" t="n">
-        <v>0.308</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="11" t="n">
+        <v>0.00020334</v>
+      </c>
+      <c r="B205" s="11" t="n">
+        <v>0.0017722</v>
+      </c>
+      <c r="C205" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="D205" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E205" s="0" t="n">
+        <v>0.308</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="11" t="n">
         <v>0.00033756</v>
       </c>
-      <c r="B205" s="11" t="n">
+      <c r="B206" s="11" t="n">
         <v>4.865E-005</v>
       </c>
-      <c r="C205" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="D205" s="0" t="n">
+      <c r="C206" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="D206" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E205" s="0" t="n">
+      <c r="E206" s="0" t="n">
         <v>0.217</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="11"/>
-      <c r="B206" s="11"/>
-    </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="B207" s="13"/>
-      <c r="C207" s="13"/>
-      <c r="D207" s="13"/>
-      <c r="E207" s="13"/>
-      <c r="F207" s="13"/>
-      <c r="G207" s="13"/>
+      <c r="A207" s="11"/>
+      <c r="B207" s="11"/>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="4" t="s">
+      <c r="A208" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B208" s="13"/>
+      <c r="C208" s="13"/>
+      <c r="D208" s="13"/>
+      <c r="E208" s="13"/>
+      <c r="F208" s="13"/>
+      <c r="G208" s="13"/>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B208" s="4" t="s">
+      <c r="B209" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C208" s="4" t="s">
+      <c r="C209" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D208" s="4" t="s">
+      <c r="D209" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E208" s="4" t="s">
+      <c r="E209" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F208" s="4" t="s">
+      <c r="F209" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G208" s="4"/>
-    </row>
-    <row r="209" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="5" t="n">
-        <v>1.3046E-006</v>
-      </c>
-      <c r="B209" s="5" t="n">
-        <v>0.0081469</v>
-      </c>
-      <c r="C209" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D209" s="6" t="n">
-        <v>21</v>
-      </c>
-      <c r="E209" s="6" t="n">
-        <v>0.004</v>
-      </c>
+      <c r="G209" s="4"/>
     </row>
     <row r="210" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="5" t="n">
+        <v>1.3046E-006</v>
+      </c>
+      <c r="B210" s="5" t="n">
+        <v>0.0081469</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D210" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="E210" s="6" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="211" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="5" t="n">
         <v>1.7997E-006</v>
       </c>
-      <c r="B210" s="5" t="n">
+      <c r="B211" s="5" t="n">
         <v>7.1376E-005</v>
       </c>
-      <c r="C210" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="D210" s="6" t="n">
+      <c r="C211" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D211" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="E210" s="6" t="n">
+      <c r="E211" s="6" t="n">
         <v>0.011</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="11" t="n">
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="11" t="n">
         <v>5.0152E-006</v>
       </c>
-      <c r="B211" s="11" t="n">
+      <c r="B212" s="11" t="n">
         <v>0.0076164</v>
       </c>
-      <c r="C211" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="D211" s="0" t="n">
+      <c r="C212" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="D212" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="E211" s="0" t="n">
+      <c r="E212" s="0" t="n">
         <v>0.2</v>
-      </c>
-    </row>
-    <row r="212" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="5" t="n">
-        <v>5.1798E-006</v>
-      </c>
-      <c r="B212" s="5" t="n">
-        <v>1.7388E-005</v>
-      </c>
-      <c r="C212" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D212" s="6" t="n">
-        <v>24</v>
-      </c>
-      <c r="E212" s="6" t="n">
-        <v>0.028</v>
       </c>
     </row>
     <row r="213" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="5" t="n">
-        <v>6.2983E-006</v>
+        <v>5.1798E-006</v>
       </c>
       <c r="B213" s="5" t="n">
-        <v>0.0030497</v>
+        <v>1.7388E-005</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D213" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E213" s="6" t="n">
-        <v>0.009</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="214" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="5" t="n">
+        <v>6.2983E-006</v>
+      </c>
+      <c r="B214" s="5" t="n">
+        <v>0.0030497</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D214" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="E214" s="6" t="n">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row r="215" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="5" t="n">
         <v>7.9168E-006</v>
       </c>
-      <c r="B214" s="5" t="n">
+      <c r="B215" s="5" t="n">
         <v>0.00010315</v>
       </c>
-      <c r="C214" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="D214" s="6" t="n">
+      <c r="C215" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D215" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="E214" s="6" t="n">
+      <c r="E215" s="6" t="n">
         <v>0.135</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="11" t="n">
-        <v>1.0965E-005</v>
-      </c>
-      <c r="B215" s="11" t="n">
-        <v>0.0013602</v>
-      </c>
-      <c r="C215" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="D215" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="E215" s="0" t="n">
-        <v>0.174</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="11" t="n">
+        <v>1.0965E-005</v>
+      </c>
+      <c r="B216" s="11" t="n">
+        <v>0.0013602</v>
+      </c>
+      <c r="C216" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="D216" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E216" s="0" t="n">
+        <v>0.174</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="11" t="n">
         <v>1.5319E-005</v>
       </c>
-      <c r="B216" s="11" t="n">
+      <c r="B217" s="11" t="n">
         <v>0.00096282</v>
       </c>
-      <c r="C216" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="D216" s="0" t="n">
+      <c r="C217" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="D217" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="E216" s="0" t="n">
+      <c r="E217" s="0" t="n">
         <v>0.24</v>
       </c>
     </row>
-    <row r="217" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="7" t="n">
+    <row r="218" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="7" t="n">
         <v>2.7644E-005</v>
       </c>
-      <c r="B217" s="7" t="n">
+      <c r="B218" s="7" t="n">
         <v>0.0040169</v>
       </c>
-      <c r="C217" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D217" s="8" t="n">
+      <c r="C218" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D218" s="8" t="n">
         <v>29</v>
       </c>
-      <c r="E217" s="8" t="n">
+      <c r="E218" s="8" t="n">
         <v>0.304</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="11" t="n">
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="11" t="n">
         <v>3.1701E-005</v>
       </c>
-      <c r="B218" s="11" t="n">
+      <c r="B219" s="11" t="n">
         <v>1.9898E-005</v>
       </c>
-      <c r="C218" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="D218" s="0" t="n">
+      <c r="C219" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D219" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E218" s="0" t="n">
+      <c r="E219" s="0" t="n">
         <v>0.209</v>
       </c>
     </row>
-    <row r="219" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="7" t="n">
+    <row r="220" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="7" t="n">
         <v>4.6209E-005</v>
       </c>
-      <c r="B219" s="7" t="n">
+      <c r="B220" s="7" t="n">
         <v>0.00033514</v>
       </c>
-      <c r="C219" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="D219" s="8" t="n">
+      <c r="C220" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D220" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="E219" s="8" t="n">
+      <c r="E220" s="8" t="n">
         <v>0.286</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="11" t="n">
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="11" t="n">
         <v>6.5702E-005</v>
       </c>
-      <c r="B220" s="11" t="n">
+      <c r="B221" s="11" t="n">
         <v>0.0023599</v>
       </c>
-      <c r="C220" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="D220" s="0" t="n">
+      <c r="C221" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="D221" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="E220" s="0" t="n">
+      <c r="E221" s="0" t="n">
         <v>0.169</v>
       </c>
     </row>
-    <row r="221" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="7" t="n">
+    <row r="222" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="7" t="n">
         <v>8.735E-005</v>
       </c>
-      <c r="B221" s="7" t="n">
+      <c r="B222" s="7" t="n">
         <v>0.00076194</v>
       </c>
-      <c r="C221" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="D221" s="8" t="n">
+      <c r="C222" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D222" s="8" t="n">
         <v>23</v>
       </c>
-      <c r="E221" s="8" t="n">
+      <c r="E222" s="8" t="n">
         <v>0.3</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="11" t="n">
-        <v>0.00010395</v>
-      </c>
-      <c r="B222" s="11" t="n">
-        <v>1.2382E-005</v>
-      </c>
-      <c r="C222" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="D222" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="E222" s="0" t="n">
-        <v>0.163</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="11" t="n">
+        <v>0.00010395</v>
+      </c>
+      <c r="B223" s="11" t="n">
+        <v>1.2382E-005</v>
+      </c>
+      <c r="C223" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="D223" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E223" s="0" t="n">
+        <v>0.163</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="11" t="n">
         <v>0.00010891</v>
       </c>
-      <c r="B223" s="11" t="n">
+      <c r="B224" s="11" t="n">
         <v>0.00032943</v>
       </c>
-      <c r="C223" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="D223" s="0" t="n">
+      <c r="C224" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="D224" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E223" s="0" t="n">
+      <c r="E224" s="0" t="n">
         <v>0.22</v>
       </c>
     </row>
-    <row r="224" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="7" t="n">
+    <row r="225" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="7" t="n">
         <v>0.00012128</v>
       </c>
-      <c r="B224" s="7" t="n">
+      <c r="B225" s="7" t="n">
         <v>1.4192E-005</v>
       </c>
-      <c r="C224" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="D224" s="8" t="n">
+      <c r="C225" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D225" s="8" t="n">
         <v>26</v>
       </c>
-      <c r="E224" s="8" t="n">
+      <c r="E225" s="8" t="n">
         <v>0.273</v>
       </c>
     </row>
-    <row r="225" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="9" t="n">
+    <row r="226" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="9" t="n">
         <v>0.00013277</v>
       </c>
-      <c r="B225" s="9" t="n">
+      <c r="B226" s="9" t="n">
         <v>0.0001822</v>
       </c>
-      <c r="C225" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="D225" s="10" t="n">
+      <c r="C226" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D226" s="10" t="n">
         <v>27</v>
       </c>
-      <c r="E225" s="10" t="n">
+      <c r="E226" s="10" t="n">
         <v>0.261</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="11" t="n">
-        <v>0.00020519</v>
-      </c>
-      <c r="B226" s="11" t="n">
-        <v>0.00048907</v>
-      </c>
-      <c r="C226" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="D226" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="E226" s="0" t="n">
-        <v>0.182</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="11" t="n">
-        <v>0.00021098</v>
+        <v>0.00020519</v>
       </c>
       <c r="B227" s="11" t="n">
-        <v>1.4903E-005</v>
+        <v>0.00048907</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D227" s="0" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E227" s="0" t="n">
-        <v>0.211</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="11" t="n">
+        <v>0.00021098</v>
+      </c>
+      <c r="B228" s="11" t="n">
+        <v>1.4903E-005</v>
+      </c>
+      <c r="C228" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="D228" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E228" s="0" t="n">
+        <v>0.211</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="11" t="n">
         <v>0.00029057</v>
       </c>
-      <c r="B228" s="11" t="n">
+      <c r="B229" s="11" t="n">
         <v>0.0020068</v>
       </c>
-      <c r="C228" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="D228" s="0" t="n">
+      <c r="C229" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D229" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E228" s="0" t="n">
+      <c r="E229" s="0" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="B231" s="13"/>
-      <c r="C231" s="13"/>
-      <c r="D231" s="13"/>
-      <c r="E231" s="13"/>
-      <c r="F231" s="13"/>
-      <c r="G231" s="13"/>
-    </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="4" t="s">
+      <c r="A232" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="B232" s="13"/>
+      <c r="C232" s="13"/>
+      <c r="D232" s="13"/>
+      <c r="E232" s="13"/>
+      <c r="F232" s="13"/>
+      <c r="G232" s="13"/>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B232" s="4" t="s">
+      <c r="B233" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C232" s="4" t="s">
+      <c r="C233" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D232" s="4" t="s">
+      <c r="D233" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E232" s="4" t="s">
+      <c r="E233" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F232" s="4" t="s">
+      <c r="F233" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G232" s="4"/>
-    </row>
-    <row r="233" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="5" t="n">
-        <v>1.1525E-006</v>
-      </c>
-      <c r="B233" s="5" t="n">
-        <v>0.0088613</v>
-      </c>
-      <c r="C233" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D233" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E233" s="6" t="n">
-        <v>0.03</v>
-      </c>
+      <c r="G233" s="4"/>
     </row>
     <row r="234" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="5" t="n">
-        <v>1.9541E-006</v>
+        <v>1.1525E-006</v>
       </c>
       <c r="B234" s="5" t="n">
-        <v>0.0029732</v>
+        <v>0.0088613</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D234" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E234" s="6" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="235" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="5" t="n">
-        <v>2.5457E-006</v>
+        <v>1.9541E-006</v>
       </c>
       <c r="B235" s="5" t="n">
-        <v>0.0023058</v>
+        <v>0.0029732</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D235" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E235" s="6" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="5" t="n">
-        <v>2.5719E-006</v>
+        <v>2.5457E-006</v>
       </c>
       <c r="B236" s="5" t="n">
-        <v>1.5295E-005</v>
+        <v>0.0023058</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D236" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E236" s="6" t="n">
-        <v>0.115</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="237" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="5" t="n">
-        <v>2.6422E-006</v>
+        <v>2.5719E-006</v>
       </c>
       <c r="B237" s="5" t="n">
-        <v>4.3111E-005</v>
+        <v>1.5295E-005</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D237" s="6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E237" s="6" t="n">
-        <v>0.019</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="238" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="5" t="n">
-        <v>4.1739E-006</v>
+        <v>2.6422E-006</v>
       </c>
       <c r="B238" s="5" t="n">
-        <v>8.9233E-005</v>
+        <v>4.3111E-005</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D238" s="6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E238" s="6" t="n">
-        <v>0.051</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="239" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="5" t="n">
+        <v>4.1739E-006</v>
+      </c>
+      <c r="B239" s="5" t="n">
+        <v>8.9233E-005</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D239" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E239" s="6" t="n">
+        <v>0.051</v>
+      </c>
+    </row>
+    <row r="240" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="5" t="n">
         <v>5.2851E-006</v>
       </c>
-      <c r="B239" s="5" t="n">
+      <c r="B240" s="5" t="n">
         <v>0.0011654</v>
       </c>
-      <c r="C239" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="D239" s="6" t="n">
+      <c r="C240" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D240" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="E239" s="6" t="n">
+      <c r="E240" s="6" t="n">
         <v>0.029</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="11" t="n">
-        <v>6.1969E-006</v>
-      </c>
-      <c r="B240" s="11" t="n">
-        <v>0.0030468</v>
-      </c>
-      <c r="C240" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="D240" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E240" s="0" t="n">
-        <v>0.143</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="11" t="n">
+        <v>6.1969E-006</v>
+      </c>
+      <c r="B241" s="11" t="n">
+        <v>0.0030468</v>
+      </c>
+      <c r="C241" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="D241" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E241" s="0" t="n">
+        <v>0.143</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="11" t="n">
         <v>1.2174E-005</v>
       </c>
-      <c r="B241" s="11" t="n">
+      <c r="B242" s="11" t="n">
         <v>1.0253E-005</v>
       </c>
-      <c r="C241" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="D241" s="0" t="n">
+      <c r="C242" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="D242" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E241" s="0" t="n">
+      <c r="E242" s="0" t="n">
         <v>0.23</v>
       </c>
     </row>
-    <row r="242" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="5" t="n">
+    <row r="243" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="5" t="n">
         <v>1.6923E-005</v>
       </c>
-      <c r="B242" s="5" t="n">
+      <c r="B243" s="5" t="n">
         <v>0.0085398</v>
       </c>
-      <c r="C242" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D242" s="6" t="n">
+      <c r="C243" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D243" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="E242" s="6" t="n">
+      <c r="E243" s="6" t="n">
         <v>0.069</v>
       </c>
     </row>
-    <row r="243" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="7" t="n">
+    <row r="244" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="7" t="n">
         <v>3.1471E-005</v>
       </c>
-      <c r="B243" s="7" t="n">
+      <c r="B244" s="7" t="n">
         <v>0.0016365</v>
       </c>
-      <c r="C243" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="D243" s="8" t="n">
+      <c r="C244" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D244" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="E243" s="8" t="n">
+      <c r="E244" s="8" t="n">
         <v>0.363</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="11" t="n">
-        <v>3.5402E-005</v>
-      </c>
-      <c r="B244" s="11" t="n">
-        <v>0.0034775</v>
-      </c>
-      <c r="C244" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="D244" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="E244" s="0" t="n">
-        <v>0.106</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="11" t="n">
+        <v>3.5402E-005</v>
+      </c>
+      <c r="B245" s="11" t="n">
+        <v>0.0034775</v>
+      </c>
+      <c r="C245" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="D245" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E245" s="0" t="n">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="11" t="n">
         <v>0.00010075</v>
       </c>
-      <c r="B245" s="11" t="n">
+      <c r="B246" s="11" t="n">
         <v>0.00054477</v>
       </c>
-      <c r="C245" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="D245" s="0" t="n">
+      <c r="C246" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="D246" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E245" s="0" t="n">
+      <c r="E246" s="0" t="n">
         <v>0.231</v>
       </c>
     </row>
-    <row r="246" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="7" t="n">
+    <row r="247" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="7" t="n">
         <v>0.00011874</v>
       </c>
-      <c r="B246" s="7" t="n">
+      <c r="B247" s="7" t="n">
         <v>0.0008241</v>
       </c>
-      <c r="C246" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="D246" s="8" t="n">
+      <c r="C247" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D247" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="E246" s="8" t="n">
+      <c r="E247" s="8" t="n">
         <v>0.333</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="11" t="n">
-        <v>0.0001528</v>
-      </c>
-      <c r="B247" s="11" t="n">
-        <v>1.237E-005</v>
-      </c>
-      <c r="C247" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="D247" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="E247" s="0" t="n">
-        <v>0.227</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="11" t="n">
-        <v>0.00030354</v>
+        <v>0.0001528</v>
       </c>
       <c r="B248" s="11" t="n">
-        <v>0.00023357</v>
+        <v>1.237E-005</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D248" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E248" s="0" t="n">
-        <v>0.12</v>
+        <v>0.227</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="11" t="n">
+        <v>0.00030354</v>
+      </c>
+      <c r="B249" s="11" t="n">
+        <v>0.00023357</v>
+      </c>
+      <c r="C249" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="D249" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E249" s="0" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="11" t="n">
         <v>0.00040619</v>
       </c>
-      <c r="B249" s="11" t="n">
+      <c r="B250" s="11" t="n">
         <v>3.9005E-005</v>
       </c>
-      <c r="C249" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="D249" s="0" t="n">
+      <c r="C250" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="D250" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E249" s="0" t="n">
+      <c r="E250" s="0" t="n">
         <v>0.19</v>
       </c>
     </row>
-    <row r="250" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="7" t="n">
+    <row r="251" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="7" t="n">
         <v>0.00042135</v>
       </c>
-      <c r="B250" s="7" t="n">
+      <c r="B251" s="7" t="n">
         <v>0.0005247</v>
       </c>
-      <c r="C250" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D250" s="8" t="n">
+      <c r="C251" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D251" s="8" t="n">
         <v>18</v>
       </c>
-      <c r="E250" s="8" t="n">
+      <c r="E251" s="8" t="n">
         <v>0.272</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="11" t="n">
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="11" t="n">
         <v>0.00045896</v>
       </c>
-      <c r="B251" s="11" t="n">
+      <c r="B252" s="11" t="n">
         <v>0.0015115</v>
       </c>
-      <c r="C251" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="D251" s="0" t="n">
+      <c r="C252" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="D252" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="E251" s="0" t="n">
+      <c r="E252" s="0" t="n">
         <v>0.16</v>
       </c>
     </row>
-    <row r="252" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="5" t="n">
+    <row r="253" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="5" t="n">
         <v>0.0005339</v>
       </c>
-      <c r="B252" s="5" t="n">
+      <c r="B253" s="5" t="n">
         <v>0.0042897</v>
       </c>
-      <c r="C252" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D252" s="6" t="n">
+      <c r="C253" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D253" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="E252" s="6" t="n">
+      <c r="E253" s="6" t="n">
         <v>0.119</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="B254" s="13"/>
-      <c r="C254" s="13"/>
-      <c r="D254" s="13"/>
-      <c r="E254" s="13"/>
-      <c r="F254" s="13"/>
-      <c r="G254" s="13"/>
-    </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="4" t="s">
+      <c r="A255" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="B255" s="13"/>
+      <c r="C255" s="13"/>
+      <c r="D255" s="13"/>
+      <c r="E255" s="13"/>
+      <c r="F255" s="13"/>
+      <c r="G255" s="13"/>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B255" s="4" t="s">
+      <c r="B256" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C255" s="4" t="s">
+      <c r="C256" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D255" s="4" t="s">
+      <c r="D256" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E255" s="4" t="s">
+      <c r="E256" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F255" s="4" t="s">
+      <c r="F256" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G255" s="4"/>
-    </row>
-    <row r="256" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="5" t="n">
-        <v>1.184E-006</v>
-      </c>
-      <c r="B256" s="5" t="n">
-        <v>2.6828E-005</v>
-      </c>
-      <c r="C256" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="D256" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E256" s="6" t="n">
-        <v>0.009</v>
-      </c>
+      <c r="G256" s="4"/>
     </row>
     <row r="257" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="5" t="n">
-        <v>1.2401E-006</v>
+        <v>1.184E-006</v>
       </c>
       <c r="B257" s="5" t="n">
-        <v>2.4106E-005</v>
+        <v>2.6828E-005</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D257" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E257" s="6" t="n">
-        <v>0.013</v>
+        <v>0.009</v>
       </c>
     </row>
     <row r="258" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="5" t="n">
-        <v>1.6061E-006</v>
+        <v>1.2401E-006</v>
       </c>
       <c r="B258" s="5" t="n">
-        <v>0.0013852</v>
+        <v>2.4106E-005</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D258" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E258" s="6" t="n">
-        <v>0</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="259" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="5" t="n">
-        <v>1.9214E-006</v>
+        <v>1.6061E-006</v>
       </c>
       <c r="B259" s="5" t="n">
-        <v>0.0041538</v>
+        <v>0.0013852</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D259" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E259" s="6" t="n">
-        <v>0.037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="5" t="n">
-        <v>2.2533E-006</v>
+        <v>1.9214E-006</v>
       </c>
       <c r="B260" s="5" t="n">
-        <v>0.00017461</v>
+        <v>0.0041538</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D260" s="6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E260" s="6" t="n">
-        <v>0.058</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="261" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="5" t="n">
-        <v>3.3368E-006</v>
+        <v>2.2533E-006</v>
       </c>
       <c r="B261" s="5" t="n">
-        <v>0.0094434</v>
+        <v>0.00017461</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D261" s="6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E261" s="6" t="n">
-        <v>0</v>
+        <v>0.058</v>
       </c>
     </row>
     <row r="262" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="5" t="n">
-        <v>3.5201E-006</v>
+        <v>3.3368E-006</v>
       </c>
       <c r="B262" s="5" t="n">
-        <v>0.0040985</v>
+        <v>0.0094434</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D262" s="6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E262" s="6" t="n">
-        <v>0.078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="5" t="n">
-        <v>6.3087E-006</v>
+        <v>3.5201E-006</v>
       </c>
       <c r="B263" s="5" t="n">
-        <v>0.0015637</v>
+        <v>0.0040985</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D263" s="6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E263" s="6" t="n">
-        <v>0.019</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="264" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="5" t="n">
+        <v>6.3087E-006</v>
+      </c>
+      <c r="B264" s="5" t="n">
+        <v>0.0015637</v>
+      </c>
+      <c r="C264" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D264" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="E264" s="6" t="n">
+        <v>0.019</v>
+      </c>
+    </row>
+    <row r="265" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="5" t="n">
         <v>6.9586E-006</v>
       </c>
-      <c r="B264" s="5" t="n">
+      <c r="B265" s="5" t="n">
         <v>1.1856E-005</v>
       </c>
-      <c r="C264" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="D264" s="6" t="n">
+      <c r="C265" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D265" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="E264" s="6" t="n">
+      <c r="E265" s="6" t="n">
         <v>0.049</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="11" t="n">
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="11" t="n">
         <v>8.8822E-006</v>
       </c>
-      <c r="B265" s="11" t="n">
+      <c r="B266" s="11" t="n">
         <v>0.00021993</v>
       </c>
-      <c r="C265" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="D265" s="0" t="n">
+      <c r="C266" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="D266" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E265" s="0" t="n">
+      <c r="E266" s="0" t="n">
         <v>0.145</v>
       </c>
     </row>
-    <row r="266" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="7" t="n">
+    <row r="267" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="7" t="n">
         <v>1.3367E-005</v>
       </c>
-      <c r="B266" s="7" t="n">
+      <c r="B267" s="7" t="n">
         <v>0.0065187</v>
       </c>
-      <c r="C266" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="D266" s="8" t="n">
+      <c r="C267" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D267" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="E266" s="8" t="n">
+      <c r="E267" s="8" t="n">
         <v>0.195</v>
       </c>
     </row>
-    <row r="267" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="5" t="n">
+    <row r="268" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="5" t="n">
         <v>1.6922E-005</v>
       </c>
-      <c r="B267" s="5" t="n">
+      <c r="B268" s="5" t="n">
         <v>0.00035985</v>
       </c>
-      <c r="C267" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="D267" s="6" t="n">
+      <c r="C268" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D268" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="E267" s="6" t="n">
+      <c r="E268" s="6" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="11" t="n">
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="11" t="n">
         <v>2.9596E-005</v>
       </c>
-      <c r="B268" s="11" t="n">
+      <c r="B269" s="11" t="n">
         <v>0.0013433</v>
       </c>
-      <c r="C268" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="D268" s="0" t="n">
+      <c r="C269" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="D269" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E268" s="0" t="n">
+      <c r="E269" s="0" t="n">
         <v>0.157</v>
       </c>
     </row>
-    <row r="269" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="9" t="n">
+    <row r="270" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="9" t="n">
         <v>5.2853E-005</v>
       </c>
-      <c r="B269" s="9" t="n">
+      <c r="B270" s="9" t="n">
         <v>0.0022414</v>
       </c>
-      <c r="C269" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="D269" s="10" t="n">
+      <c r="C270" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D270" s="10" t="n">
         <v>14</v>
       </c>
-      <c r="E269" s="10" t="n">
+      <c r="E270" s="10" t="n">
         <v>0.097</v>
-      </c>
-    </row>
-    <row r="270" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="7" t="n">
-        <v>6.7666E-005</v>
-      </c>
-      <c r="B270" s="7" t="n">
-        <v>0.0004469</v>
-      </c>
-      <c r="C270" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D270" s="8" t="n">
-        <v>15</v>
-      </c>
-      <c r="E270" s="8" t="n">
-        <v>0.179</v>
       </c>
     </row>
     <row r="271" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="7" t="n">
+        <v>6.7666E-005</v>
+      </c>
+      <c r="B271" s="7" t="n">
+        <v>0.0004469</v>
+      </c>
+      <c r="C271" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D271" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="E271" s="8" t="n">
+        <v>0.179</v>
+      </c>
+    </row>
+    <row r="272" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="7" t="n">
         <v>7.7972E-005</v>
       </c>
-      <c r="B271" s="7" t="n">
+      <c r="B272" s="7" t="n">
         <v>0.00016623</v>
       </c>
-      <c r="C271" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="D271" s="8" t="n">
+      <c r="C272" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D272" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="E271" s="8" t="n">
+      <c r="E272" s="8" t="n">
         <v>0.25</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="11" t="n">
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="11" t="n">
         <v>0.0003556</v>
       </c>
-      <c r="B272" s="11" t="n">
+      <c r="B273" s="11" t="n">
         <v>0.0001298</v>
       </c>
-      <c r="C272" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="D272" s="0" t="n">
+      <c r="C273" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="D273" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E272" s="0" t="n">
+      <c r="E273" s="0" t="n">
         <v>0.167</v>
       </c>
     </row>
-    <row r="273" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="5" t="n">
+    <row r="274" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="5" t="n">
         <v>0.00048796</v>
       </c>
-      <c r="B273" s="5" t="n">
+      <c r="B274" s="5" t="n">
         <v>0.0011746</v>
       </c>
-      <c r="C273" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D273" s="6" t="n">
+      <c r="C274" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D274" s="6" t="n">
         <v>18</v>
       </c>
-      <c r="E273" s="6" t="n">
+      <c r="E274" s="6" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="274" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="7" t="n">
+    <row r="275" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="7" t="n">
         <v>0.00060909</v>
       </c>
-      <c r="B274" s="7" t="n">
+      <c r="B275" s="7" t="n">
         <v>0.0021742</v>
       </c>
-      <c r="C274" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="D274" s="8" t="n">
+      <c r="C275" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D275" s="8" t="n">
         <v>19</v>
       </c>
-      <c r="E274" s="8" t="n">
+      <c r="E275" s="8" t="n">
         <v>0.192</v>
       </c>
     </row>
-    <row r="275" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="5" t="n">
+    <row r="276" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="5" t="n">
         <v>0.00092129</v>
       </c>
-      <c r="B275" s="5" t="n">
+      <c r="B276" s="5" t="n">
         <v>0.00014556</v>
       </c>
-      <c r="C275" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="D275" s="6" t="n">
+      <c r="C276" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D276" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="E275" s="6" t="n">
+      <c r="E276" s="6" t="n">
         <v>0.04</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="B277" s="13"/>
-      <c r="C277" s="13"/>
-      <c r="D277" s="13"/>
-      <c r="E277" s="13"/>
-      <c r="F277" s="13"/>
-      <c r="G277" s="13"/>
-    </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="4" t="s">
+      <c r="A278" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="B278" s="13"/>
+      <c r="C278" s="13"/>
+      <c r="D278" s="13"/>
+      <c r="E278" s="13"/>
+      <c r="F278" s="13"/>
+      <c r="G278" s="13"/>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B278" s="4" t="s">
+      <c r="B279" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C278" s="4" t="s">
+      <c r="C279" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D278" s="4" t="s">
+      <c r="D279" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E278" s="4" t="s">
+      <c r="E279" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F278" s="4" t="s">
+      <c r="F279" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G278" s="4"/>
-    </row>
-    <row r="279" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="5" t="n">
-        <v>1.168E-006</v>
-      </c>
-      <c r="B279" s="5" t="n">
-        <v>0.00075123</v>
-      </c>
-      <c r="C279" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="D279" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E279" s="6" t="n">
-        <v>0.027</v>
-      </c>
+      <c r="G279" s="4"/>
     </row>
     <row r="280" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="5" t="n">
-        <v>1.6246E-006</v>
+        <v>1.168E-006</v>
       </c>
       <c r="B280" s="5" t="n">
-        <v>0.00014036</v>
+        <v>0.00075123</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D280" s="6" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E280" s="6" t="n">
-        <v>0.019</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="281" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="5" t="n">
-        <v>2.5423E-006</v>
+        <v>1.6246E-006</v>
       </c>
       <c r="B281" s="5" t="n">
-        <v>0.00028934</v>
+        <v>0.00014036</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D281" s="6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E281" s="6" t="n">
-        <v>0</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="282" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="5" t="n">
-        <v>3.0206E-006</v>
+        <v>2.5423E-006</v>
       </c>
       <c r="B282" s="5" t="n">
-        <v>0.000835</v>
+        <v>0.00028934</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D282" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E282" s="6" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="5" t="n">
-        <v>3.1572E-006</v>
+        <v>3.0206E-006</v>
       </c>
       <c r="B283" s="5" t="n">
-        <v>0.00028199</v>
+        <v>0.000835</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D283" s="6" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E283" s="6" t="n">
-        <v>0.025</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="284" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="5" t="n">
-        <v>7.4662E-006</v>
+        <v>3.1572E-006</v>
       </c>
       <c r="B284" s="5" t="n">
-        <v>2.8634E-005</v>
+        <v>0.00028199</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D284" s="6" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E284" s="6" t="n">
-        <v>0.051</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="285" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="5" t="n">
+        <v>7.4662E-006</v>
+      </c>
+      <c r="B285" s="5" t="n">
+        <v>2.8634E-005</v>
+      </c>
+      <c r="C285" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D285" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="E285" s="6" t="n">
+        <v>0.051</v>
+      </c>
+    </row>
+    <row r="286" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="5" t="n">
         <v>1.3895E-005</v>
       </c>
-      <c r="B285" s="5" t="n">
+      <c r="B286" s="5" t="n">
         <v>4.3236E-005</v>
       </c>
-      <c r="C285" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="D285" s="6" t="n">
+      <c r="C286" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D286" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="E285" s="6" t="n">
+      <c r="E286" s="6" t="n">
         <v>0.04</v>
-      </c>
-    </row>
-    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="11" t="n">
-        <v>1.8327E-005</v>
-      </c>
-      <c r="B286" s="11" t="n">
-        <v>0.00033783</v>
-      </c>
-      <c r="C286" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="D286" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="E286" s="0" t="n">
-        <v>0.093</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="11" t="n">
-        <v>2.086E-005</v>
+        <v>1.8327E-005</v>
       </c>
       <c r="B287" s="11" t="n">
-        <v>1.6489E-005</v>
+        <v>0.00033783</v>
       </c>
       <c r="C287" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D287" s="0" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E287" s="0" t="n">
-        <v>0.096</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="11" t="n">
+        <v>2.086E-005</v>
+      </c>
+      <c r="B288" s="11" t="n">
+        <v>1.6489E-005</v>
+      </c>
+      <c r="C288" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="D288" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E288" s="0" t="n">
+        <v>0.096</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="11" t="n">
         <v>3.6832E-005</v>
       </c>
-      <c r="B288" s="11" t="n">
+      <c r="B289" s="11" t="n">
         <v>0.0090524</v>
       </c>
-      <c r="C288" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="D288" s="0" t="n">
+      <c r="C289" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D289" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E288" s="0" t="n">
+      <c r="E289" s="0" t="n">
         <v>0.138</v>
       </c>
     </row>
-    <row r="289" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="5" t="n">
+    <row r="290" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="5" t="n">
         <v>3.8073E-005</v>
       </c>
-      <c r="B289" s="5" t="n">
+      <c r="B290" s="5" t="n">
         <v>1.7867E-005</v>
       </c>
-      <c r="C289" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="D289" s="6" t="n">
+      <c r="C290" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D290" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="E289" s="6" t="n">
+      <c r="E290" s="6" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="290" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="7" t="n">
-        <v>4.3127E-005</v>
-      </c>
-      <c r="B290" s="7" t="n">
-        <v>0.0022427</v>
-      </c>
-      <c r="C290" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="D290" s="8" t="n">
-        <v>7</v>
-      </c>
-      <c r="E290" s="8" t="n">
-        <v>0.192</v>
       </c>
     </row>
     <row r="291" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="7" t="n">
-        <v>4.6419E-005</v>
+        <v>4.3127E-005</v>
       </c>
       <c r="B291" s="7" t="n">
-        <v>6.0039E-005</v>
+        <v>0.0022427</v>
       </c>
       <c r="C291" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D291" s="8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E291" s="8" t="n">
-        <v>0.262</v>
+        <v>0.192</v>
       </c>
     </row>
     <row r="292" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="7" t="n">
-        <v>4.8813E-005</v>
+        <v>4.6419E-005</v>
       </c>
       <c r="B292" s="7" t="n">
-        <v>6.2692E-005</v>
+        <v>6.0039E-005</v>
       </c>
       <c r="C292" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D292" s="8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E292" s="8" t="n">
-        <v>0.32</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="293" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="7" t="n">
+        <v>4.8813E-005</v>
+      </c>
+      <c r="B293" s="7" t="n">
+        <v>6.2692E-005</v>
+      </c>
+      <c r="C293" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D293" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="E293" s="8" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="294" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="7" t="n">
         <v>7.7068E-005</v>
       </c>
-      <c r="B293" s="7" t="n">
+      <c r="B294" s="7" t="n">
         <v>5.9073E-005</v>
       </c>
-      <c r="C293" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="D293" s="8" t="n">
+      <c r="C294" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D294" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="E293" s="8" t="n">
+      <c r="E294" s="8" t="n">
         <v>0.192</v>
       </c>
     </row>
-    <row r="294" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="5" t="n">
+    <row r="295" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="5" t="n">
         <v>0.00027972</v>
       </c>
-      <c r="B294" s="5" t="n">
+      <c r="B295" s="5" t="n">
         <v>2.8384E-005</v>
       </c>
-      <c r="C294" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="D294" s="6" t="n">
+      <c r="C295" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D295" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="E294" s="6" t="n">
+      <c r="E295" s="6" t="n">
         <v>0.074</v>
       </c>
     </row>
-    <row r="295" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="7" t="n">
+    <row r="296" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="7" t="n">
         <v>0.00046318</v>
       </c>
-      <c r="B295" s="7" t="n">
+      <c r="B296" s="7" t="n">
         <v>0.0079559</v>
       </c>
-      <c r="C295" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="D295" s="8" t="n">
+      <c r="C296" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D296" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="E295" s="8" t="n">
+      <c r="E296" s="8" t="n">
         <v>0.296</v>
-      </c>
-    </row>
-    <row r="296" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="5" t="n">
-        <v>0.00067943</v>
-      </c>
-      <c r="B296" s="5" t="n">
-        <v>0.00015135</v>
-      </c>
-      <c r="C296" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="D296" s="6" t="n">
-        <v>13</v>
-      </c>
-      <c r="E296" s="6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="297" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="5" t="n">
+        <v>0.00067943</v>
+      </c>
+      <c r="B297" s="5" t="n">
+        <v>0.00015135</v>
+      </c>
+      <c r="C297" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D297" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="E297" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="5" t="n">
         <v>0.00084265</v>
       </c>
-      <c r="B297" s="5" t="n">
+      <c r="B298" s="5" t="n">
         <v>0.0084705</v>
       </c>
-      <c r="C297" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="D297" s="6" t="n">
+      <c r="C298" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D298" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="E297" s="6" t="n">
+      <c r="E298" s="6" t="n">
         <v>0.039</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="11" t="n">
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="11" t="n">
         <v>0.00090503</v>
       </c>
-      <c r="B298" s="11" t="n">
+      <c r="B299" s="11" t="n">
         <v>5.9722E-005</v>
       </c>
-      <c r="C298" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="D298" s="0" t="n">
+      <c r="C299" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="D299" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="E298" s="0" t="n">
+      <c r="E299" s="0" t="n">
         <v>0.182</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="13" t="s">
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B300" s="13"/>
-      <c r="C300" s="13"/>
-      <c r="D300" s="13"/>
-      <c r="E300" s="13"/>
-      <c r="F300" s="13"/>
-      <c r="G300" s="13"/>
-    </row>
-    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="4" t="s">
+      <c r="B301" s="13"/>
+      <c r="C301" s="13"/>
+      <c r="D301" s="13"/>
+      <c r="E301" s="13"/>
+      <c r="F301" s="13"/>
+      <c r="G301" s="13"/>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B301" s="4" t="s">
+      <c r="B302" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C301" s="4" t="s">
+      <c r="C302" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D301" s="4" t="s">
+      <c r="D302" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E301" s="4" t="s">
+      <c r="E302" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F301" s="4" t="s">
+      <c r="F302" s="4" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="11" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="B302" s="11" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="C302" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="F302" s="0" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="11" t="n">
-        <v>7E-005</v>
+        <v>0.0001</v>
       </c>
       <c r="B303" s="11" t="n">
-        <v>0.0005</v>
+        <v>0.0004</v>
       </c>
       <c r="C303" s="0" t="s">
         <v>282</v>
       </c>
+      <c r="D303" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="F303" s="0" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="11" t="n">
-        <v>0.0001</v>
+        <v>7E-005</v>
       </c>
       <c r="B304" s="11" t="n">
-        <v>0.0007</v>
+        <v>0.0005</v>
       </c>
       <c r="C304" s="0" t="s">
         <v>284</v>
       </c>
+      <c r="D304" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="F304" s="0" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="11" t="n">
-        <v>7E-005</v>
+        <v>0.0001</v>
       </c>
       <c r="B305" s="11" t="n">
-        <v>0.0002</v>
+        <v>0.0007</v>
       </c>
       <c r="C305" s="0" t="s">
         <v>286</v>
       </c>
+      <c r="D305" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="F305" s="0" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="11" t="n">
-        <v>8E-005</v>
+        <v>7E-005</v>
       </c>
       <c r="B306" s="11" t="n">
-        <v>9E-005</v>
+        <v>0.0002</v>
       </c>
       <c r="C306" s="0" t="s">
         <v>288</v>
       </c>
+      <c r="D306" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="F306" s="0" t="s">
         <v>289</v>
       </c>
     </row>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="11" t="n">
+        <v>8E-005</v>
+      </c>
+      <c r="B307" s="11" t="n">
+        <v>9E-005</v>
+      </c>
+      <c r="C307" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="D307" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F307" s="0" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="310" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B310" s="12"/>
+      <c r="C310" s="12"/>
+      <c r="D310" s="12"/>
+      <c r="E310" s="12"/>
+      <c r="F310" s="12"/>
+      <c r="G310" s="12"/>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G311" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B312" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="G312" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B313" s="0" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B315" s="13"/>
+      <c r="C315" s="13"/>
+      <c r="D315" s="13"/>
+      <c r="E315" s="13"/>
+      <c r="F315" s="13"/>
+      <c r="G315" s="13"/>
+    </row>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B316" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C316" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D316" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E316" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F316" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G316" s="4"/>
+    </row>
+    <row r="317" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="5" t="n">
+        <v>1.6913E-005</v>
+      </c>
+      <c r="B317" s="5" t="n">
+        <v>0.038571</v>
+      </c>
+      <c r="C317" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="D317" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E317" s="6" t="n">
+        <v>0.037</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="11" t="n">
+        <v>2.3579E-005</v>
+      </c>
+      <c r="B318" s="11" t="n">
+        <v>0.0010015</v>
+      </c>
+      <c r="C318" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="D318" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E318" s="0" t="n">
+        <v>0.118</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="11" t="n">
+        <v>4.6631E-005</v>
+      </c>
+      <c r="B319" s="11" t="n">
+        <v>0.0036454</v>
+      </c>
+      <c r="C319" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="D319" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E319" s="0" t="n">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="320" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="5" t="n">
+        <v>5.3117E-005</v>
+      </c>
+      <c r="B320" s="5" t="n">
+        <v>0.00010918</v>
+      </c>
+      <c r="C320" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D320" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="E320" s="6" t="n">
+        <v>0.037</v>
+      </c>
+    </row>
+    <row r="321" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="5" t="n">
+        <v>5.5935E-005</v>
+      </c>
+      <c r="B321" s="5" t="n">
+        <v>0.00019646</v>
+      </c>
+      <c r="C321" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D321" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="E321" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="5" t="n">
+        <v>5.7869E-005</v>
+      </c>
+      <c r="B322" s="5" t="n">
+        <v>0.00021838</v>
+      </c>
+      <c r="C322" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D322" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E322" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="9" t="n">
+        <v>6.049E-005</v>
+      </c>
+      <c r="B323" s="9" t="n">
+        <v>0.0011012</v>
+      </c>
+      <c r="C323" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="D323" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E323" s="10" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="324" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="7" t="n">
+        <v>0.00010305</v>
+      </c>
+      <c r="B324" s="7" t="n">
+        <v>0.0023038</v>
+      </c>
+      <c r="C324" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D324" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="E324" s="8" t="n">
+        <v>0.618</v>
+      </c>
+      <c r="F324" s="8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="325" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="7" t="n">
+        <v>0.00011978</v>
+      </c>
+      <c r="B325" s="7" t="n">
+        <v>0.047091</v>
+      </c>
+      <c r="C325" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="D325" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="E325" s="8" t="n">
+        <v>0.621</v>
+      </c>
+      <c r="F325" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="326" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="5" t="n">
+        <v>0.00015588</v>
+      </c>
+      <c r="B326" s="5" t="n">
+        <v>0.00051262</v>
+      </c>
+      <c r="C326" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D326" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="E326" s="6" t="n">
+        <v>0.045</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="11" t="n">
+        <v>0.00032667</v>
+      </c>
+      <c r="B327" s="11" t="n">
+        <v>0.00012501</v>
+      </c>
+      <c r="C327" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="D327" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E327" s="0" t="n">
+        <v>0.231</v>
+      </c>
+    </row>
+    <row r="328" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="7" t="n">
+        <v>0.00034796</v>
+      </c>
+      <c r="B328" s="7" t="n">
+        <v>0.054703</v>
+      </c>
+      <c r="C328" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D328" s="8" t="n">
+        <v>17</v>
+      </c>
+      <c r="E328" s="8" t="n">
+        <v>0.421</v>
+      </c>
+      <c r="F328" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="11" t="n">
+        <v>0.00036827</v>
+      </c>
+      <c r="B329" s="11" t="n">
+        <v>0.040168</v>
+      </c>
+      <c r="C329" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="D329" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E329" s="0" t="n">
+        <v>0.227</v>
+      </c>
+    </row>
+    <row r="330" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="7" t="n">
+        <v>0.0003791</v>
+      </c>
+      <c r="B330" s="7" t="n">
+        <v>0.018404</v>
+      </c>
+      <c r="C330" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D330" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="E330" s="8" t="n">
+        <v>0.314</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="11" t="n">
+        <v>0.0022293</v>
+      </c>
+      <c r="B331" s="11" t="n">
+        <v>0.00079363</v>
+      </c>
+      <c r="C331" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="D331" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E331" s="0" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="F331" s="0" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="332" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="5" t="n">
+        <v>0.0037426</v>
+      </c>
+      <c r="B332" s="5" t="n">
+        <v>0.00016243</v>
+      </c>
+      <c r="C332" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="D332" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="E332" s="6" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="F332" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="333" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="5" t="n">
+        <v>0.0056465</v>
+      </c>
+      <c r="B333" s="5" t="n">
+        <v>0.00016268</v>
+      </c>
+      <c r="C333" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D333" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="E333" s="6" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="F333" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="334" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="5" t="n">
+        <v>0.008361</v>
+      </c>
+      <c r="B334" s="5" t="n">
+        <v>0.075067</v>
+      </c>
+      <c r="C334" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D334" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="E334" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F334" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="335" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="5" t="n">
+        <v>0.010494</v>
+      </c>
+      <c r="B335" s="5" t="n">
+        <v>0.011392</v>
+      </c>
+      <c r="C335" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D335" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="E335" s="6" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F335" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="336" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="5" t="n">
+        <v>0.010653</v>
+      </c>
+      <c r="B336" s="5" t="n">
+        <v>0.00057281</v>
+      </c>
+      <c r="C336" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D336" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="E336" s="6" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="F336" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="337" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="5" t="n">
+        <v>0.012582</v>
+      </c>
+      <c r="B337" s="5" t="n">
+        <v>0.00012086</v>
+      </c>
+      <c r="C337" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D337" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="E337" s="6" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="F337" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="338" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="5" t="n">
+        <v>0.030118</v>
+      </c>
+      <c r="B338" s="5" t="n">
+        <v>0.00011615</v>
+      </c>
+      <c r="C338" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D338" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="E338" s="6" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F338" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="339" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="5" t="n">
+        <v>0.033631</v>
+      </c>
+      <c r="B339" s="5" t="n">
+        <v>0.00042194</v>
+      </c>
+      <c r="C339" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D339" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="E339" s="6" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="F339" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="340" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="5" t="n">
+        <v>0.083599</v>
+      </c>
+      <c r="B340" s="5" t="n">
+        <v>0.00010217</v>
+      </c>
+      <c r="C340" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D340" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="E340" s="6" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="F340" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="341" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="5" t="n">
+        <v>0.092916</v>
+      </c>
+      <c r="B341" s="5" t="n">
+        <v>0.025484</v>
+      </c>
+      <c r="C341" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D341" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="E341" s="6" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="F341" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B343" s="13"/>
+      <c r="C343" s="13"/>
+      <c r="D343" s="13"/>
+      <c r="E343" s="13"/>
+      <c r="F343" s="13"/>
+      <c r="G343" s="13"/>
+    </row>
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B344" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C344" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D344" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E344" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F344" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G344" s="4"/>
+    </row>
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="11" t="n">
+        <v>1.358E-005</v>
+      </c>
+      <c r="B345" s="11" t="n">
+        <v>0.0036712</v>
+      </c>
+      <c r="C345" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="D345" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E345" s="0" t="n">
+        <v>0.222</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="11" t="n">
+        <v>1.3851E-005</v>
+      </c>
+      <c r="B346" s="11" t="n">
+        <v>0.0077482</v>
+      </c>
+      <c r="C346" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="D346" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E346" s="0" t="n">
+        <v>0.211</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="11" t="n">
+        <v>2.1528E-005</v>
+      </c>
+      <c r="B347" s="11" t="n">
+        <v>0.052655</v>
+      </c>
+      <c r="C347" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="D347" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E347" s="0" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="11" t="n">
+        <v>4.3456E-005</v>
+      </c>
+      <c r="B348" s="11" t="n">
+        <v>0.07084</v>
+      </c>
+      <c r="C348" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="D348" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E348" s="0" t="n">
+        <v>0.156</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="11" t="n">
+        <v>8.4234E-005</v>
+      </c>
+      <c r="B349" s="11" t="n">
+        <v>0.072016</v>
+      </c>
+      <c r="C349" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="D349" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E349" s="0" t="n">
+        <v>0.152</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="11" t="n">
+        <v>8.5093E-005</v>
+      </c>
+      <c r="B350" s="11" t="n">
+        <v>0.0079555</v>
+      </c>
+      <c r="C350" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="D350" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E350" s="0" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="11" t="n">
+        <v>0.00010264</v>
+      </c>
+      <c r="B351" s="11" t="n">
+        <v>0.049627</v>
+      </c>
+      <c r="C351" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="D351" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E351" s="0" t="n">
+        <v>0.386</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="11" t="n">
+        <v>0.00012253</v>
+      </c>
+      <c r="B352" s="11" t="n">
+        <v>0.00011182</v>
+      </c>
+      <c r="C352" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="D352" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E352" s="0" t="n">
+        <v>0.231</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="11" t="n">
+        <v>0.00016618</v>
+      </c>
+      <c r="B353" s="11" t="n">
+        <v>0.013387</v>
+      </c>
+      <c r="C353" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="D353" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="11" t="n">
+        <v>0.00016629</v>
+      </c>
+      <c r="B354" s="11" t="n">
+        <v>0.015967</v>
+      </c>
+      <c r="C354" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D354" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E354" s="0" t="n">
+        <v>0.071</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="11" t="n">
+        <v>0.00038917</v>
+      </c>
+      <c r="B355" s="11" t="n">
+        <v>0.0018935</v>
+      </c>
+      <c r="C355" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="D355" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E355" s="0" t="n">
+        <v>0.063</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="11" t="n">
+        <v>0.00099599</v>
+      </c>
+      <c r="B356" s="11" t="n">
+        <v>0.0047879</v>
+      </c>
+      <c r="C356" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="D356" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E356" s="0" t="n">
+        <v>0.308</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="11" t="n">
+        <v>0.0013434</v>
+      </c>
+      <c r="B357" s="11" t="n">
+        <v>0.00026081</v>
+      </c>
+      <c r="C357" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="D357" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E357" s="0" t="n">
+        <v>0.135</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="11" t="n">
+        <v>0.0013591</v>
+      </c>
+      <c r="B358" s="11" t="n">
+        <v>0.00014644</v>
+      </c>
+      <c r="C358" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="D358" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E358" s="0" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="11" t="n">
+        <v>0.0015186</v>
+      </c>
+      <c r="B359" s="11" t="n">
+        <v>0.017673</v>
+      </c>
+      <c r="C359" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="D359" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E359" s="0" t="n">
+        <v>0.364</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="11" t="n">
+        <v>0.0025067</v>
+      </c>
+      <c r="B360" s="11" t="n">
+        <v>0.0018069</v>
+      </c>
+      <c r="C360" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="D360" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="E360" s="0" t="n">
+        <v>0.149</v>
+      </c>
+    </row>
+    <row r="361" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="5" t="n">
+        <v>0.017399</v>
+      </c>
+      <c r="B361" s="5" t="n">
+        <v>0.019084</v>
+      </c>
+      <c r="C361" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D361" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="E361" s="6" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="F361" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="362" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="5" t="n">
+        <v>0.019718</v>
+      </c>
+      <c r="B362" s="5" t="n">
+        <v>0.0052615</v>
+      </c>
+      <c r="C362" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D362" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="E362" s="6" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F362" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="363" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="5" t="n">
+        <v>0.022447</v>
+      </c>
+      <c r="B363" s="5" t="n">
+        <v>0.016879</v>
+      </c>
+      <c r="C363" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D363" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="E363" s="6" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="F363" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="364" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="5" t="n">
+        <v>0.025904</v>
+      </c>
+      <c r="B364" s="5" t="n">
+        <v>0.0010247</v>
+      </c>
+      <c r="C364" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D364" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="E364" s="6" t="n">
+        <v>0.088</v>
+      </c>
+      <c r="F364" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="365" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="5" t="n">
+        <v>0.034381</v>
+      </c>
+      <c r="B365" s="5" t="n">
+        <v>0.00011077</v>
+      </c>
+      <c r="C365" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D365" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="E365" s="6" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F365" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="366" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="5" t="n">
+        <v>0.034562</v>
+      </c>
+      <c r="B366" s="5" t="n">
+        <v>0.0028669</v>
+      </c>
+      <c r="C366" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="D366" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="E366" s="6" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="F366" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="367" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="5" t="n">
+        <v>0.039197</v>
+      </c>
+      <c r="B367" s="5" t="n">
+        <v>0.0004377</v>
+      </c>
+      <c r="C367" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="D367" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="E367" s="6" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="F367" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="368" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="5" t="n">
+        <v>0.052285</v>
+      </c>
+      <c r="B368" s="5" t="n">
+        <v>0.004911</v>
+      </c>
+      <c r="C368" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="D368" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="E368" s="6" t="n">
+        <v>0.629</v>
+      </c>
+      <c r="F368" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="369" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="5" t="n">
+        <v>0.052614</v>
+      </c>
+      <c r="B369" s="5" t="n">
+        <v>0.00020247</v>
+      </c>
+      <c r="C369" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="D369" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="E369" s="6" t="n">
+        <v>0.069</v>
+      </c>
+      <c r="F369" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="B371" s="13"/>
+      <c r="C371" s="13"/>
+      <c r="D371" s="13"/>
+      <c r="E371" s="13"/>
+      <c r="F371" s="13"/>
+      <c r="G371" s="13"/>
+    </row>
+    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B372" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C372" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D372" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E372" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F372" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G372" s="4"/>
+    </row>
+    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="11" t="n">
+        <v>1.4258E-005</v>
+      </c>
+      <c r="B373" s="11" t="n">
+        <v>0.0087449</v>
+      </c>
+      <c r="C373" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="D373" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E373" s="0" t="n">
+        <v>0.033</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="11" t="n">
+        <v>1.4903E-005</v>
+      </c>
+      <c r="B374" s="11" t="n">
+        <v>0.022824</v>
+      </c>
+      <c r="C374" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="D374" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E374" s="0" t="n">
+        <v>0.077</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="11" t="n">
+        <v>1.5162E-005</v>
+      </c>
+      <c r="B375" s="11" t="n">
+        <v>0.0003705</v>
+      </c>
+      <c r="C375" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="D375" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E375" s="0" t="n">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="11" t="n">
+        <v>1.5532E-005</v>
+      </c>
+      <c r="B376" s="11" t="n">
+        <v>0.00079597</v>
+      </c>
+      <c r="C376" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D376" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E376" s="0" t="n">
+        <v>0.219</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="11" t="n">
+        <v>4.8181E-005</v>
+      </c>
+      <c r="B377" s="11" t="n">
+        <v>0.052861</v>
+      </c>
+      <c r="C377" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="D377" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="11" t="n">
+        <v>6.1374E-005</v>
+      </c>
+      <c r="B378" s="11" t="n">
+        <v>0.0042871</v>
+      </c>
+      <c r="C378" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="D378" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E378" s="0" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F378" s="0" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="11" t="n">
+        <v>6.4091E-005</v>
+      </c>
+      <c r="B379" s="11" t="n">
+        <v>0.034916</v>
+      </c>
+      <c r="C379" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="D379" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="11" t="n">
+        <v>7.0073E-005</v>
+      </c>
+      <c r="B380" s="11" t="n">
+        <v>0.025851</v>
+      </c>
+      <c r="C380" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="D380" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E380" s="0" t="n">
+        <v>0.091</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="11" t="n">
+        <v>8.5191E-005</v>
+      </c>
+      <c r="B381" s="11" t="n">
+        <v>0.0012959</v>
+      </c>
+      <c r="C381" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="D381" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="11" t="n">
+        <v>0.00010569</v>
+      </c>
+      <c r="B382" s="11" t="n">
+        <v>0.030448</v>
+      </c>
+      <c r="C382" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="D382" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="11" t="n">
+        <v>0.00013934</v>
+      </c>
+      <c r="B383" s="11" t="n">
+        <v>0.094741</v>
+      </c>
+      <c r="C383" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="D383" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="11" t="n">
+        <v>0.00029152</v>
+      </c>
+      <c r="B384" s="11" t="n">
+        <v>0.0050044</v>
+      </c>
+      <c r="C384" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="D384" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="11" t="n">
+        <v>0.00041831</v>
+      </c>
+      <c r="B385" s="11" t="n">
+        <v>0.0025948</v>
+      </c>
+      <c r="C385" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="D385" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="11" t="n">
+        <v>0.00043116</v>
+      </c>
+      <c r="B386" s="11" t="n">
+        <v>0.0033583</v>
+      </c>
+      <c r="C386" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="D386" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="11" t="n">
+        <v>0.00044228</v>
+      </c>
+      <c r="B387" s="11" t="n">
+        <v>0.039525</v>
+      </c>
+      <c r="C387" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D387" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="11" t="n">
+        <v>0.00079145</v>
+      </c>
+      <c r="B388" s="11" t="n">
+        <v>0.00048157</v>
+      </c>
+      <c r="C388" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="D388" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="E388" s="0" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="F388" s="0" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="11" t="n">
+        <v>0.0010816</v>
+      </c>
+      <c r="B389" s="11" t="n">
+        <v>0.00022451</v>
+      </c>
+      <c r="C389" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="D389" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E389" s="0" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="F389" s="0" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="390" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="5" t="n">
+        <v>0.0021095</v>
+      </c>
+      <c r="B390" s="5" t="n">
+        <v>0.020617</v>
+      </c>
+      <c r="C390" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D390" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="E390" s="6" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="F390" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="391" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="5" t="n">
+        <v>0.0054012</v>
+      </c>
+      <c r="B391" s="5" t="n">
+        <v>0.0010824</v>
+      </c>
+      <c r="C391" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="D391" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="E391" s="6" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="F391" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="392" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="5" t="n">
+        <v>0.0086898</v>
+      </c>
+      <c r="B392" s="5" t="n">
+        <v>0.0085214</v>
+      </c>
+      <c r="C392" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="D392" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="E392" s="6" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="F392" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="393" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="5" t="n">
+        <v>0.013662</v>
+      </c>
+      <c r="B393" s="5" t="n">
+        <v>0.084653</v>
+      </c>
+      <c r="C393" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="D393" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="E393" s="6" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="F393" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="394" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="5" t="n">
+        <v>0.01716</v>
+      </c>
+      <c r="B394" s="5" t="n">
+        <v>0.013976</v>
+      </c>
+      <c r="C394" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="D394" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="E394" s="6" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="F394" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="395" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="5" t="n">
+        <v>0.017805</v>
+      </c>
+      <c r="B395" s="5" t="n">
+        <v>0.0086208</v>
+      </c>
+      <c r="C395" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="D395" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="E395" s="6" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="F395" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="396" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="5" t="n">
+        <v>0.026324</v>
+      </c>
+      <c r="B396" s="5" t="n">
+        <v>0.001198</v>
+      </c>
+      <c r="C396" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="D396" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="E396" s="6" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="F396" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="397" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="5" t="n">
+        <v>0.036277</v>
+      </c>
+      <c r="B397" s="5" t="n">
+        <v>0.0016733</v>
+      </c>
+      <c r="C397" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="D397" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="E397" s="6" t="n">
+        <v>0.087</v>
+      </c>
+      <c r="F397" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="B399" s="13"/>
+      <c r="C399" s="13"/>
+      <c r="D399" s="13"/>
+      <c r="E399" s="13"/>
+      <c r="F399" s="13"/>
+      <c r="G399" s="13"/>
+    </row>
+    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B400" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C400" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D400" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E400" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F400" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G400" s="4"/>
+    </row>
+    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="11" t="n">
+        <v>1.0028E-005</v>
+      </c>
+      <c r="B401" s="11" t="n">
+        <v>0.081537</v>
+      </c>
+      <c r="C401" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="D401" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E401" s="0" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="11" t="n">
+        <v>2.154E-005</v>
+      </c>
+      <c r="B402" s="11" t="n">
+        <v>0.00026455</v>
+      </c>
+      <c r="C402" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="D402" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E402" s="0" t="n">
+        <v>0.033</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="11" t="n">
+        <v>5.5079E-005</v>
+      </c>
+      <c r="B403" s="11" t="n">
+        <v>0.036404</v>
+      </c>
+      <c r="C403" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="D403" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E403" s="0" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="11" t="n">
+        <v>7.5172E-005</v>
+      </c>
+      <c r="B404" s="11" t="n">
+        <v>0.0080256</v>
+      </c>
+      <c r="C404" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="D404" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E404" s="0" t="n">
+        <v>0.174</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="11" t="n">
+        <v>0.00010212</v>
+      </c>
+      <c r="B405" s="11" t="n">
+        <v>0.00015942</v>
+      </c>
+      <c r="C405" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="D405" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="11" t="n">
+        <v>0.0001585</v>
+      </c>
+      <c r="B406" s="11" t="n">
+        <v>0.045676</v>
+      </c>
+      <c r="C406" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="D406" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="11" t="n">
+        <v>0.00016235</v>
+      </c>
+      <c r="B407" s="11" t="n">
+        <v>0.00034318</v>
+      </c>
+      <c r="C407" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="D407" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="11" t="n">
+        <v>0.00038783</v>
+      </c>
+      <c r="B408" s="11" t="n">
+        <v>0.013443</v>
+      </c>
+      <c r="C408" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="D408" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="11" t="n">
+        <v>0.00057614</v>
+      </c>
+      <c r="B409" s="11" t="n">
+        <v>0.0075124</v>
+      </c>
+      <c r="C409" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="D409" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="11" t="n">
+        <v>0.00061616</v>
+      </c>
+      <c r="B410" s="11" t="n">
+        <v>0.00027012</v>
+      </c>
+      <c r="C410" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="D410" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="11" t="n">
+        <v>0.000815</v>
+      </c>
+      <c r="B411" s="11" t="n">
+        <v>0.00036079</v>
+      </c>
+      <c r="C411" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="D411" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="11" t="n">
+        <v>0.00092065</v>
+      </c>
+      <c r="B412" s="11" t="n">
+        <v>0.00072963</v>
+      </c>
+      <c r="C412" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="D412" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="11" t="n">
+        <v>0.0020659</v>
+      </c>
+      <c r="B413" s="11" t="n">
+        <v>0.0010293</v>
+      </c>
+      <c r="C413" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="D413" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="11" t="n">
+        <v>0.0026695</v>
+      </c>
+      <c r="B414" s="11" t="n">
+        <v>0.00018241</v>
+      </c>
+      <c r="C414" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="D414" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="11" t="n">
+        <v>0.0027193</v>
+      </c>
+      <c r="B415" s="11" t="n">
+        <v>0.0088273</v>
+      </c>
+      <c r="C415" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="D415" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="416" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="5" t="n">
+        <v>0.0066295</v>
+      </c>
+      <c r="B416" s="5" t="n">
+        <v>0.084736</v>
+      </c>
+      <c r="C416" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="D416" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="E416" s="6" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F416" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="417" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="5" t="n">
+        <v>0.0087331</v>
+      </c>
+      <c r="B417" s="5" t="n">
+        <v>0.053103</v>
+      </c>
+      <c r="C417" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="D417" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="E417" s="6" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="F417" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="418" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="5" t="n">
+        <v>0.01049</v>
+      </c>
+      <c r="B418" s="5" t="n">
+        <v>0.0021064</v>
+      </c>
+      <c r="C418" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="D418" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="E418" s="6" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="F418" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="419" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="5" t="n">
+        <v>0.012063</v>
+      </c>
+      <c r="B419" s="5" t="n">
+        <v>0.038518</v>
+      </c>
+      <c r="C419" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="D419" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="E419" s="6" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="F419" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="420" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="5" t="n">
+        <v>0.012966</v>
+      </c>
+      <c r="B420" s="5" t="n">
+        <v>0.0017141</v>
+      </c>
+      <c r="C420" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="D420" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="E420" s="6" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="F420" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="421" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="5" t="n">
+        <v>0.027446</v>
+      </c>
+      <c r="B421" s="5" t="n">
+        <v>0.0020659</v>
+      </c>
+      <c r="C421" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="D421" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="E421" s="6" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="F421" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="422" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="5" t="n">
+        <v>0.038307</v>
+      </c>
+      <c r="B422" s="5" t="n">
+        <v>0.0026181</v>
+      </c>
+      <c r="C422" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="D422" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="E422" s="6" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="F422" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="423" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="5" t="n">
+        <v>0.043339</v>
+      </c>
+      <c r="B423" s="5" t="n">
+        <v>0.00048946</v>
+      </c>
+      <c r="C423" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="D423" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="E423" s="6" t="n">
+        <v>0.086</v>
+      </c>
+      <c r="F423" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="424" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="5" t="n">
+        <v>0.080656</v>
+      </c>
+      <c r="B424" s="5" t="n">
+        <v>0.0038405</v>
+      </c>
+      <c r="C424" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="D424" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="E424" s="6" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F424" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="425" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="5" t="n">
+        <v>0.086037</v>
+      </c>
+      <c r="B425" s="5" t="n">
+        <v>0.00055617</v>
+      </c>
+      <c r="C425" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="D425" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="E425" s="6" t="n">
+        <v>0.087</v>
+      </c>
+      <c r="F425" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="B427" s="13"/>
+      <c r="C427" s="13"/>
+      <c r="D427" s="13"/>
+      <c r="E427" s="13"/>
+      <c r="F427" s="13"/>
+      <c r="G427" s="13"/>
+    </row>
+    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B428" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C428" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D428" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E428" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F428" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G428" s="4"/>
+    </row>
+    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="11" t="n">
+        <v>4.4833E-005</v>
+      </c>
+      <c r="B429" s="11" t="n">
+        <v>0.00035603</v>
+      </c>
+      <c r="C429" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="D429" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E429" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="11" t="n">
+        <v>4.8588E-005</v>
+      </c>
+      <c r="B430" s="11" t="n">
+        <v>0.00022552</v>
+      </c>
+      <c r="C430" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="D430" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E430" s="0" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="11" t="n">
+        <v>5.3881E-005</v>
+      </c>
+      <c r="B431" s="11" t="n">
+        <v>0.019546</v>
+      </c>
+      <c r="C431" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="D431" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="11" t="n">
+        <v>0.00012792</v>
+      </c>
+      <c r="B432" s="11" t="n">
+        <v>0.00013883</v>
+      </c>
+      <c r="C432" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="D432" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="11" t="n">
+        <v>0.00018996</v>
+      </c>
+      <c r="B433" s="11" t="n">
+        <v>0.02095</v>
+      </c>
+      <c r="C433" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="D433" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="11" t="n">
+        <v>0.00052525</v>
+      </c>
+      <c r="B434" s="11" t="n">
+        <v>0.062916</v>
+      </c>
+      <c r="C434" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="D434" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="11" t="n">
+        <v>0.0010185</v>
+      </c>
+      <c r="B435" s="11" t="n">
+        <v>0.02068</v>
+      </c>
+      <c r="C435" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="D435" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="11" t="n">
+        <v>0.0013616</v>
+      </c>
+      <c r="B436" s="11" t="n">
+        <v>0.0045854</v>
+      </c>
+      <c r="C436" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="D436" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="11" t="n">
+        <v>0.0014138</v>
+      </c>
+      <c r="B437" s="11" t="n">
+        <v>0.01921</v>
+      </c>
+      <c r="C437" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="D437" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="11" t="n">
+        <v>0.0023119</v>
+      </c>
+      <c r="B438" s="11" t="n">
+        <v>0.0031136</v>
+      </c>
+      <c r="C438" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="D438" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="11" t="n">
+        <v>0.0023426</v>
+      </c>
+      <c r="B439" s="11" t="n">
+        <v>0.00048386</v>
+      </c>
+      <c r="C439" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="D439" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="11" t="n">
+        <v>0.002477</v>
+      </c>
+      <c r="B440" s="11" t="n">
+        <v>0.04752</v>
+      </c>
+      <c r="C440" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="D440" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="11" t="n">
+        <v>0.0029472</v>
+      </c>
+      <c r="B441" s="11" t="n">
+        <v>0.0062512</v>
+      </c>
+      <c r="C441" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="D441" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="11" t="n">
+        <v>0.0033207</v>
+      </c>
+      <c r="B442" s="11" t="n">
+        <v>0.00062416</v>
+      </c>
+      <c r="C442" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="D442" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="11" t="n">
+        <v>0.0060778</v>
+      </c>
+      <c r="B443" s="11" t="n">
+        <v>0.0088268</v>
+      </c>
+      <c r="C443" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="D443" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="444" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A444" s="5" t="n">
+        <v>0.0075939</v>
+      </c>
+      <c r="B444" s="5" t="n">
+        <v>0.00011799</v>
+      </c>
+      <c r="C444" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="D444" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="E444" s="6" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="F444" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="445" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A445" s="5" t="n">
+        <v>0.0079911</v>
+      </c>
+      <c r="B445" s="5" t="n">
+        <v>0.00087168</v>
+      </c>
+      <c r="C445" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="D445" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="E445" s="6" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="F445" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="446" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A446" s="5" t="n">
+        <v>0.0085187</v>
+      </c>
+      <c r="B446" s="5" t="n">
+        <v>0.0090079</v>
+      </c>
+      <c r="C446" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="D446" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="E446" s="6" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="F446" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="447" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A447" s="5" t="n">
+        <v>0.012758</v>
+      </c>
+      <c r="B447" s="5" t="n">
+        <v>0.0040595</v>
+      </c>
+      <c r="C447" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="D447" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="E447" s="6" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="F447" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="448" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A448" s="5" t="n">
+        <v>0.025956</v>
+      </c>
+      <c r="B448" s="5" t="n">
+        <v>0.0082223</v>
+      </c>
+      <c r="C448" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="D448" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="E448" s="6" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="F448" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="449" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A449" s="5" t="n">
+        <v>0.026646</v>
+      </c>
+      <c r="B449" s="5" t="n">
+        <v>0.0075781</v>
+      </c>
+      <c r="C449" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="D449" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="E449" s="6" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="F449" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="450" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A450" s="5" t="n">
+        <v>0.0295</v>
+      </c>
+      <c r="B450" s="5" t="n">
+        <v>0.027969</v>
+      </c>
+      <c r="C450" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="D450" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="E450" s="6" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F450" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="451" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A451" s="5" t="n">
+        <v>0.037998</v>
+      </c>
+      <c r="B451" s="5" t="n">
+        <v>0.041283</v>
+      </c>
+      <c r="C451" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="D451" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="E451" s="6" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="F451" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="452" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A452" s="5" t="n">
+        <v>0.043958</v>
+      </c>
+      <c r="B452" s="5" t="n">
+        <v>0.00032859</v>
+      </c>
+      <c r="C452" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="D452" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="E452" s="6" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="F452" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="453" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A453" s="5" t="n">
+        <v>0.077063</v>
+      </c>
+      <c r="B453" s="5" t="n">
+        <v>0.029059</v>
+      </c>
+      <c r="C453" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D453" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="E453" s="6" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="F453" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A455" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B455" s="13"/>
+      <c r="C455" s="13"/>
+      <c r="D455" s="13"/>
+      <c r="E455" s="13"/>
+      <c r="F455" s="13"/>
+      <c r="G455" s="13"/>
+    </row>
+    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A456" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B456" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C456" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D456" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E456" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F456" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A457" s="11" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="B457" s="11" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="C457" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="D457" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F457" s="0" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A458" s="11"/>
+      <c r="B458" s="11"/>
+      <c r="C458" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="F458" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A459" s="11"/>
+      <c r="B459" s="11"/>
+      <c r="C459" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="F459" s="0" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A460" s="11"/>
+      <c r="B460" s="11"/>
+      <c r="C460" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="F460" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A461" s="11"/>
+      <c r="B461" s="11"/>
+      <c r="C461" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="F461" s="0" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A463" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="B463" s="12"/>
+      <c r="C463" s="12"/>
+      <c r="D463" s="12"/>
+      <c r="E463" s="12"/>
+      <c r="F463" s="12"/>
+      <c r="G463" s="12"/>
+    </row>
+    <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G464" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A465" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B465" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="G465" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A466" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B466" s="0" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A468" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B468" s="13"/>
+      <c r="C468" s="13"/>
+      <c r="D468" s="13"/>
+      <c r="E468" s="13"/>
+      <c r="F468" s="13"/>
+      <c r="G468" s="13"/>
+    </row>
+    <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B469" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C469" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D469" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E469" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F469" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G469" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="28">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A41:K41"/>
@@ -7817,13 +10905,22 @@
     <mergeCell ref="A136:K136"/>
     <mergeCell ref="A137:K137"/>
     <mergeCell ref="A174:K174"/>
-    <mergeCell ref="A179:G179"/>
-    <mergeCell ref="A184:G184"/>
-    <mergeCell ref="A207:G207"/>
-    <mergeCell ref="A231:G231"/>
-    <mergeCell ref="A254:G254"/>
-    <mergeCell ref="A277:G277"/>
-    <mergeCell ref="A300:G300"/>
+    <mergeCell ref="A180:G180"/>
+    <mergeCell ref="A185:G185"/>
+    <mergeCell ref="A208:G208"/>
+    <mergeCell ref="A232:G232"/>
+    <mergeCell ref="A255:G255"/>
+    <mergeCell ref="A278:G278"/>
+    <mergeCell ref="A301:G301"/>
+    <mergeCell ref="A310:G310"/>
+    <mergeCell ref="A315:G315"/>
+    <mergeCell ref="A343:G343"/>
+    <mergeCell ref="A371:G371"/>
+    <mergeCell ref="A399:G399"/>
+    <mergeCell ref="A427:G427"/>
+    <mergeCell ref="A455:G455"/>
+    <mergeCell ref="A463:G463"/>
+    <mergeCell ref="A468:G468"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/experiments/hyperparameters/hyperparemeter_search.xlsx
+++ b/experiments/hyperparameters/hyperparemeter_search.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="44" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="88" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="534">
   <si>
     <t>EXPERIMENT 2</t>
   </si>
@@ -893,6 +893,9 @@
     <t>fold5</t>
   </si>
   <si>
+    <t>EXPERIMENT 1</t>
+  </si>
+  <si>
     <t>10 .^ unifrnd(-5,-1,25,1)</t>
   </si>
   <si>
@@ -1079,40 +1082,40 @@
     <t>run279</t>
   </si>
   <si>
-    <t>low predictions</t>
-  </si>
-  <si>
     <t>run280</t>
   </si>
   <si>
     <t>run281</t>
   </si>
   <si>
+    <t>run289</t>
+  </si>
+  <si>
+    <t>kinda big jump</t>
+  </si>
+  <si>
     <t>run282</t>
   </si>
   <si>
+    <t>run286</t>
+  </si>
+  <si>
+    <t>run287</t>
+  </si>
+  <si>
+    <t>run285</t>
+  </si>
+  <si>
     <t>run283</t>
   </si>
   <si>
+    <t>run288</t>
+  </si>
+  <si>
     <t>run284</t>
   </si>
   <si>
-    <t>run285</t>
-  </si>
-  <si>
-    <t>run286</t>
-  </si>
-  <si>
-    <t>run287</t>
-  </si>
-  <si>
-    <t>run288</t>
-  </si>
-  <si>
-    <t>run289</t>
-  </si>
-  <si>
-    <t>kinda big jump</t>
+    <t>big jump in FP</t>
   </si>
   <si>
     <t>run290</t>
@@ -1157,36 +1160,36 @@
     <t>run303</t>
   </si>
   <si>
+    <t>run312</t>
+  </si>
+  <si>
+    <t>run308</t>
+  </si>
+  <si>
+    <t>run305</t>
+  </si>
+  <si>
+    <t>run309</t>
+  </si>
+  <si>
+    <t>run310</t>
+  </si>
+  <si>
+    <t>run311</t>
+  </si>
+  <si>
+    <t>run307</t>
+  </si>
+  <si>
+    <t>run313</t>
+  </si>
+  <si>
+    <t>run306</t>
+  </si>
+  <si>
     <t>run304</t>
   </si>
   <si>
-    <t>run305</t>
-  </si>
-  <si>
-    <t>run306</t>
-  </si>
-  <si>
-    <t>run307</t>
-  </si>
-  <si>
-    <t>run308</t>
-  </si>
-  <si>
-    <t>run309</t>
-  </si>
-  <si>
-    <t>run310</t>
-  </si>
-  <si>
-    <t>run311</t>
-  </si>
-  <si>
-    <t>run312</t>
-  </si>
-  <si>
-    <t>run313</t>
-  </si>
-  <si>
     <t>run314</t>
   </si>
   <si>
@@ -1229,27 +1232,27 @@
     <t>run327</t>
   </si>
   <si>
+    <t>run334</t>
+  </si>
+  <si>
+    <t>run333</t>
+  </si>
+  <si>
+    <t>run331</t>
+  </si>
+  <si>
+    <t>run332</t>
+  </si>
+  <si>
+    <t>run330</t>
+  </si>
+  <si>
     <t>run328</t>
   </si>
   <si>
     <t>run329</t>
   </si>
   <si>
-    <t>run330</t>
-  </si>
-  <si>
-    <t>run331</t>
-  </si>
-  <si>
-    <t>run332</t>
-  </si>
-  <si>
-    <t>run333</t>
-  </si>
-  <si>
-    <t>run334</t>
-  </si>
-  <si>
     <t>run335</t>
   </si>
   <si>
@@ -1307,13 +1310,313 @@
     <t>run353</t>
   </si>
   <si>
-    <t>EXPERIMENT 3_2</t>
-  </si>
-  <si>
-    <t>10 .^ unifrnd(-5,-4,20,1)</t>
+    <t>EXPERIMENT 1_2</t>
+  </si>
+  <si>
+    <t>10 .^ unifrnd(-5,-2,20,1)</t>
   </si>
   <si>
     <t>10 .^ unifrnd(-3, 0, 20, 1)</t>
+  </si>
+  <si>
+    <t>run354</t>
+  </si>
+  <si>
+    <t>run355</t>
+  </si>
+  <si>
+    <t>run356</t>
+  </si>
+  <si>
+    <t>run357</t>
+  </si>
+  <si>
+    <t>run358</t>
+  </si>
+  <si>
+    <t>run359</t>
+  </si>
+  <si>
+    <t>run360</t>
+  </si>
+  <si>
+    <t>run361</t>
+  </si>
+  <si>
+    <t>run362</t>
+  </si>
+  <si>
+    <t>run363</t>
+  </si>
+  <si>
+    <t>run364</t>
+  </si>
+  <si>
+    <t>run365</t>
+  </si>
+  <si>
+    <t>run366</t>
+  </si>
+  <si>
+    <t>run367</t>
+  </si>
+  <si>
+    <t>run368</t>
+  </si>
+  <si>
+    <t>run369</t>
+  </si>
+  <si>
+    <t>run370</t>
+  </si>
+  <si>
+    <t>run371</t>
+  </si>
+  <si>
+    <t>run372</t>
+  </si>
+  <si>
+    <t>run373</t>
+  </si>
+  <si>
+    <t>run374</t>
+  </si>
+  <si>
+    <t>run375</t>
+  </si>
+  <si>
+    <t>run376</t>
+  </si>
+  <si>
+    <t>run377</t>
+  </si>
+  <si>
+    <t>run378</t>
+  </si>
+  <si>
+    <t>run379</t>
+  </si>
+  <si>
+    <t>run380</t>
+  </si>
+  <si>
+    <t>run381</t>
+  </si>
+  <si>
+    <t>run382</t>
+  </si>
+  <si>
+    <t>run383</t>
+  </si>
+  <si>
+    <t>run384</t>
+  </si>
+  <si>
+    <t>run385</t>
+  </si>
+  <si>
+    <t>run386</t>
+  </si>
+  <si>
+    <t>run387</t>
+  </si>
+  <si>
+    <t>run388</t>
+  </si>
+  <si>
+    <t>run389</t>
+  </si>
+  <si>
+    <t>run390</t>
+  </si>
+  <si>
+    <t>run391</t>
+  </si>
+  <si>
+    <t>run392</t>
+  </si>
+  <si>
+    <t>run393</t>
+  </si>
+  <si>
+    <t>run394</t>
+  </si>
+  <si>
+    <t>run395</t>
+  </si>
+  <si>
+    <t>run396</t>
+  </si>
+  <si>
+    <t>run397</t>
+  </si>
+  <si>
+    <t>run398</t>
+  </si>
+  <si>
+    <t>run399</t>
+  </si>
+  <si>
+    <t>run400</t>
+  </si>
+  <si>
+    <t>run401</t>
+  </si>
+  <si>
+    <t>run402</t>
+  </si>
+  <si>
+    <t>run403</t>
+  </si>
+  <si>
+    <t>run404</t>
+  </si>
+  <si>
+    <t>run405</t>
+  </si>
+  <si>
+    <t>run406</t>
+  </si>
+  <si>
+    <t>run407</t>
+  </si>
+  <si>
+    <t>run408</t>
+  </si>
+  <si>
+    <t>run409</t>
+  </si>
+  <si>
+    <t>run410</t>
+  </si>
+  <si>
+    <t>run411</t>
+  </si>
+  <si>
+    <t>run412</t>
+  </si>
+  <si>
+    <t>run413</t>
+  </si>
+  <si>
+    <t>run414</t>
+  </si>
+  <si>
+    <t>run415</t>
+  </si>
+  <si>
+    <t>run416</t>
+  </si>
+  <si>
+    <t>run417</t>
+  </si>
+  <si>
+    <t>run418</t>
+  </si>
+  <si>
+    <t>run419</t>
+  </si>
+  <si>
+    <t>run420</t>
+  </si>
+  <si>
+    <t>run421</t>
+  </si>
+  <si>
+    <t>run422</t>
+  </si>
+  <si>
+    <t>run423</t>
+  </si>
+  <si>
+    <t>run424</t>
+  </si>
+  <si>
+    <t>run425</t>
+  </si>
+  <si>
+    <t>run426</t>
+  </si>
+  <si>
+    <t>run427</t>
+  </si>
+  <si>
+    <t>run428</t>
+  </si>
+  <si>
+    <t>run429</t>
+  </si>
+  <si>
+    <t>run430</t>
+  </si>
+  <si>
+    <t>run431</t>
+  </si>
+  <si>
+    <t>run432</t>
+  </si>
+  <si>
+    <t>run433</t>
+  </si>
+  <si>
+    <t>run434</t>
+  </si>
+  <si>
+    <t>run435</t>
+  </si>
+  <si>
+    <t>run436</t>
+  </si>
+  <si>
+    <t>run437</t>
+  </si>
+  <si>
+    <t>run438</t>
+  </si>
+  <si>
+    <t>run439</t>
+  </si>
+  <si>
+    <t>run440</t>
+  </si>
+  <si>
+    <t>run441</t>
+  </si>
+  <si>
+    <t>run442</t>
+  </si>
+  <si>
+    <t>run443</t>
+  </si>
+  <si>
+    <t>run444</t>
+  </si>
+  <si>
+    <t>run445</t>
+  </si>
+  <si>
+    <t>run446</t>
+  </si>
+  <si>
+    <t>run447</t>
+  </si>
+  <si>
+    <t>run448</t>
+  </si>
+  <si>
+    <t>run449</t>
+  </si>
+  <si>
+    <t>run450</t>
+  </si>
+  <si>
+    <t>run451</t>
+  </si>
+  <si>
+    <t>run452</t>
+  </si>
+  <si>
+    <t>run453</t>
   </si>
 </sst>
 </file>
@@ -1481,16 +1784,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K469"/>
+  <dimension ref="A1:K581"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A451" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A463" activeCellId="0" sqref="A463"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A560" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F582" activeCellId="0" sqref="F582"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8367346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6071428571429"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.91836734693878"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.02551020408163"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1071428571429"/>
@@ -8358,7 +8661,7 @@
     </row>
     <row r="310" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="12" t="s">
-        <v>173</v>
+        <v>292</v>
       </c>
       <c r="B310" s="12"/>
       <c r="C310" s="12"/>
@@ -8377,7 +8680,7 @@
         <v>48</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G312" s="0" t="s">
         <v>175</v>
@@ -8388,7 +8691,7 @@
         <v>3</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8431,7 +8734,7 @@
         <v>0.038571</v>
       </c>
       <c r="C317" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D317" s="6" t="n">
         <v>6</v>
@@ -8448,7 +8751,7 @@
         <v>0.0010015</v>
       </c>
       <c r="C318" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D318" s="0" t="n">
         <v>7</v>
@@ -8465,7 +8768,7 @@
         <v>0.0036454</v>
       </c>
       <c r="C319" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D319" s="0" t="n">
         <v>8</v>
@@ -8482,7 +8785,7 @@
         <v>0.00010918</v>
       </c>
       <c r="C320" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D320" s="6" t="n">
         <v>9</v>
@@ -8499,7 +8802,7 @@
         <v>0.00019646</v>
       </c>
       <c r="C321" s="6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D321" s="6" t="n">
         <v>10</v>
@@ -8516,7 +8819,7 @@
         <v>0.00021838</v>
       </c>
       <c r="C322" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D322" s="6" t="n">
         <v>11</v>
@@ -8533,7 +8836,7 @@
         <v>0.0011012</v>
       </c>
       <c r="C323" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D323" s="0" t="n">
         <v>12</v>
@@ -8550,7 +8853,7 @@
         <v>0.0023038</v>
       </c>
       <c r="C324" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D324" s="8" t="n">
         <v>13</v>
@@ -8559,7 +8862,7 @@
         <v>0.618</v>
       </c>
       <c r="F324" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="325" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8570,7 +8873,7 @@
         <v>0.047091</v>
       </c>
       <c r="C325" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D325" s="8" t="n">
         <v>14</v>
@@ -8579,7 +8882,7 @@
         <v>0.621</v>
       </c>
       <c r="F325" s="8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="326" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8590,7 +8893,7 @@
         <v>0.00051262</v>
       </c>
       <c r="C326" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D326" s="6" t="n">
         <v>15</v>
@@ -8607,7 +8910,7 @@
         <v>0.00012501</v>
       </c>
       <c r="C327" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D327" s="0" t="n">
         <v>16</v>
@@ -8624,7 +8927,7 @@
         <v>0.054703</v>
       </c>
       <c r="C328" s="8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D328" s="8" t="n">
         <v>17</v>
@@ -8633,7 +8936,7 @@
         <v>0.421</v>
       </c>
       <c r="F328" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8644,7 +8947,7 @@
         <v>0.040168</v>
       </c>
       <c r="C329" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D329" s="0" t="n">
         <v>18</v>
@@ -8661,7 +8964,7 @@
         <v>0.018404</v>
       </c>
       <c r="C330" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D330" s="8" t="n">
         <v>19</v>
@@ -8678,7 +8981,7 @@
         <v>0.00079363</v>
       </c>
       <c r="C331" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D331" s="0" t="n">
         <v>20</v>
@@ -8687,7 +8990,7 @@
         <v>0.297</v>
       </c>
       <c r="F331" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="332" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8698,7 +9001,7 @@
         <v>0.00016243</v>
       </c>
       <c r="C332" s="6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D332" s="6" t="n">
         <v>21</v>
@@ -8718,7 +9021,7 @@
         <v>0.00016268</v>
       </c>
       <c r="C333" s="6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D333" s="6" t="n">
         <v>22</v>
@@ -8738,7 +9041,7 @@
         <v>0.075067</v>
       </c>
       <c r="C334" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D334" s="6" t="n">
         <v>23</v>
@@ -8758,7 +9061,7 @@
         <v>0.011392</v>
       </c>
       <c r="C335" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D335" s="6" t="n">
         <v>24</v>
@@ -8778,7 +9081,7 @@
         <v>0.00057281</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D336" s="6" t="n">
         <v>25</v>
@@ -8798,7 +9101,7 @@
         <v>0.00012086</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D337" s="6" t="n">
         <v>26</v>
@@ -8818,7 +9121,7 @@
         <v>0.00011615</v>
       </c>
       <c r="C338" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D338" s="6" t="n">
         <v>27</v>
@@ -8838,7 +9141,7 @@
         <v>0.00042194</v>
       </c>
       <c r="C339" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D339" s="6" t="n">
         <v>28</v>
@@ -8858,7 +9161,7 @@
         <v>0.00010217</v>
       </c>
       <c r="C340" s="6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D340" s="6" t="n">
         <v>29</v>
@@ -8878,7 +9181,7 @@
         <v>0.025484</v>
       </c>
       <c r="C341" s="6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D341" s="6" t="n">
         <v>30</v>
@@ -8930,7 +9233,7 @@
         <v>0.0036712</v>
       </c>
       <c r="C345" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D345" s="0" t="n">
         <v>6</v>
@@ -8947,7 +9250,7 @@
         <v>0.0077482</v>
       </c>
       <c r="C346" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D346" s="0" t="n">
         <v>7</v>
@@ -8956,20 +9259,20 @@
         <v>0.211</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="11" t="n">
+    <row r="347" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="7" t="n">
         <v>2.1528E-005</v>
       </c>
-      <c r="B347" s="11" t="n">
+      <c r="B347" s="7" t="n">
         <v>0.052655</v>
       </c>
-      <c r="C347" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="D347" s="0" t="n">
+      <c r="C347" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="D347" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="E347" s="0" t="n">
+      <c r="E347" s="8" t="n">
         <v>0.55</v>
       </c>
     </row>
@@ -8981,7 +9284,7 @@
         <v>0.07084</v>
       </c>
       <c r="C348" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D348" s="0" t="n">
         <v>9</v>
@@ -8998,7 +9301,7 @@
         <v>0.072016</v>
       </c>
       <c r="C349" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D349" s="0" t="n">
         <v>10</v>
@@ -9015,7 +9318,7 @@
         <v>0.0079555</v>
       </c>
       <c r="C350" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D350" s="0" t="n">
         <v>11</v>
@@ -9024,20 +9327,20 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="11" t="n">
+    <row r="351" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="7" t="n">
         <v>0.00010264</v>
       </c>
-      <c r="B351" s="11" t="n">
+      <c r="B351" s="7" t="n">
         <v>0.049627</v>
       </c>
-      <c r="C351" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="D351" s="0" t="n">
+      <c r="C351" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="D351" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="E351" s="0" t="n">
+      <c r="E351" s="8" t="n">
         <v>0.386</v>
       </c>
     </row>
@@ -9049,7 +9352,7 @@
         <v>0.00011182</v>
       </c>
       <c r="C352" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D352" s="0" t="n">
         <v>13</v>
@@ -9066,77 +9369,80 @@
         <v>0.013387</v>
       </c>
       <c r="C353" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D353" s="0" t="n">
         <v>14</v>
       </c>
-    </row>
-    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="11" t="n">
+      <c r="E353" s="0" t="n">
+        <v>0.286</v>
+      </c>
+    </row>
+    <row r="354" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="5" t="n">
         <v>0.00016629</v>
       </c>
-      <c r="B354" s="11" t="n">
+      <c r="B354" s="5" t="n">
         <v>0.015967</v>
       </c>
-      <c r="C354" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="D354" s="0" t="n">
+      <c r="C354" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D354" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="E354" s="0" t="n">
+      <c r="E354" s="6" t="n">
         <v>0.071</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="11" t="n">
+    <row r="355" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="5" t="n">
         <v>0.00038917</v>
       </c>
-      <c r="B355" s="11" t="n">
+      <c r="B355" s="5" t="n">
         <v>0.0018935</v>
       </c>
-      <c r="C355" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="D355" s="0" t="n">
+      <c r="C355" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D355" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="E355" s="0" t="n">
+      <c r="E355" s="6" t="n">
         <v>0.063</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="11" t="n">
+    <row r="356" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="7" t="n">
         <v>0.00099599</v>
       </c>
-      <c r="B356" s="11" t="n">
+      <c r="B356" s="7" t="n">
         <v>0.0047879</v>
       </c>
-      <c r="C356" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="D356" s="0" t="n">
+      <c r="C356" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="D356" s="8" t="n">
         <v>17</v>
       </c>
-      <c r="E356" s="0" t="n">
+      <c r="E356" s="8" t="n">
         <v>0.308</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="11" t="n">
+    <row r="357" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="5" t="n">
         <v>0.0013434</v>
       </c>
-      <c r="B357" s="11" t="n">
+      <c r="B357" s="5" t="n">
         <v>0.00026081</v>
       </c>
-      <c r="C357" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="D357" s="0" t="n">
+      <c r="C357" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D357" s="6" t="n">
         <v>18</v>
       </c>
-      <c r="E357" s="0" t="n">
+      <c r="E357" s="6" t="n">
         <v>0.135</v>
       </c>
     </row>
@@ -9148,7 +9454,7 @@
         <v>0.00014644</v>
       </c>
       <c r="C358" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D358" s="0" t="n">
         <v>19</v>
@@ -9157,20 +9463,20 @@
         <v>0.28</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="11" t="n">
+    <row r="359" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="7" t="n">
         <v>0.0015186</v>
       </c>
-      <c r="B359" s="11" t="n">
+      <c r="B359" s="7" t="n">
         <v>0.017673</v>
       </c>
-      <c r="C359" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="D359" s="0" t="n">
+      <c r="C359" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="D359" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="E359" s="0" t="n">
+      <c r="E359" s="8" t="n">
         <v>0.364</v>
       </c>
     </row>
@@ -9182,7 +9488,7 @@
         <v>0.0018069</v>
       </c>
       <c r="C360" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D360" s="0" t="n">
         <v>21</v>
@@ -9199,7 +9505,7 @@
         <v>0.019084</v>
       </c>
       <c r="C361" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D361" s="6" t="n">
         <v>22</v>
@@ -9219,7 +9525,7 @@
         <v>0.0052615</v>
       </c>
       <c r="C362" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D362" s="6" t="n">
         <v>23</v>
@@ -9239,7 +9545,7 @@
         <v>0.016879</v>
       </c>
       <c r="C363" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D363" s="6" t="n">
         <v>24</v>
@@ -9259,7 +9565,7 @@
         <v>0.0010247</v>
       </c>
       <c r="C364" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D364" s="6" t="n">
         <v>25</v>
@@ -9279,7 +9585,7 @@
         <v>0.00011077</v>
       </c>
       <c r="C365" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D365" s="6" t="n">
         <v>26</v>
@@ -9299,7 +9605,7 @@
         <v>0.0028669</v>
       </c>
       <c r="C366" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D366" s="6" t="n">
         <v>27</v>
@@ -9319,7 +9625,7 @@
         <v>0.0004377</v>
       </c>
       <c r="C367" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D367" s="6" t="n">
         <v>28</v>
@@ -9339,7 +9645,7 @@
         <v>0.004911</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D368" s="6" t="n">
         <v>29</v>
@@ -9359,7 +9665,7 @@
         <v>0.00020247</v>
       </c>
       <c r="C369" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D369" s="6" t="n">
         <v>30</v>
@@ -9403,37 +9709,37 @@
       </c>
       <c r="G372" s="4"/>
     </row>
-    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="11" t="n">
+    <row r="373" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="5" t="n">
         <v>1.4258E-005</v>
       </c>
-      <c r="B373" s="11" t="n">
+      <c r="B373" s="5" t="n">
         <v>0.0087449</v>
       </c>
-      <c r="C373" s="0" t="s">
-        <v>348</v>
-      </c>
-      <c r="D373" s="0" t="n">
+      <c r="C373" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D373" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="E373" s="0" t="n">
+      <c r="E373" s="6" t="n">
         <v>0.033</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="11" t="n">
+    <row r="374" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="5" t="n">
         <v>1.4903E-005</v>
       </c>
-      <c r="B374" s="11" t="n">
+      <c r="B374" s="5" t="n">
         <v>0.022824</v>
       </c>
-      <c r="C374" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="D374" s="0" t="n">
+      <c r="C374" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D374" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="E374" s="0" t="n">
+      <c r="E374" s="6" t="n">
         <v>0.077</v>
       </c>
     </row>
@@ -9445,7 +9751,7 @@
         <v>0.0003705</v>
       </c>
       <c r="C375" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D375" s="0" t="n">
         <v>8</v>
@@ -9462,7 +9768,7 @@
         <v>0.00079597</v>
       </c>
       <c r="C376" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D376" s="0" t="n">
         <v>9</v>
@@ -9479,10 +9785,13 @@
         <v>0.052861</v>
       </c>
       <c r="C377" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D377" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="E377" s="0" t="n">
+        <v>0.247</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9493,7 +9802,7 @@
         <v>0.0042871</v>
       </c>
       <c r="C378" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D378" s="0" t="n">
         <v>11</v>
@@ -9501,177 +9810,204 @@
       <c r="E378" s="0" t="n">
         <v>0.185</v>
       </c>
-      <c r="F378" s="0" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="11" t="n">
+    </row>
+    <row r="379" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="7" t="n">
         <v>6.4091E-005</v>
       </c>
-      <c r="B379" s="11" t="n">
+      <c r="B379" s="7" t="n">
         <v>0.034916</v>
       </c>
-      <c r="C379" s="0" t="s">
+      <c r="C379" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="D379" s="0" t="n">
+      <c r="D379" s="8" t="n">
         <v>12</v>
       </c>
-    </row>
-    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="11" t="n">
+      <c r="E379" s="8" t="n">
+        <v>0.266</v>
+      </c>
+    </row>
+    <row r="380" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="5" t="n">
         <v>7.0073E-005</v>
       </c>
-      <c r="B380" s="11" t="n">
+      <c r="B380" s="5" t="n">
         <v>0.025851</v>
       </c>
-      <c r="C380" s="0" t="s">
+      <c r="C380" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="D380" s="0" t="n">
+      <c r="D380" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="E380" s="0" t="n">
+      <c r="E380" s="6" t="n">
         <v>0.091</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="11" t="n">
+    <row r="381" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="7" t="n">
+        <v>0.00079145</v>
+      </c>
+      <c r="B381" s="7" t="n">
+        <v>0.00048157</v>
+      </c>
+      <c r="C381" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D381" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="E381" s="8" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="F381" s="8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="382" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="5" t="n">
         <v>8.5191E-005</v>
       </c>
-      <c r="B381" s="11" t="n">
+      <c r="B382" s="5" t="n">
         <v>0.0012959</v>
       </c>
-      <c r="C381" s="0" t="s">
-        <v>357</v>
-      </c>
-      <c r="D381" s="0" t="n">
+      <c r="C382" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="D382" s="6" t="n">
         <v>14</v>
       </c>
-    </row>
-    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="11" t="n">
-        <v>0.00010569</v>
-      </c>
-      <c r="B382" s="11" t="n">
-        <v>0.030448</v>
-      </c>
-      <c r="C382" s="0" t="s">
+      <c r="E382" s="6" t="n">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="383" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="7" t="n">
+        <v>0.00041831</v>
+      </c>
+      <c r="B383" s="7" t="n">
+        <v>0.0025948</v>
+      </c>
+      <c r="C383" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="D383" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="E383" s="8" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="F383" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="D382" s="0" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="11" t="n">
-        <v>0.00013934</v>
-      </c>
-      <c r="B383" s="11" t="n">
-        <v>0.094741</v>
-      </c>
-      <c r="C383" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="D383" s="0" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="11" t="n">
-        <v>0.00029152</v>
-      </c>
-      <c r="B384" s="11" t="n">
-        <v>0.0050044</v>
-      </c>
-      <c r="C384" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="D384" s="0" t="n">
-        <v>17</v>
+    </row>
+    <row r="384" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="7" t="n">
+        <v>0.00043116</v>
+      </c>
+      <c r="B384" s="7" t="n">
+        <v>0.0033583</v>
+      </c>
+      <c r="C384" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="D384" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="E384" s="8" t="n">
+        <v>0.399</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="11" t="n">
-        <v>0.00041831</v>
+        <v>0.00029152</v>
       </c>
       <c r="B385" s="11" t="n">
-        <v>0.0025948</v>
+        <v>0.0050044</v>
       </c>
       <c r="C385" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D385" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="E385" s="0" t="n">
+        <v>0.122</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="11" t="n">
-        <v>0.00043116</v>
+        <v>0.00010569</v>
       </c>
       <c r="B386" s="11" t="n">
-        <v>0.0033583</v>
+        <v>0.030448</v>
       </c>
       <c r="C386" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D386" s="0" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="E386" s="0" t="n">
+        <v>0.138</v>
+      </c>
+    </row>
+    <row r="387" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="7" t="n">
         <v>0.00044228</v>
       </c>
-      <c r="B387" s="11" t="n">
+      <c r="B387" s="7" t="n">
         <v>0.039525</v>
       </c>
-      <c r="C387" s="0" t="s">
-        <v>363</v>
-      </c>
-      <c r="D387" s="0" t="n">
+      <c r="C387" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="D387" s="8" t="n">
         <v>20</v>
       </c>
-    </row>
-    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="11" t="n">
-        <v>0.00079145</v>
-      </c>
-      <c r="B388" s="11" t="n">
-        <v>0.00048157</v>
-      </c>
-      <c r="C388" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="D388" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="E388" s="0" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="F388" s="0" t="s">
+      <c r="E387" s="8" t="n">
+        <v>0.252</v>
+      </c>
+    </row>
+    <row r="388" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="5" t="n">
+        <v>0.00013934</v>
+      </c>
+      <c r="B388" s="5" t="n">
+        <v>0.094741</v>
+      </c>
+      <c r="C388" s="6" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="11" t="n">
+      <c r="D388" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="E388" s="6" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="F388" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="389" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="5" t="n">
         <v>0.0010816</v>
       </c>
-      <c r="B389" s="11" t="n">
+      <c r="B389" s="5" t="n">
         <v>0.00022451</v>
       </c>
-      <c r="C389" s="0" t="s">
-        <v>366</v>
-      </c>
-      <c r="D389" s="0" t="n">
+      <c r="C389" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D389" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="E389" s="0" t="n">
+      <c r="E389" s="6" t="n">
         <v>0.102</v>
       </c>
-      <c r="F389" s="0" t="s">
-        <v>365</v>
+      <c r="F389" s="6" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="390" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9682,7 +10018,7 @@
         <v>0.020617</v>
       </c>
       <c r="C390" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D390" s="6" t="n">
         <v>23</v>
@@ -9702,7 +10038,7 @@
         <v>0.0010824</v>
       </c>
       <c r="C391" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D391" s="6" t="n">
         <v>24</v>
@@ -9722,7 +10058,7 @@
         <v>0.0085214</v>
       </c>
       <c r="C392" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D392" s="6" t="n">
         <v>25</v>
@@ -9742,7 +10078,7 @@
         <v>0.084653</v>
       </c>
       <c r="C393" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D393" s="6" t="n">
         <v>26</v>
@@ -9762,7 +10098,7 @@
         <v>0.013976</v>
       </c>
       <c r="C394" s="6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D394" s="6" t="n">
         <v>27</v>
@@ -9782,7 +10118,7 @@
         <v>0.0086208</v>
       </c>
       <c r="C395" s="6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D395" s="6" t="n">
         <v>28</v>
@@ -9802,7 +10138,7 @@
         <v>0.001198</v>
       </c>
       <c r="C396" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D396" s="6" t="n">
         <v>29</v>
@@ -9822,7 +10158,7 @@
         <v>0.0016733</v>
       </c>
       <c r="C397" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D397" s="6" t="n">
         <v>30</v>
@@ -9866,54 +10202,54 @@
       </c>
       <c r="G400" s="4"/>
     </row>
-    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="11" t="n">
+    <row r="401" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="5" t="n">
         <v>1.0028E-005</v>
       </c>
-      <c r="B401" s="11" t="n">
+      <c r="B401" s="5" t="n">
         <v>0.081537</v>
       </c>
-      <c r="C401" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="D401" s="0" t="n">
+      <c r="C401" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D401" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="E401" s="0" t="n">
+      <c r="E401" s="6" t="n">
         <v>0.125</v>
       </c>
     </row>
-    <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="11" t="n">
+    <row r="402" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="5" t="n">
         <v>2.154E-005</v>
       </c>
-      <c r="B402" s="11" t="n">
+      <c r="B402" s="5" t="n">
         <v>0.00026455</v>
       </c>
-      <c r="C402" s="0" t="s">
-        <v>376</v>
-      </c>
-      <c r="D402" s="0" t="n">
+      <c r="C402" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="D402" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="E402" s="0" t="n">
+      <c r="E402" s="6" t="n">
         <v>0.033</v>
       </c>
     </row>
-    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="11" t="n">
+    <row r="403" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="5" t="n">
         <v>5.5079E-005</v>
       </c>
-      <c r="B403" s="11" t="n">
+      <c r="B403" s="5" t="n">
         <v>0.036404</v>
       </c>
-      <c r="C403" s="0" t="s">
-        <v>377</v>
-      </c>
-      <c r="D403" s="0" t="n">
+      <c r="C403" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="D403" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="E403" s="0" t="n">
+      <c r="E403" s="6" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -9925,7 +10261,7 @@
         <v>0.0080256</v>
       </c>
       <c r="C404" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D404" s="0" t="n">
         <v>9</v>
@@ -9934,158 +10270,194 @@
         <v>0.174</v>
       </c>
     </row>
-    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="11" t="n">
+    <row r="405" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="5" t="n">
         <v>0.00010212</v>
       </c>
-      <c r="B405" s="11" t="n">
+      <c r="B405" s="5" t="n">
         <v>0.00015942</v>
       </c>
-      <c r="C405" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="D405" s="0" t="n">
+      <c r="C405" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="D405" s="6" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="11" t="n">
-        <v>0.0001585</v>
-      </c>
-      <c r="B406" s="11" t="n">
-        <v>0.045676</v>
-      </c>
-      <c r="C406" s="0" t="s">
-        <v>380</v>
-      </c>
-      <c r="D406" s="0" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="11" t="n">
-        <v>0.00016235</v>
-      </c>
-      <c r="B407" s="11" t="n">
-        <v>0.00034318</v>
-      </c>
-      <c r="C407" s="0" t="s">
+      <c r="E405" s="6" t="n">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="406" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="5" t="n">
+        <v>0.0026695</v>
+      </c>
+      <c r="B406" s="5" t="n">
+        <v>0.00018241</v>
+      </c>
+      <c r="C406" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="D407" s="0" t="n">
-        <v>12</v>
+      <c r="D406" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="E406" s="6" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F406" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="407" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="7" t="n">
+        <v>0.00061616</v>
+      </c>
+      <c r="B407" s="7" t="n">
+        <v>0.00027012</v>
+      </c>
+      <c r="C407" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="D407" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="E407" s="8" t="n">
+        <v>0.278</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="11" t="n">
-        <v>0.00038783</v>
+        <v>0.00016235</v>
       </c>
       <c r="B408" s="11" t="n">
-        <v>0.013443</v>
+        <v>0.00034318</v>
       </c>
       <c r="C408" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D408" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="E408" s="0" t="n">
+        <v>0.222</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="11" t="n">
-        <v>0.00057614</v>
+        <v>0.000815</v>
       </c>
       <c r="B409" s="11" t="n">
-        <v>0.0075124</v>
+        <v>0.00036079</v>
       </c>
       <c r="C409" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D409" s="0" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="11" t="n">
-        <v>0.00061616</v>
-      </c>
-      <c r="B410" s="11" t="n">
-        <v>0.00027012</v>
-      </c>
-      <c r="C410" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="D410" s="0" t="n">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="E409" s="0" t="n">
+        <v>0.147</v>
+      </c>
+    </row>
+    <row r="410" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="7" t="n">
+        <v>0.00092065</v>
+      </c>
+      <c r="B410" s="7" t="n">
+        <v>0.00072963</v>
+      </c>
+      <c r="C410" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="D410" s="8" t="n">
+        <v>17</v>
+      </c>
+      <c r="E410" s="8" t="n">
+        <v>0.312</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="11" t="n">
-        <v>0.000815</v>
+        <v>0.0020659</v>
       </c>
       <c r="B411" s="11" t="n">
-        <v>0.00036079</v>
+        <v>0.0010293</v>
       </c>
       <c r="C411" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D411" s="0" t="n">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="E411" s="0" t="n">
+        <v>0.216</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="11" t="n">
-        <v>0.00092065</v>
+        <v>0.00057614</v>
       </c>
       <c r="B412" s="11" t="n">
-        <v>0.00072963</v>
+        <v>0.0075124</v>
       </c>
       <c r="C412" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D412" s="0" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="11" t="n">
-        <v>0.0020659</v>
-      </c>
-      <c r="B413" s="11" t="n">
-        <v>0.0010293</v>
-      </c>
-      <c r="C413" s="0" t="s">
-        <v>387</v>
-      </c>
-      <c r="D413" s="0" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="11" t="n">
-        <v>0.0026695</v>
-      </c>
-      <c r="B414" s="11" t="n">
-        <v>0.00018241</v>
-      </c>
-      <c r="C414" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E412" s="0" t="n">
+        <v>0.236</v>
+      </c>
+    </row>
+    <row r="413" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="7" t="n">
+        <v>0.0027193</v>
+      </c>
+      <c r="B413" s="7" t="n">
+        <v>0.0088273</v>
+      </c>
+      <c r="C413" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="D414" s="0" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="11" t="n">
-        <v>0.0027193</v>
-      </c>
-      <c r="B415" s="11" t="n">
-        <v>0.0088273</v>
-      </c>
-      <c r="C415" s="0" t="s">
+      <c r="D413" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="E413" s="8" t="n">
+        <v>0.247</v>
+      </c>
+    </row>
+    <row r="414" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="7" t="n">
+        <v>0.00038783</v>
+      </c>
+      <c r="B414" s="7" t="n">
+        <v>0.013443</v>
+      </c>
+      <c r="C414" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="D415" s="0" t="n">
-        <v>20</v>
+      <c r="D414" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="E414" s="8" t="n">
+        <v>0.247</v>
+      </c>
+    </row>
+    <row r="415" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="7" t="n">
+        <v>0.0001585</v>
+      </c>
+      <c r="B415" s="7" t="n">
+        <v>0.045676</v>
+      </c>
+      <c r="C415" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="D415" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="E415" s="8" t="n">
+        <v>0.296</v>
       </c>
     </row>
     <row r="416" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10096,7 +10468,7 @@
         <v>0.084736</v>
       </c>
       <c r="C416" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D416" s="6" t="n">
         <v>21</v>
@@ -10116,7 +10488,7 @@
         <v>0.053103</v>
       </c>
       <c r="C417" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D417" s="6" t="n">
         <v>22</v>
@@ -10136,7 +10508,7 @@
         <v>0.0021064</v>
       </c>
       <c r="C418" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D418" s="6" t="n">
         <v>23</v>
@@ -10156,7 +10528,7 @@
         <v>0.038518</v>
       </c>
       <c r="C419" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D419" s="6" t="n">
         <v>24</v>
@@ -10176,7 +10548,7 @@
         <v>0.0017141</v>
       </c>
       <c r="C420" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D420" s="6" t="n">
         <v>25</v>
@@ -10196,7 +10568,7 @@
         <v>0.0020659</v>
       </c>
       <c r="C421" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D421" s="6" t="n">
         <v>26</v>
@@ -10216,7 +10588,7 @@
         <v>0.0026181</v>
       </c>
       <c r="C422" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D422" s="6" t="n">
         <v>27</v>
@@ -10236,7 +10608,7 @@
         <v>0.00048946</v>
       </c>
       <c r="C423" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D423" s="6" t="n">
         <v>28</v>
@@ -10256,7 +10628,7 @@
         <v>0.0038405</v>
       </c>
       <c r="C424" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D424" s="6" t="n">
         <v>29</v>
@@ -10276,7 +10648,7 @@
         <v>0.00055617</v>
       </c>
       <c r="C425" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D425" s="6" t="n">
         <v>30</v>
@@ -10320,37 +10692,37 @@
       </c>
       <c r="G428" s="4"/>
     </row>
-    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="11" t="n">
+    <row r="429" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="5" t="n">
         <v>4.4833E-005</v>
       </c>
-      <c r="B429" s="11" t="n">
+      <c r="B429" s="5" t="n">
         <v>0.00035603</v>
       </c>
-      <c r="C429" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="D429" s="0" t="n">
+      <c r="C429" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="D429" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="E429" s="0" t="n">
+      <c r="E429" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A430" s="11" t="n">
+    <row r="430" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="5" t="n">
         <v>4.8588E-005</v>
       </c>
-      <c r="B430" s="11" t="n">
+      <c r="B430" s="5" t="n">
         <v>0.00022552</v>
       </c>
-      <c r="C430" s="0" t="s">
-        <v>401</v>
-      </c>
-      <c r="D430" s="0" t="n">
+      <c r="C430" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="D430" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="E430" s="0" t="n">
+      <c r="E430" s="6" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -10362,178 +10734,229 @@
         <v>0.019546</v>
       </c>
       <c r="C431" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D431" s="0" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A432" s="11" t="n">
+      <c r="E431" s="0" t="n">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="432" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="5" t="n">
         <v>0.00012792</v>
       </c>
-      <c r="B432" s="11" t="n">
+      <c r="B432" s="5" t="n">
         <v>0.00013883</v>
       </c>
-      <c r="C432" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="D432" s="0" t="n">
+      <c r="C432" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="D432" s="6" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="11" t="n">
-        <v>0.00018996</v>
-      </c>
-      <c r="B433" s="11" t="n">
-        <v>0.02095</v>
-      </c>
-      <c r="C433" s="0" t="s">
-        <v>404</v>
-      </c>
-      <c r="D433" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="11" t="n">
-        <v>0.00052525</v>
-      </c>
-      <c r="B434" s="11" t="n">
-        <v>0.062916</v>
-      </c>
-      <c r="C434" s="0" t="s">
+      <c r="E432" s="6" t="n">
+        <v>0.042</v>
+      </c>
+    </row>
+    <row r="433" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="7" t="n">
+        <v>0.0023426</v>
+      </c>
+      <c r="B433" s="7" t="n">
+        <v>0.00048386</v>
+      </c>
+      <c r="C433" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="D434" s="0" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="11" t="n">
+      <c r="D433" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="E433" s="8" t="n">
+        <v>0.276</v>
+      </c>
+    </row>
+    <row r="434" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="5" t="n">
+        <v>0.0023119</v>
+      </c>
+      <c r="B434" s="5" t="n">
+        <v>0.0031136</v>
+      </c>
+      <c r="C434" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="D434" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="E434" s="6" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="435" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="7" t="n">
+        <v>0.0013616</v>
+      </c>
+      <c r="B435" s="7" t="n">
+        <v>0.0045854</v>
+      </c>
+      <c r="C435" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="D435" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="E435" s="8" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="F435" s="8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="436" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="7" t="n">
+        <v>0.0014138</v>
+      </c>
+      <c r="B436" s="7" t="n">
+        <v>0.01921</v>
+      </c>
+      <c r="C436" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="D436" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="E436" s="8" t="n">
+        <v>0.289</v>
+      </c>
+    </row>
+    <row r="437" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="7" t="n">
         <v>0.0010185</v>
       </c>
-      <c r="B435" s="11" t="n">
+      <c r="B437" s="7" t="n">
         <v>0.02068</v>
       </c>
-      <c r="C435" s="0" t="s">
-        <v>406</v>
-      </c>
-      <c r="D435" s="0" t="n">
+      <c r="C437" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="D437" s="8" t="n">
         <v>12</v>
       </c>
-    </row>
-    <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="11" t="n">
-        <v>0.0013616</v>
-      </c>
-      <c r="B436" s="11" t="n">
-        <v>0.0045854</v>
-      </c>
-      <c r="C436" s="0" t="s">
-        <v>407</v>
-      </c>
-      <c r="D436" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="11" t="n">
-        <v>0.0014138</v>
-      </c>
-      <c r="B437" s="11" t="n">
-        <v>0.01921</v>
-      </c>
-      <c r="C437" s="0" t="s">
-        <v>408</v>
-      </c>
-      <c r="D437" s="0" t="n">
-        <v>14</v>
+      <c r="E437" s="8" t="n">
+        <v>0.286</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="11" t="n">
-        <v>0.0023119</v>
+        <v>0.00018996</v>
       </c>
       <c r="B438" s="11" t="n">
-        <v>0.0031136</v>
+        <v>0.02095</v>
       </c>
       <c r="C438" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D438" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="E438" s="0" t="n">
+        <v>0.204</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="11" t="n">
-        <v>0.0023426</v>
+        <v>0.00052525</v>
       </c>
       <c r="B439" s="11" t="n">
-        <v>0.00048386</v>
+        <v>0.062916</v>
       </c>
       <c r="C439" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D439" s="0" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A440" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="E439" s="0" t="n">
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="440" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="5" t="n">
         <v>0.002477</v>
       </c>
-      <c r="B440" s="11" t="n">
+      <c r="B440" s="5" t="n">
         <v>0.04752</v>
       </c>
-      <c r="C440" s="0" t="s">
-        <v>411</v>
-      </c>
-      <c r="D440" s="0" t="n">
+      <c r="C440" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="D440" s="6" t="n">
         <v>17</v>
       </c>
-    </row>
-    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A441" s="11" t="n">
+      <c r="E440" s="6" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F440" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="441" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="5" t="n">
         <v>0.0029472</v>
       </c>
-      <c r="B441" s="11" t="n">
+      <c r="B441" s="5" t="n">
         <v>0.0062512</v>
       </c>
-      <c r="C441" s="0" t="s">
-        <v>412</v>
-      </c>
-      <c r="D441" s="0" t="n">
+      <c r="C441" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="D441" s="6" t="n">
         <v>18</v>
       </c>
-    </row>
-    <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A442" s="11" t="n">
+      <c r="E441" s="6" t="n">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row r="442" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="5" t="n">
         <v>0.0033207</v>
       </c>
-      <c r="B442" s="11" t="n">
+      <c r="B442" s="5" t="n">
         <v>0.00062416</v>
       </c>
-      <c r="C442" s="0" t="s">
-        <v>413</v>
-      </c>
-      <c r="D442" s="0" t="n">
+      <c r="C442" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="D442" s="6" t="n">
         <v>19</v>
       </c>
-    </row>
-    <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="11" t="n">
+      <c r="E442" s="6" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F442" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="443" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="5" t="n">
         <v>0.0060778</v>
       </c>
-      <c r="B443" s="11" t="n">
+      <c r="B443" s="5" t="n">
         <v>0.0088268</v>
       </c>
-      <c r="C443" s="0" t="s">
-        <v>414</v>
-      </c>
-      <c r="D443" s="0" t="n">
+      <c r="C443" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="D443" s="6" t="n">
         <v>20</v>
+      </c>
+      <c r="E443" s="6" t="n">
+        <v>0.579</v>
+      </c>
+      <c r="F443" s="6" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="444" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10544,7 +10967,7 @@
         <v>0.00011799</v>
       </c>
       <c r="C444" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D444" s="6" t="n">
         <v>21</v>
@@ -10564,7 +10987,7 @@
         <v>0.00087168</v>
       </c>
       <c r="C445" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D445" s="6" t="n">
         <v>22</v>
@@ -10584,7 +11007,7 @@
         <v>0.0090079</v>
       </c>
       <c r="C446" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D446" s="6" t="n">
         <v>23</v>
@@ -10604,7 +11027,7 @@
         <v>0.0040595</v>
       </c>
       <c r="C447" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D447" s="6" t="n">
         <v>24</v>
@@ -10624,7 +11047,7 @@
         <v>0.0082223</v>
       </c>
       <c r="C448" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D448" s="6" t="n">
         <v>25</v>
@@ -10644,7 +11067,7 @@
         <v>0.0075781</v>
       </c>
       <c r="C449" s="6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D449" s="6" t="n">
         <v>26</v>
@@ -10664,7 +11087,7 @@
         <v>0.027969</v>
       </c>
       <c r="C450" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D450" s="6" t="n">
         <v>27</v>
@@ -10684,7 +11107,7 @@
         <v>0.041283</v>
       </c>
       <c r="C451" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D451" s="6" t="n">
         <v>28</v>
@@ -10704,7 +11127,7 @@
         <v>0.00032859</v>
       </c>
       <c r="C452" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D452" s="6" t="n">
         <v>29</v>
@@ -10724,7 +11147,7 @@
         <v>0.029059</v>
       </c>
       <c r="C453" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D453" s="6" t="n">
         <v>30</v>
@@ -10775,7 +11198,7 @@
         <v>0.03</v>
       </c>
       <c r="C457" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D457" s="0" t="n">
         <v>6</v>
@@ -10785,40 +11208,68 @@
       </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="11"/>
-      <c r="B458" s="11"/>
+      <c r="A458" s="11" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="B458" s="11" t="n">
+        <v>0.04</v>
+      </c>
       <c r="C458" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
+      </c>
+      <c r="D458" s="0" t="n">
+        <v>7</v>
       </c>
       <c r="F458" s="0" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A459" s="11"/>
-      <c r="B459" s="11"/>
+      <c r="A459" s="11" t="n">
+        <v>9E-005</v>
+      </c>
+      <c r="B459" s="11" t="n">
+        <v>0.005</v>
+      </c>
       <c r="C459" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
+      </c>
+      <c r="D459" s="0" t="n">
+        <v>8</v>
       </c>
       <c r="F459" s="0" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A460" s="11"/>
-      <c r="B460" s="11"/>
+      <c r="A460" s="11" t="n">
+        <v>0.0006</v>
+      </c>
+      <c r="B460" s="11" t="n">
+        <v>0.008</v>
+      </c>
       <c r="C460" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
+      </c>
+      <c r="D460" s="0" t="n">
+        <v>9</v>
       </c>
       <c r="F460" s="0" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A461" s="11"/>
-      <c r="B461" s="11"/>
+      <c r="A461" s="11" t="n">
+        <v>0.0006</v>
+      </c>
+      <c r="B461" s="11" t="n">
+        <v>0.01</v>
+      </c>
       <c r="C461" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
+      </c>
+      <c r="D461" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="F461" s="0" t="s">
         <v>291</v>
@@ -10826,7 +11277,7 @@
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B463" s="12"/>
       <c r="C463" s="12"/>
@@ -10845,7 +11296,7 @@
         <v>48</v>
       </c>
       <c r="B465" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G465" s="0" t="s">
         <v>175</v>
@@ -10856,7 +11307,7 @@
         <v>3</v>
       </c>
       <c r="B466" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10891,8 +11342,1622 @@
       </c>
       <c r="G469" s="4"/>
     </row>
+    <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="11" t="n">
+        <v>1.6546E-005</v>
+      </c>
+      <c r="B470" s="11" t="n">
+        <v>0.3364606</v>
+      </c>
+      <c r="C470" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="D470" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A471" s="11" t="n">
+        <v>2.1434E-005</v>
+      </c>
+      <c r="B471" s="11" t="n">
+        <v>0.0554675</v>
+      </c>
+      <c r="C471" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="D471" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="11" t="n">
+        <v>3.324E-005</v>
+      </c>
+      <c r="B472" s="11" t="n">
+        <v>0.0036334</v>
+      </c>
+      <c r="C472" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="D472" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="11" t="n">
+        <v>5.1531E-005</v>
+      </c>
+      <c r="B473" s="11" t="n">
+        <v>0.6906702</v>
+      </c>
+      <c r="C473" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="D473" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="11" t="n">
+        <v>6.4539E-005</v>
+      </c>
+      <c r="B474" s="11" t="n">
+        <v>0.0874128</v>
+      </c>
+      <c r="C474" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="D474" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="11" t="n">
+        <v>0.00010521</v>
+      </c>
+      <c r="B475" s="11" t="n">
+        <v>0.0066661</v>
+      </c>
+      <c r="C475" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="D475" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="11" t="n">
+        <v>0.00011148</v>
+      </c>
+      <c r="B476" s="11" t="n">
+        <v>0.3805353</v>
+      </c>
+      <c r="C476" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D476" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="11" t="n">
+        <v>0.00016302</v>
+      </c>
+      <c r="B477" s="11" t="n">
+        <v>0.0937002</v>
+      </c>
+      <c r="C477" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="D477" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="11" t="n">
+        <v>0.00040381</v>
+      </c>
+      <c r="B478" s="11" t="n">
+        <v>0.0021062</v>
+      </c>
+      <c r="C478" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="D478" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="11" t="n">
+        <v>0.00047202</v>
+      </c>
+      <c r="B479" s="11" t="n">
+        <v>0.0056217</v>
+      </c>
+      <c r="C479" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="D479" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A480" s="11" t="n">
+        <v>0.00072969</v>
+      </c>
+      <c r="B480" s="11" t="n">
+        <v>0.150206</v>
+      </c>
+      <c r="C480" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="D480" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A481" s="11" t="n">
+        <v>0.00078044</v>
+      </c>
+      <c r="B481" s="11" t="n">
+        <v>0.4237876</v>
+      </c>
+      <c r="C481" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="D481" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A482" s="11" t="n">
+        <v>0.0010278</v>
+      </c>
+      <c r="B482" s="11" t="n">
+        <v>0.0097653</v>
+      </c>
+      <c r="C482" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="D482" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A483" s="11" t="n">
+        <v>0.0016154</v>
+      </c>
+      <c r="B483" s="11" t="n">
+        <v>0.0042225</v>
+      </c>
+      <c r="C483" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="D483" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A484" s="11" t="n">
+        <v>0.0019026</v>
+      </c>
+      <c r="B484" s="11" t="n">
+        <v>0.0010762</v>
+      </c>
+      <c r="C484" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="D484" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A485" s="11" t="n">
+        <v>0.0034332</v>
+      </c>
+      <c r="B485" s="11" t="n">
+        <v>0.7402161</v>
+      </c>
+      <c r="C485" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="D485" s="0" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A486" s="11" t="n">
+        <v>0.0053245</v>
+      </c>
+      <c r="B486" s="11" t="n">
+        <v>0.0172276</v>
+      </c>
+      <c r="C486" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="D486" s="0" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A487" s="11" t="n">
+        <v>0.0065557</v>
+      </c>
+      <c r="B487" s="11" t="n">
+        <v>0.0026726</v>
+      </c>
+      <c r="C487" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="D487" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E487" s="0" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="F487" s="0" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A488" s="11" t="n">
+        <v>0.0079053</v>
+      </c>
+      <c r="B488" s="11" t="n">
+        <v>0.003742</v>
+      </c>
+      <c r="C488" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="D488" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E488" s="0" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="F488" s="0" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A489" s="11" t="n">
+        <v>0.008589</v>
+      </c>
+      <c r="B489" s="11" t="n">
+        <v>0.6753151</v>
+      </c>
+      <c r="C489" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="D489" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E489" s="0" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="F489" s="0" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A491" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B491" s="13"/>
+      <c r="C491" s="13"/>
+      <c r="D491" s="13"/>
+      <c r="E491" s="13"/>
+      <c r="F491" s="13"/>
+      <c r="G491" s="13"/>
+    </row>
+    <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A492" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B492" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C492" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D492" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E492" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F492" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G492" s="4"/>
+    </row>
+    <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A493" s="11" t="n">
+        <v>1.5675E-005</v>
+      </c>
+      <c r="B493" s="11" t="n">
+        <v>0.0028178</v>
+      </c>
+      <c r="C493" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="D493" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A494" s="11" t="n">
+        <v>2.5329E-005</v>
+      </c>
+      <c r="B494" s="11" t="n">
+        <v>0.0018946</v>
+      </c>
+      <c r="C494" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="D494" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A495" s="11" t="n">
+        <v>2.7433E-005</v>
+      </c>
+      <c r="B495" s="11" t="n">
+        <v>0.0966219</v>
+      </c>
+      <c r="C495" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="D495" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A496" s="11" t="n">
+        <v>3.2859E-005</v>
+      </c>
+      <c r="B496" s="11" t="n">
+        <v>0.0051958</v>
+      </c>
+      <c r="C496" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="D496" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A497" s="11" t="n">
+        <v>3.7739E-005</v>
+      </c>
+      <c r="B497" s="11" t="n">
+        <v>0.0043637</v>
+      </c>
+      <c r="C497" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="D497" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A498" s="11" t="n">
+        <v>3.9702E-005</v>
+      </c>
+      <c r="B498" s="11" t="n">
+        <v>0.0312187</v>
+      </c>
+      <c r="C498" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="D498" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A499" s="11" t="n">
+        <v>4.589E-005</v>
+      </c>
+      <c r="B499" s="11" t="n">
+        <v>0.1905453</v>
+      </c>
+      <c r="C499" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="D499" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A500" s="11" t="n">
+        <v>5.0586E-005</v>
+      </c>
+      <c r="B500" s="11" t="n">
+        <v>0.3139434</v>
+      </c>
+      <c r="C500" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="D500" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A501" s="11" t="n">
+        <v>5.232E-005</v>
+      </c>
+      <c r="B501" s="11" t="n">
+        <v>0.1373997</v>
+      </c>
+      <c r="C501" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="D501" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A502" s="11" t="n">
+        <v>5.8133E-005</v>
+      </c>
+      <c r="B502" s="11" t="n">
+        <v>0.314184</v>
+      </c>
+      <c r="C502" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="D502" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A503" s="11" t="n">
+        <v>7.2325E-005</v>
+      </c>
+      <c r="B503" s="11" t="n">
+        <v>0.0737628</v>
+      </c>
+      <c r="C503" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="D503" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A504" s="11" t="n">
+        <v>0.00012154</v>
+      </c>
+      <c r="B504" s="11" t="n">
+        <v>0.0101554</v>
+      </c>
+      <c r="C504" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="D504" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A505" s="11" t="n">
+        <v>0.0001574</v>
+      </c>
+      <c r="B505" s="11" t="n">
+        <v>0.3136236</v>
+      </c>
+      <c r="C505" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="D505" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A506" s="11" t="n">
+        <v>0.00018285</v>
+      </c>
+      <c r="B506" s="11" t="n">
+        <v>0.0011338</v>
+      </c>
+      <c r="C506" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="D506" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A507" s="11" t="n">
+        <v>0.00019898</v>
+      </c>
+      <c r="B507" s="11" t="n">
+        <v>0.6018989</v>
+      </c>
+      <c r="C507" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="D507" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A508" s="11" t="n">
+        <v>0.00073229</v>
+      </c>
+      <c r="B508" s="11" t="n">
+        <v>0.0913831</v>
+      </c>
+      <c r="C508" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="D508" s="0" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A509" s="11" t="n">
+        <v>0.0011529</v>
+      </c>
+      <c r="B509" s="11" t="n">
+        <v>0.0825684</v>
+      </c>
+      <c r="C509" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="D509" s="0" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A510" s="11" t="n">
+        <v>0.0029386</v>
+      </c>
+      <c r="B510" s="11" t="n">
+        <v>0.146197</v>
+      </c>
+      <c r="C510" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="D510" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E510" s="0" t="n">
+        <v>0.263</v>
+      </c>
+    </row>
+    <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A511" s="11" t="n">
+        <v>0.0034427</v>
+      </c>
+      <c r="B511" s="11" t="n">
+        <v>0.0017839</v>
+      </c>
+      <c r="C511" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="D511" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E511" s="0" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="F511" s="0" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A512" s="11" t="n">
+        <v>0.0046946</v>
+      </c>
+      <c r="B512" s="11" t="n">
+        <v>0.0240136</v>
+      </c>
+      <c r="C512" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="D512" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E512" s="0" t="n">
+        <v>0.474</v>
+      </c>
+      <c r="F512" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A514" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="B514" s="13"/>
+      <c r="C514" s="13"/>
+      <c r="D514" s="13"/>
+      <c r="E514" s="13"/>
+      <c r="F514" s="13"/>
+      <c r="G514" s="13"/>
+    </row>
+    <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A515" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B515" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C515" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D515" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E515" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F515" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A516" s="11" t="n">
+        <v>1.169E-005</v>
+      </c>
+      <c r="B516" s="11" t="n">
+        <v>0.0089262</v>
+      </c>
+      <c r="C516" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="D516" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A517" s="11" t="n">
+        <v>1.4089E-005</v>
+      </c>
+      <c r="B517" s="11" t="n">
+        <v>0.0015234</v>
+      </c>
+      <c r="C517" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="D517" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A518" s="11" t="n">
+        <v>1.8107E-005</v>
+      </c>
+      <c r="B518" s="11" t="n">
+        <v>0.5553683</v>
+      </c>
+      <c r="C518" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="D518" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A519" s="11" t="n">
+        <v>2.363E-005</v>
+      </c>
+      <c r="B519" s="11" t="n">
+        <v>0.0520492</v>
+      </c>
+      <c r="C519" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="D519" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A520" s="11" t="n">
+        <v>0.0001042</v>
+      </c>
+      <c r="B520" s="11" t="n">
+        <v>0.0697921</v>
+      </c>
+      <c r="C520" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="D520" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A521" s="11" t="n">
+        <v>0.00015067</v>
+      </c>
+      <c r="B521" s="11" t="n">
+        <v>0.0623434</v>
+      </c>
+      <c r="C521" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="D521" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A522" s="11" t="n">
+        <v>0.00020506</v>
+      </c>
+      <c r="B522" s="11" t="n">
+        <v>0.7336958</v>
+      </c>
+      <c r="C522" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="D522" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A523" s="11" t="n">
+        <v>0.00034951</v>
+      </c>
+      <c r="B523" s="11" t="n">
+        <v>0.3123063</v>
+      </c>
+      <c r="C523" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="D523" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A524" s="11" t="n">
+        <v>0.0003727</v>
+      </c>
+      <c r="B524" s="11" t="n">
+        <v>0.1619842</v>
+      </c>
+      <c r="C524" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="D524" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A525" s="11" t="n">
+        <v>0.00044525</v>
+      </c>
+      <c r="B525" s="11" t="n">
+        <v>0.0106163</v>
+      </c>
+      <c r="C525" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="D525" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A526" s="11" t="n">
+        <v>0.00054573</v>
+      </c>
+      <c r="B526" s="11" t="n">
+        <v>0.0043901</v>
+      </c>
+      <c r="C526" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="D526" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A527" s="11" t="n">
+        <v>0.00092296</v>
+      </c>
+      <c r="B527" s="11" t="n">
+        <v>0.5681399</v>
+      </c>
+      <c r="C527" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="D527" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A528" s="11" t="n">
+        <v>0.00099429</v>
+      </c>
+      <c r="B528" s="11" t="n">
+        <v>0.0030212</v>
+      </c>
+      <c r="C528" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="D528" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A529" s="11" t="n">
+        <v>0.0011866</v>
+      </c>
+      <c r="B529" s="11" t="n">
+        <v>0.1269318</v>
+      </c>
+      <c r="C529" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="D529" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A530" s="11" t="n">
+        <v>0.0014278</v>
+      </c>
+      <c r="B530" s="11" t="n">
+        <v>0.0553141</v>
+      </c>
+      <c r="C530" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="D530" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A531" s="11" t="n">
+        <v>0.0020741</v>
+      </c>
+      <c r="B531" s="11" t="n">
+        <v>0.0445031</v>
+      </c>
+      <c r="C531" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="D531" s="0" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A532" s="11" t="n">
+        <v>0.0029028</v>
+      </c>
+      <c r="B532" s="11" t="n">
+        <v>0.0127251</v>
+      </c>
+      <c r="C532" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="D532" s="0" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A533" s="11" t="n">
+        <v>0.0040751</v>
+      </c>
+      <c r="B533" s="11" t="n">
+        <v>0.0019656</v>
+      </c>
+      <c r="C533" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="D533" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E533" s="0" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="F533" s="0" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A534" s="11" t="n">
+        <v>0.0052367</v>
+      </c>
+      <c r="B534" s="11" t="n">
+        <v>0.0011963</v>
+      </c>
+      <c r="C534" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="D534" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E534" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F534" s="0" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A535" s="11" t="n">
+        <v>0.00822</v>
+      </c>
+      <c r="B535" s="11" t="n">
+        <v>0.0017011</v>
+      </c>
+      <c r="C535" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="D535" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E535" s="0" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="F535" s="0" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A537" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="B537" s="13"/>
+      <c r="C537" s="13"/>
+      <c r="D537" s="13"/>
+      <c r="E537" s="13"/>
+      <c r="F537" s="13"/>
+      <c r="G537" s="13"/>
+    </row>
+    <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A538" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B538" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C538" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D538" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E538" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F538" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G538" s="4"/>
+    </row>
+    <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A539" s="11" t="n">
+        <v>2.022E-005</v>
+      </c>
+      <c r="B539" s="11" t="n">
+        <v>0.1550242</v>
+      </c>
+      <c r="C539" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="D539" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A540" s="11" t="n">
+        <v>2.2628E-005</v>
+      </c>
+      <c r="B540" s="11" t="n">
+        <v>0.001751</v>
+      </c>
+      <c r="C540" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="D540" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A541" s="11" t="n">
+        <v>2.5671E-005</v>
+      </c>
+      <c r="B541" s="11" t="n">
+        <v>0.0016059</v>
+      </c>
+      <c r="C541" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="D541" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A542" s="11" t="n">
+        <v>4.1009E-005</v>
+      </c>
+      <c r="B542" s="11" t="n">
+        <v>0.0079769</v>
+      </c>
+      <c r="C542" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D542" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A543" s="11" t="n">
+        <v>5.1362E-005</v>
+      </c>
+      <c r="B543" s="11" t="n">
+        <v>0.2642545</v>
+      </c>
+      <c r="C543" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="D543" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A544" s="11" t="n">
+        <v>5.204E-005</v>
+      </c>
+      <c r="B544" s="11" t="n">
+        <v>0.8091169</v>
+      </c>
+      <c r="C544" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="D544" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A545" s="11" t="n">
+        <v>5.3496E-005</v>
+      </c>
+      <c r="B545" s="11" t="n">
+        <v>0.0633867</v>
+      </c>
+      <c r="C545" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="D545" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A546" s="11" t="n">
+        <v>9.3627E-005</v>
+      </c>
+      <c r="B546" s="11" t="n">
+        <v>0.0032802</v>
+      </c>
+      <c r="C546" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="D546" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A547" s="11" t="n">
+        <v>0.00019114</v>
+      </c>
+      <c r="B547" s="11" t="n">
+        <v>0.008914</v>
+      </c>
+      <c r="C547" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="D547" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A548" s="11" t="n">
+        <v>0.00036622</v>
+      </c>
+      <c r="B548" s="11" t="n">
+        <v>0.0052602</v>
+      </c>
+      <c r="C548" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="D548" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A549" s="11" t="n">
+        <v>0.00061699</v>
+      </c>
+      <c r="B549" s="11" t="n">
+        <v>0.6316548</v>
+      </c>
+      <c r="C549" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="D549" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A550" s="11" t="n">
+        <v>0.00068092</v>
+      </c>
+      <c r="B550" s="11" t="n">
+        <v>0.0193573</v>
+      </c>
+      <c r="C550" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="D550" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A551" s="11" t="n">
+        <v>0.00068623</v>
+      </c>
+      <c r="B551" s="11" t="n">
+        <v>0.0015879</v>
+      </c>
+      <c r="C551" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="D551" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A552" s="11" t="n">
+        <v>0.00081216</v>
+      </c>
+      <c r="B552" s="11" t="n">
+        <v>0.0437004</v>
+      </c>
+      <c r="C552" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="D552" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A553" s="11" t="n">
+        <v>0.001062</v>
+      </c>
+      <c r="B553" s="11" t="n">
+        <v>0.0033356</v>
+      </c>
+      <c r="C553" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="D553" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A554" s="11" t="n">
+        <v>0.0017452</v>
+      </c>
+      <c r="B554" s="11" t="n">
+        <v>0.0028573</v>
+      </c>
+      <c r="C554" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="D554" s="0" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A555" s="11" t="n">
+        <v>0.0029918</v>
+      </c>
+      <c r="B555" s="11" t="n">
+        <v>0.0570815</v>
+      </c>
+      <c r="C555" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="D555" s="0" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A556" s="11" t="n">
+        <v>0.0033841</v>
+      </c>
+      <c r="B556" s="11" t="n">
+        <v>0.0256605</v>
+      </c>
+      <c r="C556" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="D556" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E556" s="0" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="F556" s="0" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A557" s="11" t="n">
+        <v>0.0049189</v>
+      </c>
+      <c r="B557" s="11" t="n">
+        <v>0.0066357</v>
+      </c>
+      <c r="C557" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="D557" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E557" s="0" t="n">
+        <v>0.072</v>
+      </c>
+      <c r="F557" s="0" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A558" s="11" t="n">
+        <v>0.008357</v>
+      </c>
+      <c r="B558" s="11" t="n">
+        <v>0.0626824</v>
+      </c>
+      <c r="C558" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="D558" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E558" s="0" t="n">
+        <v>0.071</v>
+      </c>
+      <c r="F558" s="0" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A560" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="B560" s="13"/>
+      <c r="C560" s="13"/>
+      <c r="D560" s="13"/>
+      <c r="E560" s="13"/>
+      <c r="F560" s="13"/>
+      <c r="G560" s="13"/>
+    </row>
+    <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A561" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B561" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C561" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D561" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E561" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F561" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G561" s="4"/>
+    </row>
+    <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A562" s="11" t="n">
+        <v>1.1974E-005</v>
+      </c>
+      <c r="B562" s="11" t="n">
+        <v>0.8034868</v>
+      </c>
+      <c r="C562" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="D562" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A563" s="11" t="n">
+        <v>1.3593E-005</v>
+      </c>
+      <c r="B563" s="11" t="n">
+        <v>0.0631875</v>
+      </c>
+      <c r="C563" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="D563" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A564" s="11" t="n">
+        <v>2.4974E-005</v>
+      </c>
+      <c r="B564" s="11" t="n">
+        <v>0.0832902</v>
+      </c>
+      <c r="C564" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="D564" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A565" s="11" t="n">
+        <v>3.6482E-005</v>
+      </c>
+      <c r="B565" s="11" t="n">
+        <v>0.0013965</v>
+      </c>
+      <c r="C565" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="D565" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A566" s="11" t="n">
+        <v>6.1263E-005</v>
+      </c>
+      <c r="B566" s="11" t="n">
+        <v>0.7930285</v>
+      </c>
+      <c r="C566" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="D566" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A567" s="11" t="n">
+        <v>9.0421E-005</v>
+      </c>
+      <c r="B567" s="11" t="n">
+        <v>0.8374195</v>
+      </c>
+      <c r="C567" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="D567" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A568" s="11" t="n">
+        <v>9.7136E-005</v>
+      </c>
+      <c r="B568" s="11" t="n">
+        <v>0.3480775</v>
+      </c>
+      <c r="C568" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="D568" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A569" s="11" t="n">
+        <v>0.00012183</v>
+      </c>
+      <c r="B569" s="11" t="n">
+        <v>0.0086159</v>
+      </c>
+      <c r="C569" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="D569" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A570" s="11" t="n">
+        <v>0.0001276</v>
+      </c>
+      <c r="B570" s="11" t="n">
+        <v>0.0252616</v>
+      </c>
+      <c r="C570" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="D570" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A571" s="11" t="n">
+        <v>0.00013644</v>
+      </c>
+      <c r="B571" s="11" t="n">
+        <v>0.1866638</v>
+      </c>
+      <c r="C571" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="D571" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A572" s="11" t="n">
+        <v>0.00026674</v>
+      </c>
+      <c r="B572" s="11" t="n">
+        <v>0.0056232</v>
+      </c>
+      <c r="C572" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="D572" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A573" s="11" t="n">
+        <v>0.00029883</v>
+      </c>
+      <c r="B573" s="11" t="n">
+        <v>0.0288742</v>
+      </c>
+      <c r="C573" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="D573" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A574" s="11" t="n">
+        <v>0.0004866</v>
+      </c>
+      <c r="B574" s="11" t="n">
+        <v>0.1482461</v>
+      </c>
+      <c r="C574" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="D574" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A575" s="11" t="n">
+        <v>0.00051564</v>
+      </c>
+      <c r="B575" s="11" t="n">
+        <v>0.0964185</v>
+      </c>
+      <c r="C575" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="D575" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A576" s="11" t="n">
+        <v>0.00069454</v>
+      </c>
+      <c r="B576" s="11" t="n">
+        <v>0.0056318</v>
+      </c>
+      <c r="C576" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="D576" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A577" s="11" t="n">
+        <v>0.0011851</v>
+      </c>
+      <c r="B577" s="11" t="n">
+        <v>0.0295227</v>
+      </c>
+      <c r="C577" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="D577" s="0" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A578" s="11" t="n">
+        <v>0.0012842</v>
+      </c>
+      <c r="B578" s="11" t="n">
+        <v>0.1085323</v>
+      </c>
+      <c r="C578" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="D578" s="0" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A579" s="11" t="n">
+        <v>0.0027521</v>
+      </c>
+      <c r="B579" s="11" t="n">
+        <v>0.0084986</v>
+      </c>
+      <c r="C579" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="D579" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E579" s="0" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F579" s="0" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A580" s="11" t="n">
+        <v>0.009611</v>
+      </c>
+      <c r="B580" s="11" t="n">
+        <v>0.0384803</v>
+      </c>
+      <c r="C580" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="D580" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E580" s="0" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="F580" s="0" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A581" s="11" t="n">
+        <v>0.0098824</v>
+      </c>
+      <c r="B581" s="11" t="n">
+        <v>0.0174164</v>
+      </c>
+      <c r="C581" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="D581" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E581" s="0" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="F581" s="0" t="s">
+        <v>366</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="32">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A41:K41"/>
@@ -10921,6 +12986,10 @@
     <mergeCell ref="A455:G455"/>
     <mergeCell ref="A463:G463"/>
     <mergeCell ref="A468:G468"/>
+    <mergeCell ref="A491:G491"/>
+    <mergeCell ref="A514:G514"/>
+    <mergeCell ref="A537:G537"/>
+    <mergeCell ref="A560:G560"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/experiments/hyperparameters/hyperparemeter_search.xlsx
+++ b/experiments/hyperparameters/hyperparemeter_search.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="88" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="44" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="540">
   <si>
     <t>EXPERIMENT 2</t>
   </si>
@@ -428,7 +428,7 @@
     <t>run86</t>
   </si>
   <si>
-    <t>high threshold </t>
+    <t>high threshold</t>
   </si>
   <si>
     <t>run87</t>
@@ -1154,33 +1154,33 @@
     <t>run301</t>
   </si>
   <si>
+    <t>run303</t>
+  </si>
+  <si>
+    <t>run312</t>
+  </si>
+  <si>
+    <t>run308</t>
+  </si>
+  <si>
+    <t>run305</t>
+  </si>
+  <si>
+    <t>run309</t>
+  </si>
+  <si>
+    <t>run310</t>
+  </si>
+  <si>
+    <t>run311</t>
+  </si>
+  <si>
+    <t>run307</t>
+  </si>
+  <si>
     <t>run302</t>
   </si>
   <si>
-    <t>run303</t>
-  </si>
-  <si>
-    <t>run312</t>
-  </si>
-  <si>
-    <t>run308</t>
-  </si>
-  <si>
-    <t>run305</t>
-  </si>
-  <si>
-    <t>run309</t>
-  </si>
-  <si>
-    <t>run310</t>
-  </si>
-  <si>
-    <t>run311</t>
-  </si>
-  <si>
-    <t>run307</t>
-  </si>
-  <si>
     <t>run313</t>
   </si>
   <si>
@@ -1295,6 +1295,9 @@
     <t>run348</t>
   </si>
   <si>
+    <t>Test sensitivity at 1 FP</t>
+  </si>
+  <si>
     <t>run349</t>
   </si>
   <si>
@@ -1328,39 +1331,39 @@
     <t>run356</t>
   </si>
   <si>
+    <t>run362</t>
+  </si>
+  <si>
+    <t>run367</t>
+  </si>
+  <si>
+    <t>run363</t>
+  </si>
+  <si>
+    <t>run359</t>
+  </si>
+  <si>
+    <t>run366</t>
+  </si>
+  <si>
+    <t>run358</t>
+  </si>
+  <si>
+    <t>run361</t>
+  </si>
+  <si>
+    <t>run364</t>
+  </si>
+  <si>
+    <t>run360</t>
+  </si>
+  <si>
+    <t>run365</t>
+  </si>
+  <si>
     <t>run357</t>
   </si>
   <si>
-    <t>run358</t>
-  </si>
-  <si>
-    <t>run359</t>
-  </si>
-  <si>
-    <t>run360</t>
-  </si>
-  <si>
-    <t>run361</t>
-  </si>
-  <si>
-    <t>run362</t>
-  </si>
-  <si>
-    <t>run363</t>
-  </si>
-  <si>
-    <t>run364</t>
-  </si>
-  <si>
-    <t>run365</t>
-  </si>
-  <si>
-    <t>run366</t>
-  </si>
-  <si>
-    <t>run367</t>
-  </si>
-  <si>
     <t>run368</t>
   </si>
   <si>
@@ -1445,36 +1448,36 @@
     <t>run395</t>
   </si>
   <si>
+    <t>run404</t>
+  </si>
+  <si>
+    <t>run403</t>
+  </si>
+  <si>
+    <t>run397</t>
+  </si>
+  <si>
+    <t>run399</t>
+  </si>
+  <si>
+    <t>run398</t>
+  </si>
+  <si>
+    <t>run402</t>
+  </si>
+  <si>
+    <t>run401</t>
+  </si>
+  <si>
     <t>run396</t>
   </si>
   <si>
-    <t>run397</t>
-  </si>
-  <si>
-    <t>run398</t>
-  </si>
-  <si>
-    <t>run399</t>
+    <t>run405</t>
   </si>
   <si>
     <t>run400</t>
   </si>
   <si>
-    <t>run401</t>
-  </si>
-  <si>
-    <t>run402</t>
-  </si>
-  <si>
-    <t>run403</t>
-  </si>
-  <si>
-    <t>run404</t>
-  </si>
-  <si>
-    <t>run405</t>
-  </si>
-  <si>
     <t>run406</t>
   </si>
   <si>
@@ -1592,24 +1595,24 @@
     <t>run444</t>
   </si>
   <si>
+    <t>run448</t>
+  </si>
+  <si>
     <t>run445</t>
   </si>
   <si>
+    <t>run449</t>
+  </si>
+  <si>
+    <t>run447</t>
+  </si>
+  <si>
+    <t>run450</t>
+  </si>
+  <si>
     <t>run446</t>
   </si>
   <si>
-    <t>run447</t>
-  </si>
-  <si>
-    <t>run448</t>
-  </si>
-  <si>
-    <t>run449</t>
-  </si>
-  <si>
-    <t>run450</t>
-  </si>
-  <si>
     <t>run451</t>
   </si>
   <si>
@@ -1617,6 +1620,21 @@
   </si>
   <si>
     <t>run453</t>
+  </si>
+  <si>
+    <t>run454</t>
+  </si>
+  <si>
+    <t>run455</t>
+  </si>
+  <si>
+    <t>run456</t>
+  </si>
+  <si>
+    <t>run457</t>
+  </si>
+  <si>
+    <t>run458</t>
   </si>
 </sst>
 </file>
@@ -1710,7 +1728,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1751,19 +1769,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1784,10 +1794,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K581"/>
+  <dimension ref="A1:K589"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A560" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F582" activeCellId="0" sqref="F582"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A296" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E305" activeCellId="0" sqref="E305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1796,7 +1806,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6071428571429"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.91836734693878"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.02551020408163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1071428571429"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3724489795918"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.02551020408163"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.030612244898"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.49489795918367"/>
@@ -1902,7 +1912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
         <v>1.19358138232734E-005</v>
       </c>
@@ -2004,7 +2014,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="n">
         <v>2.6397912198931E-005</v>
       </c>
@@ -2014,25 +2024,25 @@
       <c r="C8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="10" t="n">
+      <c r="D8" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E8" s="10" t="n">
+      <c r="E8" s="0" t="n">
         <v>0.238</v>
       </c>
-      <c r="F8" s="10" t="n">
+      <c r="F8" s="0" t="n">
         <v>0.13</v>
       </c>
-      <c r="G8" s="10" t="n">
+      <c r="G8" s="0" t="n">
         <v>0.46</v>
       </c>
-      <c r="H8" s="10" t="n">
+      <c r="H8" s="0" t="n">
         <v>0.194</v>
       </c>
-      <c r="I8" s="10" t="n">
+      <c r="I8" s="0" t="n">
         <v>0.42</v>
       </c>
-      <c r="J8" s="10" t="n">
+      <c r="J8" s="0" t="n">
         <v>0.195</v>
       </c>
     </row>
@@ -2412,7 +2422,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="n">
         <v>0.016660915322018</v>
       </c>
@@ -2444,7 +2454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="n">
         <v>0.018650034994404</v>
       </c>
@@ -2476,7 +2486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="n">
         <v>0.0319706958722551</v>
       </c>
@@ -2511,7 +2521,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="n">
         <v>0.0360289660823857</v>
       </c>
@@ -2546,7 +2556,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="n">
         <v>0.0403046300955655</v>
       </c>
@@ -2578,7 +2588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="n">
         <v>0.0416438856969318</v>
       </c>
@@ -2610,7 +2620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="n">
         <v>0.0477143127548959</v>
       </c>
@@ -2645,7 +2655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="n">
         <v>0.118196472380363</v>
       </c>
@@ -2680,7 +2690,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="n">
         <v>0.166692376976655</v>
       </c>
@@ -2715,7 +2725,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="n">
         <v>0.195167576000051</v>
       </c>
@@ -2747,7 +2757,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="n">
         <v>0.20916180975068</v>
       </c>
@@ -2764,7 +2774,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="n">
         <v>0.234207591842348</v>
       </c>
@@ -2781,7 +2791,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="n">
         <v>0.282505929083114</v>
       </c>
@@ -2798,7 +2808,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="n">
         <v>0.58494141274888</v>
       </c>
@@ -3023,7 +3033,7 @@
         <v>0.14</v>
       </c>
     </row>
-    <row r="47" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="n">
         <v>1.82479140350789E-006</v>
       </c>
@@ -3033,29 +3043,29 @@
       <c r="C47" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="10" t="n">
+      <c r="D47" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E47" s="10" t="n">
+      <c r="E47" s="0" t="n">
         <v>0.331</v>
       </c>
-      <c r="F47" s="10" t="n">
+      <c r="F47" s="0" t="n">
         <v>0.246</v>
       </c>
-      <c r="G47" s="10" t="n">
+      <c r="G47" s="0" t="n">
         <v>0.62</v>
       </c>
-      <c r="H47" s="10" t="n">
+      <c r="H47" s="0" t="n">
         <v>0.317</v>
       </c>
-      <c r="I47" s="10" t="n">
+      <c r="I47" s="0" t="n">
         <v>0.62</v>
       </c>
-      <c r="J47" s="10" t="n">
+      <c r="J47" s="0" t="n">
         <v>0.16</v>
       </c>
     </row>
-    <row r="48" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="n">
         <v>2.14933836088716E-006</v>
       </c>
@@ -3065,29 +3075,29 @@
       <c r="C48" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="10" t="n">
+      <c r="D48" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E48" s="10" t="n">
+      <c r="E48" s="0" t="n">
         <v>0.226</v>
       </c>
-      <c r="F48" s="10" t="n">
+      <c r="F48" s="0" t="n">
         <v>0.262</v>
       </c>
-      <c r="G48" s="10" t="n">
+      <c r="G48" s="0" t="n">
         <v>0.75</v>
       </c>
-      <c r="H48" s="10" t="n">
+      <c r="H48" s="0" t="n">
         <v>0.301</v>
       </c>
-      <c r="I48" s="10" t="n">
+      <c r="I48" s="0" t="n">
         <v>0.71</v>
       </c>
-      <c r="J48" s="10" t="n">
+      <c r="J48" s="0" t="n">
         <v>0.16</v>
       </c>
     </row>
-    <row r="49" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="n">
         <v>2.22305235306986E-006</v>
       </c>
@@ -3097,29 +3107,29 @@
       <c r="C49" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D49" s="10" t="n">
+      <c r="D49" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E49" s="10" t="n">
+      <c r="E49" s="0" t="n">
         <v>0.334</v>
       </c>
-      <c r="F49" s="10" t="n">
+      <c r="F49" s="0" t="n">
         <v>0.292</v>
       </c>
-      <c r="G49" s="10" t="n">
+      <c r="G49" s="0" t="n">
         <v>0.79</v>
       </c>
-      <c r="H49" s="10" t="n">
+      <c r="H49" s="0" t="n">
         <v>0.362</v>
       </c>
-      <c r="I49" s="10" t="n">
+      <c r="I49" s="0" t="n">
         <v>0.79</v>
       </c>
-      <c r="J49" s="10" t="n">
+      <c r="J49" s="0" t="n">
         <v>0.187</v>
       </c>
     </row>
-    <row r="50" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="n">
         <v>3.14614768104022E-006</v>
       </c>
@@ -3129,29 +3139,29 @@
       <c r="C50" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D50" s="10" t="n">
+      <c r="D50" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E50" s="10" t="n">
+      <c r="E50" s="0" t="n">
         <v>0.313</v>
       </c>
-      <c r="F50" s="10" t="n">
+      <c r="F50" s="0" t="n">
         <v>0.275</v>
       </c>
-      <c r="G50" s="10" t="n">
+      <c r="G50" s="0" t="n">
         <v>0.71</v>
       </c>
-      <c r="H50" s="10" t="n">
+      <c r="H50" s="0" t="n">
         <v>0.32</v>
       </c>
-      <c r="I50" s="10" t="n">
+      <c r="I50" s="0" t="n">
         <v>0.71</v>
       </c>
-      <c r="J50" s="10" t="n">
+      <c r="J50" s="0" t="n">
         <v>0.187</v>
       </c>
     </row>
-    <row r="51" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="n">
         <v>3.57454702108591E-006</v>
       </c>
@@ -3161,29 +3171,29 @@
       <c r="C51" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D51" s="10" t="n">
+      <c r="D51" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E51" s="10" t="n">
+      <c r="E51" s="0" t="n">
         <v>0.355</v>
       </c>
-      <c r="F51" s="10" t="n">
+      <c r="F51" s="0" t="n">
         <v>0.266</v>
       </c>
-      <c r="G51" s="10" t="n">
+      <c r="G51" s="0" t="n">
         <v>0.71</v>
       </c>
-      <c r="H51" s="10" t="n">
+      <c r="H51" s="0" t="n">
         <v>0.351</v>
       </c>
-      <c r="I51" s="10" t="n">
+      <c r="I51" s="0" t="n">
         <v>0.71</v>
       </c>
-      <c r="J51" s="10" t="n">
+      <c r="J51" s="0" t="n">
         <v>0.16</v>
       </c>
     </row>
-    <row r="52" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="n">
         <v>7.23258635944392E-006</v>
       </c>
@@ -3193,29 +3203,29 @@
       <c r="C52" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D52" s="10" t="n">
+      <c r="D52" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E52" s="10" t="n">
+      <c r="E52" s="0" t="n">
         <v>0.294</v>
       </c>
-      <c r="F52" s="10" t="n">
+      <c r="F52" s="0" t="n">
         <v>0.283</v>
       </c>
-      <c r="G52" s="10" t="n">
+      <c r="G52" s="0" t="n">
         <v>0.62</v>
       </c>
-      <c r="H52" s="10" t="n">
+      <c r="H52" s="0" t="n">
         <v>0.343</v>
       </c>
-      <c r="I52" s="10" t="n">
+      <c r="I52" s="0" t="n">
         <v>0.62</v>
       </c>
-      <c r="J52" s="10" t="n">
+      <c r="J52" s="0" t="n">
         <v>0.19</v>
       </c>
     </row>
-    <row r="53" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="n">
         <v>1.03198644329961E-005</v>
       </c>
@@ -3225,29 +3235,29 @@
       <c r="C53" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D53" s="10" t="n">
+      <c r="D53" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E53" s="10" t="n">
+      <c r="E53" s="0" t="n">
         <v>0.242</v>
       </c>
-      <c r="F53" s="10" t="n">
+      <c r="F53" s="0" t="n">
         <v>0.244</v>
       </c>
-      <c r="G53" s="10" t="n">
+      <c r="G53" s="0" t="n">
         <v>0.58</v>
       </c>
-      <c r="H53" s="10" t="n">
+      <c r="H53" s="0" t="n">
         <v>0.279</v>
       </c>
-      <c r="I53" s="10" t="n">
+      <c r="I53" s="0" t="n">
         <v>0.54</v>
       </c>
-      <c r="J53" s="10" t="n">
+      <c r="J53" s="0" t="n">
         <v>0.194</v>
       </c>
     </row>
-    <row r="54" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9" t="n">
         <v>1.2500112144408E-005</v>
       </c>
@@ -3257,25 +3267,25 @@
       <c r="C54" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D54" s="10" t="n">
+      <c r="D54" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E54" s="10" t="n">
+      <c r="E54" s="0" t="n">
         <v>0.209</v>
       </c>
-      <c r="F54" s="10" t="n">
+      <c r="F54" s="0" t="n">
         <v>0.259</v>
       </c>
-      <c r="G54" s="10" t="n">
+      <c r="G54" s="0" t="n">
         <v>0.58</v>
       </c>
-      <c r="H54" s="10" t="n">
+      <c r="H54" s="0" t="n">
         <v>0.298</v>
       </c>
-      <c r="I54" s="10" t="n">
+      <c r="I54" s="0" t="n">
         <v>0.58</v>
       </c>
-      <c r="J54" s="10" t="n">
+      <c r="J54" s="0" t="n">
         <v>0.194</v>
       </c>
     </row>
@@ -3346,7 +3356,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="9" t="n">
         <v>1.95353806753189E-005</v>
       </c>
@@ -3356,29 +3366,29 @@
       <c r="C57" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D57" s="10" t="n">
+      <c r="D57" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E57" s="10" t="n">
+      <c r="E57" s="0" t="n">
         <v>0.196</v>
       </c>
-      <c r="F57" s="10" t="n">
+      <c r="F57" s="0" t="n">
         <v>0.111</v>
       </c>
-      <c r="G57" s="10" t="n">
+      <c r="G57" s="0" t="n">
         <v>0.33</v>
       </c>
-      <c r="H57" s="10" t="n">
+      <c r="H57" s="0" t="n">
         <v>0.176</v>
       </c>
-      <c r="I57" s="10" t="n">
+      <c r="I57" s="0" t="n">
         <v>0.29</v>
       </c>
-      <c r="J57" s="10" t="n">
+      <c r="J57" s="0" t="n">
         <v>0.04</v>
       </c>
     </row>
-    <row r="58" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="9" t="n">
         <v>2.6397912198931E-005</v>
       </c>
@@ -3388,25 +3398,25 @@
       <c r="C58" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="10" t="n">
+      <c r="D58" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E58" s="10" t="n">
+      <c r="E58" s="0" t="n">
         <v>0.238</v>
       </c>
-      <c r="F58" s="10" t="n">
+      <c r="F58" s="0" t="n">
         <v>0.13</v>
       </c>
-      <c r="G58" s="10" t="n">
+      <c r="G58" s="0" t="n">
         <v>0.46</v>
       </c>
-      <c r="H58" s="10" t="n">
+      <c r="H58" s="0" t="n">
         <v>0.194</v>
       </c>
-      <c r="I58" s="10" t="n">
+      <c r="I58" s="0" t="n">
         <v>0.42</v>
       </c>
-      <c r="J58" s="10" t="n">
+      <c r="J58" s="0" t="n">
         <v>0.195</v>
       </c>
     </row>
@@ -4074,10 +4084,10 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="11" t="n">
+      <c r="A85" s="9" t="n">
         <v>0.0001</v>
       </c>
-      <c r="B85" s="11" t="n">
+      <c r="B85" s="9" t="n">
         <v>0.003</v>
       </c>
       <c r="K85" s="0" t="s">
@@ -4149,43 +4159,43 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="9" t="n">
         <v>2.37212430659094E-006</v>
       </c>
       <c r="B90" s="9" t="n">
         <v>0.000153030184042259</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C90" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="D90" s="10" t="n">
+      <c r="D90" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E90" s="10" t="n">
+      <c r="E90" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="F90" s="10" t="n">
+      <c r="F90" s="0" t="n">
         <v>0.262</v>
       </c>
-      <c r="G90" s="10" t="n">
+      <c r="G90" s="0" t="n">
         <v>0.92</v>
       </c>
-      <c r="H90" s="10" t="n">
+      <c r="H90" s="0" t="n">
         <v>0.338</v>
       </c>
-      <c r="I90" s="10" t="n">
+      <c r="I90" s="0" t="n">
         <v>0.87</v>
       </c>
-      <c r="J90" s="10" t="n">
+      <c r="J90" s="0" t="n">
         <v>0.22</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="11" t="n">
+      <c r="A91" s="9" t="n">
         <v>2.92658784954665E-006</v>
       </c>
-      <c r="B91" s="11" t="n">
+      <c r="B91" s="9" t="n">
         <v>0.613281671174882</v>
       </c>
       <c r="C91" s="0" t="s">
@@ -4214,10 +4224,10 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="11" t="n">
+      <c r="A92" s="9" t="n">
         <v>3.11925888328523E-006</v>
       </c>
-      <c r="B92" s="11" t="n">
+      <c r="B92" s="9" t="n">
         <v>0.00083424047044789</v>
       </c>
       <c r="C92" s="0" t="s">
@@ -4245,35 +4255,35 @@
         <v>0.134</v>
       </c>
     </row>
-    <row r="93" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="9" t="n">
         <v>4.64086009894884E-006</v>
       </c>
       <c r="B93" s="9" t="n">
         <v>0.00145975149652255</v>
       </c>
-      <c r="C93" s="10" t="s">
+      <c r="C93" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="D93" s="10" t="n">
+      <c r="D93" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E93" s="10" t="n">
+      <c r="E93" s="0" t="n">
         <v>0.039</v>
       </c>
-      <c r="F93" s="10" t="n">
+      <c r="F93" s="0" t="n">
         <v>0.319</v>
       </c>
-      <c r="G93" s="10" t="n">
+      <c r="G93" s="0" t="n">
         <v>0.75</v>
       </c>
-      <c r="H93" s="10" t="n">
+      <c r="H93" s="0" t="n">
         <v>0.364</v>
       </c>
-      <c r="I93" s="10" t="n">
+      <c r="I93" s="0" t="n">
         <v>0.71</v>
       </c>
-      <c r="J93" s="10" t="n">
+      <c r="J93" s="0" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -4717,7 +4727,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="107" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="n">
         <v>0.0158543493861949</v>
       </c>
@@ -4752,7 +4762,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="108" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="n">
         <v>0.0180511461759123</v>
       </c>
@@ -4787,7 +4797,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="109" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="n">
         <v>0.0193203812430167</v>
       </c>
@@ -4822,7 +4832,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="110" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="n">
         <v>0.0222714925955284</v>
       </c>
@@ -4857,7 +4867,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="111" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="n">
         <v>0.0269112799731758</v>
       </c>
@@ -4892,7 +4902,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="n">
         <v>0.0377989110124175</v>
       </c>
@@ -4927,7 +4937,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="113" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="n">
         <v>0.0387401858288901</v>
       </c>
@@ -4962,7 +4972,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="114" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="n">
         <v>0.0459692784925322</v>
       </c>
@@ -4997,7 +5007,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="115" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="n">
         <v>0.0474653008731745</v>
       </c>
@@ -5032,7 +5042,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="116" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="n">
         <v>0.0603076215584433</v>
       </c>
@@ -5067,7 +5077,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="117" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="n">
         <v>0.0634249901948429</v>
       </c>
@@ -5102,7 +5112,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="118" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="n">
         <v>0.0678888345825249</v>
       </c>
@@ -5137,7 +5147,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="119" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="n">
         <v>0.0861665111475394</v>
       </c>
@@ -5317,10 +5327,10 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="11" t="n">
+      <c r="A129" s="9" t="n">
         <v>2E-005</v>
       </c>
-      <c r="B129" s="11" t="n">
+      <c r="B129" s="9" t="n">
         <v>0.0003</v>
       </c>
       <c r="K129" s="0" t="s">
@@ -5520,7 +5530,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="140" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="5" t="n">
         <v>3.5554E-006</v>
       </c>
@@ -5555,35 +5565,35 @@
         <v>137</v>
       </c>
     </row>
-    <row r="141" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="9" t="n">
         <v>1.1537E-005</v>
       </c>
       <c r="B141" s="9" t="n">
         <v>0.2741</v>
       </c>
-      <c r="C141" s="10" t="s">
+      <c r="C141" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="D141" s="10" t="n">
+      <c r="D141" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E141" s="10" t="n">
+      <c r="E141" s="0" t="n">
         <v>0.04</v>
       </c>
-      <c r="F141" s="10" t="n">
+      <c r="F141" s="0" t="n">
         <v>0.211</v>
       </c>
-      <c r="G141" s="10" t="n">
+      <c r="G141" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="H141" s="10" t="n">
+      <c r="H141" s="0" t="n">
         <v>0.255</v>
       </c>
-      <c r="I141" s="10" t="n">
+      <c r="I141" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="J141" s="10" t="n">
+      <c r="J141" s="0" t="n">
         <v>0.225</v>
       </c>
     </row>
@@ -5619,7 +5629,7 @@
         <v>0.095</v>
       </c>
     </row>
-    <row r="143" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="5" t="n">
         <v>1.3078E-005</v>
       </c>
@@ -5654,35 +5664,35 @@
         <v>137</v>
       </c>
     </row>
-    <row r="144" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="9" t="n">
         <v>1.6275E-005</v>
       </c>
       <c r="B144" s="9" t="n">
         <v>7.581E-005</v>
       </c>
-      <c r="C144" s="10" t="s">
+      <c r="C144" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="D144" s="10" t="n">
+      <c r="D144" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E144" s="10" t="n">
+      <c r="E144" s="0" t="n">
         <v>0.032</v>
       </c>
-      <c r="F144" s="10" t="n">
+      <c r="F144" s="0" t="n">
         <v>0.317</v>
       </c>
-      <c r="G144" s="10" t="n">
+      <c r="G144" s="0" t="n">
         <v>0.92</v>
       </c>
-      <c r="H144" s="10" t="n">
+      <c r="H144" s="0" t="n">
         <v>0.376</v>
       </c>
-      <c r="I144" s="10" t="n">
+      <c r="I144" s="0" t="n">
         <v>0.92</v>
       </c>
-      <c r="J144" s="10" t="n">
+      <c r="J144" s="0" t="n">
         <v>0.134</v>
       </c>
     </row>
@@ -5750,99 +5760,99 @@
         <v>0.093</v>
       </c>
     </row>
-    <row r="147" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="9" t="n">
         <v>2.2684E-005</v>
       </c>
       <c r="B147" s="9" t="n">
         <v>0.0007946</v>
       </c>
-      <c r="C147" s="10" t="s">
+      <c r="C147" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="D147" s="10" t="n">
+      <c r="D147" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E147" s="10" t="n">
+      <c r="E147" s="0" t="n">
         <v>0.026</v>
       </c>
-      <c r="F147" s="10" t="n">
+      <c r="F147" s="0" t="n">
         <v>0.321</v>
       </c>
-      <c r="G147" s="10" t="n">
+      <c r="G147" s="0" t="n">
         <v>0.87</v>
       </c>
-      <c r="H147" s="10" t="n">
+      <c r="H147" s="0" t="n">
         <v>0.368</v>
       </c>
-      <c r="I147" s="10" t="n">
+      <c r="I147" s="0" t="n">
         <v>0.83</v>
       </c>
-      <c r="J147" s="10" t="n">
+      <c r="J147" s="0" t="n">
         <v>0.16</v>
       </c>
     </row>
-    <row r="148" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="9" t="n">
         <v>3.361E-005</v>
       </c>
       <c r="B148" s="9" t="n">
         <v>0.00052887</v>
       </c>
-      <c r="C148" s="10" t="s">
+      <c r="C148" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="D148" s="10" t="n">
+      <c r="D148" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E148" s="10" t="n">
+      <c r="E148" s="0" t="n">
         <v>0.026</v>
       </c>
-      <c r="F148" s="10" t="n">
+      <c r="F148" s="0" t="n">
         <v>0.323</v>
       </c>
-      <c r="G148" s="10" t="n">
+      <c r="G148" s="0" t="n">
         <v>0.79</v>
       </c>
-      <c r="H148" s="10" t="n">
+      <c r="H148" s="0" t="n">
         <v>0.378</v>
       </c>
-      <c r="I148" s="10" t="n">
+      <c r="I148" s="0" t="n">
         <v>0.79</v>
       </c>
-      <c r="J148" s="10" t="n">
+      <c r="J148" s="0" t="n">
         <v>0.185</v>
       </c>
     </row>
-    <row r="149" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="9" t="n">
         <v>3.8006E-005</v>
       </c>
       <c r="B149" s="9" t="n">
         <v>0.00048127</v>
       </c>
-      <c r="C149" s="10" t="s">
+      <c r="C149" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="D149" s="10" t="n">
+      <c r="D149" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E149" s="10" t="n">
+      <c r="E149" s="0" t="n">
         <v>0.027</v>
       </c>
-      <c r="F149" s="10" t="n">
+      <c r="F149" s="0" t="n">
         <v>0.334</v>
       </c>
-      <c r="G149" s="10" t="n">
+      <c r="G149" s="0" t="n">
         <v>0.83</v>
       </c>
-      <c r="H149" s="10" t="n">
+      <c r="H149" s="0" t="n">
         <v>0.387</v>
       </c>
-      <c r="I149" s="10" t="n">
+      <c r="I149" s="0" t="n">
         <v>0.83</v>
       </c>
-      <c r="J149" s="10" t="n">
+      <c r="J149" s="0" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -6044,35 +6054,35 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="156" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="9" t="n">
         <v>0.00025927</v>
       </c>
       <c r="B156" s="9" t="n">
         <v>0.00014377</v>
       </c>
-      <c r="C156" s="10" t="s">
+      <c r="C156" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="D156" s="10" t="n">
+      <c r="D156" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E156" s="10" t="n">
+      <c r="E156" s="0" t="n">
         <v>0.036</v>
       </c>
-      <c r="F156" s="10" t="n">
+      <c r="F156" s="0" t="n">
         <v>0.105</v>
       </c>
-      <c r="G156" s="10" t="n">
+      <c r="G156" s="0" t="n">
         <v>0.21</v>
       </c>
-      <c r="H156" s="10" t="n">
+      <c r="H156" s="0" t="n">
         <v>0.16</v>
       </c>
-      <c r="I156" s="10" t="n">
+      <c r="I156" s="0" t="n">
         <v>0.21</v>
       </c>
-      <c r="J156" s="10" t="n">
+      <c r="J156" s="0" t="n">
         <v>0.282</v>
       </c>
     </row>
@@ -6178,35 +6188,35 @@
         <v>98</v>
       </c>
     </row>
-    <row r="160" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="9" t="n">
         <v>0.0016262</v>
       </c>
       <c r="B160" s="9" t="n">
         <v>2.8017E-005</v>
       </c>
-      <c r="C160" s="10" t="s">
+      <c r="C160" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="D160" s="10" t="n">
+      <c r="D160" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E160" s="10" t="n">
+      <c r="E160" s="0" t="n">
         <v>0.035</v>
       </c>
-      <c r="F160" s="10" t="n">
+      <c r="F160" s="0" t="n">
         <v>0.111</v>
       </c>
-      <c r="G160" s="10" t="n">
+      <c r="G160" s="0" t="n">
         <v>0.13</v>
       </c>
-      <c r="H160" s="10" t="n">
+      <c r="H160" s="0" t="n">
         <v>0.168</v>
       </c>
-      <c r="I160" s="10" t="n">
+      <c r="I160" s="0" t="n">
         <v>0.08</v>
       </c>
-      <c r="J160" s="10" t="n">
+      <c r="J160" s="0" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -6277,38 +6287,38 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="163" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="9" t="n">
         <v>0.0021531</v>
       </c>
       <c r="B163" s="9" t="n">
         <v>0.0044713</v>
       </c>
-      <c r="C163" s="10" t="s">
+      <c r="C163" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="D163" s="10" t="n">
+      <c r="D163" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E163" s="10" t="n">
+      <c r="E163" s="0" t="n">
         <v>0.129</v>
       </c>
-      <c r="F163" s="10" t="n">
+      <c r="F163" s="0" t="n">
         <v>0.031</v>
       </c>
-      <c r="G163" s="10" t="n">
+      <c r="G163" s="0" t="n">
         <v>0.08</v>
       </c>
-      <c r="H163" s="10" t="n">
+      <c r="H163" s="0" t="n">
         <v>0.038</v>
       </c>
-      <c r="I163" s="10" t="n">
+      <c r="I163" s="0" t="n">
         <v>0.04</v>
       </c>
-      <c r="J163" s="10" t="n">
+      <c r="J163" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="K163" s="10" t="s">
+      <c r="K163" s="0" t="s">
         <v>161</v>
       </c>
     </row>
@@ -6637,15 +6647,15 @@
       </c>
     </row>
     <row r="180" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="12" t="s">
+      <c r="A180" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B180" s="12"/>
-      <c r="C180" s="12"/>
-      <c r="D180" s="12"/>
-      <c r="E180" s="12"/>
-      <c r="F180" s="12"/>
-      <c r="G180" s="12"/>
+      <c r="B180" s="10"/>
+      <c r="C180" s="10"/>
+      <c r="D180" s="10"/>
+      <c r="E180" s="10"/>
+      <c r="F180" s="10"/>
+      <c r="G180" s="10"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
       <c r="J180" s="1"/>
@@ -6676,15 +6686,15 @@
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="13" t="s">
+      <c r="A185" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="B185" s="13"/>
-      <c r="C185" s="13"/>
-      <c r="D185" s="13"/>
-      <c r="E185" s="13"/>
-      <c r="F185" s="13"/>
-      <c r="G185" s="13"/>
+      <c r="B185" s="11"/>
+      <c r="C185" s="11"/>
+      <c r="D185" s="11"/>
+      <c r="E185" s="11"/>
+      <c r="F185" s="11"/>
+      <c r="G185" s="11"/>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="4" t="s">
@@ -6831,10 +6841,10 @@
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="11" t="n">
+      <c r="A194" s="9" t="n">
         <v>1.3695E-005</v>
       </c>
-      <c r="B194" s="11" t="n">
+      <c r="B194" s="9" t="n">
         <v>0.0022697</v>
       </c>
       <c r="C194" s="0" t="s">
@@ -6848,10 +6858,10 @@
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="11" t="n">
+      <c r="A195" s="9" t="n">
         <v>1.4248E-005</v>
       </c>
-      <c r="B195" s="11" t="n">
+      <c r="B195" s="9" t="n">
         <v>0.0011763</v>
       </c>
       <c r="C195" s="0" t="s">
@@ -6865,10 +6875,10 @@
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="11" t="n">
+      <c r="A196" s="9" t="n">
         <v>2.2204E-005</v>
       </c>
-      <c r="B196" s="11" t="n">
+      <c r="B196" s="9" t="n">
         <v>0.0082486</v>
       </c>
       <c r="C196" s="0" t="s">
@@ -6882,10 +6892,10 @@
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="11" t="n">
+      <c r="A197" s="9" t="n">
         <v>6.8759E-005</v>
       </c>
-      <c r="B197" s="11" t="n">
+      <c r="B197" s="9" t="n">
         <v>0.0011636</v>
       </c>
       <c r="C197" s="0" t="s">
@@ -6916,10 +6926,10 @@
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="11" t="n">
+      <c r="A199" s="9" t="n">
         <v>0.00010145</v>
       </c>
-      <c r="B199" s="11" t="n">
+      <c r="B199" s="9" t="n">
         <v>4.1566E-005</v>
       </c>
       <c r="C199" s="0" t="s">
@@ -7018,10 +7028,10 @@
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="11" t="n">
+      <c r="A205" s="9" t="n">
         <v>0.00020334</v>
       </c>
-      <c r="B205" s="11" t="n">
+      <c r="B205" s="9" t="n">
         <v>0.0017722</v>
       </c>
       <c r="C205" s="0" t="s">
@@ -7035,10 +7045,10 @@
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="11" t="n">
+      <c r="A206" s="9" t="n">
         <v>0.00033756</v>
       </c>
-      <c r="B206" s="11" t="n">
+      <c r="B206" s="9" t="n">
         <v>4.865E-005</v>
       </c>
       <c r="C206" s="0" t="s">
@@ -7052,19 +7062,19 @@
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="11"/>
-      <c r="B207" s="11"/>
+      <c r="A207" s="9"/>
+      <c r="B207" s="9"/>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="13" t="s">
+      <c r="A208" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="B208" s="13"/>
-      <c r="C208" s="13"/>
-      <c r="D208" s="13"/>
-      <c r="E208" s="13"/>
-      <c r="F208" s="13"/>
-      <c r="G208" s="13"/>
+      <c r="B208" s="11"/>
+      <c r="C208" s="11"/>
+      <c r="D208" s="11"/>
+      <c r="E208" s="11"/>
+      <c r="F208" s="11"/>
+      <c r="G208" s="11"/>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="4" t="s">
@@ -7122,10 +7132,10 @@
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="11" t="n">
+      <c r="A212" s="9" t="n">
         <v>5.0152E-006</v>
       </c>
-      <c r="B212" s="11" t="n">
+      <c r="B212" s="9" t="n">
         <v>0.0076164</v>
       </c>
       <c r="C212" s="0" t="s">
@@ -7190,10 +7200,10 @@
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="11" t="n">
+      <c r="A216" s="9" t="n">
         <v>1.0965E-005</v>
       </c>
-      <c r="B216" s="11" t="n">
+      <c r="B216" s="9" t="n">
         <v>0.0013602</v>
       </c>
       <c r="C216" s="0" t="s">
@@ -7207,10 +7217,10 @@
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="11" t="n">
+      <c r="A217" s="9" t="n">
         <v>1.5319E-005</v>
       </c>
-      <c r="B217" s="11" t="n">
+      <c r="B217" s="9" t="n">
         <v>0.00096282</v>
       </c>
       <c r="C217" s="0" t="s">
@@ -7241,10 +7251,10 @@
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="11" t="n">
+      <c r="A219" s="9" t="n">
         <v>3.1701E-005</v>
       </c>
-      <c r="B219" s="11" t="n">
+      <c r="B219" s="9" t="n">
         <v>1.9898E-005</v>
       </c>
       <c r="C219" s="0" t="s">
@@ -7275,10 +7285,10 @@
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="11" t="n">
+      <c r="A221" s="9" t="n">
         <v>6.5702E-005</v>
       </c>
-      <c r="B221" s="11" t="n">
+      <c r="B221" s="9" t="n">
         <v>0.0023599</v>
       </c>
       <c r="C221" s="0" t="s">
@@ -7309,10 +7319,10 @@
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="11" t="n">
+      <c r="A223" s="9" t="n">
         <v>0.00010395</v>
       </c>
-      <c r="B223" s="11" t="n">
+      <c r="B223" s="9" t="n">
         <v>1.2382E-005</v>
       </c>
       <c r="C223" s="0" t="s">
@@ -7326,10 +7336,10 @@
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="11" t="n">
+      <c r="A224" s="9" t="n">
         <v>0.00010891</v>
       </c>
-      <c r="B224" s="11" t="n">
+      <c r="B224" s="9" t="n">
         <v>0.00032943</v>
       </c>
       <c r="C224" s="0" t="s">
@@ -7359,28 +7369,28 @@
         <v>0.273</v>
       </c>
     </row>
-    <row r="226" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="9" t="n">
         <v>0.00013277</v>
       </c>
       <c r="B226" s="9" t="n">
         <v>0.0001822</v>
       </c>
-      <c r="C226" s="10" t="s">
+      <c r="C226" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="D226" s="10" t="n">
+      <c r="D226" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="E226" s="10" t="n">
+      <c r="E226" s="0" t="n">
         <v>0.261</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="11" t="n">
+      <c r="A227" s="9" t="n">
         <v>0.00020519</v>
       </c>
-      <c r="B227" s="11" t="n">
+      <c r="B227" s="9" t="n">
         <v>0.00048907</v>
       </c>
       <c r="C227" s="0" t="s">
@@ -7394,10 +7404,10 @@
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="11" t="n">
+      <c r="A228" s="9" t="n">
         <v>0.00021098</v>
       </c>
-      <c r="B228" s="11" t="n">
+      <c r="B228" s="9" t="n">
         <v>1.4903E-005</v>
       </c>
       <c r="C228" s="0" t="s">
@@ -7411,10 +7421,10 @@
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="11" t="n">
+      <c r="A229" s="9" t="n">
         <v>0.00029057</v>
       </c>
-      <c r="B229" s="11" t="n">
+      <c r="B229" s="9" t="n">
         <v>0.0020068</v>
       </c>
       <c r="C229" s="0" t="s">
@@ -7428,15 +7438,15 @@
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="13" t="s">
+      <c r="A232" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="B232" s="13"/>
-      <c r="C232" s="13"/>
-      <c r="D232" s="13"/>
-      <c r="E232" s="13"/>
-      <c r="F232" s="13"/>
-      <c r="G232" s="13"/>
+      <c r="B232" s="11"/>
+      <c r="C232" s="11"/>
+      <c r="D232" s="11"/>
+      <c r="E232" s="11"/>
+      <c r="F232" s="11"/>
+      <c r="G232" s="11"/>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="4" t="s">
@@ -7579,10 +7589,10 @@
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="11" t="n">
+      <c r="A241" s="9" t="n">
         <v>6.1969E-006</v>
       </c>
-      <c r="B241" s="11" t="n">
+      <c r="B241" s="9" t="n">
         <v>0.0030468</v>
       </c>
       <c r="C241" s="0" t="s">
@@ -7596,10 +7606,10 @@
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="11" t="n">
+      <c r="A242" s="9" t="n">
         <v>1.2174E-005</v>
       </c>
-      <c r="B242" s="11" t="n">
+      <c r="B242" s="9" t="n">
         <v>1.0253E-005</v>
       </c>
       <c r="C242" s="0" t="s">
@@ -7647,10 +7657,10 @@
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="11" t="n">
+      <c r="A245" s="9" t="n">
         <v>3.5402E-005</v>
       </c>
-      <c r="B245" s="11" t="n">
+      <c r="B245" s="9" t="n">
         <v>0.0034775</v>
       </c>
       <c r="C245" s="0" t="s">
@@ -7664,10 +7674,10 @@
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="11" t="n">
+      <c r="A246" s="9" t="n">
         <v>0.00010075</v>
       </c>
-      <c r="B246" s="11" t="n">
+      <c r="B246" s="9" t="n">
         <v>0.00054477</v>
       </c>
       <c r="C246" s="0" t="s">
@@ -7698,10 +7708,10 @@
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="11" t="n">
+      <c r="A248" s="9" t="n">
         <v>0.0001528</v>
       </c>
-      <c r="B248" s="11" t="n">
+      <c r="B248" s="9" t="n">
         <v>1.237E-005</v>
       </c>
       <c r="C248" s="0" t="s">
@@ -7715,10 +7725,10 @@
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="11" t="n">
+      <c r="A249" s="9" t="n">
         <v>0.00030354</v>
       </c>
-      <c r="B249" s="11" t="n">
+      <c r="B249" s="9" t="n">
         <v>0.00023357</v>
       </c>
       <c r="C249" s="0" t="s">
@@ -7732,10 +7742,10 @@
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="11" t="n">
+      <c r="A250" s="9" t="n">
         <v>0.00040619</v>
       </c>
-      <c r="B250" s="11" t="n">
+      <c r="B250" s="9" t="n">
         <v>3.9005E-005</v>
       </c>
       <c r="C250" s="0" t="s">
@@ -7766,10 +7776,10 @@
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="11" t="n">
+      <c r="A252" s="9" t="n">
         <v>0.00045896</v>
       </c>
-      <c r="B252" s="11" t="n">
+      <c r="B252" s="9" t="n">
         <v>0.0015115</v>
       </c>
       <c r="C252" s="0" t="s">
@@ -7800,15 +7810,15 @@
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="13" t="s">
+      <c r="A255" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="B255" s="13"/>
-      <c r="C255" s="13"/>
-      <c r="D255" s="13"/>
-      <c r="E255" s="13"/>
-      <c r="F255" s="13"/>
-      <c r="G255" s="13"/>
+      <c r="B255" s="11"/>
+      <c r="C255" s="11"/>
+      <c r="D255" s="11"/>
+      <c r="E255" s="11"/>
+      <c r="F255" s="11"/>
+      <c r="G255" s="11"/>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="4" t="s">
@@ -7985,10 +7995,10 @@
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="11" t="n">
+      <c r="A266" s="9" t="n">
         <v>8.8822E-006</v>
       </c>
-      <c r="B266" s="11" t="n">
+      <c r="B266" s="9" t="n">
         <v>0.00021993</v>
       </c>
       <c r="C266" s="0" t="s">
@@ -8036,10 +8046,10 @@
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="11" t="n">
+      <c r="A269" s="9" t="n">
         <v>2.9596E-005</v>
       </c>
-      <c r="B269" s="11" t="n">
+      <c r="B269" s="9" t="n">
         <v>0.0013433</v>
       </c>
       <c r="C269" s="0" t="s">
@@ -8052,20 +8062,20 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="270" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="9" t="n">
         <v>5.2853E-005</v>
       </c>
       <c r="B270" s="9" t="n">
         <v>0.0022414</v>
       </c>
-      <c r="C270" s="10" t="s">
+      <c r="C270" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="D270" s="10" t="n">
+      <c r="D270" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="E270" s="10" t="n">
+      <c r="E270" s="0" t="n">
         <v>0.097</v>
       </c>
     </row>
@@ -8104,10 +8114,10 @@
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="11" t="n">
+      <c r="A273" s="9" t="n">
         <v>0.0003556</v>
       </c>
-      <c r="B273" s="11" t="n">
+      <c r="B273" s="9" t="n">
         <v>0.0001298</v>
       </c>
       <c r="C273" s="0" t="s">
@@ -8172,15 +8182,15 @@
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="13" t="s">
+      <c r="A278" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="B278" s="13"/>
-      <c r="C278" s="13"/>
-      <c r="D278" s="13"/>
-      <c r="E278" s="13"/>
-      <c r="F278" s="13"/>
-      <c r="G278" s="13"/>
+      <c r="B278" s="11"/>
+      <c r="C278" s="11"/>
+      <c r="D278" s="11"/>
+      <c r="E278" s="11"/>
+      <c r="F278" s="11"/>
+      <c r="G278" s="11"/>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="4" t="s">
@@ -8323,10 +8333,10 @@
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="11" t="n">
+      <c r="A287" s="9" t="n">
         <v>1.8327E-005</v>
       </c>
-      <c r="B287" s="11" t="n">
+      <c r="B287" s="9" t="n">
         <v>0.00033783</v>
       </c>
       <c r="C287" s="0" t="s">
@@ -8340,10 +8350,10 @@
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="11" t="n">
+      <c r="A288" s="9" t="n">
         <v>2.086E-005</v>
       </c>
-      <c r="B288" s="11" t="n">
+      <c r="B288" s="9" t="n">
         <v>1.6489E-005</v>
       </c>
       <c r="C288" s="0" t="s">
@@ -8357,10 +8367,10 @@
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="11" t="n">
+      <c r="A289" s="9" t="n">
         <v>3.6832E-005</v>
       </c>
-      <c r="B289" s="11" t="n">
+      <c r="B289" s="9" t="n">
         <v>0.0090524</v>
       </c>
       <c r="C289" s="0" t="s">
@@ -8527,10 +8537,10 @@
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="11" t="n">
+      <c r="A299" s="9" t="n">
         <v>0.00090503</v>
       </c>
-      <c r="B299" s="11" t="n">
+      <c r="B299" s="9" t="n">
         <v>5.9722E-005</v>
       </c>
       <c r="C299" s="0" t="s">
@@ -8544,15 +8554,15 @@
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="13" t="s">
+      <c r="A301" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B301" s="13"/>
-      <c r="C301" s="13"/>
-      <c r="D301" s="13"/>
-      <c r="E301" s="13"/>
-      <c r="F301" s="13"/>
-      <c r="G301" s="13"/>
+      <c r="B301" s="11"/>
+      <c r="C301" s="11"/>
+      <c r="D301" s="11"/>
+      <c r="E301" s="11"/>
+      <c r="F301" s="11"/>
+      <c r="G301" s="11"/>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="4" t="s">
@@ -8575,10 +8585,10 @@
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="11" t="n">
+      <c r="A303" s="9" t="n">
         <v>0.0001</v>
       </c>
-      <c r="B303" s="11" t="n">
+      <c r="B303" s="9" t="n">
         <v>0.0004</v>
       </c>
       <c r="C303" s="0" t="s">
@@ -8592,10 +8602,10 @@
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="11" t="n">
+      <c r="A304" s="9" t="n">
         <v>7E-005</v>
       </c>
-      <c r="B304" s="11" t="n">
+      <c r="B304" s="9" t="n">
         <v>0.0005</v>
       </c>
       <c r="C304" s="0" t="s">
@@ -8609,10 +8619,10 @@
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="11" t="n">
+      <c r="A305" s="9" t="n">
         <v>0.0001</v>
       </c>
-      <c r="B305" s="11" t="n">
+      <c r="B305" s="9" t="n">
         <v>0.0007</v>
       </c>
       <c r="C305" s="0" t="s">
@@ -8621,15 +8631,18 @@
       <c r="D305" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="E305" s="0" t="n">
+        <v>0.216</v>
+      </c>
       <c r="F305" s="0" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="11" t="n">
+      <c r="A306" s="9" t="n">
         <v>7E-005</v>
       </c>
-      <c r="B306" s="11" t="n">
+      <c r="B306" s="9" t="n">
         <v>0.0002</v>
       </c>
       <c r="C306" s="0" t="s">
@@ -8643,10 +8656,10 @@
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="11" t="n">
+      <c r="A307" s="9" t="n">
         <v>8E-005</v>
       </c>
-      <c r="B307" s="11" t="n">
+      <c r="B307" s="9" t="n">
         <v>9E-005</v>
       </c>
       <c r="C307" s="0" t="s">
@@ -8660,15 +8673,15 @@
       </c>
     </row>
     <row r="310" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="12" t="s">
+      <c r="A310" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="B310" s="12"/>
-      <c r="C310" s="12"/>
-      <c r="D310" s="12"/>
-      <c r="E310" s="12"/>
-      <c r="F310" s="12"/>
-      <c r="G310" s="12"/>
+      <c r="B310" s="10"/>
+      <c r="C310" s="10"/>
+      <c r="D310" s="10"/>
+      <c r="E310" s="10"/>
+      <c r="F310" s="10"/>
+      <c r="G310" s="10"/>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G311" s="0" t="s">
@@ -8695,15 +8708,15 @@
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="13" t="s">
+      <c r="A315" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="B315" s="13"/>
-      <c r="C315" s="13"/>
-      <c r="D315" s="13"/>
-      <c r="E315" s="13"/>
-      <c r="F315" s="13"/>
-      <c r="G315" s="13"/>
+      <c r="B315" s="11"/>
+      <c r="C315" s="11"/>
+      <c r="D315" s="11"/>
+      <c r="E315" s="11"/>
+      <c r="F315" s="11"/>
+      <c r="G315" s="11"/>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="4" t="s">
@@ -8744,10 +8757,10 @@
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="11" t="n">
+      <c r="A318" s="9" t="n">
         <v>2.3579E-005</v>
       </c>
-      <c r="B318" s="11" t="n">
+      <c r="B318" s="9" t="n">
         <v>0.0010015</v>
       </c>
       <c r="C318" s="0" t="s">
@@ -8761,10 +8774,10 @@
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="11" t="n">
+      <c r="A319" s="9" t="n">
         <v>4.6631E-005</v>
       </c>
-      <c r="B319" s="11" t="n">
+      <c r="B319" s="9" t="n">
         <v>0.0036454</v>
       </c>
       <c r="C319" s="0" t="s">
@@ -8828,7 +8841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="9" t="n">
         <v>6.049E-005</v>
       </c>
@@ -8841,7 +8854,7 @@
       <c r="D323" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E323" s="10" t="n">
+      <c r="E323" s="0" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -8903,10 +8916,10 @@
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="11" t="n">
+      <c r="A327" s="9" t="n">
         <v>0.00032667</v>
       </c>
-      <c r="B327" s="11" t="n">
+      <c r="B327" s="9" t="n">
         <v>0.00012501</v>
       </c>
       <c r="C327" s="0" t="s">
@@ -8940,10 +8953,10 @@
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="11" t="n">
+      <c r="A329" s="9" t="n">
         <v>0.00036827</v>
       </c>
-      <c r="B329" s="11" t="n">
+      <c r="B329" s="9" t="n">
         <v>0.040168</v>
       </c>
       <c r="C329" s="0" t="s">
@@ -8974,10 +8987,10 @@
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="11" t="n">
+      <c r="A331" s="9" t="n">
         <v>0.0022293</v>
       </c>
-      <c r="B331" s="11" t="n">
+      <c r="B331" s="9" t="n">
         <v>0.00079363</v>
       </c>
       <c r="C331" s="0" t="s">
@@ -9194,15 +9207,15 @@
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="13" t="s">
+      <c r="A343" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="B343" s="13"/>
-      <c r="C343" s="13"/>
-      <c r="D343" s="13"/>
-      <c r="E343" s="13"/>
-      <c r="F343" s="13"/>
-      <c r="G343" s="13"/>
+      <c r="B343" s="11"/>
+      <c r="C343" s="11"/>
+      <c r="D343" s="11"/>
+      <c r="E343" s="11"/>
+      <c r="F343" s="11"/>
+      <c r="G343" s="11"/>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="4" t="s">
@@ -9226,10 +9239,10 @@
       <c r="G344" s="4"/>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="11" t="n">
+      <c r="A345" s="9" t="n">
         <v>1.358E-005</v>
       </c>
-      <c r="B345" s="11" t="n">
+      <c r="B345" s="9" t="n">
         <v>0.0036712</v>
       </c>
       <c r="C345" s="0" t="s">
@@ -9243,10 +9256,10 @@
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="11" t="n">
+      <c r="A346" s="9" t="n">
         <v>1.3851E-005</v>
       </c>
-      <c r="B346" s="11" t="n">
+      <c r="B346" s="9" t="n">
         <v>0.0077482</v>
       </c>
       <c r="C346" s="0" t="s">
@@ -9277,10 +9290,10 @@
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="11" t="n">
+      <c r="A348" s="9" t="n">
         <v>4.3456E-005</v>
       </c>
-      <c r="B348" s="11" t="n">
+      <c r="B348" s="9" t="n">
         <v>0.07084</v>
       </c>
       <c r="C348" s="0" t="s">
@@ -9294,10 +9307,10 @@
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="11" t="n">
+      <c r="A349" s="9" t="n">
         <v>8.4234E-005</v>
       </c>
-      <c r="B349" s="11" t="n">
+      <c r="B349" s="9" t="n">
         <v>0.072016</v>
       </c>
       <c r="C349" s="0" t="s">
@@ -9311,10 +9324,10 @@
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="11" t="n">
+      <c r="A350" s="9" t="n">
         <v>8.5093E-005</v>
       </c>
-      <c r="B350" s="11" t="n">
+      <c r="B350" s="9" t="n">
         <v>0.0079555</v>
       </c>
       <c r="C350" s="0" t="s">
@@ -9345,10 +9358,10 @@
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="11" t="n">
+      <c r="A352" s="9" t="n">
         <v>0.00012253</v>
       </c>
-      <c r="B352" s="11" t="n">
+      <c r="B352" s="9" t="n">
         <v>0.00011182</v>
       </c>
       <c r="C352" s="0" t="s">
@@ -9362,10 +9375,10 @@
       </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="11" t="n">
+      <c r="A353" s="9" t="n">
         <v>0.00016618</v>
       </c>
-      <c r="B353" s="11" t="n">
+      <c r="B353" s="9" t="n">
         <v>0.013387</v>
       </c>
       <c r="C353" s="0" t="s">
@@ -9447,10 +9460,10 @@
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="11" t="n">
+      <c r="A358" s="9" t="n">
         <v>0.0013591</v>
       </c>
-      <c r="B358" s="11" t="n">
+      <c r="B358" s="9" t="n">
         <v>0.00014644</v>
       </c>
       <c r="C358" s="0" t="s">
@@ -9481,10 +9494,10 @@
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="11" t="n">
+      <c r="A360" s="9" t="n">
         <v>0.0025067</v>
       </c>
-      <c r="B360" s="11" t="n">
+      <c r="B360" s="9" t="n">
         <v>0.0018069</v>
       </c>
       <c r="C360" s="0" t="s">
@@ -9678,15 +9691,15 @@
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="13" t="s">
+      <c r="A371" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="B371" s="13"/>
-      <c r="C371" s="13"/>
-      <c r="D371" s="13"/>
-      <c r="E371" s="13"/>
-      <c r="F371" s="13"/>
-      <c r="G371" s="13"/>
+      <c r="B371" s="11"/>
+      <c r="C371" s="11"/>
+      <c r="D371" s="11"/>
+      <c r="E371" s="11"/>
+      <c r="F371" s="11"/>
+      <c r="G371" s="11"/>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="4" t="s">
@@ -9744,10 +9757,10 @@
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="11" t="n">
+      <c r="A375" s="9" t="n">
         <v>1.5162E-005</v>
       </c>
-      <c r="B375" s="11" t="n">
+      <c r="B375" s="9" t="n">
         <v>0.0003705</v>
       </c>
       <c r="C375" s="0" t="s">
@@ -9761,10 +9774,10 @@
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="11" t="n">
+      <c r="A376" s="9" t="n">
         <v>1.5532E-005</v>
       </c>
-      <c r="B376" s="11" t="n">
+      <c r="B376" s="9" t="n">
         <v>0.00079597</v>
       </c>
       <c r="C376" s="0" t="s">
@@ -9778,10 +9791,10 @@
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="11" t="n">
+      <c r="A377" s="9" t="n">
         <v>4.8181E-005</v>
       </c>
-      <c r="B377" s="11" t="n">
+      <c r="B377" s="9" t="n">
         <v>0.052861</v>
       </c>
       <c r="C377" s="0" t="s">
@@ -9795,10 +9808,10 @@
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="11" t="n">
+      <c r="A378" s="9" t="n">
         <v>6.1374E-005</v>
       </c>
-      <c r="B378" s="11" t="n">
+      <c r="B378" s="9" t="n">
         <v>0.0042871</v>
       </c>
       <c r="C378" s="0" t="s">
@@ -9902,7 +9915,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="384" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="7" t="n">
         <v>0.00043116</v>
       </c>
@@ -9920,10 +9933,10 @@
       </c>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="11" t="n">
+      <c r="A385" s="9" t="n">
         <v>0.00029152</v>
       </c>
-      <c r="B385" s="11" t="n">
+      <c r="B385" s="9" t="n">
         <v>0.0050044</v>
       </c>
       <c r="C385" s="0" t="s">
@@ -9937,10 +9950,10 @@
       </c>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="11" t="n">
+      <c r="A386" s="9" t="n">
         <v>0.00010569</v>
       </c>
-      <c r="B386" s="11" t="n">
+      <c r="B386" s="9" t="n">
         <v>0.030448</v>
       </c>
       <c r="C386" s="0" t="s">
@@ -10171,15 +10184,15 @@
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="13" t="s">
+      <c r="A399" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="B399" s="13"/>
-      <c r="C399" s="13"/>
-      <c r="D399" s="13"/>
-      <c r="E399" s="13"/>
-      <c r="F399" s="13"/>
-      <c r="G399" s="13"/>
+      <c r="B399" s="11"/>
+      <c r="C399" s="11"/>
+      <c r="D399" s="11"/>
+      <c r="E399" s="11"/>
+      <c r="F399" s="11"/>
+      <c r="G399" s="11"/>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="4" t="s">
@@ -10253,160 +10266,160 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="11" t="n">
-        <v>7.5172E-005</v>
-      </c>
-      <c r="B404" s="11" t="n">
-        <v>0.0080256</v>
-      </c>
-      <c r="C404" s="0" t="s">
+    <row r="404" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="5" t="n">
+        <v>0.00010212</v>
+      </c>
+      <c r="B404" s="5" t="n">
+        <v>0.00015942</v>
+      </c>
+      <c r="C404" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="D404" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="E404" s="0" t="n">
-        <v>0.174</v>
-      </c>
-    </row>
-    <row r="405" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D404" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="E404" s="6" t="n">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="5" t="n">
-        <v>0.00010212</v>
+        <v>0.0026695</v>
       </c>
       <c r="B405" s="5" t="n">
-        <v>0.00015942</v>
+        <v>0.00018241</v>
       </c>
       <c r="C405" s="6" t="s">
         <v>380</v>
       </c>
       <c r="D405" s="6" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E405" s="6" t="n">
-        <v>0.105</v>
-      </c>
-    </row>
-    <row r="406" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="5" t="n">
-        <v>0.0026695</v>
-      </c>
-      <c r="B406" s="5" t="n">
-        <v>0.00018241</v>
-      </c>
-      <c r="C406" s="6" t="s">
+        <v>0.065</v>
+      </c>
+      <c r="F405" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="406" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="7" t="n">
+        <v>0.00061616</v>
+      </c>
+      <c r="B406" s="7" t="n">
+        <v>0.00027012</v>
+      </c>
+      <c r="C406" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="D406" s="6" t="n">
-        <v>19</v>
-      </c>
-      <c r="E406" s="6" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="F406" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="407" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="7" t="n">
-        <v>0.00061616</v>
-      </c>
-      <c r="B407" s="7" t="n">
-        <v>0.00027012</v>
-      </c>
-      <c r="C407" s="8" t="s">
+      <c r="D406" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="E406" s="8" t="n">
+        <v>0.278</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="9" t="n">
+        <v>0.00016235</v>
+      </c>
+      <c r="B407" s="9" t="n">
+        <v>0.00034318</v>
+      </c>
+      <c r="C407" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="D407" s="8" t="n">
-        <v>15</v>
-      </c>
-      <c r="E407" s="8" t="n">
-        <v>0.278</v>
-      </c>
-    </row>
-    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="11" t="n">
-        <v>0.00016235</v>
-      </c>
-      <c r="B408" s="11" t="n">
-        <v>0.00034318</v>
-      </c>
-      <c r="C408" s="0" t="s">
+      <c r="D407" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E407" s="0" t="n">
+        <v>0.222</v>
+      </c>
+    </row>
+    <row r="408" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="5" t="n">
+        <v>0.000815</v>
+      </c>
+      <c r="B408" s="5" t="n">
+        <v>0.00036079</v>
+      </c>
+      <c r="C408" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="D408" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="E408" s="0" t="n">
-        <v>0.222</v>
-      </c>
-    </row>
-    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="11" t="n">
-        <v>0.000815</v>
-      </c>
-      <c r="B409" s="11" t="n">
-        <v>0.00036079</v>
-      </c>
-      <c r="C409" s="0" t="s">
+      <c r="D408" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="E408" s="6" t="n">
+        <v>0.147</v>
+      </c>
+    </row>
+    <row r="409" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="7" t="n">
+        <v>0.00092065</v>
+      </c>
+      <c r="B409" s="7" t="n">
+        <v>0.00072963</v>
+      </c>
+      <c r="C409" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="D409" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="E409" s="0" t="n">
-        <v>0.147</v>
-      </c>
-    </row>
-    <row r="410" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="7" t="n">
-        <v>0.00092065</v>
-      </c>
-      <c r="B410" s="7" t="n">
-        <v>0.00072963</v>
-      </c>
-      <c r="C410" s="8" t="s">
+      <c r="D409" s="8" t="n">
+        <v>17</v>
+      </c>
+      <c r="E409" s="8" t="n">
+        <v>0.312</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="9" t="n">
+        <v>0.0020659</v>
+      </c>
+      <c r="B410" s="9" t="n">
+        <v>0.0010293</v>
+      </c>
+      <c r="C410" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="D410" s="8" t="n">
-        <v>17</v>
-      </c>
-      <c r="E410" s="8" t="n">
-        <v>0.312</v>
+      <c r="D410" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E410" s="0" t="n">
+        <v>0.216</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="11" t="n">
-        <v>0.0020659</v>
-      </c>
-      <c r="B411" s="11" t="n">
-        <v>0.0010293</v>
+      <c r="A411" s="9" t="n">
+        <v>0.00057614</v>
+      </c>
+      <c r="B411" s="9" t="n">
+        <v>0.0075124</v>
       </c>
       <c r="C411" s="0" t="s">
         <v>386</v>
       </c>
       <c r="D411" s="0" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E411" s="0" t="n">
-        <v>0.216</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="11" t="n">
-        <v>0.00057614</v>
-      </c>
-      <c r="B412" s="11" t="n">
-        <v>0.0075124</v>
+      <c r="A412" s="9" t="n">
+        <v>7.5172E-005</v>
+      </c>
+      <c r="B412" s="9" t="n">
+        <v>0.0080256</v>
       </c>
       <c r="C412" s="0" t="s">
         <v>387</v>
       </c>
       <c r="D412" s="0" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E412" s="0" t="n">
-        <v>0.236</v>
+        <v>0.174</v>
       </c>
     </row>
     <row r="413" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10661,15 +10674,15 @@
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="13" t="s">
+      <c r="A427" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="B427" s="13"/>
-      <c r="C427" s="13"/>
-      <c r="D427" s="13"/>
-      <c r="E427" s="13"/>
-      <c r="F427" s="13"/>
-      <c r="G427" s="13"/>
+      <c r="B427" s="11"/>
+      <c r="C427" s="11"/>
+      <c r="D427" s="11"/>
+      <c r="E427" s="11"/>
+      <c r="F427" s="11"/>
+      <c r="G427" s="11"/>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="4" t="s">
@@ -10727,10 +10740,10 @@
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="11" t="n">
+      <c r="A431" s="9" t="n">
         <v>5.3881E-005</v>
       </c>
-      <c r="B431" s="11" t="n">
+      <c r="B431" s="9" t="n">
         <v>0.019546</v>
       </c>
       <c r="C431" s="0" t="s">
@@ -10814,7 +10827,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="436" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="7" t="n">
         <v>0.0014138</v>
       </c>
@@ -10831,7 +10844,7 @@
         <v>0.289</v>
       </c>
     </row>
-    <row r="437" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="7" t="n">
         <v>0.0010185</v>
       </c>
@@ -10849,10 +10862,10 @@
       </c>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="11" t="n">
+      <c r="A438" s="9" t="n">
         <v>0.00018996</v>
       </c>
-      <c r="B438" s="11" t="n">
+      <c r="B438" s="9" t="n">
         <v>0.02095</v>
       </c>
       <c r="C438" s="0" t="s">
@@ -10866,10 +10879,10 @@
       </c>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="11" t="n">
+      <c r="A439" s="9" t="n">
         <v>0.00052525</v>
       </c>
-      <c r="B439" s="11" t="n">
+      <c r="B439" s="9" t="n">
         <v>0.062916</v>
       </c>
       <c r="C439" s="0" t="s">
@@ -10902,7 +10915,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="441" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="5" t="n">
         <v>0.0029472</v>
       </c>
@@ -10919,7 +10932,7 @@
         <v>0.054</v>
       </c>
     </row>
-    <row r="442" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="5" t="n">
         <v>0.0033207</v>
       </c>
@@ -10939,7 +10952,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="443" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="5" t="n">
         <v>0.0060778</v>
       </c>
@@ -10959,7 +10972,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="444" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="5" t="n">
         <v>0.0075939</v>
       </c>
@@ -10979,7 +10992,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="445" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="5" t="n">
         <v>0.0079911</v>
       </c>
@@ -10999,7 +11012,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="446" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="5" t="n">
         <v>0.0085187</v>
       </c>
@@ -11019,7 +11032,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="447" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="5" t="n">
         <v>0.012758</v>
       </c>
@@ -11039,7 +11052,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="448" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="5" t="n">
         <v>0.025956</v>
       </c>
@@ -11059,7 +11072,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="449" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="5" t="n">
         <v>0.026646</v>
       </c>
@@ -11079,7 +11092,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="450" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="5" t="n">
         <v>0.0295</v>
       </c>
@@ -11099,7 +11112,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="451" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="5" t="n">
         <v>0.037998</v>
       </c>
@@ -11119,7 +11132,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="452" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="5" t="n">
         <v>0.043958</v>
       </c>
@@ -11139,7 +11152,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="453" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="5" t="n">
         <v>0.077063</v>
       </c>
@@ -11160,15 +11173,15 @@
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A455" s="13" t="s">
+      <c r="A455" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B455" s="13"/>
-      <c r="C455" s="13"/>
-      <c r="D455" s="13"/>
-      <c r="E455" s="13"/>
-      <c r="F455" s="13"/>
-      <c r="G455" s="13"/>
+      <c r="B455" s="11"/>
+      <c r="C455" s="11"/>
+      <c r="D455" s="11"/>
+      <c r="E455" s="11"/>
+      <c r="F455" s="11"/>
+      <c r="G455" s="11"/>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="4" t="s">
@@ -11184,38 +11197,41 @@
         <v>5</v>
       </c>
       <c r="E456" s="4" t="s">
-        <v>11</v>
+        <v>426</v>
       </c>
       <c r="F456" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A457" s="11" t="n">
+      <c r="A457" s="9" t="n">
         <v>0.0002</v>
       </c>
-      <c r="B457" s="11" t="n">
+      <c r="B457" s="9" t="n">
         <v>0.03</v>
       </c>
       <c r="C457" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D457" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="E457" s="0" t="n">
+        <v>0.121</v>
+      </c>
       <c r="F457" s="0" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="11" t="n">
+      <c r="A458" s="9" t="n">
         <v>0.0002</v>
       </c>
-      <c r="B458" s="11" t="n">
+      <c r="B458" s="9" t="n">
         <v>0.04</v>
       </c>
       <c r="C458" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D458" s="0" t="n">
         <v>7</v>
@@ -11225,14 +11241,14 @@
       </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A459" s="11" t="n">
+      <c r="A459" s="9" t="n">
         <v>9E-005</v>
       </c>
-      <c r="B459" s="11" t="n">
+      <c r="B459" s="9" t="n">
         <v>0.005</v>
       </c>
       <c r="C459" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D459" s="0" t="n">
         <v>8</v>
@@ -11242,49 +11258,55 @@
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A460" s="11" t="n">
+      <c r="A460" s="9" t="n">
         <v>0.0006</v>
       </c>
-      <c r="B460" s="11" t="n">
+      <c r="B460" s="9" t="n">
         <v>0.008</v>
       </c>
       <c r="C460" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D460" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="E460" s="0" t="n">
+        <v>0.306</v>
+      </c>
       <c r="F460" s="0" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A461" s="11" t="n">
+      <c r="A461" s="9" t="n">
         <v>0.0006</v>
       </c>
-      <c r="B461" s="11" t="n">
+      <c r="B461" s="9" t="n">
         <v>0.01</v>
       </c>
       <c r="C461" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D461" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="E461" s="0" t="n">
+        <v>0.393</v>
+      </c>
       <c r="F461" s="0" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A463" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="B463" s="12"/>
-      <c r="C463" s="12"/>
-      <c r="D463" s="12"/>
-      <c r="E463" s="12"/>
-      <c r="F463" s="12"/>
-      <c r="G463" s="12"/>
+      <c r="A463" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="B463" s="10"/>
+      <c r="C463" s="10"/>
+      <c r="D463" s="10"/>
+      <c r="E463" s="10"/>
+      <c r="F463" s="10"/>
+      <c r="G463" s="10"/>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G464" s="0" t="s">
@@ -11296,7 +11318,7 @@
         <v>48</v>
       </c>
       <c r="B465" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G465" s="0" t="s">
         <v>175</v>
@@ -11307,19 +11329,19 @@
         <v>3</v>
       </c>
       <c r="B466" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A468" s="13" t="s">
+      <c r="A468" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="B468" s="13"/>
-      <c r="C468" s="13"/>
-      <c r="D468" s="13"/>
-      <c r="E468" s="13"/>
-      <c r="F468" s="13"/>
-      <c r="G468" s="13"/>
+      <c r="B468" s="11"/>
+      <c r="C468" s="11"/>
+      <c r="D468" s="11"/>
+      <c r="E468" s="11"/>
+      <c r="F468" s="11"/>
+      <c r="G468" s="11"/>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="4" t="s">
@@ -11342,314 +11364,374 @@
       </c>
       <c r="G469" s="4"/>
     </row>
-    <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A470" s="11" t="n">
+    <row r="470" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="5" t="n">
         <v>1.6546E-005</v>
       </c>
-      <c r="B470" s="11" t="n">
+      <c r="B470" s="5" t="n">
         <v>0.3364606</v>
       </c>
-      <c r="C470" s="0" t="s">
-        <v>434</v>
-      </c>
-      <c r="D470" s="0" t="n">
+      <c r="C470" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="D470" s="6" t="n">
         <v>11</v>
       </c>
-    </row>
-    <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A471" s="11" t="n">
+      <c r="E470" s="6" t="n">
+        <v>0.167</v>
+      </c>
+    </row>
+    <row r="471" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A471" s="5" t="n">
         <v>2.1434E-005</v>
       </c>
-      <c r="B471" s="11" t="n">
+      <c r="B471" s="5" t="n">
         <v>0.0554675</v>
       </c>
-      <c r="C471" s="0" t="s">
-        <v>435</v>
-      </c>
-      <c r="D471" s="0" t="n">
+      <c r="C471" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="D471" s="6" t="n">
         <v>12</v>
       </c>
-    </row>
-    <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A472" s="11" t="n">
+      <c r="E471" s="6" t="n">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="472" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="5" t="n">
         <v>3.324E-005</v>
       </c>
-      <c r="B472" s="11" t="n">
+      <c r="B472" s="5" t="n">
         <v>0.0036334</v>
       </c>
-      <c r="C472" s="0" t="s">
-        <v>436</v>
-      </c>
-      <c r="D472" s="0" t="n">
+      <c r="C472" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="D472" s="6" t="n">
         <v>13</v>
       </c>
+      <c r="E472" s="6" t="n">
+        <v>0.112</v>
+      </c>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="11" t="n">
-        <v>5.1531E-005</v>
-      </c>
-      <c r="B473" s="11" t="n">
-        <v>0.6906702</v>
+      <c r="A473" s="9" t="n">
+        <v>0.00040381</v>
+      </c>
+      <c r="B473" s="9" t="n">
+        <v>0.0021062</v>
       </c>
       <c r="C473" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D473" s="0" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="11" t="n">
+        <v>19</v>
+      </c>
+      <c r="E473" s="0" t="n">
+        <v>0.238</v>
+      </c>
+    </row>
+    <row r="474" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="7" t="n">
+        <v>0.0016154</v>
+      </c>
+      <c r="B474" s="7" t="n">
+        <v>0.0042225</v>
+      </c>
+      <c r="C474" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="D474" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="E474" s="8" t="n">
+        <v>0.399</v>
+      </c>
+    </row>
+    <row r="475" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="7" t="n">
+        <v>0.00047202</v>
+      </c>
+      <c r="B475" s="7" t="n">
+        <v>0.0056217</v>
+      </c>
+      <c r="C475" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="D475" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="E475" s="8" t="n">
+        <v>0.381</v>
+      </c>
+    </row>
+    <row r="476" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="5" t="n">
+        <v>0.00010521</v>
+      </c>
+      <c r="B476" s="5" t="n">
+        <v>0.0066661</v>
+      </c>
+      <c r="C476" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="D476" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="E476" s="6" t="n">
+        <v>0.089</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="9" t="n">
+        <v>0.0010278</v>
+      </c>
+      <c r="B477" s="9" t="n">
+        <v>0.0097653</v>
+      </c>
+      <c r="C477" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="D477" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E477" s="0" t="n">
+        <v>0.333</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="9" t="n">
         <v>6.4539E-005</v>
       </c>
-      <c r="B474" s="11" t="n">
+      <c r="B478" s="9" t="n">
         <v>0.0874128</v>
       </c>
-      <c r="C474" s="0" t="s">
-        <v>438</v>
-      </c>
-      <c r="D474" s="0" t="n">
+      <c r="C478" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="D478" s="0" t="n">
         <v>15</v>
       </c>
-    </row>
-    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A475" s="11" t="n">
-        <v>0.00010521</v>
-      </c>
-      <c r="B475" s="11" t="n">
-        <v>0.0066661</v>
-      </c>
-      <c r="C475" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="D475" s="0" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A476" s="11" t="n">
-        <v>0.00011148</v>
-      </c>
-      <c r="B476" s="11" t="n">
-        <v>0.3805353</v>
-      </c>
-      <c r="C476" s="0" t="s">
-        <v>440</v>
-      </c>
-      <c r="D476" s="0" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A477" s="11" t="n">
+      <c r="E478" s="0" t="n">
+        <v>0.333</v>
+      </c>
+    </row>
+    <row r="479" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="7" t="n">
         <v>0.00016302</v>
       </c>
-      <c r="B477" s="11" t="n">
+      <c r="B479" s="7" t="n">
         <v>0.0937002</v>
       </c>
-      <c r="C477" s="0" t="s">
-        <v>441</v>
-      </c>
-      <c r="D477" s="0" t="n">
+      <c r="C479" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="D479" s="8" t="n">
         <v>18</v>
       </c>
-    </row>
-    <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="11" t="n">
-        <v>0.00040381</v>
-      </c>
-      <c r="B478" s="11" t="n">
-        <v>0.0021062</v>
-      </c>
-      <c r="C478" s="0" t="s">
-        <v>442</v>
-      </c>
-      <c r="D478" s="0" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A479" s="11" t="n">
-        <v>0.00047202</v>
-      </c>
-      <c r="B479" s="11" t="n">
-        <v>0.0056217</v>
-      </c>
-      <c r="C479" s="0" t="s">
-        <v>443</v>
-      </c>
-      <c r="D479" s="0" t="n">
-        <v>20</v>
+      <c r="E479" s="8" t="n">
+        <v>0.408</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A480" s="11" t="n">
+      <c r="A480" s="9" t="n">
         <v>0.00072969</v>
       </c>
-      <c r="B480" s="11" t="n">
+      <c r="B480" s="9" t="n">
         <v>0.150206</v>
       </c>
       <c r="C480" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D480" s="0" t="n">
         <v>21</v>
       </c>
+      <c r="E480" s="0" t="n">
+        <v>0.318</v>
+      </c>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A481" s="11" t="n">
+      <c r="A481" s="9" t="n">
+        <v>0.00011148</v>
+      </c>
+      <c r="B481" s="9" t="n">
+        <v>0.3805353</v>
+      </c>
+      <c r="C481" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="D481" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E481" s="0" t="n">
+        <v>0.257</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A482" s="9" t="n">
         <v>0.00078044</v>
       </c>
-      <c r="B481" s="11" t="n">
+      <c r="B482" s="9" t="n">
         <v>0.4237876</v>
       </c>
-      <c r="C481" s="0" t="s">
-        <v>445</v>
-      </c>
-      <c r="D481" s="0" t="n">
+      <c r="C482" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="D482" s="0" t="n">
         <v>22</v>
       </c>
-    </row>
-    <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A482" s="11" t="n">
-        <v>0.0010278</v>
-      </c>
-      <c r="B482" s="11" t="n">
-        <v>0.0097653</v>
-      </c>
-      <c r="C482" s="0" t="s">
-        <v>446</v>
-      </c>
-      <c r="D482" s="0" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A483" s="11" t="n">
-        <v>0.0016154</v>
-      </c>
-      <c r="B483" s="11" t="n">
-        <v>0.0042225</v>
-      </c>
-      <c r="C483" s="0" t="s">
-        <v>447</v>
-      </c>
-      <c r="D483" s="0" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A484" s="11" t="n">
+      <c r="E482" s="0" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="483" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A483" s="7" t="n">
+        <v>5.1531E-005</v>
+      </c>
+      <c r="B483" s="7" t="n">
+        <v>0.6906702</v>
+      </c>
+      <c r="C483" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="D483" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="E483" s="8" t="n">
+        <v>0.477</v>
+      </c>
+    </row>
+    <row r="484" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A484" s="5" t="n">
         <v>0.0019026</v>
       </c>
-      <c r="B484" s="11" t="n">
+      <c r="B484" s="5" t="n">
         <v>0.0010762</v>
       </c>
-      <c r="C484" s="0" t="s">
-        <v>448</v>
-      </c>
-      <c r="D484" s="0" t="n">
+      <c r="C484" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="D484" s="6" t="n">
         <v>25</v>
       </c>
-    </row>
-    <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A485" s="11" t="n">
+      <c r="E484" s="6" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="F484" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="485" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A485" s="5" t="n">
         <v>0.0034332</v>
       </c>
-      <c r="B485" s="11" t="n">
+      <c r="B485" s="5" t="n">
         <v>0.7402161</v>
       </c>
-      <c r="C485" s="0" t="s">
-        <v>449</v>
-      </c>
-      <c r="D485" s="0" t="n">
+      <c r="C485" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="D485" s="6" t="n">
         <v>26</v>
       </c>
-    </row>
-    <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A486" s="11" t="n">
+      <c r="E485" s="6" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="F485" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="486" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A486" s="5" t="n">
         <v>0.0053245</v>
       </c>
-      <c r="B486" s="11" t="n">
+      <c r="B486" s="5" t="n">
         <v>0.0172276</v>
       </c>
-      <c r="C486" s="0" t="s">
-        <v>450</v>
-      </c>
-      <c r="D486" s="0" t="n">
+      <c r="C486" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="D486" s="6" t="n">
         <v>27</v>
       </c>
-    </row>
-    <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A487" s="11" t="n">
+      <c r="E486" s="6" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F486" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="487" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A487" s="5" t="n">
         <v>0.0065557</v>
       </c>
-      <c r="B487" s="11" t="n">
+      <c r="B487" s="5" t="n">
         <v>0.0026726</v>
       </c>
-      <c r="C487" s="0" t="s">
-        <v>451</v>
-      </c>
-      <c r="D487" s="0" t="n">
+      <c r="C487" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="D487" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="E487" s="0" t="n">
+      <c r="E487" s="6" t="n">
         <v>0.124</v>
       </c>
-      <c r="F487" s="0" t="s">
+      <c r="F487" s="6" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A488" s="11" t="n">
+    <row r="488" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A488" s="5" t="n">
         <v>0.0079053</v>
       </c>
-      <c r="B488" s="11" t="n">
+      <c r="B488" s="5" t="n">
         <v>0.003742</v>
       </c>
-      <c r="C488" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="D488" s="0" t="n">
+      <c r="C488" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="D488" s="6" t="n">
         <v>29</v>
       </c>
-      <c r="E488" s="0" t="n">
+      <c r="E488" s="6" t="n">
         <v>0.142</v>
       </c>
-      <c r="F488" s="0" t="s">
+      <c r="F488" s="6" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A489" s="11" t="n">
+    <row r="489" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A489" s="5" t="n">
         <v>0.008589</v>
       </c>
-      <c r="B489" s="11" t="n">
+      <c r="B489" s="5" t="n">
         <v>0.6753151</v>
       </c>
-      <c r="C489" s="0" t="s">
-        <v>453</v>
-      </c>
-      <c r="D489" s="0" t="n">
+      <c r="C489" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="D489" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="E489" s="0" t="n">
+      <c r="E489" s="6" t="n">
         <v>0.424</v>
       </c>
-      <c r="F489" s="0" t="s">
+      <c r="F489" s="6" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A491" s="13" t="s">
+      <c r="A491" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="B491" s="13"/>
-      <c r="C491" s="13"/>
-      <c r="D491" s="13"/>
-      <c r="E491" s="13"/>
-      <c r="F491" s="13"/>
-      <c r="G491" s="13"/>
+      <c r="B491" s="11"/>
+      <c r="C491" s="11"/>
+      <c r="D491" s="11"/>
+      <c r="E491" s="11"/>
+      <c r="F491" s="11"/>
+      <c r="G491" s="11"/>
     </row>
     <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="4" t="s">
@@ -11672,253 +11754,304 @@
       </c>
       <c r="G492" s="4"/>
     </row>
-    <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A493" s="11" t="n">
+    <row r="493" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A493" s="5" t="n">
         <v>1.5675E-005</v>
       </c>
-      <c r="B493" s="11" t="n">
+      <c r="B493" s="5" t="n">
         <v>0.0028178</v>
       </c>
-      <c r="C493" s="0" t="s">
-        <v>454</v>
-      </c>
-      <c r="D493" s="0" t="n">
+      <c r="C493" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="D493" s="6" t="n">
         <v>11</v>
       </c>
-    </row>
-    <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A494" s="11" t="n">
+      <c r="E493" s="6" t="n">
+        <v>0.073</v>
+      </c>
+    </row>
+    <row r="494" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A494" s="5" t="n">
         <v>2.5329E-005</v>
       </c>
-      <c r="B494" s="11" t="n">
+      <c r="B494" s="5" t="n">
         <v>0.0018946</v>
       </c>
-      <c r="C494" s="0" t="s">
-        <v>455</v>
-      </c>
-      <c r="D494" s="0" t="n">
+      <c r="C494" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="D494" s="6" t="n">
         <v>12</v>
       </c>
-    </row>
-    <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A495" s="11" t="n">
+      <c r="E494" s="6" t="n">
+        <v>0.079</v>
+      </c>
+    </row>
+    <row r="495" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A495" s="5" t="n">
         <v>2.7433E-005</v>
       </c>
-      <c r="B495" s="11" t="n">
+      <c r="B495" s="5" t="n">
         <v>0.0966219</v>
       </c>
-      <c r="C495" s="0" t="s">
-        <v>456</v>
-      </c>
-      <c r="D495" s="0" t="n">
+      <c r="C495" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="D495" s="6" t="n">
         <v>13</v>
       </c>
-    </row>
-    <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A496" s="11" t="n">
+      <c r="E495" s="6" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="496" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A496" s="5" t="n">
         <v>3.2859E-005</v>
       </c>
-      <c r="B496" s="11" t="n">
+      <c r="B496" s="5" t="n">
         <v>0.0051958</v>
       </c>
-      <c r="C496" s="0" t="s">
-        <v>457</v>
-      </c>
-      <c r="D496" s="0" t="n">
+      <c r="C496" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="D496" s="6" t="n">
         <v>14</v>
       </c>
-    </row>
-    <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A497" s="11" t="n">
+      <c r="E496" s="6" t="n">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="497" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A497" s="5" t="n">
         <v>3.7739E-005</v>
       </c>
-      <c r="B497" s="11" t="n">
+      <c r="B497" s="5" t="n">
         <v>0.0043637</v>
       </c>
-      <c r="C497" s="0" t="s">
-        <v>458</v>
-      </c>
-      <c r="D497" s="0" t="n">
+      <c r="C497" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D497" s="6" t="n">
         <v>15</v>
       </c>
-    </row>
-    <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A498" s="11" t="n">
+      <c r="E497" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A498" s="7" t="n">
         <v>3.9702E-005</v>
       </c>
-      <c r="B498" s="11" t="n">
+      <c r="B498" s="7" t="n">
         <v>0.0312187</v>
       </c>
-      <c r="C498" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="D498" s="0" t="n">
+      <c r="C498" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="D498" s="8" t="n">
         <v>16</v>
       </c>
-    </row>
-    <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A499" s="11" t="n">
+      <c r="E498" s="8" t="n">
+        <v>0.292</v>
+      </c>
+    </row>
+    <row r="499" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A499" s="5" t="n">
         <v>4.589E-005</v>
       </c>
-      <c r="B499" s="11" t="n">
+      <c r="B499" s="5" t="n">
         <v>0.1905453</v>
       </c>
-      <c r="C499" s="0" t="s">
-        <v>460</v>
-      </c>
-      <c r="D499" s="0" t="n">
+      <c r="C499" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="D499" s="6" t="n">
         <v>17</v>
       </c>
+      <c r="E499" s="6" t="n">
+        <v>0.083</v>
+      </c>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A500" s="11" t="n">
+      <c r="A500" s="9" t="n">
         <v>5.0586E-005</v>
       </c>
-      <c r="B500" s="11" t="n">
+      <c r="B500" s="9" t="n">
         <v>0.3139434</v>
       </c>
       <c r="C500" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D500" s="0" t="n">
         <v>18</v>
       </c>
+      <c r="E500" s="0" t="n">
+        <v>0.222</v>
+      </c>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A501" s="11" t="n">
+      <c r="A501" s="9" t="n">
         <v>5.232E-005</v>
       </c>
-      <c r="B501" s="11" t="n">
+      <c r="B501" s="9" t="n">
         <v>0.1373997</v>
       </c>
       <c r="C501" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D501" s="0" t="n">
         <v>19</v>
       </c>
-    </row>
-    <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A502" s="11" t="n">
+      <c r="E501" s="0" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="502" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A502" s="7" t="n">
         <v>5.8133E-005</v>
       </c>
-      <c r="B502" s="11" t="n">
+      <c r="B502" s="7" t="n">
         <v>0.314184</v>
       </c>
-      <c r="C502" s="0" t="s">
-        <v>463</v>
-      </c>
-      <c r="D502" s="0" t="n">
+      <c r="C502" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="D502" s="8" t="n">
         <v>20</v>
       </c>
+      <c r="E502" s="8" t="n">
+        <v>0.391</v>
+      </c>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A503" s="11" t="n">
+      <c r="A503" s="9" t="n">
         <v>7.2325E-005</v>
       </c>
-      <c r="B503" s="11" t="n">
+      <c r="B503" s="9" t="n">
         <v>0.0737628</v>
       </c>
       <c r="C503" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D503" s="0" t="n">
         <v>21</v>
       </c>
+      <c r="E503" s="0" t="n">
+        <v>0.261</v>
+      </c>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A504" s="11" t="n">
+      <c r="A504" s="9" t="n">
         <v>0.00012154</v>
       </c>
-      <c r="B504" s="11" t="n">
+      <c r="B504" s="9" t="n">
         <v>0.0101554</v>
       </c>
       <c r="C504" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D504" s="0" t="n">
         <v>22</v>
       </c>
+      <c r="E504" s="0" t="n">
+        <v>0.182</v>
+      </c>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A505" s="11" t="n">
+      <c r="A505" s="9" t="n">
         <v>0.0001574</v>
       </c>
-      <c r="B505" s="11" t="n">
+      <c r="B505" s="9" t="n">
         <v>0.3136236</v>
       </c>
       <c r="C505" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D505" s="0" t="n">
         <v>23</v>
       </c>
-    </row>
-    <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A506" s="11" t="n">
+      <c r="E505" s="0" t="n">
+        <v>0.172</v>
+      </c>
+    </row>
+    <row r="506" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A506" s="7" t="n">
         <v>0.00018285</v>
       </c>
-      <c r="B506" s="11" t="n">
+      <c r="B506" s="7" t="n">
         <v>0.0011338</v>
       </c>
-      <c r="C506" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="D506" s="0" t="n">
+      <c r="C506" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="D506" s="8" t="n">
         <v>24</v>
       </c>
+      <c r="E506" s="8" t="n">
+        <v>0.333</v>
+      </c>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A507" s="11" t="n">
+      <c r="A507" s="9" t="n">
         <v>0.00019898</v>
       </c>
-      <c r="B507" s="11" t="n">
+      <c r="B507" s="9" t="n">
         <v>0.6018989</v>
       </c>
       <c r="C507" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D507" s="0" t="n">
         <v>25</v>
       </c>
+      <c r="E507" s="0" t="n">
+        <v>0.258</v>
+      </c>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A508" s="11" t="n">
+      <c r="A508" s="9" t="n">
         <v>0.00073229</v>
       </c>
-      <c r="B508" s="11" t="n">
+      <c r="B508" s="9" t="n">
         <v>0.0913831</v>
       </c>
       <c r="C508" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D508" s="0" t="n">
         <v>26</v>
       </c>
-    </row>
-    <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A509" s="11" t="n">
+      <c r="E508" s="0" t="n">
+        <v>0.264</v>
+      </c>
+    </row>
+    <row r="509" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A509" s="7" t="n">
         <v>0.0011529</v>
       </c>
-      <c r="B509" s="11" t="n">
+      <c r="B509" s="7" t="n">
         <v>0.0825684</v>
       </c>
-      <c r="C509" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="D509" s="0" t="n">
+      <c r="C509" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="D509" s="8" t="n">
         <v>27</v>
       </c>
+      <c r="E509" s="8" t="n">
+        <v>0.316</v>
+      </c>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A510" s="11" t="n">
+      <c r="A510" s="9" t="n">
         <v>0.0029386</v>
       </c>
-      <c r="B510" s="11" t="n">
+      <c r="B510" s="9" t="n">
         <v>0.146197</v>
       </c>
       <c r="C510" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D510" s="0" t="n">
         <v>28</v>
@@ -11927,56 +12060,56 @@
         <v>0.263</v>
       </c>
     </row>
-    <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A511" s="11" t="n">
+    <row r="511" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A511" s="5" t="n">
         <v>0.0034427</v>
       </c>
-      <c r="B511" s="11" t="n">
+      <c r="B511" s="5" t="n">
         <v>0.0017839</v>
       </c>
-      <c r="C511" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="D511" s="0" t="n">
+      <c r="C511" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="D511" s="6" t="n">
         <v>29</v>
       </c>
-      <c r="E511" s="0" t="n">
+      <c r="E511" s="6" t="n">
         <v>0.062</v>
       </c>
-      <c r="F511" s="0" t="s">
+      <c r="F511" s="6" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A512" s="11" t="n">
+    <row r="512" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A512" s="5" t="n">
         <v>0.0046946</v>
       </c>
-      <c r="B512" s="11" t="n">
+      <c r="B512" s="5" t="n">
         <v>0.0240136</v>
       </c>
-      <c r="C512" s="0" t="s">
-        <v>473</v>
-      </c>
-      <c r="D512" s="0" t="n">
+      <c r="C512" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="D512" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="E512" s="0" t="n">
+      <c r="E512" s="6" t="n">
         <v>0.474</v>
       </c>
-      <c r="F512" s="0" t="s">
+      <c r="F512" s="6" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A514" s="13" t="s">
+      <c r="A514" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="B514" s="13"/>
-      <c r="C514" s="13"/>
-      <c r="D514" s="13"/>
-      <c r="E514" s="13"/>
-      <c r="F514" s="13"/>
-      <c r="G514" s="13"/>
+      <c r="B514" s="11"/>
+      <c r="C514" s="11"/>
+      <c r="D514" s="11"/>
+      <c r="E514" s="11"/>
+      <c r="F514" s="11"/>
+      <c r="G514" s="11"/>
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="4" t="s">
@@ -11998,314 +12131,377 @@
         <v>12</v>
       </c>
     </row>
-    <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A516" s="11" t="n">
+    <row r="516" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A516" s="5" t="n">
         <v>1.169E-005</v>
       </c>
-      <c r="B516" s="11" t="n">
+      <c r="B516" s="5" t="n">
         <v>0.0089262</v>
       </c>
-      <c r="C516" s="0" t="s">
-        <v>474</v>
-      </c>
-      <c r="D516" s="0" t="n">
+      <c r="C516" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="D516" s="6" t="n">
         <v>11</v>
       </c>
-    </row>
-    <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A517" s="11" t="n">
+      <c r="E516" s="6" t="n">
+        <v>0.096</v>
+      </c>
+    </row>
+    <row r="517" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A517" s="5" t="n">
         <v>1.4089E-005</v>
       </c>
-      <c r="B517" s="11" t="n">
+      <c r="B517" s="5" t="n">
         <v>0.0015234</v>
       </c>
-      <c r="C517" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="D517" s="0" t="n">
+      <c r="C517" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="D517" s="6" t="n">
         <v>12</v>
       </c>
-    </row>
-    <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A518" s="11" t="n">
-        <v>1.8107E-005</v>
-      </c>
-      <c r="B518" s="11" t="n">
-        <v>0.5553683</v>
-      </c>
-      <c r="C518" s="0" t="s">
-        <v>476</v>
-      </c>
-      <c r="D518" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A519" s="11" t="n">
+      <c r="E517" s="6" t="n">
+        <v>0.063</v>
+      </c>
+    </row>
+    <row r="518" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A518" s="7" t="n">
+        <v>0.00054573</v>
+      </c>
+      <c r="B518" s="7" t="n">
+        <v>0.0043901</v>
+      </c>
+      <c r="C518" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="D518" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="E518" s="8" t="n">
+        <v>0.368</v>
+      </c>
+    </row>
+    <row r="519" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A519" s="7" t="n">
+        <v>0.00044525</v>
+      </c>
+      <c r="B519" s="7" t="n">
+        <v>0.0106163</v>
+      </c>
+      <c r="C519" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="D519" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="E519" s="8" t="n">
+        <v>0.355</v>
+      </c>
+    </row>
+    <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A520" s="9" t="n">
         <v>2.363E-005</v>
       </c>
-      <c r="B519" s="11" t="n">
+      <c r="B520" s="9" t="n">
         <v>0.0520492</v>
       </c>
-      <c r="C519" s="0" t="s">
-        <v>477</v>
-      </c>
-      <c r="D519" s="0" t="n">
+      <c r="C520" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="D520" s="0" t="n">
         <v>14</v>
       </c>
-    </row>
-    <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A520" s="11" t="n">
-        <v>0.0001042</v>
-      </c>
-      <c r="B520" s="11" t="n">
-        <v>0.0697921</v>
-      </c>
-      <c r="C520" s="0" t="s">
-        <v>478</v>
-      </c>
-      <c r="D520" s="0" t="n">
-        <v>15</v>
+      <c r="E520" s="0" t="n">
+        <v>0.345</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A521" s="11" t="n">
+      <c r="A521" s="9" t="n">
         <v>0.00015067</v>
       </c>
-      <c r="B521" s="11" t="n">
+      <c r="B521" s="9" t="n">
         <v>0.0623434</v>
       </c>
       <c r="C521" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D521" s="0" t="n">
         <v>16</v>
       </c>
-    </row>
-    <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A522" s="11" t="n">
+      <c r="E521" s="0" t="n">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="522" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A522" s="5" t="n">
+        <v>0.0001042</v>
+      </c>
+      <c r="B522" s="5" t="n">
+        <v>0.0697921</v>
+      </c>
+      <c r="C522" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="D522" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="E522" s="6" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A523" s="9" t="n">
+        <v>0.0003727</v>
+      </c>
+      <c r="B523" s="9" t="n">
+        <v>0.1619842</v>
+      </c>
+      <c r="C523" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="D523" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E523" s="0" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="524" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A524" s="7" t="n">
+        <v>0.00034951</v>
+      </c>
+      <c r="B524" s="7" t="n">
+        <v>0.3123063</v>
+      </c>
+      <c r="C524" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="D524" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="E524" s="8" t="n">
+        <v>0.378</v>
+      </c>
+    </row>
+    <row r="525" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A525" s="7" t="n">
+        <v>1.8107E-005</v>
+      </c>
+      <c r="B525" s="7" t="n">
+        <v>0.5553683</v>
+      </c>
+      <c r="C525" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="D525" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="E525" s="8" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="526" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A526" s="5" t="n">
+        <v>0.00092296</v>
+      </c>
+      <c r="B526" s="5" t="n">
+        <v>0.5681399</v>
+      </c>
+      <c r="C526" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="D526" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="E526" s="6" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="F526" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="527" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A527" s="5" t="n">
         <v>0.00020506</v>
       </c>
-      <c r="B522" s="11" t="n">
+      <c r="B527" s="5" t="n">
         <v>0.7336958</v>
       </c>
-      <c r="C522" s="0" t="s">
-        <v>480</v>
-      </c>
-      <c r="D522" s="0" t="n">
+      <c r="C527" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="D527" s="6" t="n">
         <v>17</v>
       </c>
-    </row>
-    <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A523" s="11" t="n">
-        <v>0.00034951</v>
-      </c>
-      <c r="B523" s="11" t="n">
-        <v>0.3123063</v>
-      </c>
-      <c r="C523" s="0" t="s">
-        <v>481</v>
-      </c>
-      <c r="D523" s="0" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A524" s="11" t="n">
-        <v>0.0003727</v>
-      </c>
-      <c r="B524" s="11" t="n">
-        <v>0.1619842</v>
-      </c>
-      <c r="C524" s="0" t="s">
-        <v>482</v>
-      </c>
-      <c r="D524" s="0" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A525" s="11" t="n">
-        <v>0.00044525</v>
-      </c>
-      <c r="B525" s="11" t="n">
-        <v>0.0106163</v>
-      </c>
-      <c r="C525" s="0" t="s">
-        <v>483</v>
-      </c>
-      <c r="D525" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A526" s="11" t="n">
-        <v>0.00054573</v>
-      </c>
-      <c r="B526" s="11" t="n">
-        <v>0.0043901</v>
-      </c>
-      <c r="C526" s="0" t="s">
-        <v>484</v>
-      </c>
-      <c r="D526" s="0" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A527" s="11" t="n">
-        <v>0.00092296</v>
-      </c>
-      <c r="B527" s="11" t="n">
-        <v>0.5681399</v>
-      </c>
-      <c r="C527" s="0" t="s">
-        <v>485</v>
-      </c>
-      <c r="D527" s="0" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A528" s="11" t="n">
+      <c r="E527" s="6" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F527" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="528" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A528" s="5" t="n">
         <v>0.00099429</v>
       </c>
-      <c r="B528" s="11" t="n">
+      <c r="B528" s="5" t="n">
         <v>0.0030212</v>
       </c>
-      <c r="C528" s="0" t="s">
-        <v>486</v>
-      </c>
-      <c r="D528" s="0" t="n">
+      <c r="C528" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="D528" s="6" t="n">
         <v>23</v>
       </c>
+      <c r="E528" s="6" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A529" s="11" t="n">
+      <c r="A529" s="9" t="n">
         <v>0.0011866</v>
       </c>
-      <c r="B529" s="11" t="n">
+      <c r="B529" s="9" t="n">
         <v>0.1269318</v>
       </c>
       <c r="C529" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D529" s="0" t="n">
         <v>24</v>
       </c>
+      <c r="E529" s="0" t="n">
+        <v>0.263</v>
+      </c>
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A530" s="11" t="n">
+      <c r="A530" s="9" t="n">
         <v>0.0014278</v>
       </c>
-      <c r="B530" s="11" t="n">
+      <c r="B530" s="9" t="n">
         <v>0.0553141</v>
       </c>
       <c r="C530" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D530" s="0" t="n">
         <v>25</v>
       </c>
-    </row>
-    <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A531" s="11" t="n">
+      <c r="E530" s="0" t="n">
+        <v>0.168</v>
+      </c>
+    </row>
+    <row r="531" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A531" s="5" t="n">
         <v>0.0020741</v>
       </c>
-      <c r="B531" s="11" t="n">
+      <c r="B531" s="5" t="n">
         <v>0.0445031</v>
       </c>
-      <c r="C531" s="0" t="s">
-        <v>489</v>
-      </c>
-      <c r="D531" s="0" t="n">
+      <c r="C531" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="D531" s="6" t="n">
         <v>26</v>
       </c>
-    </row>
-    <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A532" s="11" t="n">
+      <c r="E531" s="6" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="F531" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="532" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A532" s="5" t="n">
         <v>0.0029028</v>
       </c>
-      <c r="B532" s="11" t="n">
+      <c r="B532" s="5" t="n">
         <v>0.0127251</v>
       </c>
-      <c r="C532" s="0" t="s">
-        <v>490</v>
-      </c>
-      <c r="D532" s="0" t="n">
+      <c r="C532" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="D532" s="6" t="n">
         <v>27</v>
       </c>
-    </row>
-    <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A533" s="11" t="n">
+      <c r="E532" s="6" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F532" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="533" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A533" s="5" t="n">
         <v>0.0040751</v>
       </c>
-      <c r="B533" s="11" t="n">
+      <c r="B533" s="5" t="n">
         <v>0.0019656</v>
       </c>
-      <c r="C533" s="0" t="s">
-        <v>491</v>
-      </c>
-      <c r="D533" s="0" t="n">
+      <c r="C533" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="D533" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="E533" s="0" t="n">
+      <c r="E533" s="6" t="n">
         <v>0.386</v>
       </c>
-      <c r="F533" s="0" t="s">
+      <c r="F533" s="6" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A534" s="11" t="n">
+    <row r="534" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A534" s="5" t="n">
         <v>0.0052367</v>
       </c>
-      <c r="B534" s="11" t="n">
+      <c r="B534" s="5" t="n">
         <v>0.0011963</v>
       </c>
-      <c r="C534" s="0" t="s">
-        <v>492</v>
-      </c>
-      <c r="D534" s="0" t="n">
+      <c r="C534" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="D534" s="6" t="n">
         <v>29</v>
       </c>
-      <c r="E534" s="0" t="n">
+      <c r="E534" s="6" t="n">
         <v>0.35</v>
       </c>
-      <c r="F534" s="0" t="s">
+      <c r="F534" s="6" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A535" s="11" t="n">
+    <row r="535" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A535" s="5" t="n">
         <v>0.00822</v>
       </c>
-      <c r="B535" s="11" t="n">
+      <c r="B535" s="5" t="n">
         <v>0.0017011</v>
       </c>
-      <c r="C535" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="D535" s="0" t="n">
+      <c r="C535" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="D535" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="E535" s="0" t="n">
+      <c r="E535" s="6" t="n">
         <v>0.066</v>
       </c>
-      <c r="F535" s="0" t="s">
+      <c r="F535" s="6" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A537" s="13" t="s">
+      <c r="A537" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="B537" s="13"/>
-      <c r="C537" s="13"/>
-      <c r="D537" s="13"/>
-      <c r="E537" s="13"/>
-      <c r="F537" s="13"/>
-      <c r="G537" s="13"/>
+      <c r="B537" s="11"/>
+      <c r="C537" s="11"/>
+      <c r="D537" s="11"/>
+      <c r="E537" s="11"/>
+      <c r="F537" s="11"/>
+      <c r="G537" s="11"/>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="4" t="s">
@@ -12328,314 +12524,371 @@
       </c>
       <c r="G538" s="4"/>
     </row>
-    <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A539" s="11" t="n">
+    <row r="539" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A539" s="5" t="n">
         <v>2.022E-005</v>
       </c>
-      <c r="B539" s="11" t="n">
+      <c r="B539" s="5" t="n">
         <v>0.1550242</v>
       </c>
-      <c r="C539" s="0" t="s">
-        <v>494</v>
-      </c>
-      <c r="D539" s="0" t="n">
+      <c r="C539" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="D539" s="6" t="n">
         <v>11</v>
       </c>
+      <c r="E539" s="6" t="n">
+        <v>0.103</v>
+      </c>
     </row>
     <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A540" s="11" t="n">
+      <c r="A540" s="9" t="n">
         <v>2.2628E-005</v>
       </c>
-      <c r="B540" s="11" t="n">
+      <c r="B540" s="9" t="n">
         <v>0.001751</v>
       </c>
       <c r="C540" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D540" s="0" t="n">
         <v>12</v>
       </c>
-    </row>
-    <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A541" s="11" t="n">
+      <c r="E540" s="0" t="n">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="541" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A541" s="5" t="n">
         <v>2.5671E-005</v>
       </c>
-      <c r="B541" s="11" t="n">
+      <c r="B541" s="5" t="n">
         <v>0.0016059</v>
       </c>
-      <c r="C541" s="0" t="s">
-        <v>496</v>
-      </c>
-      <c r="D541" s="0" t="n">
+      <c r="C541" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="D541" s="6" t="n">
         <v>13</v>
       </c>
+      <c r="E541" s="6" t="n">
+        <v>0.075</v>
+      </c>
     </row>
     <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A542" s="11" t="n">
+      <c r="A542" s="9" t="n">
         <v>4.1009E-005</v>
       </c>
-      <c r="B542" s="11" t="n">
+      <c r="B542" s="9" t="n">
         <v>0.0079769</v>
       </c>
       <c r="C542" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D542" s="0" t="n">
         <v>14</v>
       </c>
-    </row>
-    <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A543" s="11" t="n">
+      <c r="E542" s="0" t="n">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="543" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A543" s="7" t="n">
         <v>5.1362E-005</v>
       </c>
-      <c r="B543" s="11" t="n">
+      <c r="B543" s="7" t="n">
         <v>0.2642545</v>
       </c>
-      <c r="C543" s="0" t="s">
-        <v>498</v>
-      </c>
-      <c r="D543" s="0" t="n">
+      <c r="C543" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="D543" s="8" t="n">
         <v>15</v>
       </c>
-    </row>
-    <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A544" s="11" t="n">
+      <c r="E543" s="8" t="n">
+        <v>0.292</v>
+      </c>
+    </row>
+    <row r="544" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A544" s="7" t="n">
         <v>5.204E-005</v>
       </c>
-      <c r="B544" s="11" t="n">
+      <c r="B544" s="7" t="n">
         <v>0.8091169</v>
       </c>
-      <c r="C544" s="0" t="s">
-        <v>499</v>
-      </c>
-      <c r="D544" s="0" t="n">
+      <c r="C544" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="D544" s="8" t="n">
         <v>16</v>
       </c>
-    </row>
-    <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A545" s="11" t="n">
+      <c r="E544" s="8" t="n">
+        <v>0.293</v>
+      </c>
+    </row>
+    <row r="545" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A545" s="5" t="n">
         <v>5.3496E-005</v>
       </c>
-      <c r="B545" s="11" t="n">
+      <c r="B545" s="5" t="n">
         <v>0.0633867</v>
       </c>
-      <c r="C545" s="0" t="s">
-        <v>500</v>
-      </c>
-      <c r="D545" s="0" t="n">
-        <v>17</v>
+      <c r="C545" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="D545" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="E545" s="6" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A546" s="11" t="n">
+      <c r="A546" s="9" t="n">
         <v>9.3627E-005</v>
       </c>
-      <c r="B546" s="11" t="n">
+      <c r="B546" s="9" t="n">
         <v>0.0032802</v>
       </c>
       <c r="C546" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D546" s="0" t="n">
         <v>18</v>
       </c>
-    </row>
-    <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A547" s="11" t="n">
+      <c r="E546" s="0" t="n">
+        <v>0.171</v>
+      </c>
+    </row>
+    <row r="547" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A547" s="7" t="n">
         <v>0.00019114</v>
       </c>
-      <c r="B547" s="11" t="n">
+      <c r="B547" s="7" t="n">
         <v>0.008914</v>
       </c>
-      <c r="C547" s="0" t="s">
-        <v>502</v>
-      </c>
-      <c r="D547" s="0" t="n">
+      <c r="C547" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="D547" s="8" t="n">
         <v>19</v>
       </c>
+      <c r="E547" s="8" t="n">
+        <v>0.417</v>
+      </c>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A548" s="11" t="n">
+      <c r="A548" s="9" t="n">
         <v>0.00036622</v>
       </c>
-      <c r="B548" s="11" t="n">
+      <c r="B548" s="9" t="n">
         <v>0.0052602</v>
       </c>
       <c r="C548" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D548" s="0" t="n">
         <v>20</v>
       </c>
-    </row>
-    <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A549" s="11" t="n">
+      <c r="E548" s="0" t="n">
+        <v>0.238</v>
+      </c>
+    </row>
+    <row r="549" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A549" s="5" t="n">
         <v>0.00061699</v>
       </c>
-      <c r="B549" s="11" t="n">
+      <c r="B549" s="5" t="n">
         <v>0.6316548</v>
       </c>
-      <c r="C549" s="0" t="s">
-        <v>504</v>
-      </c>
-      <c r="D549" s="0" t="n">
+      <c r="C549" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="D549" s="6" t="n">
         <v>21</v>
       </c>
-    </row>
-    <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A550" s="11" t="n">
+      <c r="E549" s="6" t="n">
+        <v>0.421</v>
+      </c>
+      <c r="F549" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="550" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A550" s="5" t="n">
         <v>0.00068092</v>
       </c>
-      <c r="B550" s="11" t="n">
+      <c r="B550" s="5" t="n">
         <v>0.0193573</v>
       </c>
-      <c r="C550" s="0" t="s">
-        <v>505</v>
-      </c>
-      <c r="D550" s="0" t="n">
+      <c r="C550" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="D550" s="6" t="n">
         <v>22</v>
       </c>
+      <c r="E550" s="6" t="n">
+        <v>0.111</v>
+      </c>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A551" s="11" t="n">
+      <c r="A551" s="9" t="n">
         <v>0.00068623</v>
       </c>
-      <c r="B551" s="11" t="n">
+      <c r="B551" s="9" t="n">
         <v>0.0015879</v>
       </c>
       <c r="C551" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D551" s="0" t="n">
         <v>23</v>
       </c>
-    </row>
-    <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A552" s="11" t="n">
+      <c r="E551" s="0" t="n">
+        <v>0.223</v>
+      </c>
+    </row>
+    <row r="552" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A552" s="7" t="n">
         <v>0.00081216</v>
       </c>
-      <c r="B552" s="11" t="n">
+      <c r="B552" s="7" t="n">
         <v>0.0437004</v>
       </c>
-      <c r="C552" s="0" t="s">
-        <v>507</v>
-      </c>
-      <c r="D552" s="0" t="n">
+      <c r="C552" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="D552" s="8" t="n">
         <v>24</v>
       </c>
-    </row>
-    <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A553" s="11" t="n">
+      <c r="E552" s="8" t="n">
+        <v>0.304</v>
+      </c>
+    </row>
+    <row r="553" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A553" s="7" t="n">
         <v>0.001062</v>
       </c>
-      <c r="B553" s="11" t="n">
+      <c r="B553" s="7" t="n">
         <v>0.0033356</v>
       </c>
-      <c r="C553" s="0" t="s">
-        <v>508</v>
-      </c>
-      <c r="D553" s="0" t="n">
+      <c r="C553" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="D553" s="8" t="n">
         <v>25</v>
       </c>
-    </row>
-    <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A554" s="11" t="n">
+      <c r="E553" s="8" t="n">
+        <v>0.291</v>
+      </c>
+    </row>
+    <row r="554" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A554" s="5" t="n">
         <v>0.0017452</v>
       </c>
-      <c r="B554" s="11" t="n">
+      <c r="B554" s="5" t="n">
         <v>0.0028573</v>
       </c>
-      <c r="C554" s="0" t="s">
-        <v>509</v>
-      </c>
-      <c r="D554" s="0" t="n">
+      <c r="C554" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="D554" s="6" t="n">
         <v>26</v>
       </c>
+      <c r="E554" s="6" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F554" s="6" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A555" s="11" t="n">
+      <c r="A555" s="9" t="n">
         <v>0.0029918</v>
       </c>
-      <c r="B555" s="11" t="n">
+      <c r="B555" s="9" t="n">
         <v>0.0570815</v>
       </c>
       <c r="C555" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D555" s="0" t="n">
         <v>27</v>
       </c>
-    </row>
-    <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A556" s="11" t="n">
+      <c r="E555" s="0" t="n">
+        <v>0.208</v>
+      </c>
+    </row>
+    <row r="556" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A556" s="5" t="n">
         <v>0.0033841</v>
       </c>
-      <c r="B556" s="11" t="n">
+      <c r="B556" s="5" t="n">
         <v>0.0256605</v>
       </c>
-      <c r="C556" s="0" t="s">
-        <v>511</v>
-      </c>
-      <c r="D556" s="0" t="n">
+      <c r="C556" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="D556" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="E556" s="0" t="n">
+      <c r="E556" s="6" t="n">
         <v>0.116</v>
       </c>
-      <c r="F556" s="0" t="s">
+      <c r="F556" s="6" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A557" s="11" t="n">
+    <row r="557" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A557" s="5" t="n">
         <v>0.0049189</v>
       </c>
-      <c r="B557" s="11" t="n">
+      <c r="B557" s="5" t="n">
         <v>0.0066357</v>
       </c>
-      <c r="C557" s="0" t="s">
-        <v>512</v>
-      </c>
-      <c r="D557" s="0" t="n">
+      <c r="C557" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="D557" s="6" t="n">
         <v>29</v>
       </c>
-      <c r="E557" s="0" t="n">
+      <c r="E557" s="6" t="n">
         <v>0.072</v>
       </c>
-      <c r="F557" s="0" t="s">
+      <c r="F557" s="6" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A558" s="11" t="n">
+    <row r="558" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A558" s="5" t="n">
         <v>0.008357</v>
       </c>
-      <c r="B558" s="11" t="n">
+      <c r="B558" s="5" t="n">
         <v>0.0626824</v>
       </c>
-      <c r="C558" s="0" t="s">
-        <v>513</v>
-      </c>
-      <c r="D558" s="0" t="n">
+      <c r="C558" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="D558" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="E558" s="0" t="n">
+      <c r="E558" s="6" t="n">
         <v>0.071</v>
       </c>
-      <c r="F558" s="0" t="s">
+      <c r="F558" s="6" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A560" s="13" t="s">
+      <c r="A560" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="B560" s="13"/>
-      <c r="C560" s="13"/>
-      <c r="D560" s="13"/>
-      <c r="E560" s="13"/>
-      <c r="F560" s="13"/>
-      <c r="G560" s="13"/>
+      <c r="B560" s="11"/>
+      <c r="C560" s="11"/>
+      <c r="D560" s="11"/>
+      <c r="E560" s="11"/>
+      <c r="F560" s="11"/>
+      <c r="G560" s="11"/>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="4" t="s">
@@ -12659,305 +12912,475 @@
       <c r="G561" s="4"/>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A562" s="11" t="n">
+      <c r="A562" s="9" t="n">
         <v>1.1974E-005</v>
       </c>
-      <c r="B562" s="11" t="n">
+      <c r="B562" s="9" t="n">
         <v>0.8034868</v>
       </c>
       <c r="C562" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D562" s="0" t="n">
         <v>11</v>
       </c>
-    </row>
-    <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A563" s="11" t="n">
+      <c r="E562" s="0" t="n">
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="563" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A563" s="5" t="n">
         <v>1.3593E-005</v>
       </c>
-      <c r="B563" s="11" t="n">
+      <c r="B563" s="5" t="n">
         <v>0.0631875</v>
       </c>
-      <c r="C563" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="D563" s="0" t="n">
+      <c r="C563" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="D563" s="6" t="n">
         <v>12</v>
       </c>
+      <c r="E563" s="6" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A564" s="11" t="n">
+      <c r="A564" s="9" t="n">
         <v>2.4974E-005</v>
       </c>
-      <c r="B564" s="11" t="n">
+      <c r="B564" s="9" t="n">
         <v>0.0832902</v>
       </c>
       <c r="C564" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D564" s="0" t="n">
         <v>13</v>
       </c>
-    </row>
-    <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A565" s="11" t="n">
+      <c r="E564" s="0" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="565" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A565" s="5" t="n">
         <v>3.6482E-005</v>
       </c>
-      <c r="B565" s="11" t="n">
+      <c r="B565" s="5" t="n">
         <v>0.0013965</v>
       </c>
-      <c r="C565" s="0" t="s">
-        <v>517</v>
-      </c>
-      <c r="D565" s="0" t="n">
+      <c r="C565" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="D565" s="6" t="n">
         <v>14</v>
       </c>
-    </row>
-    <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A566" s="11" t="n">
+      <c r="E565" s="6" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="566" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A566" s="5" t="n">
         <v>6.1263E-005</v>
       </c>
-      <c r="B566" s="11" t="n">
+      <c r="B566" s="5" t="n">
         <v>0.7930285</v>
       </c>
-      <c r="C566" s="0" t="s">
-        <v>518</v>
-      </c>
-      <c r="D566" s="0" t="n">
+      <c r="C566" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D566" s="6" t="n">
         <v>15</v>
       </c>
-    </row>
-    <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A567" s="11" t="n">
+      <c r="E566" s="6" t="n">
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="567" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A567" s="5" t="n">
         <v>9.0421E-005</v>
       </c>
-      <c r="B567" s="11" t="n">
+      <c r="B567" s="5" t="n">
         <v>0.8374195</v>
       </c>
-      <c r="C567" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="D567" s="0" t="n">
+      <c r="C567" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="D567" s="6" t="n">
         <v>16</v>
       </c>
+      <c r="E567" s="6" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="F567" s="6" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A568" s="11" t="n">
+      <c r="A568" s="9" t="n">
         <v>9.7136E-005</v>
       </c>
-      <c r="B568" s="11" t="n">
+      <c r="B568" s="9" t="n">
         <v>0.3480775</v>
       </c>
       <c r="C568" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D568" s="0" t="n">
         <v>17</v>
       </c>
-    </row>
-    <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A569" s="11" t="n">
+      <c r="E568" s="0" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="569" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A569" s="5" t="n">
         <v>0.00012183</v>
       </c>
-      <c r="B569" s="11" t="n">
+      <c r="B569" s="5" t="n">
         <v>0.0086159</v>
       </c>
-      <c r="C569" s="0" t="s">
-        <v>521</v>
-      </c>
-      <c r="D569" s="0" t="n">
+      <c r="C569" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="D569" s="6" t="n">
         <v>18</v>
       </c>
-    </row>
-    <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A570" s="11" t="n">
+      <c r="E569" s="6" t="n">
+        <v>0.095</v>
+      </c>
+    </row>
+    <row r="570" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A570" s="5" t="n">
         <v>0.0001276</v>
       </c>
-      <c r="B570" s="11" t="n">
+      <c r="B570" s="5" t="n">
         <v>0.0252616</v>
       </c>
-      <c r="C570" s="0" t="s">
-        <v>522</v>
-      </c>
-      <c r="D570" s="0" t="n">
+      <c r="C570" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="D570" s="6" t="n">
         <v>19</v>
       </c>
+      <c r="E570" s="6" t="n">
+        <v>0.067</v>
+      </c>
     </row>
     <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A571" s="11" t="n">
+      <c r="A571" s="9" t="n">
         <v>0.00013644</v>
       </c>
-      <c r="B571" s="11" t="n">
+      <c r="B571" s="9" t="n">
         <v>0.1866638</v>
       </c>
       <c r="C571" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D571" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A572" s="11" t="n">
+        <v>22</v>
+      </c>
+      <c r="E571" s="0" t="n">
+        <v>0.267</v>
+      </c>
+    </row>
+    <row r="572" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A572" s="5" t="n">
         <v>0.00026674</v>
       </c>
-      <c r="B572" s="11" t="n">
+      <c r="B572" s="5" t="n">
         <v>0.0056232</v>
       </c>
-      <c r="C572" s="0" t="s">
-        <v>524</v>
-      </c>
-      <c r="D572" s="0" t="n">
+      <c r="C572" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="D572" s="6" t="n">
         <v>21</v>
       </c>
-    </row>
-    <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A573" s="11" t="n">
+      <c r="E572" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A573" s="7" t="n">
+        <v>0.00069454</v>
+      </c>
+      <c r="B573" s="7" t="n">
+        <v>0.0056318</v>
+      </c>
+      <c r="C573" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="D573" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="E573" s="8" t="n">
+        <v>0.344</v>
+      </c>
+    </row>
+    <row r="574" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A574" s="7" t="n">
         <v>0.00029883</v>
       </c>
-      <c r="B573" s="11" t="n">
+      <c r="B574" s="7" t="n">
         <v>0.0288742</v>
       </c>
-      <c r="C573" s="0" t="s">
-        <v>525</v>
-      </c>
-      <c r="D573" s="0" t="n">
+      <c r="C574" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="D574" s="8" t="n">
         <v>22</v>
       </c>
-    </row>
-    <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A574" s="11" t="n">
+      <c r="E574" s="8" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="575" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A575" s="7" t="n">
+        <v>0.0011851</v>
+      </c>
+      <c r="B575" s="7" t="n">
+        <v>0.0295227</v>
+      </c>
+      <c r="C575" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="D575" s="8" t="n">
+        <v>26</v>
+      </c>
+      <c r="E575" s="8" t="n">
+        <v>0.457</v>
+      </c>
+    </row>
+    <row r="576" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A576" s="7" t="n">
+        <v>0.00051564</v>
+      </c>
+      <c r="B576" s="7" t="n">
+        <v>0.0964185</v>
+      </c>
+      <c r="C576" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="D576" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="E576" s="8" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A577" s="9" t="n">
+        <v>0.0012842</v>
+      </c>
+      <c r="B577" s="9" t="n">
+        <v>0.1085323</v>
+      </c>
+      <c r="C577" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="D577" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E577" s="0" t="n">
+        <v>0.298</v>
+      </c>
+    </row>
+    <row r="578" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A578" s="7" t="n">
         <v>0.0004866</v>
       </c>
-      <c r="B574" s="11" t="n">
+      <c r="B578" s="7" t="n">
         <v>0.1482461</v>
       </c>
-      <c r="C574" s="0" t="s">
-        <v>526</v>
-      </c>
-      <c r="D574" s="0" t="n">
+      <c r="C578" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="D578" s="8" t="n">
         <v>23</v>
       </c>
-    </row>
-    <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A575" s="11" t="n">
-        <v>0.00051564</v>
-      </c>
-      <c r="B575" s="11" t="n">
-        <v>0.0964185</v>
-      </c>
-      <c r="C575" s="0" t="s">
-        <v>527</v>
-      </c>
-      <c r="D575" s="0" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A576" s="11" t="n">
-        <v>0.00069454</v>
-      </c>
-      <c r="B576" s="11" t="n">
-        <v>0.0056318</v>
-      </c>
-      <c r="C576" s="0" t="s">
-        <v>528</v>
-      </c>
-      <c r="D576" s="0" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A577" s="11" t="n">
-        <v>0.0011851</v>
-      </c>
-      <c r="B577" s="11" t="n">
-        <v>0.0295227</v>
-      </c>
-      <c r="C577" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="D577" s="0" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A578" s="11" t="n">
-        <v>0.0012842</v>
-      </c>
-      <c r="B578" s="11" t="n">
-        <v>0.1085323</v>
-      </c>
-      <c r="C578" s="0" t="s">
-        <v>530</v>
-      </c>
-      <c r="D578" s="0" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A579" s="11" t="n">
+      <c r="E578" s="8" t="n">
+        <v>0.356</v>
+      </c>
+    </row>
+    <row r="579" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A579" s="5" t="n">
         <v>0.0027521</v>
       </c>
-      <c r="B579" s="11" t="n">
+      <c r="B579" s="5" t="n">
         <v>0.0084986</v>
       </c>
-      <c r="C579" s="0" t="s">
-        <v>531</v>
-      </c>
-      <c r="D579" s="0" t="n">
+      <c r="C579" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="D579" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="E579" s="0" t="n">
+      <c r="E579" s="6" t="n">
         <v>0.135</v>
       </c>
-      <c r="F579" s="0" t="s">
+      <c r="F579" s="6" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A580" s="11" t="n">
+    <row r="580" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A580" s="5" t="n">
         <v>0.009611</v>
       </c>
-      <c r="B580" s="11" t="n">
+      <c r="B580" s="5" t="n">
         <v>0.0384803</v>
       </c>
-      <c r="C580" s="0" t="s">
-        <v>532</v>
-      </c>
-      <c r="D580" s="0" t="n">
+      <c r="C580" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="D580" s="6" t="n">
         <v>29</v>
       </c>
-      <c r="E580" s="0" t="n">
+      <c r="E580" s="6" t="n">
         <v>0.082</v>
       </c>
-      <c r="F580" s="0" t="s">
+      <c r="F580" s="6" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A581" s="11" t="n">
+    <row r="581" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A581" s="5" t="n">
         <v>0.0098824</v>
       </c>
-      <c r="B581" s="11" t="n">
+      <c r="B581" s="5" t="n">
         <v>0.0174164</v>
       </c>
-      <c r="C581" s="0" t="s">
-        <v>533</v>
-      </c>
-      <c r="D581" s="0" t="n">
+      <c r="C581" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="D581" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="E581" s="0" t="n">
+      <c r="E581" s="6" t="n">
         <v>0.083</v>
       </c>
-      <c r="F581" s="0" t="s">
+      <c r="F581" s="6" t="s">
         <v>366</v>
       </c>
     </row>
+    <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A583" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B583" s="11"/>
+      <c r="C583" s="11"/>
+      <c r="D583" s="11"/>
+      <c r="E583" s="11"/>
+      <c r="F583" s="11"/>
+      <c r="G583" s="11"/>
+    </row>
+    <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A584" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B584" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C584" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D584" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E584" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F584" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A585" s="9" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="B585" s="9" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="C585" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="D585" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F585" s="0" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A586" s="9" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="B586" s="9" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C586" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="D586" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F586" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A587" s="9" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="B587" s="9" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="C587" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="D587" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F587" s="0" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A588" s="9" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="B588" s="9" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C588" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="D588" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F588" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A589" s="9" t="n">
+        <v>0.0006</v>
+      </c>
+      <c r="B589" s="9" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="C589" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="D589" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F589" s="0" t="s">
+        <v>291</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="33">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A41:K41"/>
@@ -12990,6 +13413,7 @@
     <mergeCell ref="A514:G514"/>
     <mergeCell ref="A537:G537"/>
     <mergeCell ref="A560:G560"/>
+    <mergeCell ref="A583:G583"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/experiments/hyperparameters/hyperparemeter_search.xlsx
+++ b/experiments/hyperparameters/hyperparemeter_search.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="44" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="22" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,1626 +15,2250 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="748">
+  <si>
+    <t>EXPERIMENT 2_old</t>
+  </si>
+  <si>
+    <t>HYPERPARAMETER SEARCH 1</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Worker</t>
+  </si>
+  <si>
+    <t>Val Log Loss</t>
+  </si>
+  <si>
+    <t>Best IOU</t>
+  </si>
+  <si>
+    <t>Best Threshold</t>
+  </si>
+  <si>
+    <t>IOU2</t>
+  </si>
+  <si>
+    <t>Thresh2</t>
+  </si>
+  <si>
+    <t>Sensitivity at 1 FP</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>run1</t>
+  </si>
+  <si>
+    <t>run2</t>
+  </si>
+  <si>
+    <t>All predictions are the same number (big jump in FP)</t>
+  </si>
+  <si>
+    <t>run3</t>
+  </si>
+  <si>
+    <t>run4</t>
+  </si>
+  <si>
+    <t>run5</t>
+  </si>
+  <si>
+    <t>run6</t>
+  </si>
+  <si>
+    <t>run7</t>
+  </si>
+  <si>
+    <t>Big jump in FP</t>
+  </si>
+  <si>
+    <t>run8</t>
+  </si>
+  <si>
+    <t>run9</t>
+  </si>
+  <si>
+    <t>run10</t>
+  </si>
+  <si>
+    <t>run11</t>
+  </si>
+  <si>
+    <t>run12</t>
+  </si>
+  <si>
+    <t>run13</t>
+  </si>
+  <si>
+    <t>run14</t>
+  </si>
+  <si>
+    <t>run15</t>
+  </si>
+  <si>
+    <t>run16</t>
+  </si>
+  <si>
+    <t>run17</t>
+  </si>
+  <si>
+    <t>run18</t>
+  </si>
+  <si>
+    <t>run19</t>
+  </si>
+  <si>
+    <t>run20</t>
+  </si>
+  <si>
+    <t>run21</t>
+  </si>
+  <si>
+    <t>run22</t>
+  </si>
+  <si>
+    <t>run23</t>
+  </si>
+  <si>
+    <t>run24</t>
+  </si>
+  <si>
+    <t>DIVERGED</t>
+  </si>
+  <si>
+    <t>run25</t>
+  </si>
+  <si>
+    <t>run26</t>
+  </si>
+  <si>
+    <t>run27</t>
+  </si>
+  <si>
+    <t>run28</t>
+  </si>
+  <si>
+    <t>run29</t>
+  </si>
+  <si>
+    <t>run30</t>
+  </si>
+  <si>
+    <t>Initial range</t>
+  </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <t>Alpha:</t>
+  </si>
+  <si>
+    <t>10 .^ unifrnd(-6,0,30,1)</t>
+  </si>
+  <si>
+    <t>IOU 0.015  is the product of predicting the entire image as 1 (low threshold)</t>
+  </si>
+  <si>
+    <t>10 .^ unifrnd(-3, 3, 30, 1)</t>
+  </si>
+  <si>
+    <t>IOU 0.0 is the product of predicting the entire image as 0 (high threshold)</t>
+  </si>
+  <si>
+    <t>HYPERPARAMETER SEARCH 2</t>
+  </si>
+  <si>
+    <t>run31</t>
+  </si>
+  <si>
+    <t>run32</t>
+  </si>
+  <si>
+    <t>run33</t>
+  </si>
+  <si>
+    <t>run34</t>
+  </si>
+  <si>
+    <t>run35</t>
+  </si>
+  <si>
+    <t>run36</t>
+  </si>
+  <si>
+    <t>run37</t>
+  </si>
+  <si>
+    <t>run38</t>
+  </si>
+  <si>
+    <t>run39</t>
+  </si>
+  <si>
+    <t>run40</t>
+  </si>
+  <si>
+    <t>run41</t>
+  </si>
+  <si>
+    <t>run42</t>
+  </si>
+  <si>
+    <t>run43</t>
+  </si>
+  <si>
+    <t>run44</t>
+  </si>
+  <si>
+    <t>run45</t>
+  </si>
+  <si>
+    <t>10 .^ unifrnd(-6,-4,15,1)</t>
+  </si>
+  <si>
+    <t>All thresholds are only one</t>
+  </si>
+  <si>
+    <t>10 .^ unifrnd(-5, -1, 15, 1)</t>
+  </si>
+  <si>
+    <t>HYPERPARAMETER SEARCH 3</t>
+  </si>
+  <si>
+    <t>run46</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Logistic regression</t>
+  </si>
+  <si>
+    <t>run47</t>
+  </si>
+  <si>
+    <t>Tends to same point</t>
+  </si>
+  <si>
+    <t>run48</t>
+  </si>
+  <si>
+    <t>run49</t>
+  </si>
+  <si>
+    <t>run50</t>
+  </si>
+  <si>
+    <t>run51</t>
+  </si>
+  <si>
+    <t>Use a net with random weights just to see if we are learning anything</t>
+  </si>
+  <si>
+    <t>CHOSEN ARCHITECTURE</t>
+  </si>
+  <si>
+    <t>run52</t>
+  </si>
+  <si>
+    <t>Alpha divided by 10 at epoch 30, and again at epoch 40</t>
+  </si>
+  <si>
+    <t>run117</t>
+  </si>
+  <si>
+    <t>selected with the new IOU</t>
+  </si>
+  <si>
+    <t>selected with FROC</t>
+  </si>
+  <si>
+    <t>EXPERIMENT 2_2_old</t>
+  </si>
+  <si>
+    <t>HYPERPARAMETER SEARCH 4</t>
+  </si>
+  <si>
+    <t>run53</t>
+  </si>
+  <si>
+    <t>run64</t>
+  </si>
+  <si>
+    <t>run55</t>
+  </si>
+  <si>
+    <t>run56</t>
+  </si>
+  <si>
+    <t>run58</t>
+  </si>
+  <si>
+    <t>run57</t>
+  </si>
+  <si>
+    <t>run60</t>
+  </si>
+  <si>
+    <t>run66</t>
+  </si>
+  <si>
+    <t>run62</t>
+  </si>
+  <si>
+    <t>converges to same point</t>
+  </si>
+  <si>
+    <t>run63</t>
+  </si>
+  <si>
+    <t>run61</t>
+  </si>
+  <si>
+    <t>run54</t>
+  </si>
+  <si>
+    <t>run65</t>
+  </si>
+  <si>
+    <t>run59</t>
+  </si>
+  <si>
+    <t>run67</t>
+  </si>
+  <si>
+    <t>run68</t>
+  </si>
+  <si>
+    <t>run69</t>
+  </si>
+  <si>
+    <t>run70</t>
+  </si>
+  <si>
+    <t>DIVERGED/ Odd bump in training (probably overflow)</t>
+  </si>
+  <si>
+    <t>run71</t>
+  </si>
+  <si>
+    <t>run72</t>
+  </si>
+  <si>
+    <t>run73</t>
+  </si>
+  <si>
+    <t>run74</t>
+  </si>
+  <si>
+    <t>run75</t>
+  </si>
+  <si>
+    <t>run76</t>
+  </si>
+  <si>
+    <t>run77</t>
+  </si>
+  <si>
+    <t>run78</t>
+  </si>
+  <si>
+    <t>run79</t>
+  </si>
+  <si>
+    <t>run80</t>
+  </si>
+  <si>
+    <t>run81</t>
+  </si>
+  <si>
+    <t>run82</t>
+  </si>
+  <si>
+    <t>10 .^ unifrnd(-6,-1,30,1)</t>
+  </si>
+  <si>
+    <t>High lambda causes convergence to same point</t>
+  </si>
+  <si>
+    <t>10 .^ unifrnd(-4, 1, 30, 1)</t>
+  </si>
+  <si>
+    <t>High alpha causes divergence</t>
+  </si>
+  <si>
+    <t>run83</t>
+  </si>
+  <si>
+    <t>run116</t>
+  </si>
+  <si>
+    <t>EXPERIMENT 2.5</t>
+  </si>
+  <si>
+    <t>run84</t>
+  </si>
+  <si>
+    <t>Network with 0.96/0.04 loss weights</t>
+  </si>
+  <si>
+    <t>Network with 0.98/0.02 loss weights</t>
+  </si>
+  <si>
+    <t>3_old</t>
+  </si>
+  <si>
+    <t>HYPERPARAMETER SEARCH 5</t>
+  </si>
+  <si>
+    <t>run85</t>
+  </si>
+  <si>
+    <t>run86</t>
+  </si>
+  <si>
+    <t>high threshold</t>
+  </si>
+  <si>
+    <t>run87</t>
+  </si>
+  <si>
+    <t>run88</t>
+  </si>
+  <si>
+    <t>run89</t>
+  </si>
+  <si>
+    <t>run90</t>
+  </si>
+  <si>
+    <t>run91</t>
+  </si>
+  <si>
+    <t>run92</t>
+  </si>
+  <si>
+    <t>run93</t>
+  </si>
+  <si>
+    <t>run94</t>
+  </si>
+  <si>
+    <t>run95</t>
+  </si>
+  <si>
+    <t>run96</t>
+  </si>
+  <si>
+    <t>run97</t>
+  </si>
+  <si>
+    <t>run98</t>
+  </si>
+  <si>
+    <t>run99</t>
+  </si>
+  <si>
+    <t>run100</t>
+  </si>
+  <si>
+    <t>run101</t>
+  </si>
+  <si>
+    <t>run102</t>
+  </si>
+  <si>
+    <t>run103</t>
+  </si>
+  <si>
+    <t>run104</t>
+  </si>
+  <si>
+    <t>run105</t>
+  </si>
+  <si>
+    <t>run106</t>
+  </si>
+  <si>
+    <t>run107</t>
+  </si>
+  <si>
+    <t>run108</t>
+  </si>
+  <si>
+    <t>run109</t>
+  </si>
+  <si>
+    <t>looks weird</t>
+  </si>
+  <si>
+    <t>run110</t>
+  </si>
+  <si>
+    <t>run111</t>
+  </si>
+  <si>
+    <t>run112</t>
+  </si>
+  <si>
+    <t>run113</t>
+  </si>
+  <si>
+    <t>run114</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>10 .^ unifrnd(-6,-2,30,1)</t>
+  </si>
+  <si>
+    <t>For plots deleted points with 10 highest alphas or 10 highest lambdas (if repeated)</t>
+  </si>
+  <si>
+    <t>10 .^ unifrnd(-5, 0, 30, 1)</t>
+  </si>
+  <si>
+    <t>run115</t>
+  </si>
+  <si>
+    <t>run118</t>
+  </si>
+  <si>
+    <t>EXPERIMENT 3</t>
+  </si>
+  <si>
+    <t>10 .^ unifrnd(-6,-3,20,1)</t>
+  </si>
+  <si>
+    <t>5 folds</t>
+  </si>
+  <si>
+    <t>10 .^ unifrnd(-5, -2, 20, 1)</t>
+  </si>
+  <si>
+    <t>FOLD 1</t>
+  </si>
+  <si>
+    <t>run119</t>
+  </si>
+  <si>
+    <t>run120</t>
+  </si>
+  <si>
+    <t>run121</t>
+  </si>
+  <si>
+    <t>run122</t>
+  </si>
+  <si>
+    <t>run123</t>
+  </si>
+  <si>
+    <t>run124</t>
+  </si>
+  <si>
+    <t>run125</t>
+  </si>
+  <si>
+    <t>run126</t>
+  </si>
+  <si>
+    <t>run127</t>
+  </si>
+  <si>
+    <t>run128</t>
+  </si>
+  <si>
+    <t>run129</t>
+  </si>
+  <si>
+    <t>run130</t>
+  </si>
+  <si>
+    <t>run131</t>
+  </si>
+  <si>
+    <t>run132</t>
+  </si>
+  <si>
+    <t>run133</t>
+  </si>
+  <si>
+    <t>run134</t>
+  </si>
+  <si>
+    <t>run135</t>
+  </si>
+  <si>
+    <t>run136</t>
+  </si>
+  <si>
+    <t>run137</t>
+  </si>
+  <si>
+    <t>run138</t>
+  </si>
+  <si>
+    <t>FOLD 2</t>
+  </si>
+  <si>
+    <t>run139</t>
+  </si>
+  <si>
+    <t>run140</t>
+  </si>
+  <si>
+    <t>run141</t>
+  </si>
+  <si>
+    <t>run142</t>
+  </si>
+  <si>
+    <t>run143</t>
+  </si>
+  <si>
+    <t>run144</t>
+  </si>
+  <si>
+    <t>run145</t>
+  </si>
+  <si>
+    <t>run146</t>
+  </si>
+  <si>
+    <t>run147</t>
+  </si>
+  <si>
+    <t>run148</t>
+  </si>
+  <si>
+    <t>run149</t>
+  </si>
+  <si>
+    <t>run150</t>
+  </si>
+  <si>
+    <t>run151</t>
+  </si>
+  <si>
+    <t>run152</t>
+  </si>
+  <si>
+    <t>run153</t>
+  </si>
+  <si>
+    <t>run154</t>
+  </si>
+  <si>
+    <t>run155</t>
+  </si>
+  <si>
+    <t>run156</t>
+  </si>
+  <si>
+    <t>run157</t>
+  </si>
+  <si>
+    <t>run158</t>
+  </si>
+  <si>
+    <t>FOLD 3</t>
+  </si>
+  <si>
+    <t>run159</t>
+  </si>
+  <si>
+    <t>run160</t>
+  </si>
+  <si>
+    <t>run161</t>
+  </si>
+  <si>
+    <t>run162</t>
+  </si>
+  <si>
+    <t>run163</t>
+  </si>
+  <si>
+    <t>run164</t>
+  </si>
+  <si>
+    <t>run165</t>
+  </si>
+  <si>
+    <t>run166</t>
+  </si>
+  <si>
+    <t>run167</t>
+  </si>
+  <si>
+    <t>run168</t>
+  </si>
+  <si>
+    <t>run169</t>
+  </si>
+  <si>
+    <t>run170</t>
+  </si>
+  <si>
+    <t>run171</t>
+  </si>
+  <si>
+    <t>run172</t>
+  </si>
+  <si>
+    <t>run173</t>
+  </si>
+  <si>
+    <t>run174</t>
+  </si>
+  <si>
+    <t>run175</t>
+  </si>
+  <si>
+    <t>run176</t>
+  </si>
+  <si>
+    <t>run177</t>
+  </si>
+  <si>
+    <t>run178</t>
+  </si>
+  <si>
+    <t>FOLD 4</t>
+  </si>
+  <si>
+    <t>run179</t>
+  </si>
+  <si>
+    <t>run180</t>
+  </si>
+  <si>
+    <t>run181</t>
+  </si>
+  <si>
+    <t>run182</t>
+  </si>
+  <si>
+    <t>run183</t>
+  </si>
+  <si>
+    <t>run184</t>
+  </si>
+  <si>
+    <t>run185</t>
+  </si>
+  <si>
+    <t>run186</t>
+  </si>
+  <si>
+    <t>run187</t>
+  </si>
+  <si>
+    <t>run188</t>
+  </si>
+  <si>
+    <t>run189</t>
+  </si>
+  <si>
+    <t>run190</t>
+  </si>
+  <si>
+    <t>run191</t>
+  </si>
+  <si>
+    <t>run192</t>
+  </si>
+  <si>
+    <t>run193</t>
+  </si>
+  <si>
+    <t>run194</t>
+  </si>
+  <si>
+    <t>run195</t>
+  </si>
+  <si>
+    <t>run196</t>
+  </si>
+  <si>
+    <t>run197</t>
+  </si>
+  <si>
+    <t>run198</t>
+  </si>
+  <si>
+    <t>FOLD 5</t>
+  </si>
+  <si>
+    <t>run199</t>
+  </si>
+  <si>
+    <t>run200</t>
+  </si>
+  <si>
+    <t>run201</t>
+  </si>
+  <si>
+    <t>run202</t>
+  </si>
+  <si>
+    <t>run203</t>
+  </si>
+  <si>
+    <t>run204</t>
+  </si>
+  <si>
+    <t>run205</t>
+  </si>
+  <si>
+    <t>run206</t>
+  </si>
+  <si>
+    <t>run207</t>
+  </si>
+  <si>
+    <t>run208</t>
+  </si>
+  <si>
+    <t>run209</t>
+  </si>
+  <si>
+    <t>run210</t>
+  </si>
+  <si>
+    <t>run211</t>
+  </si>
+  <si>
+    <t>run212</t>
+  </si>
+  <si>
+    <t>run213</t>
+  </si>
+  <si>
+    <t>run214</t>
+  </si>
+  <si>
+    <t>run215</t>
+  </si>
+  <si>
+    <t>run216</t>
+  </si>
+  <si>
+    <t>run217</t>
+  </si>
+  <si>
+    <t>run218</t>
+  </si>
+  <si>
+    <t>run219</t>
+  </si>
+  <si>
+    <t>fold1</t>
+  </si>
+  <si>
+    <t>run220</t>
+  </si>
+  <si>
+    <t>fold2</t>
+  </si>
+  <si>
+    <t>run221</t>
+  </si>
+  <si>
+    <t>fold3</t>
+  </si>
+  <si>
+    <t>run222</t>
+  </si>
+  <si>
+    <t>fold4</t>
+  </si>
+  <si>
+    <t>run223</t>
+  </si>
+  <si>
+    <t>fold5</t>
+  </si>
+  <si>
+    <t>EXPERIMENT 1</t>
+  </si>
+  <si>
+    <t>10 .^ unifrnd(-5,-1,25,1)</t>
+  </si>
+  <si>
+    <t>10 .^ unifrnd(-4, -1, 25, 1)</t>
+  </si>
+  <si>
+    <t>run224</t>
+  </si>
+  <si>
+    <t>run225</t>
+  </si>
+  <si>
+    <t>run226</t>
+  </si>
+  <si>
+    <t>run227</t>
+  </si>
+  <si>
+    <t>run228</t>
+  </si>
+  <si>
+    <t>run229</t>
+  </si>
+  <si>
+    <t>run230</t>
+  </si>
+  <si>
+    <t>run231</t>
+  </si>
+  <si>
+    <t>may be a small validation set, 5.8 is the greatest FP</t>
+  </si>
+  <si>
+    <t>run232</t>
+  </si>
+  <si>
+    <t>another small val set, 3 is the greatest FP</t>
+  </si>
+  <si>
+    <t>run233</t>
+  </si>
+  <si>
+    <t>run234</t>
+  </si>
+  <si>
+    <t>run235</t>
+  </si>
+  <si>
+    <t>Only 3 FP but looks good</t>
+  </si>
+  <si>
+    <t>run236</t>
+  </si>
+  <si>
+    <t>run237</t>
+  </si>
+  <si>
+    <t>run238</t>
+  </si>
+  <si>
+    <t>Max is 3 FP</t>
+  </si>
+  <si>
+    <t>run239</t>
+  </si>
+  <si>
+    <t>run240</t>
+  </si>
+  <si>
+    <t>run241</t>
+  </si>
+  <si>
+    <t>run242</t>
+  </si>
+  <si>
+    <t>run243</t>
+  </si>
+  <si>
+    <t>run244</t>
+  </si>
+  <si>
+    <t>run245</t>
+  </si>
+  <si>
+    <t>run246</t>
+  </si>
+  <si>
+    <t>run247</t>
+  </si>
+  <si>
+    <t>run248</t>
+  </si>
+  <si>
+    <t>run249</t>
+  </si>
+  <si>
+    <t>run250</t>
+  </si>
+  <si>
+    <t>run251</t>
+  </si>
+  <si>
+    <t>run252</t>
+  </si>
+  <si>
+    <t>run253</t>
+  </si>
+  <si>
+    <t>run254</t>
+  </si>
+  <si>
+    <t>run255</t>
+  </si>
+  <si>
+    <t>run256</t>
+  </si>
+  <si>
+    <t>run257</t>
+  </si>
+  <si>
+    <t>run258</t>
+  </si>
+  <si>
+    <t>run259</t>
+  </si>
+  <si>
+    <t>run260</t>
+  </si>
+  <si>
+    <t>run261</t>
+  </si>
+  <si>
+    <t>run262</t>
+  </si>
+  <si>
+    <t>run263</t>
+  </si>
+  <si>
+    <t>run264</t>
+  </si>
+  <si>
+    <t>run265</t>
+  </si>
+  <si>
+    <t>run266</t>
+  </si>
+  <si>
+    <t>run267</t>
+  </si>
+  <si>
+    <t>run268</t>
+  </si>
+  <si>
+    <t>run269</t>
+  </si>
+  <si>
+    <t>run270</t>
+  </si>
+  <si>
+    <t>run271</t>
+  </si>
+  <si>
+    <t>run272</t>
+  </si>
+  <si>
+    <t>run273</t>
+  </si>
+  <si>
+    <t>run274</t>
+  </si>
+  <si>
+    <t>run275</t>
+  </si>
+  <si>
+    <t>run276</t>
+  </si>
+  <si>
+    <t>run277</t>
+  </si>
+  <si>
+    <t>run278</t>
+  </si>
+  <si>
+    <t>run279</t>
+  </si>
+  <si>
+    <t>run280</t>
+  </si>
+  <si>
+    <t>run281</t>
+  </si>
+  <si>
+    <t>run289</t>
+  </si>
+  <si>
+    <t>kinda big jump</t>
+  </si>
+  <si>
+    <t>run282</t>
+  </si>
+  <si>
+    <t>run286</t>
+  </si>
+  <si>
+    <t>run287</t>
+  </si>
+  <si>
+    <t>run285</t>
+  </si>
+  <si>
+    <t>run283</t>
+  </si>
+  <si>
+    <t>run288</t>
+  </si>
+  <si>
+    <t>run284</t>
+  </si>
+  <si>
+    <t>big jump in FP</t>
+  </si>
+  <si>
+    <t>run290</t>
+  </si>
+  <si>
+    <t>run291</t>
+  </si>
+  <si>
+    <t>run292</t>
+  </si>
+  <si>
+    <t>run293</t>
+  </si>
+  <si>
+    <t>run294</t>
+  </si>
+  <si>
+    <t>run295</t>
+  </si>
+  <si>
+    <t>run296</t>
+  </si>
+  <si>
+    <t>run297</t>
+  </si>
+  <si>
+    <t>run298</t>
+  </si>
+  <si>
+    <t>run299</t>
+  </si>
+  <si>
+    <t>run300</t>
+  </si>
+  <si>
+    <t>run301</t>
+  </si>
+  <si>
+    <t>run303</t>
+  </si>
+  <si>
+    <t>run312</t>
+  </si>
+  <si>
+    <t>run308</t>
+  </si>
+  <si>
+    <t>run305</t>
+  </si>
+  <si>
+    <t>run309</t>
+  </si>
+  <si>
+    <t>run310</t>
+  </si>
+  <si>
+    <t>run311</t>
+  </si>
+  <si>
+    <t>run307</t>
+  </si>
+  <si>
+    <t>run302</t>
+  </si>
+  <si>
+    <t>run313</t>
+  </si>
+  <si>
+    <t>run306</t>
+  </si>
+  <si>
+    <t>run304</t>
+  </si>
+  <si>
+    <t>run314</t>
+  </si>
+  <si>
+    <t>run315</t>
+  </si>
+  <si>
+    <t>run316</t>
+  </si>
+  <si>
+    <t>run317</t>
+  </si>
+  <si>
+    <t>run318</t>
+  </si>
+  <si>
+    <t>run319</t>
+  </si>
+  <si>
+    <t>run320</t>
+  </si>
+  <si>
+    <t>run321</t>
+  </si>
+  <si>
+    <t>run322</t>
+  </si>
+  <si>
+    <t>run323</t>
+  </si>
+  <si>
+    <t>run324</t>
+  </si>
+  <si>
+    <t>run325</t>
+  </si>
+  <si>
+    <t>run326</t>
+  </si>
+  <si>
+    <t>run327</t>
+  </si>
+  <si>
+    <t>run334</t>
+  </si>
+  <si>
+    <t>run333</t>
+  </si>
+  <si>
+    <t>run331</t>
+  </si>
+  <si>
+    <t>run332</t>
+  </si>
+  <si>
+    <t>run330</t>
+  </si>
+  <si>
+    <t>run328</t>
+  </si>
+  <si>
+    <t>run329</t>
+  </si>
+  <si>
+    <t>run335</t>
+  </si>
+  <si>
+    <t>run336</t>
+  </si>
+  <si>
+    <t>run337</t>
+  </si>
+  <si>
+    <t>run338</t>
+  </si>
+  <si>
+    <t>run339</t>
+  </si>
+  <si>
+    <t>run340</t>
+  </si>
+  <si>
+    <t>run341</t>
+  </si>
+  <si>
+    <t>run342</t>
+  </si>
+  <si>
+    <t>run343</t>
+  </si>
+  <si>
+    <t>run344</t>
+  </si>
+  <si>
+    <t>run345</t>
+  </si>
+  <si>
+    <t>run346</t>
+  </si>
+  <si>
+    <t>run347</t>
+  </si>
+  <si>
+    <t>run348</t>
+  </si>
+  <si>
+    <t>Test sensitivity at 1 FP</t>
+  </si>
+  <si>
+    <t>run349</t>
+  </si>
+  <si>
+    <t>run350</t>
+  </si>
+  <si>
+    <t>run351</t>
+  </si>
+  <si>
+    <t>run352</t>
+  </si>
+  <si>
+    <t>run353</t>
+  </si>
+  <si>
+    <t>EXPERIMENT 1_2</t>
+  </si>
+  <si>
+    <t>10 .^ unifrnd(-5,-2,20,1)</t>
+  </si>
+  <si>
+    <t>10 .^ unifrnd(-3, 0, 20, 1)</t>
+  </si>
+  <si>
+    <t>run354</t>
+  </si>
+  <si>
+    <t>run355</t>
+  </si>
+  <si>
+    <t>run356</t>
+  </si>
+  <si>
+    <t>run362</t>
+  </si>
+  <si>
+    <t>run367</t>
+  </si>
+  <si>
+    <t>run363</t>
+  </si>
+  <si>
+    <t>run359</t>
+  </si>
+  <si>
+    <t>run366</t>
+  </si>
+  <si>
+    <t>run358</t>
+  </si>
+  <si>
+    <t>run361</t>
+  </si>
+  <si>
+    <t>run364</t>
+  </si>
+  <si>
+    <t>run360</t>
+  </si>
+  <si>
+    <t>run365</t>
+  </si>
+  <si>
+    <t>run357</t>
+  </si>
+  <si>
+    <t>run368</t>
+  </si>
+  <si>
+    <t>run369</t>
+  </si>
+  <si>
+    <t>run370</t>
+  </si>
+  <si>
+    <t>run371</t>
+  </si>
+  <si>
+    <t>run372</t>
+  </si>
+  <si>
+    <t>run373</t>
+  </si>
+  <si>
+    <t>run374</t>
+  </si>
+  <si>
+    <t>run375</t>
+  </si>
+  <si>
+    <t>run376</t>
+  </si>
+  <si>
+    <t>run377</t>
+  </si>
+  <si>
+    <t>run378</t>
+  </si>
+  <si>
+    <t>run379</t>
+  </si>
+  <si>
+    <t>run380</t>
+  </si>
+  <si>
+    <t>run381</t>
+  </si>
+  <si>
+    <t>run382</t>
+  </si>
+  <si>
+    <t>run383</t>
+  </si>
+  <si>
+    <t>run384</t>
+  </si>
+  <si>
+    <t>run385</t>
+  </si>
+  <si>
+    <t>run386</t>
+  </si>
+  <si>
+    <t>run387</t>
+  </si>
+  <si>
+    <t>run388</t>
+  </si>
+  <si>
+    <t>run389</t>
+  </si>
+  <si>
+    <t>run390</t>
+  </si>
+  <si>
+    <t>run391</t>
+  </si>
+  <si>
+    <t>run392</t>
+  </si>
+  <si>
+    <t>run393</t>
+  </si>
+  <si>
+    <t>run394</t>
+  </si>
+  <si>
+    <t>run395</t>
+  </si>
+  <si>
+    <t>run404</t>
+  </si>
+  <si>
+    <t>run403</t>
+  </si>
+  <si>
+    <t>run397</t>
+  </si>
+  <si>
+    <t>run399</t>
+  </si>
+  <si>
+    <t>run398</t>
+  </si>
+  <si>
+    <t>run402</t>
+  </si>
+  <si>
+    <t>run401</t>
+  </si>
+  <si>
+    <t>run396</t>
+  </si>
+  <si>
+    <t>run405</t>
+  </si>
+  <si>
+    <t>run400</t>
+  </si>
+  <si>
+    <t>run406</t>
+  </si>
+  <si>
+    <t>run407</t>
+  </si>
+  <si>
+    <t>run408</t>
+  </si>
+  <si>
+    <t>run409</t>
+  </si>
+  <si>
+    <t>run410</t>
+  </si>
+  <si>
+    <t>run411</t>
+  </si>
+  <si>
+    <t>run412</t>
+  </si>
+  <si>
+    <t>run413</t>
+  </si>
+  <si>
+    <t>run414</t>
+  </si>
+  <si>
+    <t>run415</t>
+  </si>
+  <si>
+    <t>run416</t>
+  </si>
+  <si>
+    <t>run417</t>
+  </si>
+  <si>
+    <t>run418</t>
+  </si>
+  <si>
+    <t>run419</t>
+  </si>
+  <si>
+    <t>run420</t>
+  </si>
+  <si>
+    <t>run421</t>
+  </si>
+  <si>
+    <t>run422</t>
+  </si>
+  <si>
+    <t>run423</t>
+  </si>
+  <si>
+    <t>run424</t>
+  </si>
+  <si>
+    <t>run425</t>
+  </si>
+  <si>
+    <t>run426</t>
+  </si>
+  <si>
+    <t>run427</t>
+  </si>
+  <si>
+    <t>run428</t>
+  </si>
+  <si>
+    <t>run429</t>
+  </si>
+  <si>
+    <t>run430</t>
+  </si>
+  <si>
+    <t>run431</t>
+  </si>
+  <si>
+    <t>run432</t>
+  </si>
+  <si>
+    <t>run433</t>
+  </si>
+  <si>
+    <t>run434</t>
+  </si>
+  <si>
+    <t>run435</t>
+  </si>
+  <si>
+    <t>run436</t>
+  </si>
+  <si>
+    <t>run437</t>
+  </si>
+  <si>
+    <t>run438</t>
+  </si>
+  <si>
+    <t>run439</t>
+  </si>
+  <si>
+    <t>run440</t>
+  </si>
+  <si>
+    <t>run441</t>
+  </si>
+  <si>
+    <t>run442</t>
+  </si>
+  <si>
+    <t>run443</t>
+  </si>
+  <si>
+    <t>run444</t>
+  </si>
+  <si>
+    <t>run448</t>
+  </si>
+  <si>
+    <t>run445</t>
+  </si>
+  <si>
+    <t>run449</t>
+  </si>
+  <si>
+    <t>run447</t>
+  </si>
+  <si>
+    <t>run450</t>
+  </si>
+  <si>
+    <t>run446</t>
+  </si>
+  <si>
+    <t>run451</t>
+  </si>
+  <si>
+    <t>run452</t>
+  </si>
+  <si>
+    <t>run453</t>
+  </si>
+  <si>
+    <t>run454</t>
+  </si>
+  <si>
+    <t>run455</t>
+  </si>
+  <si>
+    <t>run456</t>
+  </si>
+  <si>
+    <t>run457</t>
+  </si>
+  <si>
+    <t>run458</t>
+  </si>
   <si>
     <t>EXPERIMENT 2</t>
   </si>
   <si>
-    <t>HYPERPARAMETER SEARCH 1</t>
-  </si>
-  <si>
-    <t>Alpha</t>
-  </si>
-  <si>
-    <t>Lambda</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Worker</t>
-  </si>
-  <si>
-    <t>Val Log Loss</t>
-  </si>
-  <si>
-    <t>Best IOU</t>
-  </si>
-  <si>
-    <t>Best Threshold</t>
-  </si>
-  <si>
-    <t>IOU2</t>
-  </si>
-  <si>
-    <t>Thresh2</t>
-  </si>
-  <si>
-    <t>Sensitivity at 1 FP</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>run1</t>
-  </si>
-  <si>
-    <t>run2</t>
-  </si>
-  <si>
-    <t>All predictions are the same number (big jump in FP)</t>
-  </si>
-  <si>
-    <t>run3</t>
-  </si>
-  <si>
-    <t>run4</t>
-  </si>
-  <si>
-    <t>run5</t>
-  </si>
-  <si>
-    <t>run6</t>
-  </si>
-  <si>
-    <t>run7</t>
-  </si>
-  <si>
-    <t>Big jump in FP</t>
-  </si>
-  <si>
-    <t>run8</t>
-  </si>
-  <si>
-    <t>run9</t>
-  </si>
-  <si>
-    <t>run10</t>
-  </si>
-  <si>
-    <t>run11</t>
-  </si>
-  <si>
-    <t>run12</t>
-  </si>
-  <si>
-    <t>run13</t>
-  </si>
-  <si>
-    <t>run14</t>
-  </si>
-  <si>
-    <t>run15</t>
-  </si>
-  <si>
-    <t>run16</t>
-  </si>
-  <si>
-    <t>run17</t>
-  </si>
-  <si>
-    <t>run18</t>
-  </si>
-  <si>
-    <t>run19</t>
-  </si>
-  <si>
-    <t>run20</t>
-  </si>
-  <si>
-    <t>run21</t>
-  </si>
-  <si>
-    <t>run22</t>
-  </si>
-  <si>
-    <t>run23</t>
-  </si>
-  <si>
-    <t>run24</t>
-  </si>
-  <si>
-    <t>DIVERGED</t>
-  </si>
-  <si>
-    <t>run25</t>
-  </si>
-  <si>
-    <t>run26</t>
-  </si>
-  <si>
-    <t>run27</t>
-  </si>
-  <si>
-    <t>run28</t>
-  </si>
-  <si>
-    <t>run29</t>
-  </si>
-  <si>
-    <t>run30</t>
-  </si>
-  <si>
-    <t>Initial range</t>
-  </si>
-  <si>
-    <t>Note:</t>
-  </si>
-  <si>
-    <t>Alpha:</t>
-  </si>
-  <si>
-    <t>10 .^ unifrnd(-6,0,30,1)</t>
-  </si>
-  <si>
-    <t>IOU 0.015  is the product of predicting the entire image as 1 (low threshold)</t>
-  </si>
-  <si>
-    <t>10 .^ unifrnd(-3, 3, 30, 1)</t>
-  </si>
-  <si>
-    <t>IOU 0.0 is the product of predicting the entire image as 0 (high threshold)</t>
-  </si>
-  <si>
-    <t>HYPERPARAMETER SEARCH 2</t>
-  </si>
-  <si>
-    <t>run31</t>
-  </si>
-  <si>
-    <t>run32</t>
-  </si>
-  <si>
-    <t>run33</t>
-  </si>
-  <si>
-    <t>run34</t>
-  </si>
-  <si>
-    <t>run35</t>
-  </si>
-  <si>
-    <t>run36</t>
-  </si>
-  <si>
-    <t>run37</t>
-  </si>
-  <si>
-    <t>run38</t>
-  </si>
-  <si>
-    <t>run39</t>
-  </si>
-  <si>
-    <t>run40</t>
-  </si>
-  <si>
-    <t>run41</t>
-  </si>
-  <si>
-    <t>run42</t>
-  </si>
-  <si>
-    <t>run43</t>
-  </si>
-  <si>
-    <t>run44</t>
-  </si>
-  <si>
-    <t>run45</t>
-  </si>
-  <si>
-    <t>10 .^ unifrnd(-6,-4,15,1)</t>
-  </si>
-  <si>
-    <t>All thresholds are only one</t>
-  </si>
-  <si>
-    <t>10 .^ unifrnd(-5, -1, 15, 1)</t>
-  </si>
-  <si>
-    <t>HYPERPARAMETER SEARCH 3</t>
-  </si>
-  <si>
-    <t>run46</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Logistic regression</t>
-  </si>
-  <si>
-    <t>run47</t>
-  </si>
-  <si>
-    <t>Tends to same point</t>
-  </si>
-  <si>
-    <t>run48</t>
-  </si>
-  <si>
-    <t>run49</t>
-  </si>
-  <si>
-    <t>run50</t>
-  </si>
-  <si>
-    <t>run51</t>
-  </si>
-  <si>
-    <t>Use a net with random weights just to see if we are learning anything</t>
-  </si>
-  <si>
-    <t>CHOSEN ARCHITECTURE</t>
-  </si>
-  <si>
-    <t>run52</t>
-  </si>
-  <si>
-    <t>Alpha divided by 10 at epoch 30, and again at epoch 40</t>
-  </si>
-  <si>
-    <t>run117</t>
-  </si>
-  <si>
-    <t>selected with the new IOU</t>
-  </si>
-  <si>
-    <t>selected with FROC</t>
-  </si>
-  <si>
-    <t>EXPERIMENT 2_2</t>
-  </si>
-  <si>
-    <t>HYPERPARAMETER SEARCH 4</t>
-  </si>
-  <si>
-    <t>run53</t>
-  </si>
-  <si>
-    <t>run54</t>
-  </si>
-  <si>
-    <t>run55</t>
-  </si>
-  <si>
-    <t>run56</t>
-  </si>
-  <si>
-    <t>run57</t>
-  </si>
-  <si>
-    <t>run58</t>
-  </si>
-  <si>
-    <t>run59</t>
-  </si>
-  <si>
-    <t>converges to same point</t>
-  </si>
-  <si>
-    <t>run60</t>
-  </si>
-  <si>
-    <t>run61</t>
-  </si>
-  <si>
-    <t>run62</t>
-  </si>
-  <si>
-    <t>run63</t>
-  </si>
-  <si>
-    <t>run64</t>
-  </si>
-  <si>
-    <t>run65</t>
-  </si>
-  <si>
-    <t>run66</t>
-  </si>
-  <si>
-    <t>run67</t>
-  </si>
-  <si>
-    <t>run68</t>
-  </si>
-  <si>
-    <t>run69</t>
-  </si>
-  <si>
-    <t>run70</t>
-  </si>
-  <si>
-    <t>DIVERGED/ Odd bump in training (probably overflow)</t>
-  </si>
-  <si>
-    <t>run71</t>
-  </si>
-  <si>
-    <t>run72</t>
-  </si>
-  <si>
-    <t>run73</t>
-  </si>
-  <si>
-    <t>run74</t>
-  </si>
-  <si>
-    <t>run75</t>
-  </si>
-  <si>
-    <t>run76</t>
-  </si>
-  <si>
-    <t>run77</t>
-  </si>
-  <si>
-    <t>run78</t>
-  </si>
-  <si>
-    <t>run79</t>
-  </si>
-  <si>
-    <t>run80</t>
-  </si>
-  <si>
-    <t>run81</t>
-  </si>
-  <si>
-    <t>run82</t>
-  </si>
-  <si>
-    <t>10 .^ unifrnd(-6,-1,30,1)</t>
-  </si>
-  <si>
-    <t>High lambda causes convergence to same point</t>
-  </si>
-  <si>
-    <t>10 .^ unifrnd(-4, 1, 30, 1)</t>
-  </si>
-  <si>
-    <t>High alpha causes divergence</t>
-  </si>
-  <si>
-    <t>run83</t>
-  </si>
-  <si>
-    <t>run116</t>
-  </si>
-  <si>
-    <t>EXPERIMENT 2.5</t>
-  </si>
-  <si>
-    <t>run84</t>
-  </si>
-  <si>
-    <t>Network with 0.96/0.04 loss weights</t>
-  </si>
-  <si>
-    <t>Network with 0.98/0.02 loss weights</t>
-  </si>
-  <si>
-    <t>3_old</t>
-  </si>
-  <si>
-    <t>HYPERPARAMETER SEARCH 5</t>
-  </si>
-  <si>
-    <t>run85</t>
-  </si>
-  <si>
-    <t>run86</t>
-  </si>
-  <si>
-    <t>high threshold</t>
-  </si>
-  <si>
-    <t>run87</t>
-  </si>
-  <si>
-    <t>run88</t>
-  </si>
-  <si>
-    <t>run89</t>
-  </si>
-  <si>
-    <t>run90</t>
-  </si>
-  <si>
-    <t>run91</t>
-  </si>
-  <si>
-    <t>run92</t>
-  </si>
-  <si>
-    <t>run93</t>
-  </si>
-  <si>
-    <t>run94</t>
-  </si>
-  <si>
-    <t>run95</t>
-  </si>
-  <si>
-    <t>run96</t>
-  </si>
-  <si>
-    <t>run97</t>
-  </si>
-  <si>
-    <t>run98</t>
-  </si>
-  <si>
-    <t>run99</t>
-  </si>
-  <si>
-    <t>run100</t>
-  </si>
-  <si>
-    <t>run101</t>
-  </si>
-  <si>
-    <t>run102</t>
-  </si>
-  <si>
-    <t>run103</t>
-  </si>
-  <si>
-    <t>run104</t>
-  </si>
-  <si>
-    <t>run105</t>
-  </si>
-  <si>
-    <t>run106</t>
-  </si>
-  <si>
-    <t>run107</t>
-  </si>
-  <si>
-    <t>run108</t>
-  </si>
-  <si>
-    <t>run109</t>
-  </si>
-  <si>
-    <t>looks weird</t>
-  </si>
-  <si>
-    <t>run110</t>
-  </si>
-  <si>
-    <t>run111</t>
-  </si>
-  <si>
-    <t>run112</t>
-  </si>
-  <si>
-    <t>run113</t>
-  </si>
-  <si>
-    <t>run114</t>
-  </si>
-  <si>
-    <t>Notes:</t>
-  </si>
-  <si>
-    <t>10 .^ unifrnd(-6,-2,30,1)</t>
-  </si>
-  <si>
-    <t>For plots deleted points with 10 highest alphas or 10 highest lambdas (if repeated)</t>
-  </si>
-  <si>
-    <t>10 .^ unifrnd(-5, 0, 30, 1)</t>
-  </si>
-  <si>
-    <t>run115</t>
-  </si>
-  <si>
-    <t>run118</t>
-  </si>
-  <si>
-    <t>EXPERIMENT 3</t>
-  </si>
-  <si>
-    <t>10 .^ unifrnd(-6,-3,20,1)</t>
-  </si>
-  <si>
-    <t>5 folds</t>
-  </si>
-  <si>
-    <t>10 .^ unifrnd(-5, -2, 20, 1)</t>
-  </si>
-  <si>
-    <t>FOLD 1</t>
-  </si>
-  <si>
-    <t>run119</t>
-  </si>
-  <si>
-    <t>run120</t>
-  </si>
-  <si>
-    <t>run121</t>
-  </si>
-  <si>
-    <t>run122</t>
-  </si>
-  <si>
-    <t>run123</t>
-  </si>
-  <si>
-    <t>run124</t>
-  </si>
-  <si>
-    <t>run125</t>
-  </si>
-  <si>
-    <t>run126</t>
-  </si>
-  <si>
-    <t>run127</t>
-  </si>
-  <si>
-    <t>run128</t>
-  </si>
-  <si>
-    <t>run129</t>
-  </si>
-  <si>
-    <t>run130</t>
-  </si>
-  <si>
-    <t>run131</t>
-  </si>
-  <si>
-    <t>run132</t>
-  </si>
-  <si>
-    <t>run133</t>
-  </si>
-  <si>
-    <t>run134</t>
-  </si>
-  <si>
-    <t>run135</t>
-  </si>
-  <si>
-    <t>run136</t>
-  </si>
-  <si>
-    <t>run137</t>
-  </si>
-  <si>
-    <t>run138</t>
-  </si>
-  <si>
-    <t>FOLD 2</t>
-  </si>
-  <si>
-    <t>run139</t>
-  </si>
-  <si>
-    <t>run140</t>
-  </si>
-  <si>
-    <t>run141</t>
-  </si>
-  <si>
-    <t>run142</t>
-  </si>
-  <si>
-    <t>run143</t>
-  </si>
-  <si>
-    <t>run144</t>
-  </si>
-  <si>
-    <t>run145</t>
-  </si>
-  <si>
-    <t>run146</t>
-  </si>
-  <si>
-    <t>run147</t>
-  </si>
-  <si>
-    <t>run148</t>
-  </si>
-  <si>
-    <t>run149</t>
-  </si>
-  <si>
-    <t>run150</t>
-  </si>
-  <si>
-    <t>run151</t>
-  </si>
-  <si>
-    <t>run152</t>
-  </si>
-  <si>
-    <t>run153</t>
-  </si>
-  <si>
-    <t>run154</t>
-  </si>
-  <si>
-    <t>run155</t>
-  </si>
-  <si>
-    <t>run156</t>
-  </si>
-  <si>
-    <t>run157</t>
-  </si>
-  <si>
-    <t>run158</t>
-  </si>
-  <si>
-    <t>FOLD 3</t>
-  </si>
-  <si>
-    <t>run159</t>
-  </si>
-  <si>
-    <t>run160</t>
-  </si>
-  <si>
-    <t>run161</t>
-  </si>
-  <si>
-    <t>run162</t>
-  </si>
-  <si>
-    <t>run163</t>
-  </si>
-  <si>
-    <t>run164</t>
-  </si>
-  <si>
-    <t>run165</t>
-  </si>
-  <si>
-    <t>run166</t>
-  </si>
-  <si>
-    <t>run167</t>
-  </si>
-  <si>
-    <t>run168</t>
-  </si>
-  <si>
-    <t>run169</t>
-  </si>
-  <si>
-    <t>run170</t>
-  </si>
-  <si>
-    <t>run171</t>
-  </si>
-  <si>
-    <t>run172</t>
-  </si>
-  <si>
-    <t>run173</t>
-  </si>
-  <si>
-    <t>run174</t>
-  </si>
-  <si>
-    <t>run175</t>
-  </si>
-  <si>
-    <t>run176</t>
-  </si>
-  <si>
-    <t>run177</t>
-  </si>
-  <si>
-    <t>run178</t>
-  </si>
-  <si>
-    <t>FOLD 4</t>
-  </si>
-  <si>
-    <t>run179</t>
-  </si>
-  <si>
-    <t>run180</t>
-  </si>
-  <si>
-    <t>run181</t>
-  </si>
-  <si>
-    <t>run182</t>
-  </si>
-  <si>
-    <t>run183</t>
-  </si>
-  <si>
-    <t>run184</t>
-  </si>
-  <si>
-    <t>run185</t>
-  </si>
-  <si>
-    <t>run186</t>
-  </si>
-  <si>
-    <t>run187</t>
-  </si>
-  <si>
-    <t>run188</t>
-  </si>
-  <si>
-    <t>run189</t>
-  </si>
-  <si>
-    <t>run190</t>
-  </si>
-  <si>
-    <t>run191</t>
-  </si>
-  <si>
-    <t>run192</t>
-  </si>
-  <si>
-    <t>run193</t>
-  </si>
-  <si>
-    <t>run194</t>
-  </si>
-  <si>
-    <t>run195</t>
-  </si>
-  <si>
-    <t>run196</t>
-  </si>
-  <si>
-    <t>run197</t>
-  </si>
-  <si>
-    <t>run198</t>
-  </si>
-  <si>
-    <t>FOLD 5</t>
-  </si>
-  <si>
-    <t>run199</t>
-  </si>
-  <si>
-    <t>run200</t>
-  </si>
-  <si>
-    <t>run201</t>
-  </si>
-  <si>
-    <t>run202</t>
-  </si>
-  <si>
-    <t>run203</t>
-  </si>
-  <si>
-    <t>run204</t>
-  </si>
-  <si>
-    <t>run205</t>
-  </si>
-  <si>
-    <t>run206</t>
-  </si>
-  <si>
-    <t>run207</t>
-  </si>
-  <si>
-    <t>run208</t>
-  </si>
-  <si>
-    <t>run209</t>
-  </si>
-  <si>
-    <t>run210</t>
-  </si>
-  <si>
-    <t>run211</t>
-  </si>
-  <si>
-    <t>run212</t>
-  </si>
-  <si>
-    <t>run213</t>
-  </si>
-  <si>
-    <t>run214</t>
-  </si>
-  <si>
-    <t>run215</t>
-  </si>
-  <si>
-    <t>run216</t>
-  </si>
-  <si>
-    <t>run217</t>
-  </si>
-  <si>
-    <t>run218</t>
-  </si>
-  <si>
-    <t>run219</t>
-  </si>
-  <si>
-    <t>fold1</t>
-  </si>
-  <si>
-    <t>run220</t>
-  </si>
-  <si>
-    <t>fold2</t>
-  </si>
-  <si>
-    <t>run221</t>
-  </si>
-  <si>
-    <t>fold3</t>
-  </si>
-  <si>
-    <t>run222</t>
-  </si>
-  <si>
-    <t>fold4</t>
-  </si>
-  <si>
-    <t>run223</t>
-  </si>
-  <si>
-    <t>fold5</t>
-  </si>
-  <si>
-    <t>EXPERIMENT 1</t>
-  </si>
-  <si>
-    <t>10 .^ unifrnd(-5,-1,25,1)</t>
-  </si>
-  <si>
-    <t>10 .^ unifrnd(-4, -1, 25, 1)</t>
-  </si>
-  <si>
-    <t>run224</t>
-  </si>
-  <si>
-    <t>run225</t>
-  </si>
-  <si>
-    <t>run226</t>
-  </si>
-  <si>
-    <t>run227</t>
-  </si>
-  <si>
-    <t>run228</t>
-  </si>
-  <si>
-    <t>run229</t>
-  </si>
-  <si>
-    <t>run230</t>
-  </si>
-  <si>
-    <t>run231</t>
-  </si>
-  <si>
-    <t>may be a small validation set, 5.8 is the greatest FP</t>
-  </si>
-  <si>
-    <t>run232</t>
-  </si>
-  <si>
-    <t>another small val set, 3 is the greatest FP</t>
-  </si>
-  <si>
-    <t>run233</t>
-  </si>
-  <si>
-    <t>run234</t>
-  </si>
-  <si>
-    <t>run235</t>
-  </si>
-  <si>
-    <t>Only 3 FP but looks good</t>
-  </si>
-  <si>
-    <t>run236</t>
-  </si>
-  <si>
-    <t>run237</t>
-  </si>
-  <si>
-    <t>run238</t>
-  </si>
-  <si>
-    <t>Max is 3 FP</t>
-  </si>
-  <si>
-    <t>run239</t>
-  </si>
-  <si>
-    <t>run240</t>
-  </si>
-  <si>
-    <t>run241</t>
-  </si>
-  <si>
-    <t>run242</t>
-  </si>
-  <si>
-    <t>run243</t>
-  </si>
-  <si>
-    <t>run244</t>
-  </si>
-  <si>
-    <t>run245</t>
-  </si>
-  <si>
-    <t>run246</t>
-  </si>
-  <si>
-    <t>run247</t>
-  </si>
-  <si>
-    <t>run248</t>
-  </si>
-  <si>
-    <t>run249</t>
-  </si>
-  <si>
-    <t>run250</t>
-  </si>
-  <si>
-    <t>run251</t>
-  </si>
-  <si>
-    <t>run252</t>
-  </si>
-  <si>
-    <t>run253</t>
-  </si>
-  <si>
-    <t>run254</t>
-  </si>
-  <si>
-    <t>run255</t>
-  </si>
-  <si>
-    <t>run256</t>
-  </si>
-  <si>
-    <t>run257</t>
-  </si>
-  <si>
-    <t>run258</t>
-  </si>
-  <si>
-    <t>run259</t>
-  </si>
-  <si>
-    <t>run260</t>
-  </si>
-  <si>
-    <t>run261</t>
-  </si>
-  <si>
-    <t>run262</t>
-  </si>
-  <si>
-    <t>run263</t>
-  </si>
-  <si>
-    <t>run264</t>
-  </si>
-  <si>
-    <t>run265</t>
-  </si>
-  <si>
-    <t>run266</t>
-  </si>
-  <si>
-    <t>run267</t>
-  </si>
-  <si>
-    <t>run268</t>
-  </si>
-  <si>
-    <t>run269</t>
-  </si>
-  <si>
-    <t>run270</t>
-  </si>
-  <si>
-    <t>run271</t>
-  </si>
-  <si>
-    <t>run272</t>
-  </si>
-  <si>
-    <t>run273</t>
-  </si>
-  <si>
-    <t>run274</t>
-  </si>
-  <si>
-    <t>run275</t>
-  </si>
-  <si>
-    <t>run276</t>
-  </si>
-  <si>
-    <t>run277</t>
-  </si>
-  <si>
-    <t>run278</t>
-  </si>
-  <si>
-    <t>run279</t>
-  </si>
-  <si>
-    <t>run280</t>
-  </si>
-  <si>
-    <t>run281</t>
-  </si>
-  <si>
-    <t>run289</t>
-  </si>
-  <si>
-    <t>kinda big jump</t>
-  </si>
-  <si>
-    <t>run282</t>
-  </si>
-  <si>
-    <t>run286</t>
-  </si>
-  <si>
-    <t>run287</t>
-  </si>
-  <si>
-    <t>run285</t>
-  </si>
-  <si>
-    <t>run283</t>
-  </si>
-  <si>
-    <t>run288</t>
-  </si>
-  <si>
-    <t>run284</t>
-  </si>
-  <si>
-    <t>big jump in FP</t>
-  </si>
-  <si>
-    <t>run290</t>
-  </si>
-  <si>
-    <t>run291</t>
-  </si>
-  <si>
-    <t>run292</t>
-  </si>
-  <si>
-    <t>run293</t>
-  </si>
-  <si>
-    <t>run294</t>
-  </si>
-  <si>
-    <t>run295</t>
-  </si>
-  <si>
-    <t>run296</t>
-  </si>
-  <si>
-    <t>run297</t>
-  </si>
-  <si>
-    <t>run298</t>
-  </si>
-  <si>
-    <t>run299</t>
-  </si>
-  <si>
-    <t>run300</t>
-  </si>
-  <si>
-    <t>run301</t>
-  </si>
-  <si>
-    <t>run303</t>
-  </si>
-  <si>
-    <t>run312</t>
-  </si>
-  <si>
-    <t>run308</t>
-  </si>
-  <si>
-    <t>run305</t>
-  </si>
-  <si>
-    <t>run309</t>
-  </si>
-  <si>
-    <t>run310</t>
-  </si>
-  <si>
-    <t>run311</t>
-  </si>
-  <si>
-    <t>run307</t>
-  </si>
-  <si>
-    <t>run302</t>
-  </si>
-  <si>
-    <t>run313</t>
-  </si>
-  <si>
-    <t>run306</t>
-  </si>
-  <si>
-    <t>run304</t>
-  </si>
-  <si>
-    <t>run314</t>
-  </si>
-  <si>
-    <t>run315</t>
-  </si>
-  <si>
-    <t>run316</t>
-  </si>
-  <si>
-    <t>run317</t>
-  </si>
-  <si>
-    <t>run318</t>
-  </si>
-  <si>
-    <t>run319</t>
-  </si>
-  <si>
-    <t>run320</t>
-  </si>
-  <si>
-    <t>run321</t>
-  </si>
-  <si>
-    <t>run322</t>
-  </si>
-  <si>
-    <t>run323</t>
-  </si>
-  <si>
-    <t>run324</t>
-  </si>
-  <si>
-    <t>run325</t>
-  </si>
-  <si>
-    <t>run326</t>
-  </si>
-  <si>
-    <t>run327</t>
-  </si>
-  <si>
-    <t>run334</t>
-  </si>
-  <si>
-    <t>run333</t>
-  </si>
-  <si>
-    <t>run331</t>
-  </si>
-  <si>
-    <t>run332</t>
-  </si>
-  <si>
-    <t>run330</t>
-  </si>
-  <si>
-    <t>run328</t>
-  </si>
-  <si>
-    <t>run329</t>
-  </si>
-  <si>
-    <t>run335</t>
-  </si>
-  <si>
-    <t>run336</t>
-  </si>
-  <si>
-    <t>run337</t>
-  </si>
-  <si>
-    <t>run338</t>
-  </si>
-  <si>
-    <t>run339</t>
-  </si>
-  <si>
-    <t>run340</t>
-  </si>
-  <si>
-    <t>run341</t>
-  </si>
-  <si>
-    <t>run342</t>
-  </si>
-  <si>
-    <t>run343</t>
-  </si>
-  <si>
-    <t>run344</t>
-  </si>
-  <si>
-    <t>run345</t>
-  </si>
-  <si>
-    <t>run346</t>
-  </si>
-  <si>
-    <t>run347</t>
-  </si>
-  <si>
-    <t>run348</t>
-  </si>
-  <si>
-    <t>Test sensitivity at 1 FP</t>
-  </si>
-  <si>
-    <t>run349</t>
-  </si>
-  <si>
-    <t>run350</t>
-  </si>
-  <si>
-    <t>run351</t>
-  </si>
-  <si>
-    <t>run352</t>
-  </si>
-  <si>
-    <t>run353</t>
-  </si>
-  <si>
-    <t>EXPERIMENT 1_2</t>
-  </si>
-  <si>
-    <t>10 .^ unifrnd(-5,-2,20,1)</t>
-  </si>
-  <si>
-    <t>10 .^ unifrnd(-3, 0, 20, 1)</t>
-  </si>
-  <si>
-    <t>run354</t>
-  </si>
-  <si>
-    <t>run355</t>
-  </si>
-  <si>
-    <t>run356</t>
-  </si>
-  <si>
-    <t>run362</t>
-  </si>
-  <si>
-    <t>run367</t>
-  </si>
-  <si>
-    <t>run363</t>
-  </si>
-  <si>
-    <t>run359</t>
-  </si>
-  <si>
-    <t>run366</t>
-  </si>
-  <si>
-    <t>run358</t>
-  </si>
-  <si>
-    <t>run361</t>
-  </si>
-  <si>
-    <t>run364</t>
-  </si>
-  <si>
-    <t>run360</t>
-  </si>
-  <si>
-    <t>run365</t>
-  </si>
-  <si>
-    <t>run357</t>
-  </si>
-  <si>
-    <t>run368</t>
-  </si>
-  <si>
-    <t>run369</t>
-  </si>
-  <si>
-    <t>run370</t>
-  </si>
-  <si>
-    <t>run371</t>
-  </si>
-  <si>
-    <t>run372</t>
-  </si>
-  <si>
-    <t>run373</t>
-  </si>
-  <si>
-    <t>run374</t>
-  </si>
-  <si>
-    <t>run375</t>
-  </si>
-  <si>
-    <t>run376</t>
-  </si>
-  <si>
-    <t>run377</t>
-  </si>
-  <si>
-    <t>run378</t>
-  </si>
-  <si>
-    <t>run379</t>
-  </si>
-  <si>
-    <t>run380</t>
-  </si>
-  <si>
-    <t>run381</t>
-  </si>
-  <si>
-    <t>run382</t>
-  </si>
-  <si>
-    <t>run383</t>
-  </si>
-  <si>
-    <t>run384</t>
-  </si>
-  <si>
-    <t>run385</t>
-  </si>
-  <si>
-    <t>run386</t>
-  </si>
-  <si>
-    <t>run387</t>
-  </si>
-  <si>
-    <t>run388</t>
-  </si>
-  <si>
-    <t>run389</t>
-  </si>
-  <si>
-    <t>run390</t>
-  </si>
-  <si>
-    <t>run391</t>
-  </si>
-  <si>
-    <t>run392</t>
-  </si>
-  <si>
-    <t>run393</t>
-  </si>
-  <si>
-    <t>run394</t>
-  </si>
-  <si>
-    <t>run395</t>
-  </si>
-  <si>
-    <t>run404</t>
-  </si>
-  <si>
-    <t>run403</t>
-  </si>
-  <si>
-    <t>run397</t>
-  </si>
-  <si>
-    <t>run399</t>
-  </si>
-  <si>
-    <t>run398</t>
-  </si>
-  <si>
-    <t>run402</t>
-  </si>
-  <si>
-    <t>run401</t>
-  </si>
-  <si>
-    <t>run396</t>
-  </si>
-  <si>
-    <t>run405</t>
-  </si>
-  <si>
-    <t>run400</t>
-  </si>
-  <si>
-    <t>run406</t>
-  </si>
-  <si>
-    <t>run407</t>
-  </si>
-  <si>
-    <t>run408</t>
-  </si>
-  <si>
-    <t>run409</t>
-  </si>
-  <si>
-    <t>run410</t>
-  </si>
-  <si>
-    <t>run411</t>
-  </si>
-  <si>
-    <t>run412</t>
-  </si>
-  <si>
-    <t>run413</t>
-  </si>
-  <si>
-    <t>run414</t>
-  </si>
-  <si>
-    <t>run415</t>
-  </si>
-  <si>
-    <t>run416</t>
-  </si>
-  <si>
-    <t>run417</t>
-  </si>
-  <si>
-    <t>run418</t>
-  </si>
-  <si>
-    <t>run419</t>
-  </si>
-  <si>
-    <t>run420</t>
-  </si>
-  <si>
-    <t>run421</t>
-  </si>
-  <si>
-    <t>run422</t>
-  </si>
-  <si>
-    <t>run423</t>
-  </si>
-  <si>
-    <t>run424</t>
-  </si>
-  <si>
-    <t>run425</t>
-  </si>
-  <si>
-    <t>run426</t>
-  </si>
-  <si>
-    <t>run427</t>
-  </si>
-  <si>
-    <t>run428</t>
-  </si>
-  <si>
-    <t>run429</t>
-  </si>
-  <si>
-    <t>run430</t>
-  </si>
-  <si>
-    <t>run431</t>
-  </si>
-  <si>
-    <t>run432</t>
-  </si>
-  <si>
-    <t>run433</t>
-  </si>
-  <si>
-    <t>run434</t>
-  </si>
-  <si>
-    <t>run435</t>
-  </si>
-  <si>
-    <t>run436</t>
-  </si>
-  <si>
-    <t>run437</t>
-  </si>
-  <si>
-    <t>run438</t>
-  </si>
-  <si>
-    <t>run439</t>
-  </si>
-  <si>
-    <t>run440</t>
-  </si>
-  <si>
-    <t>run441</t>
-  </si>
-  <si>
-    <t>run442</t>
-  </si>
-  <si>
-    <t>run443</t>
-  </si>
-  <si>
-    <t>run444</t>
-  </si>
-  <si>
-    <t>run448</t>
-  </si>
-  <si>
-    <t>run445</t>
-  </si>
-  <si>
-    <t>run449</t>
-  </si>
-  <si>
-    <t>run447</t>
-  </si>
-  <si>
-    <t>run450</t>
-  </si>
-  <si>
-    <t>run446</t>
-  </si>
-  <si>
-    <t>run451</t>
-  </si>
-  <si>
-    <t>run452</t>
-  </si>
-  <si>
-    <t>run453</t>
-  </si>
-  <si>
-    <t>run454</t>
-  </si>
-  <si>
-    <t>run455</t>
-  </si>
-  <si>
-    <t>run456</t>
-  </si>
-  <si>
-    <t>run457</t>
-  </si>
-  <si>
-    <t>run458</t>
+    <t>10 .^ unifrnd(-4, -1, 20, 1)</t>
+  </si>
+  <si>
+    <t>run473</t>
+  </si>
+  <si>
+    <t>run467</t>
+  </si>
+  <si>
+    <t>run460</t>
+  </si>
+  <si>
+    <t>run470</t>
+  </si>
+  <si>
+    <t>run468</t>
+  </si>
+  <si>
+    <t>run474</t>
+  </si>
+  <si>
+    <t>run465</t>
+  </si>
+  <si>
+    <t>run475</t>
+  </si>
+  <si>
+    <t>run461</t>
+  </si>
+  <si>
+    <t>run472</t>
+  </si>
+  <si>
+    <t>run459</t>
+  </si>
+  <si>
+    <t>run466</t>
+  </si>
+  <si>
+    <t>run463</t>
+  </si>
+  <si>
+    <t>run471</t>
+  </si>
+  <si>
+    <t>run464</t>
+  </si>
+  <si>
+    <t>run469</t>
+  </si>
+  <si>
+    <t>run462</t>
+  </si>
+  <si>
+    <t>run476</t>
+  </si>
+  <si>
+    <t>run477</t>
+  </si>
+  <si>
+    <t>run478</t>
+  </si>
+  <si>
+    <t>run479</t>
+  </si>
+  <si>
+    <t>run480</t>
+  </si>
+  <si>
+    <t>run481</t>
+  </si>
+  <si>
+    <t>run482</t>
+  </si>
+  <si>
+    <t>run483</t>
+  </si>
+  <si>
+    <t>run484</t>
+  </si>
+  <si>
+    <t>run485</t>
+  </si>
+  <si>
+    <t>run486</t>
+  </si>
+  <si>
+    <t>run490</t>
+  </si>
+  <si>
+    <t>run493</t>
+  </si>
+  <si>
+    <t>run491</t>
+  </si>
+  <si>
+    <t>run489</t>
+  </si>
+  <si>
+    <t>run496</t>
+  </si>
+  <si>
+    <t>run487</t>
+  </si>
+  <si>
+    <t>run497</t>
+  </si>
+  <si>
+    <t>run495</t>
+  </si>
+  <si>
+    <t>run488</t>
+  </si>
+  <si>
+    <t>run492</t>
+  </si>
+  <si>
+    <t>run498</t>
+  </si>
+  <si>
+    <t>weird double jump</t>
+  </si>
+  <si>
+    <t>run494</t>
+  </si>
+  <si>
+    <t>run499</t>
+  </si>
+  <si>
+    <t>run500</t>
+  </si>
+  <si>
+    <t>run501</t>
+  </si>
+  <si>
+    <t>run502</t>
+  </si>
+  <si>
+    <t>run503</t>
+  </si>
+  <si>
+    <t>run504</t>
+  </si>
+  <si>
+    <t>run518</t>
+  </si>
+  <si>
+    <t>run506</t>
+  </si>
+  <si>
+    <t>run509</t>
+  </si>
+  <si>
+    <t>run513</t>
+  </si>
+  <si>
+    <t>run511</t>
+  </si>
+  <si>
+    <t>run510</t>
+  </si>
+  <si>
+    <t>run508</t>
+  </si>
+  <si>
+    <t>run514</t>
+  </si>
+  <si>
+    <t>run505</t>
+  </si>
+  <si>
+    <t>run517</t>
+  </si>
+  <si>
+    <t>run516</t>
+  </si>
+  <si>
+    <t>run515</t>
+  </si>
+  <si>
+    <t>run507</t>
+  </si>
+  <si>
+    <t>run512</t>
+  </si>
+  <si>
+    <t>run519</t>
+  </si>
+  <si>
+    <t>run520</t>
+  </si>
+  <si>
+    <t>run521</t>
+  </si>
+  <si>
+    <t>run523</t>
+  </si>
+  <si>
+    <t>run537</t>
+  </si>
+  <si>
+    <t>run529</t>
+  </si>
+  <si>
+    <t>run525</t>
+  </si>
+  <si>
+    <t>run526</t>
+  </si>
+  <si>
+    <t>run532</t>
+  </si>
+  <si>
+    <t>run533</t>
+  </si>
+  <si>
+    <t>run536</t>
+  </si>
+  <si>
+    <t>run527</t>
+  </si>
+  <si>
+    <t>run535</t>
+  </si>
+  <si>
+    <t>run522</t>
+  </si>
+  <si>
+    <t>run524</t>
+  </si>
+  <si>
+    <t>run531</t>
+  </si>
+  <si>
+    <t>run530</t>
+  </si>
+  <si>
+    <t>run528</t>
+  </si>
+  <si>
+    <t>run534</t>
+  </si>
+  <si>
+    <t>run538</t>
+  </si>
+  <si>
+    <t>run539</t>
+  </si>
+  <si>
+    <t>run540</t>
+  </si>
+  <si>
+    <t>run541</t>
+  </si>
+  <si>
+    <t>run542</t>
+  </si>
+  <si>
+    <t>run543</t>
+  </si>
+  <si>
+    <t>run544</t>
+  </si>
+  <si>
+    <t>run550</t>
+  </si>
+  <si>
+    <t>run547</t>
+  </si>
+  <si>
+    <t>run551</t>
+  </si>
+  <si>
+    <t>run548</t>
+  </si>
+  <si>
+    <t>run546</t>
+  </si>
+  <si>
+    <t>run545</t>
+  </si>
+  <si>
+    <t>run549</t>
+  </si>
+  <si>
+    <t>run552</t>
+  </si>
+  <si>
+    <t>run553</t>
+  </si>
+  <si>
+    <t>run554</t>
+  </si>
+  <si>
+    <t>run555</t>
+  </si>
+  <si>
+    <t>run556</t>
+  </si>
+  <si>
+    <t>run557</t>
+  </si>
+  <si>
+    <t>run558</t>
+  </si>
+  <si>
+    <t>run559</t>
+  </si>
+  <si>
+    <t>run560</t>
+  </si>
+  <si>
+    <t>run561</t>
+  </si>
+  <si>
+    <t>run562</t>
+  </si>
+  <si>
+    <t>EXPERIMENT 1_3</t>
+  </si>
+  <si>
+    <t>run563</t>
+  </si>
+  <si>
+    <t>run564</t>
+  </si>
+  <si>
+    <t>run565</t>
+  </si>
+  <si>
+    <t>run566</t>
+  </si>
+  <si>
+    <t>run567</t>
+  </si>
+  <si>
+    <t>run568</t>
+  </si>
+  <si>
+    <t>run569</t>
+  </si>
+  <si>
+    <t>run570</t>
+  </si>
+  <si>
+    <t>run571</t>
+  </si>
+  <si>
+    <t>run572</t>
+  </si>
+  <si>
+    <t>run573</t>
+  </si>
+  <si>
+    <t>run574</t>
+  </si>
+  <si>
+    <t>run575</t>
+  </si>
+  <si>
+    <t>run576</t>
+  </si>
+  <si>
+    <t>run577</t>
+  </si>
+  <si>
+    <t>run578</t>
+  </si>
+  <si>
+    <t>run579</t>
+  </si>
+  <si>
+    <t>run580</t>
+  </si>
+  <si>
+    <t>run581</t>
+  </si>
+  <si>
+    <t>run582</t>
+  </si>
+  <si>
+    <t>run583</t>
+  </si>
+  <si>
+    <t>run584</t>
+  </si>
+  <si>
+    <t>run585</t>
+  </si>
+  <si>
+    <t>run586</t>
+  </si>
+  <si>
+    <t>run587</t>
+  </si>
+  <si>
+    <t>run588</t>
+  </si>
+  <si>
+    <t>run589</t>
+  </si>
+  <si>
+    <t>run590</t>
+  </si>
+  <si>
+    <t>run591</t>
+  </si>
+  <si>
+    <t>run592</t>
+  </si>
+  <si>
+    <t>run593</t>
+  </si>
+  <si>
+    <t>run594</t>
+  </si>
+  <si>
+    <t>run595</t>
+  </si>
+  <si>
+    <t>run596</t>
+  </si>
+  <si>
+    <t>run597</t>
+  </si>
+  <si>
+    <t>run598</t>
+  </si>
+  <si>
+    <t>run599</t>
+  </si>
+  <si>
+    <t>run600</t>
+  </si>
+  <si>
+    <t>run601</t>
+  </si>
+  <si>
+    <t>run602</t>
+  </si>
+  <si>
+    <t>run603</t>
+  </si>
+  <si>
+    <t>run604</t>
+  </si>
+  <si>
+    <t>run605</t>
+  </si>
+  <si>
+    <t>run606</t>
+  </si>
+  <si>
+    <t>run607</t>
+  </si>
+  <si>
+    <t>run608</t>
+  </si>
+  <si>
+    <t>run609</t>
+  </si>
+  <si>
+    <t>run610</t>
+  </si>
+  <si>
+    <t>run611</t>
+  </si>
+  <si>
+    <t>run612</t>
+  </si>
+  <si>
+    <t>run613</t>
+  </si>
+  <si>
+    <t>run614</t>
+  </si>
+  <si>
+    <t>run615</t>
+  </si>
+  <si>
+    <t>run616</t>
+  </si>
+  <si>
+    <t>run617</t>
+  </si>
+  <si>
+    <t>run618</t>
+  </si>
+  <si>
+    <t>run619</t>
+  </si>
+  <si>
+    <t>run620</t>
+  </si>
+  <si>
+    <t>run621</t>
+  </si>
+  <si>
+    <t>run622</t>
+  </si>
+  <si>
+    <t>run623</t>
+  </si>
+  <si>
+    <t>run624</t>
+  </si>
+  <si>
+    <t>run625</t>
+  </si>
+  <si>
+    <t>run626</t>
+  </si>
+  <si>
+    <t>run627</t>
+  </si>
+  <si>
+    <t>run628</t>
+  </si>
+  <si>
+    <t>run629</t>
+  </si>
+  <si>
+    <t>run630</t>
+  </si>
+  <si>
+    <t>run631</t>
+  </si>
+  <si>
+    <t>run632</t>
+  </si>
+  <si>
+    <t>run633</t>
+  </si>
+  <si>
+    <t>run634</t>
+  </si>
+  <si>
+    <t>run635</t>
+  </si>
+  <si>
+    <t>run636</t>
+  </si>
+  <si>
+    <t>run637</t>
+  </si>
+  <si>
+    <t>run638</t>
+  </si>
+  <si>
+    <t>run639</t>
+  </si>
+  <si>
+    <t>run640</t>
+  </si>
+  <si>
+    <t>run641</t>
+  </si>
+  <si>
+    <t>run642</t>
+  </si>
+  <si>
+    <t>run643</t>
+  </si>
+  <si>
+    <t>run644</t>
+  </si>
+  <si>
+    <t>run645</t>
+  </si>
+  <si>
+    <t>run646</t>
+  </si>
+  <si>
+    <t>run647</t>
+  </si>
+  <si>
+    <t>run648</t>
+  </si>
+  <si>
+    <t>run649</t>
+  </si>
+  <si>
+    <t>run650</t>
+  </si>
+  <si>
+    <t>run651</t>
+  </si>
+  <si>
+    <t>run652</t>
+  </si>
+  <si>
+    <t>run653</t>
+  </si>
+  <si>
+    <t>run654</t>
+  </si>
+  <si>
+    <t>run655</t>
+  </si>
+  <si>
+    <t>run656</t>
+  </si>
+  <si>
+    <t>run657</t>
+  </si>
+  <si>
+    <t>run658</t>
+  </si>
+  <si>
+    <t>run659</t>
+  </si>
+  <si>
+    <t>run660</t>
+  </si>
+  <si>
+    <t>run661</t>
+  </si>
+  <si>
+    <t>run662</t>
   </si>
 </sst>
 </file>
@@ -1728,7 +2352,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1777,6 +2401,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1794,10 +2426,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K589"/>
+  <dimension ref="A1:K838"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A296" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E305" activeCellId="0" sqref="E305"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A707" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B718" activeCellId="0" sqref="B718"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4191,36 +4823,36 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="9" t="n">
-        <v>2.92658784954665E-006</v>
-      </c>
-      <c r="B91" s="9" t="n">
-        <v>0.613281671174882</v>
-      </c>
-      <c r="C91" s="0" t="s">
+    <row r="91" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="7" t="n">
+        <v>0.000543602270696939</v>
+      </c>
+      <c r="B91" s="7" t="n">
+        <v>0.000189095715104318</v>
+      </c>
+      <c r="C91" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D91" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E91" s="0" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="F91" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="G91" s="0" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="H91" s="0" t="n">
-        <v>0.316</v>
-      </c>
-      <c r="I91" s="0" t="n">
+      <c r="D91" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="E91" s="8" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="F91" s="8" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G91" s="8" t="n">
         <v>0.79</v>
       </c>
-      <c r="J91" s="0" t="n">
-        <v>0.141</v>
+      <c r="H91" s="8" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="I91" s="8" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="J91" s="8" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4289,270 +4921,267 @@
     </row>
     <row r="94" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="7" t="n">
-        <v>1.1194751961652E-005</v>
+        <v>2.11350915659449E-005</v>
       </c>
       <c r="B94" s="7" t="n">
-        <v>0.00214462479812596</v>
+        <v>0.00204027518128024</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>95</v>
       </c>
       <c r="D94" s="8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E94" s="8" t="n">
         <v>0.043</v>
       </c>
       <c r="F94" s="8" t="n">
-        <v>0.296</v>
+        <v>0.312</v>
       </c>
       <c r="G94" s="8" t="n">
-        <v>0.75</v>
+        <v>0.58</v>
       </c>
       <c r="H94" s="8" t="n">
-        <v>0.362</v>
+        <v>0.39</v>
       </c>
       <c r="I94" s="8" t="n">
-        <v>0.71</v>
+        <v>0.58</v>
       </c>
       <c r="J94" s="8" t="n">
-        <v>0.36</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="95" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="7" t="n">
-        <v>2.11350915659449E-005</v>
+        <v>1.1194751961652E-005</v>
       </c>
       <c r="B95" s="7" t="n">
-        <v>0.00204027518128024</v>
+        <v>0.00214462479812596</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>96</v>
       </c>
       <c r="D95" s="8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E95" s="8" t="n">
         <v>0.043</v>
       </c>
       <c r="F95" s="8" t="n">
-        <v>0.312</v>
+        <v>0.296</v>
       </c>
       <c r="G95" s="8" t="n">
-        <v>0.58</v>
+        <v>0.75</v>
       </c>
       <c r="H95" s="8" t="n">
-        <v>0.39</v>
+        <v>0.362</v>
       </c>
       <c r="I95" s="8" t="n">
-        <v>0.58</v>
+        <v>0.71</v>
       </c>
       <c r="J95" s="8" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="96" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="7" t="n">
+        <v>5.92481787389536E-005</v>
+      </c>
+      <c r="B96" s="7" t="n">
+        <v>0.00363581666441528</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D96" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="E96" s="8" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="F96" s="8" t="n">
+        <v>0.221</v>
+      </c>
+      <c r="G96" s="8" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H96" s="8" t="n">
         <v>0.309</v>
       </c>
-    </row>
-    <row r="96" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="5" t="n">
-        <v>2.12620565819161E-005</v>
-      </c>
-      <c r="B96" s="5" t="n">
-        <v>2.2261234522861</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D96" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="E96" s="6" t="n">
-        <v>0.071</v>
-      </c>
-      <c r="F96" s="6" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="G96" s="6" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="H96" s="6" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="I96" s="6" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="J96" s="6" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="K96" s="6" t="s">
-        <v>98</v>
+      <c r="I96" s="8" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="J96" s="8" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="97" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="7" t="n">
-        <v>5.92481787389536E-005</v>
+        <v>0.000712802041515683</v>
       </c>
       <c r="B97" s="7" t="n">
-        <v>0.00363581666441528</v>
+        <v>0.00657401455755455</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D97" s="8" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E97" s="8" t="n">
-        <v>0.038</v>
+        <v>0.049</v>
       </c>
       <c r="F97" s="8" t="n">
-        <v>0.221</v>
+        <v>0.116</v>
       </c>
       <c r="G97" s="8" t="n">
-        <v>0.54</v>
+        <v>0.38</v>
       </c>
       <c r="H97" s="8" t="n">
-        <v>0.309</v>
+        <v>0.203</v>
       </c>
       <c r="I97" s="8" t="n">
-        <v>0.54</v>
+        <v>0.38</v>
       </c>
       <c r="J97" s="8" t="n">
-        <v>0.4</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="98" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="n">
-        <v>0.000148517666259164</v>
+        <v>0.000323225345060388</v>
       </c>
       <c r="B98" s="5" t="n">
-        <v>0.385037978791714</v>
+        <v>0.046693736064734</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D98" s="6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" s="6" t="n">
-        <v>0.046</v>
+        <v>0.042</v>
       </c>
       <c r="F98" s="6" t="n">
         <v>0.015</v>
       </c>
       <c r="G98" s="6" t="n">
-        <v>0.21</v>
+        <v>0.08</v>
       </c>
       <c r="H98" s="6" t="n">
         <v>0.03</v>
       </c>
       <c r="I98" s="6" t="n">
-        <v>0.21</v>
+        <v>0.08</v>
       </c>
       <c r="J98" s="6" t="n">
         <v>0.487</v>
       </c>
       <c r="K98" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="n">
-        <v>0.000323225345060388</v>
+        <v>0.000451800495706413</v>
       </c>
       <c r="B99" s="5" t="n">
-        <v>0.046693736064734</v>
+        <v>0.162706410105612</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>101</v>
       </c>
       <c r="D99" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" s="6" t="n">
-        <v>0.042</v>
+        <v>0.047</v>
       </c>
       <c r="F99" s="6" t="n">
-        <v>0.015</v>
+        <v>0.017</v>
       </c>
       <c r="G99" s="6" t="n">
-        <v>0.08</v>
+        <v>0.25</v>
       </c>
       <c r="H99" s="6" t="n">
-        <v>0.03</v>
+        <v>0.034</v>
       </c>
       <c r="I99" s="6" t="n">
-        <v>0.08</v>
+        <v>0.25</v>
       </c>
       <c r="J99" s="6" t="n">
         <v>0.487</v>
       </c>
       <c r="K99" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="n">
-        <v>0.000451800495706413</v>
+        <v>0.000148517666259164</v>
       </c>
       <c r="B100" s="5" t="n">
-        <v>0.162706410105612</v>
+        <v>0.385037978791714</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>102</v>
       </c>
       <c r="D100" s="6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E100" s="6" t="n">
-        <v>0.047</v>
+        <v>0.046</v>
       </c>
       <c r="F100" s="6" t="n">
-        <v>0.017</v>
+        <v>0.015</v>
       </c>
       <c r="G100" s="6" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="H100" s="6" t="n">
-        <v>0.034</v>
+        <v>0.03</v>
       </c>
       <c r="I100" s="6" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="J100" s="6" t="n">
         <v>0.487</v>
       </c>
       <c r="K100" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="101" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="7" t="n">
-        <v>0.000543602270696939</v>
-      </c>
-      <c r="B101" s="7" t="n">
-        <v>0.000189095715104318</v>
-      </c>
-      <c r="C101" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="9" t="n">
+        <v>2.92658784954665E-006</v>
+      </c>
+      <c r="B101" s="9" t="n">
+        <v>0.613281671174882</v>
+      </c>
+      <c r="C101" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="D101" s="8" t="n">
-        <v>12</v>
-      </c>
-      <c r="E101" s="8" t="n">
-        <v>0.022</v>
-      </c>
-      <c r="F101" s="8" t="n">
-        <v>0.285</v>
-      </c>
-      <c r="G101" s="8" t="n">
+      <c r="D101" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E101" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F101" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G101" s="0" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H101" s="0" t="n">
+        <v>0.316</v>
+      </c>
+      <c r="I101" s="0" t="n">
         <v>0.79</v>
       </c>
-      <c r="H101" s="8" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="I101" s="8" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="J101" s="8" t="n">
-        <v>0.46</v>
+      <c r="J101" s="0" t="n">
+        <v>0.141</v>
       </c>
     </row>
     <row r="102" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4587,39 +5216,42 @@
         <v>0.487</v>
       </c>
       <c r="K102" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="103" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="7" t="n">
-        <v>0.000712802041515683</v>
-      </c>
-      <c r="B103" s="7" t="n">
-        <v>0.00657401455755455</v>
-      </c>
-      <c r="C103" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="5" t="n">
+        <v>2.12620565819161E-005</v>
+      </c>
+      <c r="B103" s="5" t="n">
+        <v>2.2261234522861</v>
+      </c>
+      <c r="C103" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D103" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="E103" s="8" t="n">
-        <v>0.049</v>
-      </c>
-      <c r="F103" s="8" t="n">
-        <v>0.116</v>
-      </c>
-      <c r="G103" s="8" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="H103" s="8" t="n">
-        <v>0.203</v>
-      </c>
-      <c r="I103" s="8" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="J103" s="8" t="n">
-        <v>0.32</v>
+      <c r="D103" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="E103" s="6" t="n">
+        <v>0.071</v>
+      </c>
+      <c r="F103" s="6" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G103" s="6" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H103" s="6" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I103" s="6" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="J103" s="6" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="K103" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="104" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4654,7 +5286,7 @@
         <v>0.487</v>
       </c>
       <c r="K104" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4689,7 +5321,7 @@
         <v>0.487</v>
       </c>
       <c r="K105" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4724,7 +5356,7 @@
         <v>0.487</v>
       </c>
       <c r="K106" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4794,7 +5426,7 @@
         <v>0.487</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4829,7 +5461,7 @@
         <v>0.487</v>
       </c>
       <c r="K109" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5984,7 +6616,7 @@
         <v>0.352</v>
       </c>
       <c r="K153" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="154" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6019,7 +6651,7 @@
         <v>0.352</v>
       </c>
       <c r="K154" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="155" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6150,7 +6782,7 @@
         <v>0.352</v>
       </c>
       <c r="K158" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="159" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6185,7 +6817,7 @@
         <v>0.352</v>
       </c>
       <c r="K159" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6252,7 +6884,7 @@
         <v>0.352</v>
       </c>
       <c r="K161" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="162" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6354,7 +6986,7 @@
         <v>0.352</v>
       </c>
       <c r="K164" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="165" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6424,7 +7056,7 @@
         <v>0.352</v>
       </c>
       <c r="K166" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="167" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8597,6 +9229,9 @@
       <c r="D303" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="E303" s="0" t="n">
+        <v>0.176</v>
+      </c>
       <c r="F303" s="0" t="s">
         <v>283</v>
       </c>
@@ -8614,6 +9249,9 @@
       <c r="D304" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="E304" s="0" t="n">
+        <v>0.214</v>
+      </c>
       <c r="F304" s="0" t="s">
         <v>285</v>
       </c>
@@ -8651,6 +9289,9 @@
       <c r="D306" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="E306" s="0" t="n">
+        <v>0.258</v>
+      </c>
       <c r="F306" s="0" t="s">
         <v>289</v>
       </c>
@@ -8667,6 +9308,9 @@
       </c>
       <c r="D307" s="0" t="n">
         <v>5</v>
+      </c>
+      <c r="E307" s="0" t="n">
+        <v>0.478</v>
       </c>
       <c r="F307" s="0" t="s">
         <v>291</v>
@@ -9023,7 +9667,7 @@
         <v>0.468</v>
       </c>
       <c r="F332" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="333" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9043,7 +9687,7 @@
         <v>0.476</v>
       </c>
       <c r="F333" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="334" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9063,7 +9707,7 @@
         <v>0.5</v>
       </c>
       <c r="F334" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="335" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9083,7 +9727,7 @@
         <v>0.41</v>
       </c>
       <c r="F335" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="336" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9103,7 +9747,7 @@
         <v>0.358</v>
       </c>
       <c r="F336" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="337" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9123,7 +9767,7 @@
         <v>0.113</v>
       </c>
       <c r="F337" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="338" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9143,7 +9787,7 @@
         <v>0.72</v>
       </c>
       <c r="F338" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="339" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9163,7 +9807,7 @@
         <v>0.116</v>
       </c>
       <c r="F339" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="340" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9183,7 +9827,7 @@
         <v>0.061</v>
       </c>
       <c r="F340" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="341" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9203,7 +9847,7 @@
         <v>0.121</v>
       </c>
       <c r="F341" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9527,7 +10171,7 @@
         <v>0.102</v>
       </c>
       <c r="F361" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="362" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9547,7 +10191,7 @@
         <v>0.11</v>
       </c>
       <c r="F362" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="363" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9567,7 +10211,7 @@
         <v>0.487</v>
       </c>
       <c r="F363" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="364" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9587,7 +10231,7 @@
         <v>0.088</v>
       </c>
       <c r="F364" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="365" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9607,7 +10251,7 @@
         <v>0.09</v>
       </c>
       <c r="F365" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="366" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9627,7 +10271,7 @@
         <v>0.092</v>
       </c>
       <c r="F366" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="367" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9647,7 +10291,7 @@
         <v>0.077</v>
       </c>
       <c r="F367" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="368" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9667,7 +10311,7 @@
         <v>0.629</v>
       </c>
       <c r="F368" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="369" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9687,7 +10331,7 @@
         <v>0.069</v>
       </c>
       <c r="F369" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10040,7 +10684,7 @@
         <v>0.343</v>
       </c>
       <c r="F390" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="391" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10060,7 +10704,7 @@
         <v>0.158</v>
       </c>
       <c r="F391" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="392" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10080,7 +10724,7 @@
         <v>0.057</v>
       </c>
       <c r="F392" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="393" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10100,7 +10744,7 @@
         <v>0.096</v>
       </c>
       <c r="F393" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="394" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10120,7 +10764,7 @@
         <v>0.093</v>
       </c>
       <c r="F394" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="395" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10140,7 +10784,7 @@
         <v>0.276</v>
       </c>
       <c r="F395" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="396" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10160,7 +10804,7 @@
         <v>0.076</v>
       </c>
       <c r="F396" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="397" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10180,7 +10824,7 @@
         <v>0.087</v>
       </c>
       <c r="F397" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10300,7 +10944,7 @@
         <v>0.065</v>
       </c>
       <c r="F405" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="406" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10490,7 +11134,7 @@
         <v>0.12</v>
       </c>
       <c r="F416" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="417" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10510,7 +11154,7 @@
         <v>0.051</v>
       </c>
       <c r="F417" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="418" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10530,7 +11174,7 @@
         <v>0.066</v>
       </c>
       <c r="F418" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="419" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10550,7 +11194,7 @@
         <v>0.452</v>
       </c>
       <c r="F419" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="420" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10570,7 +11214,7 @@
         <v>0.083</v>
       </c>
       <c r="F420" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="421" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10590,7 +11234,7 @@
         <v>0.158</v>
       </c>
       <c r="F421" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="422" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10610,7 +11254,7 @@
         <v>0.209</v>
       </c>
       <c r="F422" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="423" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10630,7 +11274,7 @@
         <v>0.086</v>
       </c>
       <c r="F423" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="424" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10650,7 +11294,7 @@
         <v>0.22</v>
       </c>
       <c r="F424" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="425" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10670,7 +11314,7 @@
         <v>0.087</v>
       </c>
       <c r="F425" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10912,7 +11556,7 @@
         <v>0.095</v>
       </c>
       <c r="F440" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10949,7 +11593,7 @@
         <v>0.435</v>
       </c>
       <c r="F442" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10969,7 +11613,7 @@
         <v>0.579</v>
       </c>
       <c r="F443" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10989,7 +11633,7 @@
         <v>0.068</v>
       </c>
       <c r="F444" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11009,7 +11653,7 @@
         <v>0.417</v>
       </c>
       <c r="F445" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11029,7 +11673,7 @@
         <v>0.057</v>
       </c>
       <c r="F446" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11049,7 +11693,7 @@
         <v>0.062</v>
       </c>
       <c r="F447" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11069,7 +11713,7 @@
         <v>0.157</v>
       </c>
       <c r="F448" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11089,7 +11733,7 @@
         <v>0.049</v>
       </c>
       <c r="F449" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11109,7 +11753,7 @@
         <v>0.11</v>
       </c>
       <c r="F450" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11129,7 +11773,7 @@
         <v>0.101</v>
       </c>
       <c r="F451" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11149,7 +11793,7 @@
         <v>0.103</v>
       </c>
       <c r="F452" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11169,7 +11813,7 @@
         <v>0.092</v>
       </c>
       <c r="F453" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12341,7 +12985,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="528" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="5" t="n">
         <v>0.00099429</v>
       </c>
@@ -12714,7 +13358,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="550" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="5" t="n">
         <v>0.00068092</v>
       </c>
@@ -12996,7 +13640,7 @@
         <v>0.184</v>
       </c>
     </row>
-    <row r="567" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="5" t="n">
         <v>9.0421E-005</v>
       </c>
@@ -13288,7 +13932,7 @@
         <v>5</v>
       </c>
       <c r="E584" s="4" t="s">
-        <v>11</v>
+        <v>426</v>
       </c>
       <c r="F584" s="4" t="s">
         <v>12</v>
@@ -13307,6 +13951,9 @@
       <c r="D585" s="0" t="n">
         <v>11</v>
       </c>
+      <c r="E585" s="0" t="n">
+        <v>0.152</v>
+      </c>
       <c r="F585" s="0" t="s">
         <v>283</v>
       </c>
@@ -13324,6 +13971,9 @@
       <c r="D586" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="E586" s="0" t="n">
+        <v>0.268</v>
+      </c>
       <c r="F586" s="0" t="s">
         <v>285</v>
       </c>
@@ -13341,6 +13991,9 @@
       <c r="D587" s="0" t="n">
         <v>13</v>
       </c>
+      <c r="E587" s="0" t="n">
+        <v>0.138</v>
+      </c>
       <c r="F587" s="0" t="s">
         <v>287</v>
       </c>
@@ -13379,8 +14032,3644 @@
         <v>291</v>
       </c>
     </row>
+    <row r="592" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A592" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="B592" s="10"/>
+      <c r="C592" s="10"/>
+      <c r="D592" s="10"/>
+      <c r="E592" s="10"/>
+      <c r="F592" s="10"/>
+      <c r="G592" s="10"/>
+    </row>
+    <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G593" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A594" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B594" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="G594" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A595" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B595" s="0" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A597" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B597" s="11"/>
+      <c r="C597" s="11"/>
+      <c r="D597" s="11"/>
+      <c r="E597" s="11"/>
+      <c r="F597" s="11"/>
+      <c r="G597" s="11"/>
+    </row>
+    <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A598" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B598" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C598" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D598" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E598" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F598" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G598" s="4"/>
+    </row>
+    <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A599" s="9" t="n">
+        <v>9.636E-005</v>
+      </c>
+      <c r="B599" s="9" t="n">
+        <v>0.00013031</v>
+      </c>
+      <c r="C599" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="D599" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="E599" s="0" t="n">
+        <v>0.227</v>
+      </c>
+    </row>
+    <row r="600" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A600" s="5" t="n">
+        <v>2.1668E-005</v>
+      </c>
+      <c r="B600" s="5" t="n">
+        <v>0.0001389</v>
+      </c>
+      <c r="C600" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D600" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="E600" s="6" t="n">
+        <v>0.045</v>
+      </c>
+    </row>
+    <row r="601" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A601" s="7" t="n">
+        <v>5.2379E-006</v>
+      </c>
+      <c r="B601" s="7" t="n">
+        <v>0.00014593</v>
+      </c>
+      <c r="C601" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="D601" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E601" s="8" t="n">
+        <v>0.494</v>
+      </c>
+    </row>
+    <row r="602" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A602" s="7" t="n">
+        <v>2.643E-005</v>
+      </c>
+      <c r="B602" s="7" t="n">
+        <v>0.00040701</v>
+      </c>
+      <c r="C602" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="D602" s="8" t="n">
+        <v>23</v>
+      </c>
+      <c r="E602" s="8" t="n">
+        <v>0.422</v>
+      </c>
+    </row>
+    <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A603" s="9" t="n">
+        <v>2.2278E-005</v>
+      </c>
+      <c r="B603" s="9" t="n">
+        <v>0.00065603</v>
+      </c>
+      <c r="C603" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="D603" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="E603" s="0" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="604" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A604" s="7" t="n">
+        <v>0.00011289</v>
+      </c>
+      <c r="B604" s="7" t="n">
+        <v>0.00095165</v>
+      </c>
+      <c r="C604" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="D604" s="8" t="n">
+        <v>27</v>
+      </c>
+      <c r="E604" s="8" t="n">
+        <v>0.572</v>
+      </c>
+    </row>
+    <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A605" s="9" t="n">
+        <v>1.666E-005</v>
+      </c>
+      <c r="B605" s="9" t="n">
+        <v>0.002023</v>
+      </c>
+      <c r="C605" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="D605" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E605" s="0" t="n">
+        <v>0.308</v>
+      </c>
+    </row>
+    <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A606" s="9" t="n">
+        <v>0.00011904</v>
+      </c>
+      <c r="B606" s="9" t="n">
+        <v>0.0039557</v>
+      </c>
+      <c r="C606" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="D606" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E606" s="0" t="n">
+        <v>0.273</v>
+      </c>
+    </row>
+    <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A607" s="9" t="n">
+        <v>5.6554E-006</v>
+      </c>
+      <c r="B607" s="9" t="n">
+        <v>0.0051542</v>
+      </c>
+      <c r="C607" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="D607" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E607" s="0" t="n">
+        <v>0.317</v>
+      </c>
+    </row>
+    <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A608" s="9" t="n">
+        <v>8.0997E-005</v>
+      </c>
+      <c r="B608" s="9" t="n">
+        <v>0.0064621</v>
+      </c>
+      <c r="C608" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="D608" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E608" s="0" t="n">
+        <v>0.222</v>
+      </c>
+    </row>
+    <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A609" s="9" t="n">
+        <v>2.3354E-006</v>
+      </c>
+      <c r="B609" s="9" t="n">
+        <v>0.0070156</v>
+      </c>
+      <c r="C609" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="D609" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E609" s="0" t="n">
+        <v>0.227</v>
+      </c>
+    </row>
+    <row r="610" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A610" s="7" t="n">
+        <v>1.9216E-005</v>
+      </c>
+      <c r="B610" s="7" t="n">
+        <v>0.0092244</v>
+      </c>
+      <c r="C610" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="D610" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="E610" s="8" t="n">
+        <v>0.396</v>
+      </c>
+    </row>
+    <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A611" s="9" t="n">
+        <v>9.725E-006</v>
+      </c>
+      <c r="B611" s="9" t="n">
+        <v>0.022776</v>
+      </c>
+      <c r="C611" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="D611" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E611" s="0" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A612" s="9" t="n">
+        <v>4.9349E-005</v>
+      </c>
+      <c r="B612" s="9" t="n">
+        <v>0.030325</v>
+      </c>
+      <c r="C612" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="D612" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E612" s="0" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="613" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A613" s="5" t="n">
+        <v>1.4072E-005</v>
+      </c>
+      <c r="B613" s="5" t="n">
+        <v>0.044749</v>
+      </c>
+      <c r="C613" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="D613" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="E613" s="6" t="n">
+        <v>0.219</v>
+      </c>
+    </row>
+    <row r="614" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A614" s="5" t="n">
+        <v>2.251E-005</v>
+      </c>
+      <c r="B614" s="5" t="n">
+        <v>0.067366</v>
+      </c>
+      <c r="C614" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="D614" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="E614" s="6" t="n">
+        <v>0.091</v>
+      </c>
+    </row>
+    <row r="615" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A615" s="5" t="n">
+        <v>7.5909E-006</v>
+      </c>
+      <c r="B615" s="5" t="n">
+        <v>0.081574</v>
+      </c>
+      <c r="C615" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="D615" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="E615" s="6" t="n">
+        <v>0.143</v>
+      </c>
+    </row>
+    <row r="616" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A616" s="5" t="n">
+        <v>0.00030881</v>
+      </c>
+      <c r="B616" s="5" t="n">
+        <v>0.00067512</v>
+      </c>
+      <c r="C616" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="D616" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="E616" s="6" t="n">
+        <v>0.017</v>
+      </c>
+    </row>
+    <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A617" s="9" t="n">
+        <v>0.00033537</v>
+      </c>
+      <c r="B617" s="9" t="n">
+        <v>0.00014898</v>
+      </c>
+      <c r="C617" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="D617" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E617" s="0" t="n">
+        <v>0.238</v>
+      </c>
+    </row>
+    <row r="618" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A618" s="5" t="n">
+        <v>0.00061741</v>
+      </c>
+      <c r="B618" s="5" t="n">
+        <v>0.0052624</v>
+      </c>
+      <c r="C618" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="D618" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E618" s="6" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="F618" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A620" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B620" s="11"/>
+      <c r="C620" s="11"/>
+      <c r="D620" s="11"/>
+      <c r="E620" s="11"/>
+      <c r="F620" s="11"/>
+      <c r="G620" s="11"/>
+    </row>
+    <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A621" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B621" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C621" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D621" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E621" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F621" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G621" s="4"/>
+    </row>
+    <row r="622" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A622" s="5" t="n">
+        <v>1.2119E-006</v>
+      </c>
+      <c r="B622" s="5" t="n">
+        <v>0.00037534</v>
+      </c>
+      <c r="C622" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="D622" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E622" s="6" t="n">
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="623" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A623" s="5" t="n">
+        <v>1.3052E-006</v>
+      </c>
+      <c r="B623" s="5" t="n">
+        <v>0.00010506</v>
+      </c>
+      <c r="C623" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="D623" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E623" s="6" t="n">
+        <v>0.139</v>
+      </c>
+    </row>
+    <row r="624" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A624" s="5" t="n">
+        <v>1.6201E-006</v>
+      </c>
+      <c r="B624" s="5" t="n">
+        <v>0.00061084</v>
+      </c>
+      <c r="C624" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="D624" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E624" s="6" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="F624" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="625" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A625" s="5" t="n">
+        <v>1.6512E-006</v>
+      </c>
+      <c r="B625" s="5" t="n">
+        <v>0.00072737</v>
+      </c>
+      <c r="C625" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="D625" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="E625" s="6" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="F625" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="626" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A626" s="5" t="n">
+        <v>1.9423E-006</v>
+      </c>
+      <c r="B626" s="5" t="n">
+        <v>0.083938</v>
+      </c>
+      <c r="C626" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="D626" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="E626" s="6" t="n">
+        <v>0.084</v>
+      </c>
+    </row>
+    <row r="627" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A627" s="5" t="n">
+        <v>2.0331E-006</v>
+      </c>
+      <c r="B627" s="5" t="n">
+        <v>0.067737</v>
+      </c>
+      <c r="C627" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="D627" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="E627" s="6" t="n">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="628" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A628" s="5" t="n">
+        <v>2.8808E-006</v>
+      </c>
+      <c r="B628" s="5" t="n">
+        <v>0.040327</v>
+      </c>
+      <c r="C628" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="D628" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="E628" s="6" t="n">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A629" s="9" t="n">
+        <v>5.0116E-006</v>
+      </c>
+      <c r="B629" s="9" t="n">
+        <v>0.0053202</v>
+      </c>
+      <c r="C629" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="D629" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E629" s="0" t="n">
+        <v>0.293</v>
+      </c>
+    </row>
+    <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A630" s="9" t="n">
+        <v>2.9248E-005</v>
+      </c>
+      <c r="B630" s="9" t="n">
+        <v>0.00013661</v>
+      </c>
+      <c r="C630" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="D630" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E630" s="0" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="631" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A631" s="7" t="n">
+        <v>6.0012E-005</v>
+      </c>
+      <c r="B631" s="7" t="n">
+        <v>0.0004713</v>
+      </c>
+      <c r="C631" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="D631" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="E631" s="8" t="n">
+        <v>0.471</v>
+      </c>
+    </row>
+    <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A632" s="9" t="n">
+        <v>3.3569E-005</v>
+      </c>
+      <c r="B632" s="9" t="n">
+        <v>0.00047626</v>
+      </c>
+      <c r="C632" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="D632" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E632" s="0" t="n">
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="633" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A633" s="5" t="n">
+        <v>2.1052E-005</v>
+      </c>
+      <c r="B633" s="5" t="n">
+        <v>0.001265</v>
+      </c>
+      <c r="C633" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="D633" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="E633" s="6" t="n">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A634" s="9" t="n">
+        <v>0.00036284</v>
+      </c>
+      <c r="B634" s="9" t="n">
+        <v>0.0023059</v>
+      </c>
+      <c r="C634" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="D634" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E634" s="0" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="635" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A635" s="7" t="n">
+        <v>6.9385E-006</v>
+      </c>
+      <c r="B635" s="7" t="n">
+        <v>0.0023883</v>
+      </c>
+      <c r="C635" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="D635" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="E635" s="8" t="n">
+        <v>0.455</v>
+      </c>
+    </row>
+    <row r="636" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A636" s="7" t="n">
+        <v>0.00050199</v>
+      </c>
+      <c r="B636" s="7" t="n">
+        <v>0.0027569</v>
+      </c>
+      <c r="C636" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="D636" s="8" t="n">
+        <v>29</v>
+      </c>
+      <c r="E636" s="8" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="637" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A637" s="5" t="n">
+        <v>0.00018401</v>
+      </c>
+      <c r="B637" s="5" t="n">
+        <v>0.0033466</v>
+      </c>
+      <c r="C637" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="D637" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="E637" s="6" t="n">
+        <v>0.069</v>
+      </c>
+    </row>
+    <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A638" s="9" t="n">
+        <v>1.5631E-005</v>
+      </c>
+      <c r="B638" s="9" t="n">
+        <v>0.003523</v>
+      </c>
+      <c r="C638" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="D638" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E638" s="0" t="n">
+        <v>0.304</v>
+      </c>
+    </row>
+    <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A639" s="9" t="n">
+        <v>5.3794E-005</v>
+      </c>
+      <c r="B639" s="9" t="n">
+        <v>0.0054399</v>
+      </c>
+      <c r="C639" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="D639" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E639" s="0" t="n">
+        <v>0.346</v>
+      </c>
+    </row>
+    <row r="640" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A640" s="7" t="n">
+        <v>0.0006815</v>
+      </c>
+      <c r="B640" s="7" t="n">
+        <v>0.0099108</v>
+      </c>
+      <c r="C640" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="D640" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="E640" s="8" t="n">
+        <v>0.508</v>
+      </c>
+      <c r="F640" s="8" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="641" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A641" s="7" t="n">
+        <v>0.00010406</v>
+      </c>
+      <c r="B641" s="7" t="n">
+        <v>0.048458</v>
+      </c>
+      <c r="C641" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="D641" s="8" t="n">
+        <v>26</v>
+      </c>
+      <c r="E641" s="8" t="n">
+        <v>0.522</v>
+      </c>
+    </row>
+    <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A643" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B643" s="11"/>
+      <c r="C643" s="11"/>
+      <c r="D643" s="11"/>
+      <c r="E643" s="11"/>
+      <c r="F643" s="11"/>
+      <c r="G643" s="11"/>
+    </row>
+    <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A644" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B644" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C644" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D644" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E644" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F644" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G644" s="4"/>
+    </row>
+    <row r="645" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A645" s="5" t="n">
+        <v>1.0104E-006</v>
+      </c>
+      <c r="B645" s="5" t="n">
+        <v>0.0021777</v>
+      </c>
+      <c r="C645" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="D645" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E645" s="6" t="n">
+        <v>0.044</v>
+      </c>
+    </row>
+    <row r="646" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A646" s="5" t="n">
+        <v>1.2879E-006</v>
+      </c>
+      <c r="B646" s="5" t="n">
+        <v>0.00027691</v>
+      </c>
+      <c r="C646" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="D646" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E646" s="6" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A647" s="9" t="n">
+        <v>1.3953E-006</v>
+      </c>
+      <c r="B647" s="9" t="n">
+        <v>0.09671</v>
+      </c>
+      <c r="C647" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="D647" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E647" s="0" t="n">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A648" s="9" t="n">
+        <v>1.5593E-006</v>
+      </c>
+      <c r="B648" s="9" t="n">
+        <v>0.00089435</v>
+      </c>
+      <c r="C648" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="D648" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E648" s="0" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A649" s="9" t="n">
+        <v>2.2229E-006</v>
+      </c>
+      <c r="B649" s="9" t="n">
+        <v>0.00016339</v>
+      </c>
+      <c r="C649" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="D649" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E649" s="0" t="n">
+        <v>0.261</v>
+      </c>
+    </row>
+    <row r="650" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A650" s="5" t="n">
+        <v>2.6731E-006</v>
+      </c>
+      <c r="B650" s="5" t="n">
+        <v>0.00096072</v>
+      </c>
+      <c r="C650" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="D650" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E650" s="6" t="n">
+        <v>0.211</v>
+      </c>
+    </row>
+    <row r="651" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A651" s="7" t="n">
+        <v>0.00067071</v>
+      </c>
+      <c r="B651" s="7" t="n">
+        <v>0.00014118</v>
+      </c>
+      <c r="C651" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="D651" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="E651" s="8" t="n">
+        <v>0.619</v>
+      </c>
+    </row>
+    <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A652" s="9" t="n">
+        <v>3.836E-006</v>
+      </c>
+      <c r="B652" s="9" t="n">
+        <v>0.00016141</v>
+      </c>
+      <c r="C652" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="D652" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E652" s="0" t="n">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A653" s="9" t="n">
+        <v>9.3838E-006</v>
+      </c>
+      <c r="B653" s="9" t="n">
+        <v>0.00016893</v>
+      </c>
+      <c r="C653" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="D653" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E653" s="0" t="n">
+        <v>0.273</v>
+      </c>
+    </row>
+    <row r="654" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A654" s="5" t="n">
+        <v>3.4672E-005</v>
+      </c>
+      <c r="B654" s="5" t="n">
+        <v>0.00042335</v>
+      </c>
+      <c r="C654" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="D654" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="E654" s="6" t="n">
+        <v>0.207</v>
+      </c>
+    </row>
+    <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A655" s="9" t="n">
+        <v>2.4969E-005</v>
+      </c>
+      <c r="B655" s="9" t="n">
+        <v>0.0013223</v>
+      </c>
+      <c r="C655" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="D655" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="E655" s="0" t="n">
+        <v>0.325</v>
+      </c>
+    </row>
+    <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A656" s="9" t="n">
+        <v>1.7429E-005</v>
+      </c>
+      <c r="B656" s="9" t="n">
+        <v>0.0019871</v>
+      </c>
+      <c r="C656" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="D656" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E656" s="0" t="n">
+        <v>0.273</v>
+      </c>
+    </row>
+    <row r="657" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A657" s="7" t="n">
+        <v>6.4474E-006</v>
+      </c>
+      <c r="B657" s="7" t="n">
+        <v>0.0023828</v>
+      </c>
+      <c r="C657" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="D657" s="8" t="n">
+        <v>17</v>
+      </c>
+      <c r="E657" s="8" t="n">
+        <v>0.349</v>
+      </c>
+    </row>
+    <row r="658" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A658" s="5" t="n">
+        <v>6.0333E-005</v>
+      </c>
+      <c r="B658" s="5" t="n">
+        <v>0.0037498</v>
+      </c>
+      <c r="C658" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="D658" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="E658" s="6" t="n">
+        <v>0.171</v>
+      </c>
+    </row>
+    <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A659" s="9" t="n">
+        <v>3.2499E-006</v>
+      </c>
+      <c r="B659" s="9" t="n">
+        <v>0.0047096</v>
+      </c>
+      <c r="C659" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="D659" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E659" s="0" t="n">
+        <v>0.233</v>
+      </c>
+    </row>
+    <row r="660" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A660" s="5" t="n">
+        <v>0.0006584</v>
+      </c>
+      <c r="B660" s="5" t="n">
+        <v>0.0075576</v>
+      </c>
+      <c r="C660" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="D660" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="E660" s="6" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="F660" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="661" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A661" s="5" t="n">
+        <v>0.00034934</v>
+      </c>
+      <c r="B661" s="5" t="n">
+        <v>0.0082966</v>
+      </c>
+      <c r="C661" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="D661" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="E661" s="6" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="F661" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="662" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A662" s="7" t="n">
+        <v>0.0001181</v>
+      </c>
+      <c r="B662" s="7" t="n">
+        <v>0.011792</v>
+      </c>
+      <c r="C662" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="D662" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="E662" s="8" t="n">
+        <v>0.333</v>
+      </c>
+    </row>
+    <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A663" s="9" t="n">
+        <v>6.3639E-006</v>
+      </c>
+      <c r="B663" s="9" t="n">
+        <v>0.011899</v>
+      </c>
+      <c r="C663" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="D663" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E663" s="0" t="n">
+        <v>0.324</v>
+      </c>
+    </row>
+    <row r="664" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A664" s="5" t="n">
+        <v>2.5403E-005</v>
+      </c>
+      <c r="B664" s="5" t="n">
+        <v>0.064996</v>
+      </c>
+      <c r="C664" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="D664" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="E664" s="6" t="n">
+        <v>0.201</v>
+      </c>
+    </row>
+    <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A666" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B666" s="11"/>
+      <c r="C666" s="11"/>
+      <c r="D666" s="11"/>
+      <c r="E666" s="11"/>
+      <c r="F666" s="11"/>
+      <c r="G666" s="11"/>
+    </row>
+    <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A667" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B667" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C667" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D667" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E667" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F667" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G667" s="4"/>
+    </row>
+    <row r="668" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A668" s="5" t="n">
+        <v>1.6014E-006</v>
+      </c>
+      <c r="B668" s="5" t="n">
+        <v>0.063355</v>
+      </c>
+      <c r="C668" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="D668" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="E668" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A669" s="9" t="n">
+        <v>2.5066E-006</v>
+      </c>
+      <c r="B669" s="9" t="n">
+        <v>0.012836</v>
+      </c>
+      <c r="C669" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="D669" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E669" s="0" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="670" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A670" s="5" t="n">
+        <v>3.1041E-006</v>
+      </c>
+      <c r="B670" s="5" t="n">
+        <v>0.00092756</v>
+      </c>
+      <c r="C670" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="D670" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E670" s="6" t="n">
+        <v>0.179</v>
+      </c>
+    </row>
+    <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A671" s="9" t="n">
+        <v>5.9994E-006</v>
+      </c>
+      <c r="B671" s="9" t="n">
+        <v>0.00013918</v>
+      </c>
+      <c r="C671" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="D671" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E671" s="0" t="n">
+        <v>0.285</v>
+      </c>
+    </row>
+    <row r="672" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A672" s="7" t="n">
+        <v>0.0004942</v>
+      </c>
+      <c r="B672" s="7" t="n">
+        <v>0.00018248</v>
+      </c>
+      <c r="C672" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="D672" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="E672" s="8" t="n">
+        <v>0.344</v>
+      </c>
+    </row>
+    <row r="673" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A673" s="5" t="n">
+        <v>2.4686E-005</v>
+      </c>
+      <c r="B673" s="5" t="n">
+        <v>0.00022391</v>
+      </c>
+      <c r="C673" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="D673" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="E673" s="6" t="n">
+        <v>0.195</v>
+      </c>
+    </row>
+    <row r="674" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A674" s="5" t="n">
+        <v>1.4178E-005</v>
+      </c>
+      <c r="B674" s="5" t="n">
+        <v>0.00030222</v>
+      </c>
+      <c r="C674" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="D674" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E674" s="6" t="n">
+        <v>0.091</v>
+      </c>
+    </row>
+    <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A675" s="9" t="n">
+        <v>1.4372E-005</v>
+      </c>
+      <c r="B675" s="9" t="n">
+        <v>0.00032339</v>
+      </c>
+      <c r="C675" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="D675" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E675" s="0" t="n">
+        <v>0.238</v>
+      </c>
+    </row>
+    <row r="676" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A676" s="5" t="n">
+        <v>5.4774E-005</v>
+      </c>
+      <c r="B676" s="5" t="n">
+        <v>0.00068985</v>
+      </c>
+      <c r="C676" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="D676" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="E676" s="6" t="n">
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A677" s="9" t="n">
+        <v>0.00017923</v>
+      </c>
+      <c r="B677" s="9" t="n">
+        <v>0.0012205</v>
+      </c>
+      <c r="C677" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="D677" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E677" s="0" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A678" s="9" t="n">
+        <v>0.00044462</v>
+      </c>
+      <c r="B678" s="9" t="n">
+        <v>0.002831</v>
+      </c>
+      <c r="C678" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="D678" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E678" s="0" t="n">
+        <v>0.211</v>
+      </c>
+    </row>
+    <row r="679" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A679" s="5" t="n">
+        <v>1.6643E-005</v>
+      </c>
+      <c r="B679" s="5" t="n">
+        <v>0.0030973</v>
+      </c>
+      <c r="C679" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="D679" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="E679" s="6" t="n">
+        <v>0.173</v>
+      </c>
+    </row>
+    <row r="680" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A680" s="5" t="n">
+        <v>0.00033445</v>
+      </c>
+      <c r="B680" s="5" t="n">
+        <v>0.0055916</v>
+      </c>
+      <c r="C680" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="D680" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="E680" s="6" t="n">
+        <v>0.594</v>
+      </c>
+      <c r="F680" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="681" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A681" s="7" t="n">
+        <v>5.469E-006</v>
+      </c>
+      <c r="B681" s="7" t="n">
+        <v>0.0087623</v>
+      </c>
+      <c r="C681" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="D681" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E681" s="8" t="n">
+        <v>0.364</v>
+      </c>
+    </row>
+    <row r="682" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A682" s="5" t="n">
+        <v>1.2471E-005</v>
+      </c>
+      <c r="B682" s="5" t="n">
+        <v>0.0094282</v>
+      </c>
+      <c r="C682" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="D682" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E682" s="6" t="n">
+        <v>0.199</v>
+      </c>
+    </row>
+    <row r="683" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A683" s="5" t="n">
+        <v>3.4776E-005</v>
+      </c>
+      <c r="B683" s="5" t="n">
+        <v>0.010873</v>
+      </c>
+      <c r="C683" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="D683" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="E683" s="6" t="n">
+        <v>0.148</v>
+      </c>
+    </row>
+    <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A684" s="9" t="n">
+        <v>3.4455E-005</v>
+      </c>
+      <c r="B684" s="9" t="n">
+        <v>0.024413</v>
+      </c>
+      <c r="C684" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="D684" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E684" s="0" t="n">
+        <v>0.302</v>
+      </c>
+    </row>
+    <row r="685" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A685" s="7" t="n">
+        <v>1.8803E-005</v>
+      </c>
+      <c r="B685" s="7" t="n">
+        <v>0.036101</v>
+      </c>
+      <c r="C685" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="D685" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E685" s="8" t="n">
+        <v>0.338</v>
+      </c>
+    </row>
+    <row r="686" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A686" s="5" t="n">
+        <v>0.00026236</v>
+      </c>
+      <c r="B686" s="5" t="n">
+        <v>0.060832</v>
+      </c>
+      <c r="C686" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="D686" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="E686" s="6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F686" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="687" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A687" s="5" t="n">
+        <v>0.00067319</v>
+      </c>
+      <c r="B687" s="5" t="n">
+        <v>0.006999</v>
+      </c>
+      <c r="C687" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="D687" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="E687" s="6" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="F687" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A689" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B689" s="11"/>
+      <c r="C689" s="11"/>
+      <c r="D689" s="11"/>
+      <c r="E689" s="11"/>
+      <c r="F689" s="11"/>
+      <c r="G689" s="11"/>
+    </row>
+    <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A690" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B690" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C690" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D690" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E690" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F690" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G690" s="4"/>
+    </row>
+    <row r="691" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A691" s="5" t="n">
+        <v>1.6585E-006</v>
+      </c>
+      <c r="B691" s="5" t="n">
+        <v>0.0024008</v>
+      </c>
+      <c r="C691" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="D691" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="E691" s="6" t="n">
+        <v>0.036</v>
+      </c>
+    </row>
+    <row r="692" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A692" s="5" t="n">
+        <v>1.9861E-006</v>
+      </c>
+      <c r="B692" s="5" t="n">
+        <v>0.00016271</v>
+      </c>
+      <c r="C692" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="D692" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="E692" s="6" t="n">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="693" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A693" s="5" t="n">
+        <v>2.0691E-006</v>
+      </c>
+      <c r="B693" s="5" t="n">
+        <v>0.019166</v>
+      </c>
+      <c r="C693" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="D693" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="E693" s="6" t="n">
+        <v>0.023</v>
+      </c>
+    </row>
+    <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A694" s="9" t="n">
+        <v>2.6395E-006</v>
+      </c>
+      <c r="B694" s="9" t="n">
+        <v>0.00014748</v>
+      </c>
+      <c r="C694" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="D694" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E694" s="0" t="n">
+        <v>0.363</v>
+      </c>
+    </row>
+    <row r="695" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A695" s="5" t="n">
+        <v>3.0468E-006</v>
+      </c>
+      <c r="B695" s="5" t="n">
+        <v>0.0034766</v>
+      </c>
+      <c r="C695" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="D695" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="E695" s="6" t="n">
+        <v>0.061</v>
+      </c>
+    </row>
+    <row r="696" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A696" s="7" t="n">
+        <v>3.7756E-005</v>
+      </c>
+      <c r="B696" s="7" t="n">
+        <v>0.00015641</v>
+      </c>
+      <c r="C696" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="D696" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E696" s="8" t="n">
+        <v>0.389</v>
+      </c>
+    </row>
+    <row r="697" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A697" s="7" t="n">
+        <v>9.1699E-005</v>
+      </c>
+      <c r="B697" s="7" t="n">
+        <v>0.00018932</v>
+      </c>
+      <c r="C697" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="D697" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="E697" s="8" t="n">
+        <v>0.455</v>
+      </c>
+    </row>
+    <row r="698" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A698" s="7" t="n">
+        <v>4.2475E-005</v>
+      </c>
+      <c r="B698" s="7" t="n">
+        <v>0.00020468</v>
+      </c>
+      <c r="C698" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="D698" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E698" s="8" t="n">
+        <v>0.571</v>
+      </c>
+    </row>
+    <row r="699" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A699" s="7" t="n">
+        <v>0.00010687</v>
+      </c>
+      <c r="B699" s="7" t="n">
+        <v>0.00024731</v>
+      </c>
+      <c r="C699" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="D699" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E699" s="8" t="n">
+        <v>0.391</v>
+      </c>
+    </row>
+    <row r="700" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A700" s="7" t="n">
+        <v>4.6409E-005</v>
+      </c>
+      <c r="B700" s="7" t="n">
+        <v>0.00050012</v>
+      </c>
+      <c r="C700" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="D700" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E700" s="8" t="n">
+        <v>0.462</v>
+      </c>
+    </row>
+    <row r="701" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A701" s="5" t="n">
+        <v>4.1835E-005</v>
+      </c>
+      <c r="B701" s="5" t="n">
+        <v>0.0013865</v>
+      </c>
+      <c r="C701" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="D701" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E701" s="6" t="n">
+        <v>0.176</v>
+      </c>
+    </row>
+    <row r="702" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A702" s="5" t="n">
+        <v>4.0999E-005</v>
+      </c>
+      <c r="B702" s="5" t="n">
+        <v>0.0033668</v>
+      </c>
+      <c r="C702" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="D702" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E702" s="6" t="n">
+        <v>0.038</v>
+      </c>
+    </row>
+    <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A703" s="9" t="n">
+        <v>8.0006E-005</v>
+      </c>
+      <c r="B703" s="9" t="n">
+        <v>0.013943</v>
+      </c>
+      <c r="C703" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="D703" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E703" s="0" t="n">
+        <v>0.292</v>
+      </c>
+    </row>
+    <row r="704" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A704" s="7" t="n">
+        <v>0.00012318</v>
+      </c>
+      <c r="B704" s="7" t="n">
+        <v>0.034618</v>
+      </c>
+      <c r="C704" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="D704" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="E704" s="8" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F704" s="8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="705" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A705" s="7" t="n">
+        <v>0.00019583</v>
+      </c>
+      <c r="B705" s="7" t="n">
+        <v>0.056849</v>
+      </c>
+      <c r="C705" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="D705" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="E705" s="8" t="n">
+        <v>0.455</v>
+      </c>
+    </row>
+    <row r="706" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A706" s="5" t="n">
+        <v>0.0002167</v>
+      </c>
+      <c r="B706" s="5" t="n">
+        <v>0.01522</v>
+      </c>
+      <c r="C706" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="D706" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="E706" s="6" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="707" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A707" s="5" t="n">
+        <v>0.00022212</v>
+      </c>
+      <c r="B707" s="5" t="n">
+        <v>0.0062312</v>
+      </c>
+      <c r="C707" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="D707" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="E707" s="6" t="n">
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A708" s="9" t="n">
+        <v>0.0002844</v>
+      </c>
+      <c r="B708" s="9" t="n">
+        <v>0.023885</v>
+      </c>
+      <c r="C708" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="D708" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E708" s="0" t="n">
+        <v>0.318</v>
+      </c>
+    </row>
+    <row r="709" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A709" s="12" t="n">
+        <v>0.00033831</v>
+      </c>
+      <c r="B709" s="12" t="n">
+        <v>0.0029797</v>
+      </c>
+      <c r="C709" s="13" t="s">
+        <v>641</v>
+      </c>
+      <c r="D709" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="E709" s="13" t="n">
+        <v>0.364</v>
+      </c>
+    </row>
+    <row r="710" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A710" s="5" t="n">
+        <v>0.00051556</v>
+      </c>
+      <c r="B710" s="5" t="n">
+        <v>0.063996</v>
+      </c>
+      <c r="C710" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="D710" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="E710" s="6" t="n">
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A712" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B712" s="11"/>
+      <c r="C712" s="11"/>
+      <c r="D712" s="11"/>
+      <c r="E712" s="11"/>
+      <c r="F712" s="11"/>
+      <c r="G712" s="11"/>
+    </row>
+    <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A713" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B713" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C713" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D713" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E713" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="F713" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A714" s="9" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="B714" s="9" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="C714" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="D714" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="F714" s="0" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A715" s="9" t="n">
+        <v>5E-005</v>
+      </c>
+      <c r="B715" s="9" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C715" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="D715" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="F715" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A716" s="9" t="n">
+        <v>5E-005</v>
+      </c>
+      <c r="B716" s="9" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C716" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="D716" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="F716" s="0" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A717" s="9" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="B717" s="9" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="C717" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="D717" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="F717" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A718" s="9" t="n">
+        <v>5E-005</v>
+      </c>
+      <c r="B718" s="9" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="C718" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="D718" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="F718" s="0" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A720" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="B720" s="10"/>
+      <c r="C720" s="10"/>
+      <c r="D720" s="10"/>
+      <c r="E720" s="10"/>
+      <c r="F720" s="10"/>
+      <c r="G720" s="10"/>
+    </row>
+    <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G721" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A722" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B722" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="G722" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A723" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B723" s="0" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A725" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B725" s="11"/>
+      <c r="C725" s="11"/>
+      <c r="D725" s="11"/>
+      <c r="E725" s="11"/>
+      <c r="F725" s="11"/>
+      <c r="G725" s="11"/>
+    </row>
+    <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A726" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B726" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C726" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D726" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E726" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F726" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G726" s="4"/>
+    </row>
+    <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A727" s="9" t="n">
+        <v>1.8666E-005</v>
+      </c>
+      <c r="B727" s="9" t="n">
+        <v>0.0070719</v>
+      </c>
+      <c r="C727" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="D727" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A728" s="9" t="n">
+        <v>3.2374E-005</v>
+      </c>
+      <c r="B728" s="9" t="n">
+        <v>0.1804144</v>
+      </c>
+      <c r="C728" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="D728" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A729" s="9" t="n">
+        <v>5.2376E-005</v>
+      </c>
+      <c r="B729" s="9" t="n">
+        <v>0.0418053</v>
+      </c>
+      <c r="C729" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="D729" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A730" s="9" t="n">
+        <v>6.7318E-005</v>
+      </c>
+      <c r="B730" s="9" t="n">
+        <v>0.3159105</v>
+      </c>
+      <c r="C730" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="D730" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A731" s="9" t="n">
+        <v>7.427E-005</v>
+      </c>
+      <c r="B731" s="9" t="n">
+        <v>0.0754769</v>
+      </c>
+      <c r="C731" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="D731" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A732" s="9" t="n">
+        <v>7.531E-005</v>
+      </c>
+      <c r="B732" s="9" t="n">
+        <v>0.00747</v>
+      </c>
+      <c r="C732" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="D732" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A733" s="9" t="n">
+        <v>9.8843E-005</v>
+      </c>
+      <c r="B733" s="9" t="n">
+        <v>0.2547246</v>
+      </c>
+      <c r="C733" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="D733" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A734" s="9" t="n">
+        <v>0.00011354</v>
+      </c>
+      <c r="B734" s="9" t="n">
+        <v>0.1858051</v>
+      </c>
+      <c r="C734" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="D734" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A735" s="9" t="n">
+        <v>0.00013785</v>
+      </c>
+      <c r="B735" s="9" t="n">
+        <v>0.0432537</v>
+      </c>
+      <c r="C735" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="D735" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A736" s="9" t="n">
+        <v>0.00016602</v>
+      </c>
+      <c r="B736" s="9" t="n">
+        <v>0.0231793</v>
+      </c>
+      <c r="C736" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="D736" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A737" s="9" t="n">
+        <v>0.00019056</v>
+      </c>
+      <c r="B737" s="9" t="n">
+        <v>0.2528158</v>
+      </c>
+      <c r="C737" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="D737" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A738" s="9" t="n">
+        <v>0.00034296</v>
+      </c>
+      <c r="B738" s="9" t="n">
+        <v>0.0499562</v>
+      </c>
+      <c r="C738" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="D738" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A739" s="9" t="n">
+        <v>0.00039029</v>
+      </c>
+      <c r="B739" s="9" t="n">
+        <v>0.0028429</v>
+      </c>
+      <c r="C739" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="D739" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A740" s="9" t="n">
+        <v>0.00055539</v>
+      </c>
+      <c r="B740" s="9" t="n">
+        <v>0.0018864</v>
+      </c>
+      <c r="C740" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="D740" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A741" s="9" t="n">
+        <v>0.00090118</v>
+      </c>
+      <c r="B741" s="9" t="n">
+        <v>0.4039587</v>
+      </c>
+      <c r="C741" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="D741" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A742" s="9" t="n">
+        <v>0.00098877</v>
+      </c>
+      <c r="B742" s="9" t="n">
+        <v>0.0024774</v>
+      </c>
+      <c r="C742" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="D742" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A743" s="9" t="n">
+        <v>0.0011034</v>
+      </c>
+      <c r="B743" s="9" t="n">
+        <v>0.0116369</v>
+      </c>
+      <c r="C743" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="D743" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A744" s="9" t="n">
+        <v>0.0013155</v>
+      </c>
+      <c r="B744" s="9" t="n">
+        <v>0.480748</v>
+      </c>
+      <c r="C744" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="D744" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A745" s="9" t="n">
+        <v>0.0018385</v>
+      </c>
+      <c r="B745" s="9" t="n">
+        <v>0.0245581</v>
+      </c>
+      <c r="C745" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="D745" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A746" s="9" t="n">
+        <v>0.0041912</v>
+      </c>
+      <c r="B746" s="9" t="n">
+        <v>0.0295907</v>
+      </c>
+      <c r="C746" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="D746" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A748" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B748" s="11"/>
+      <c r="C748" s="11"/>
+      <c r="D748" s="11"/>
+      <c r="E748" s="11"/>
+      <c r="F748" s="11"/>
+      <c r="G748" s="11"/>
+    </row>
+    <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A749" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B749" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C749" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D749" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E749" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F749" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G749" s="4"/>
+    </row>
+    <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A750" s="9" t="n">
+        <v>1.4057E-005</v>
+      </c>
+      <c r="B750" s="9" t="n">
+        <v>0.0033753</v>
+      </c>
+      <c r="C750" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="D750" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A751" s="9" t="n">
+        <v>2.4498E-005</v>
+      </c>
+      <c r="B751" s="9" t="n">
+        <v>0.0163899</v>
+      </c>
+      <c r="C751" s="0" t="s">
+        <v>669</v>
+      </c>
+      <c r="D751" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A752" s="9" t="n">
+        <v>4.2452E-005</v>
+      </c>
+      <c r="B752" s="9" t="n">
+        <v>0.0737432</v>
+      </c>
+      <c r="C752" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="D752" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A753" s="9" t="n">
+        <v>4.8186E-005</v>
+      </c>
+      <c r="B753" s="9" t="n">
+        <v>0.163018</v>
+      </c>
+      <c r="C753" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="D753" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A754" s="9" t="n">
+        <v>7.5177E-005</v>
+      </c>
+      <c r="B754" s="9" t="n">
+        <v>0.1113902</v>
+      </c>
+      <c r="C754" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="D754" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A755" s="9" t="n">
+        <v>0.0001066</v>
+      </c>
+      <c r="B755" s="9" t="n">
+        <v>0.0025984</v>
+      </c>
+      <c r="C755" s="0" t="s">
+        <v>673</v>
+      </c>
+      <c r="D755" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A756" s="9" t="n">
+        <v>0.00027365</v>
+      </c>
+      <c r="B756" s="9" t="n">
+        <v>0.015192</v>
+      </c>
+      <c r="C756" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="D756" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A757" s="9" t="n">
+        <v>0.00058323</v>
+      </c>
+      <c r="B757" s="9" t="n">
+        <v>0.0173452</v>
+      </c>
+      <c r="C757" s="0" t="s">
+        <v>675</v>
+      </c>
+      <c r="D757" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A758" s="9" t="n">
+        <v>0.00060707</v>
+      </c>
+      <c r="B758" s="9" t="n">
+        <v>0.4357645</v>
+      </c>
+      <c r="C758" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="D758" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A759" s="9" t="n">
+        <v>0.00072716</v>
+      </c>
+      <c r="B759" s="9" t="n">
+        <v>0.0793741</v>
+      </c>
+      <c r="C759" s="0" t="s">
+        <v>677</v>
+      </c>
+      <c r="D759" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A760" s="9" t="n">
+        <v>0.0011466</v>
+      </c>
+      <c r="B760" s="9" t="n">
+        <v>0.0817089</v>
+      </c>
+      <c r="C760" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="D760" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A761" s="9" t="n">
+        <v>0.0013191</v>
+      </c>
+      <c r="B761" s="9" t="n">
+        <v>0.1072782</v>
+      </c>
+      <c r="C761" s="0" t="s">
+        <v>679</v>
+      </c>
+      <c r="D761" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A762" s="9" t="n">
+        <v>0.0016064</v>
+      </c>
+      <c r="B762" s="9" t="n">
+        <v>0.655014</v>
+      </c>
+      <c r="C762" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="D762" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A763" s="9" t="n">
+        <v>0.0019145</v>
+      </c>
+      <c r="B763" s="9" t="n">
+        <v>0.0014263</v>
+      </c>
+      <c r="C763" s="0" t="s">
+        <v>681</v>
+      </c>
+      <c r="D763" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A764" s="9" t="n">
+        <v>0.0022187</v>
+      </c>
+      <c r="B764" s="9" t="n">
+        <v>0.5065797</v>
+      </c>
+      <c r="C764" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="D764" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A765" s="9" t="n">
+        <v>0.0027533</v>
+      </c>
+      <c r="B765" s="9" t="n">
+        <v>0.0023478</v>
+      </c>
+      <c r="C765" s="0" t="s">
+        <v>683</v>
+      </c>
+      <c r="D765" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A766" s="9" t="n">
+        <v>0.0038317</v>
+      </c>
+      <c r="B766" s="9" t="n">
+        <v>0.2289818</v>
+      </c>
+      <c r="C766" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="D766" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A767" s="9" t="n">
+        <v>0.0038478</v>
+      </c>
+      <c r="B767" s="9" t="n">
+        <v>0.0198303</v>
+      </c>
+      <c r="C767" s="0" t="s">
+        <v>685</v>
+      </c>
+      <c r="D767" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A768" s="9" t="n">
+        <v>0.004114</v>
+      </c>
+      <c r="B768" s="9" t="n">
+        <v>0.1371036</v>
+      </c>
+      <c r="C768" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="D768" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A769" s="9" t="n">
+        <v>0.0079553</v>
+      </c>
+      <c r="B769" s="9" t="n">
+        <v>0.3176951</v>
+      </c>
+      <c r="C769" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="D769" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A771" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B771" s="11"/>
+      <c r="C771" s="11"/>
+      <c r="D771" s="11"/>
+      <c r="E771" s="11"/>
+      <c r="F771" s="11"/>
+      <c r="G771" s="11"/>
+    </row>
+    <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A772" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B772" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C772" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D772" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E772" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F772" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G772" s="4"/>
+    </row>
+    <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A773" s="9" t="n">
+        <v>1.6003E-005</v>
+      </c>
+      <c r="B773" s="9" t="n">
+        <v>0.0037366</v>
+      </c>
+      <c r="C773" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="D773" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A774" s="9" t="n">
+        <v>2.5648E-005</v>
+      </c>
+      <c r="B774" s="9" t="n">
+        <v>0.0589231</v>
+      </c>
+      <c r="C774" s="0" t="s">
+        <v>689</v>
+      </c>
+      <c r="D774" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A775" s="9" t="n">
+        <v>3.3697E-005</v>
+      </c>
+      <c r="B775" s="9" t="n">
+        <v>0.099009</v>
+      </c>
+      <c r="C775" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="D775" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A776" s="9" t="n">
+        <v>7.9844E-005</v>
+      </c>
+      <c r="B776" s="9" t="n">
+        <v>0.1673231</v>
+      </c>
+      <c r="C776" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="D776" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A777" s="9" t="n">
+        <v>9.7291E-005</v>
+      </c>
+      <c r="B777" s="9" t="n">
+        <v>0.0021595</v>
+      </c>
+      <c r="C777" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="D777" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A778" s="9" t="n">
+        <v>0.00011905</v>
+      </c>
+      <c r="B778" s="9" t="n">
+        <v>0.2600791</v>
+      </c>
+      <c r="C778" s="0" t="s">
+        <v>693</v>
+      </c>
+      <c r="D778" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A779" s="9" t="n">
+        <v>0.00021776</v>
+      </c>
+      <c r="B779" s="9" t="n">
+        <v>0.0079892</v>
+      </c>
+      <c r="C779" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="D779" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A780" s="9" t="n">
+        <v>0.00022423</v>
+      </c>
+      <c r="B780" s="9" t="n">
+        <v>0.0010541</v>
+      </c>
+      <c r="C780" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="D780" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A781" s="9" t="n">
+        <v>0.00028016</v>
+      </c>
+      <c r="B781" s="9" t="n">
+        <v>0.1983943</v>
+      </c>
+      <c r="C781" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="D781" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A782" s="9" t="n">
+        <v>0.00030113</v>
+      </c>
+      <c r="B782" s="9" t="n">
+        <v>0.035105</v>
+      </c>
+      <c r="C782" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="D782" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A783" s="9" t="n">
+        <v>0.00030474</v>
+      </c>
+      <c r="B783" s="9" t="n">
+        <v>0.0011084</v>
+      </c>
+      <c r="C783" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="D783" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A784" s="9" t="n">
+        <v>0.00034415</v>
+      </c>
+      <c r="B784" s="9" t="n">
+        <v>0.0565636</v>
+      </c>
+      <c r="C784" s="0" t="s">
+        <v>699</v>
+      </c>
+      <c r="D784" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A785" s="9" t="n">
+        <v>0.00046493</v>
+      </c>
+      <c r="B785" s="9" t="n">
+        <v>0.105332</v>
+      </c>
+      <c r="C785" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="D785" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A786" s="9" t="n">
+        <v>0.00066423</v>
+      </c>
+      <c r="B786" s="9" t="n">
+        <v>0.1420813</v>
+      </c>
+      <c r="C786" s="0" t="s">
+        <v>701</v>
+      </c>
+      <c r="D786" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A787" s="9" t="n">
+        <v>0.0013526</v>
+      </c>
+      <c r="B787" s="9" t="n">
+        <v>0.0715529</v>
+      </c>
+      <c r="C787" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="D787" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A788" s="9" t="n">
+        <v>0.0020599</v>
+      </c>
+      <c r="B788" s="9" t="n">
+        <v>0.0089621</v>
+      </c>
+      <c r="C788" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="D788" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A789" s="9" t="n">
+        <v>0.0035747</v>
+      </c>
+      <c r="B789" s="9" t="n">
+        <v>0.0072182</v>
+      </c>
+      <c r="C789" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="D789" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A790" s="9" t="n">
+        <v>0.0063868</v>
+      </c>
+      <c r="B790" s="9" t="n">
+        <v>0.0833557</v>
+      </c>
+      <c r="C790" s="0" t="s">
+        <v>705</v>
+      </c>
+      <c r="D790" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A791" s="9" t="n">
+        <v>0.0068406</v>
+      </c>
+      <c r="B791" s="9" t="n">
+        <v>0.2217931</v>
+      </c>
+      <c r="C791" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="D791" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A792" s="9" t="n">
+        <v>0.0093967</v>
+      </c>
+      <c r="B792" s="9" t="n">
+        <v>0.00379</v>
+      </c>
+      <c r="C792" s="0" t="s">
+        <v>707</v>
+      </c>
+      <c r="D792" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A794" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B794" s="11"/>
+      <c r="C794" s="11"/>
+      <c r="D794" s="11"/>
+      <c r="E794" s="11"/>
+      <c r="F794" s="11"/>
+      <c r="G794" s="11"/>
+    </row>
+    <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A795" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B795" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C795" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D795" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E795" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F795" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G795" s="4"/>
+    </row>
+    <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A796" s="9" t="n">
+        <v>1.0766E-005</v>
+      </c>
+      <c r="B796" s="9" t="n">
+        <v>0.1156074</v>
+      </c>
+      <c r="C796" s="0" t="s">
+        <v>708</v>
+      </c>
+      <c r="D796" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A797" s="9" t="n">
+        <v>1.2384E-005</v>
+      </c>
+      <c r="B797" s="9" t="n">
+        <v>0.0011149</v>
+      </c>
+      <c r="C797" s="0" t="s">
+        <v>709</v>
+      </c>
+      <c r="D797" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A798" s="9" t="n">
+        <v>2.9331E-005</v>
+      </c>
+      <c r="B798" s="9" t="n">
+        <v>0.0663546</v>
+      </c>
+      <c r="C798" s="0" t="s">
+        <v>710</v>
+      </c>
+      <c r="D798" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A799" s="9" t="n">
+        <v>3.0926E-005</v>
+      </c>
+      <c r="B799" s="9" t="n">
+        <v>0.0031829</v>
+      </c>
+      <c r="C799" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="D799" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A800" s="9" t="n">
+        <v>5.2782E-005</v>
+      </c>
+      <c r="B800" s="9" t="n">
+        <v>0.0015249</v>
+      </c>
+      <c r="C800" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="D800" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A801" s="9" t="n">
+        <v>7.4561E-005</v>
+      </c>
+      <c r="B801" s="9" t="n">
+        <v>0.0018747</v>
+      </c>
+      <c r="C801" s="0" t="s">
+        <v>713</v>
+      </c>
+      <c r="D801" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A802" s="9" t="n">
+        <v>7.8621E-005</v>
+      </c>
+      <c r="B802" s="9" t="n">
+        <v>0.2059166</v>
+      </c>
+      <c r="C802" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="D802" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A803" s="9" t="n">
+        <v>0.00011174</v>
+      </c>
+      <c r="B803" s="9" t="n">
+        <v>0.0021338</v>
+      </c>
+      <c r="C803" s="0" t="s">
+        <v>715</v>
+      </c>
+      <c r="D803" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A804" s="9" t="n">
+        <v>0.00011868</v>
+      </c>
+      <c r="B804" s="9" t="n">
+        <v>0.0013809</v>
+      </c>
+      <c r="C804" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="D804" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A805" s="9" t="n">
+        <v>0.00032365</v>
+      </c>
+      <c r="B805" s="9" t="n">
+        <v>0.014724</v>
+      </c>
+      <c r="C805" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="D805" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A806" s="9" t="n">
+        <v>0.00034651</v>
+      </c>
+      <c r="B806" s="9" t="n">
+        <v>0.0456386</v>
+      </c>
+      <c r="C806" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="D806" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A807" s="9" t="n">
+        <v>0.00043861</v>
+      </c>
+      <c r="B807" s="9" t="n">
+        <v>0.0011856</v>
+      </c>
+      <c r="C807" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="D807" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A808" s="9" t="n">
+        <v>0.0011725</v>
+      </c>
+      <c r="B808" s="9" t="n">
+        <v>0.0088062</v>
+      </c>
+      <c r="C808" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="D808" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A809" s="9" t="n">
+        <v>0.0013901</v>
+      </c>
+      <c r="B809" s="9" t="n">
+        <v>0.0847856</v>
+      </c>
+      <c r="C809" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="D809" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A810" s="9" t="n">
+        <v>0.0014098</v>
+      </c>
+      <c r="B810" s="9" t="n">
+        <v>0.0069111</v>
+      </c>
+      <c r="C810" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="D810" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A811" s="9" t="n">
+        <v>0.0015129</v>
+      </c>
+      <c r="B811" s="9" t="n">
+        <v>0.0122894</v>
+      </c>
+      <c r="C811" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="D811" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A812" s="9" t="n">
+        <v>0.0044888</v>
+      </c>
+      <c r="B812" s="9" t="n">
+        <v>0.0466439</v>
+      </c>
+      <c r="C812" s="0" t="s">
+        <v>724</v>
+      </c>
+      <c r="D812" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A813" s="9" t="n">
+        <v>0.0045995</v>
+      </c>
+      <c r="B813" s="9" t="n">
+        <v>0.834387</v>
+      </c>
+      <c r="C813" s="0" t="s">
+        <v>725</v>
+      </c>
+      <c r="D813" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A814" s="9" t="n">
+        <v>0.0089622</v>
+      </c>
+      <c r="B814" s="9" t="n">
+        <v>0.0049203</v>
+      </c>
+      <c r="C814" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="D814" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A815" s="9" t="n">
+        <v>0.0095502</v>
+      </c>
+      <c r="B815" s="9" t="n">
+        <v>0.0032744</v>
+      </c>
+      <c r="C815" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="D815" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A817" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B817" s="11"/>
+      <c r="C817" s="11"/>
+      <c r="D817" s="11"/>
+      <c r="E817" s="11"/>
+      <c r="F817" s="11"/>
+      <c r="G817" s="11"/>
+    </row>
+    <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A818" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B818" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C818" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D818" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E818" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F818" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G818" s="4"/>
+    </row>
+    <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A819" s="9" t="n">
+        <v>1.4658E-005</v>
+      </c>
+      <c r="B819" s="9" t="n">
+        <v>0.9801203</v>
+      </c>
+      <c r="C819" s="0" t="s">
+        <v>728</v>
+      </c>
+      <c r="D819" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A820" s="9" t="n">
+        <v>1.789E-005</v>
+      </c>
+      <c r="B820" s="9" t="n">
+        <v>0.1856801</v>
+      </c>
+      <c r="C820" s="0" t="s">
+        <v>729</v>
+      </c>
+      <c r="D820" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A821" s="9" t="n">
+        <v>2.0804E-005</v>
+      </c>
+      <c r="B821" s="9" t="n">
+        <v>0.0333956</v>
+      </c>
+      <c r="C821" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="D821" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A822" s="9" t="n">
+        <v>2.6244E-005</v>
+      </c>
+      <c r="B822" s="9" t="n">
+        <v>0.0652882</v>
+      </c>
+      <c r="C822" s="0" t="s">
+        <v>731</v>
+      </c>
+      <c r="D822" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A823" s="9" t="n">
+        <v>0.00014789</v>
+      </c>
+      <c r="B823" s="9" t="n">
+        <v>0.0051614</v>
+      </c>
+      <c r="C823" s="0" t="s">
+        <v>732</v>
+      </c>
+      <c r="D823" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A824" s="9" t="n">
+        <v>0.00016985</v>
+      </c>
+      <c r="B824" s="9" t="n">
+        <v>0.0113498</v>
+      </c>
+      <c r="C824" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="D824" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A825" s="9" t="n">
+        <v>0.00023075</v>
+      </c>
+      <c r="B825" s="9" t="n">
+        <v>0.4389243</v>
+      </c>
+      <c r="C825" s="0" t="s">
+        <v>734</v>
+      </c>
+      <c r="D825" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A826" s="9" t="n">
+        <v>0.00029028</v>
+      </c>
+      <c r="B826" s="9" t="n">
+        <v>0.0041465</v>
+      </c>
+      <c r="C826" s="0" t="s">
+        <v>735</v>
+      </c>
+      <c r="D826" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A827" s="9" t="n">
+        <v>0.00040213</v>
+      </c>
+      <c r="B827" s="9" t="n">
+        <v>0.0014349</v>
+      </c>
+      <c r="C827" s="0" t="s">
+        <v>736</v>
+      </c>
+      <c r="D827" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A828" s="9" t="n">
+        <v>0.00092139</v>
+      </c>
+      <c r="B828" s="9" t="n">
+        <v>0.1588808</v>
+      </c>
+      <c r="C828" s="0" t="s">
+        <v>737</v>
+      </c>
+      <c r="D828" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A829" s="9" t="n">
+        <v>0.00097997</v>
+      </c>
+      <c r="B829" s="9" t="n">
+        <v>0.0056658</v>
+      </c>
+      <c r="C829" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="D829" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A830" s="9" t="n">
+        <v>0.0012963</v>
+      </c>
+      <c r="B830" s="9" t="n">
+        <v>0.1790334</v>
+      </c>
+      <c r="C830" s="0" t="s">
+        <v>739</v>
+      </c>
+      <c r="D830" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A831" s="9" t="n">
+        <v>0.0025991</v>
+      </c>
+      <c r="B831" s="9" t="n">
+        <v>0.0393241</v>
+      </c>
+      <c r="C831" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="D831" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A832" s="9" t="n">
+        <v>0.0033339</v>
+      </c>
+      <c r="B832" s="9" t="n">
+        <v>0.131221</v>
+      </c>
+      <c r="C832" s="0" t="s">
+        <v>741</v>
+      </c>
+      <c r="D832" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A833" s="9" t="n">
+        <v>0.0037212</v>
+      </c>
+      <c r="B833" s="9" t="n">
+        <v>0.0075311</v>
+      </c>
+      <c r="C833" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="D833" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A834" s="9" t="n">
+        <v>0.0039612</v>
+      </c>
+      <c r="B834" s="9" t="n">
+        <v>0.0032546</v>
+      </c>
+      <c r="C834" s="0" t="s">
+        <v>743</v>
+      </c>
+      <c r="D834" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A835" s="9" t="n">
+        <v>0.0050502</v>
+      </c>
+      <c r="B835" s="9" t="n">
+        <v>0.0020429</v>
+      </c>
+      <c r="C835" s="0" t="s">
+        <v>744</v>
+      </c>
+      <c r="D835" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A836" s="9" t="n">
+        <v>0.0054268</v>
+      </c>
+      <c r="B836" s="9" t="n">
+        <v>0.0015947</v>
+      </c>
+      <c r="C836" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="D836" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A837" s="9" t="n">
+        <v>0.0063049</v>
+      </c>
+      <c r="B837" s="9" t="n">
+        <v>0.0852885</v>
+      </c>
+      <c r="C837" s="0" t="s">
+        <v>746</v>
+      </c>
+      <c r="D837" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A838" s="9" t="n">
+        <v>0.008088</v>
+      </c>
+      <c r="B838" s="9" t="n">
+        <v>0.0026024</v>
+      </c>
+      <c r="C838" s="0" t="s">
+        <v>747</v>
+      </c>
+      <c r="D838" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="46">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A41:K41"/>
@@ -13414,6 +17703,19 @@
     <mergeCell ref="A537:G537"/>
     <mergeCell ref="A560:G560"/>
     <mergeCell ref="A583:G583"/>
+    <mergeCell ref="A592:G592"/>
+    <mergeCell ref="A597:G597"/>
+    <mergeCell ref="A620:G620"/>
+    <mergeCell ref="A643:G643"/>
+    <mergeCell ref="A666:G666"/>
+    <mergeCell ref="A689:G689"/>
+    <mergeCell ref="A712:G712"/>
+    <mergeCell ref="A720:G720"/>
+    <mergeCell ref="A725:G725"/>
+    <mergeCell ref="A748:G748"/>
+    <mergeCell ref="A771:G771"/>
+    <mergeCell ref="A794:G794"/>
+    <mergeCell ref="A817:G817"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/experiments/hyperparameters/hyperparemeter_search.xlsx
+++ b/experiments/hyperparameters/hyperparemeter_search.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="22" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="11" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="755">
   <si>
     <t>EXPERIMENT 2_old</t>
   </si>
@@ -1970,54 +1970,54 @@
     <t>run565</t>
   </si>
   <si>
+    <t>run576</t>
+  </si>
+  <si>
+    <t>run578</t>
+  </si>
+  <si>
+    <t>run575</t>
+  </si>
+  <si>
+    <t>run568</t>
+  </si>
+  <si>
+    <t>run579</t>
+  </si>
+  <si>
+    <t>run572</t>
+  </si>
+  <si>
+    <t>run581</t>
+  </si>
+  <si>
+    <t>run571</t>
+  </si>
+  <si>
+    <t>run574</t>
+  </si>
+  <si>
+    <t>run567</t>
+  </si>
+  <si>
+    <t>run570</t>
+  </si>
+  <si>
+    <t>run573</t>
+  </si>
+  <si>
+    <t>run569</t>
+  </si>
+  <si>
     <t>run566</t>
   </si>
   <si>
-    <t>run567</t>
-  </si>
-  <si>
-    <t>run568</t>
-  </si>
-  <si>
-    <t>run569</t>
-  </si>
-  <si>
-    <t>run570</t>
-  </si>
-  <si>
-    <t>run571</t>
-  </si>
-  <si>
-    <t>run572</t>
-  </si>
-  <si>
-    <t>run573</t>
-  </si>
-  <si>
-    <t>run574</t>
-  </si>
-  <si>
-    <t>run575</t>
-  </si>
-  <si>
-    <t>run576</t>
-  </si>
-  <si>
     <t>run577</t>
   </si>
   <si>
-    <t>run578</t>
-  </si>
-  <si>
-    <t>run579</t>
-  </si>
-  <si>
     <t>run580</t>
   </si>
   <si>
-    <t>run581</t>
-  </si>
-  <si>
     <t>run582</t>
   </si>
   <si>
@@ -2027,33 +2027,33 @@
     <t>run584</t>
   </si>
   <si>
+    <t>run588</t>
+  </si>
+  <si>
+    <t>run589</t>
+  </si>
+  <si>
+    <t>run590</t>
+  </si>
+  <si>
     <t>run585</t>
   </si>
   <si>
+    <t>run592</t>
+  </si>
+  <si>
+    <t>run593</t>
+  </si>
+  <si>
+    <t>run587</t>
+  </si>
+  <si>
     <t>run586</t>
   </si>
   <si>
-    <t>run587</t>
-  </si>
-  <si>
-    <t>run588</t>
-  </si>
-  <si>
-    <t>run589</t>
-  </si>
-  <si>
-    <t>run590</t>
-  </si>
-  <si>
     <t>run591</t>
   </si>
   <si>
-    <t>run592</t>
-  </si>
-  <si>
-    <t>run593</t>
-  </si>
-  <si>
     <t>run594</t>
   </si>
   <si>
@@ -2084,48 +2084,48 @@
     <t>run603</t>
   </si>
   <si>
+    <t>run610</t>
+  </si>
+  <si>
+    <t>run613</t>
+  </si>
+  <si>
+    <t>run607</t>
+  </si>
+  <si>
+    <t>run609</t>
+  </si>
+  <si>
+    <t>run612</t>
+  </si>
+  <si>
+    <t>run614</t>
+  </si>
+  <si>
     <t>run604</t>
   </si>
   <si>
+    <t>run617</t>
+  </si>
+  <si>
     <t>run605</t>
   </si>
   <si>
+    <t>run615</t>
+  </si>
+  <si>
+    <t>run616</t>
+  </si>
+  <si>
     <t>run606</t>
   </si>
   <si>
-    <t>run607</t>
+    <t>run611</t>
   </si>
   <si>
     <t>run608</t>
   </si>
   <si>
-    <t>run609</t>
-  </si>
-  <si>
-    <t>run610</t>
-  </si>
-  <si>
-    <t>run611</t>
-  </si>
-  <si>
-    <t>run612</t>
-  </si>
-  <si>
-    <t>run613</t>
-  </si>
-  <si>
-    <t>run614</t>
-  </si>
-  <si>
-    <t>run615</t>
-  </si>
-  <si>
-    <t>run616</t>
-  </si>
-  <si>
-    <t>run617</t>
-  </si>
-  <si>
     <t>run618</t>
   </si>
   <si>
@@ -2147,6 +2147,9 @@
     <t>run624</t>
   </si>
   <si>
+    <t>not converged</t>
+  </si>
+  <si>
     <t>run625</t>
   </si>
   <si>
@@ -2159,6 +2162,9 @@
     <t>run628</t>
   </si>
   <si>
+    <t>invalid</t>
+  </si>
+  <si>
     <t>run629</t>
   </si>
   <si>
@@ -2259,6 +2265,21 @@
   </si>
   <si>
     <t>run662</t>
+  </si>
+  <si>
+    <t>run663</t>
+  </si>
+  <si>
+    <t>run664</t>
+  </si>
+  <si>
+    <t>run665</t>
+  </si>
+  <si>
+    <t>run666</t>
+  </si>
+  <si>
+    <t>run667</t>
   </si>
 </sst>
 </file>
@@ -2269,7 +2290,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0.00E+000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2290,6 +2311,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF800000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2352,7 +2380,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2401,11 +2429,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2426,10 +2470,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K838"/>
+  <dimension ref="A1:K847"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A707" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B718" activeCellId="0" sqref="B718"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A817" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E829" activeCellId="0" sqref="E829"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -14564,8 +14608,9 @@
       <c r="E626" s="6" t="n">
         <v>0.084</v>
       </c>
-    </row>
-    <row r="627" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F626" s="0"/>
+    </row>
+    <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="5" t="n">
         <v>2.0331E-006</v>
       </c>
@@ -14582,7 +14627,7 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="628" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="5" t="n">
         <v>2.8808E-006</v>
       </c>
@@ -14806,7 +14851,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="641" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="7" t="n">
         <v>0.00010406</v>
       </c>
@@ -15437,7 +15482,7 @@
         <v>0.173</v>
       </c>
     </row>
-    <row r="680" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="5" t="n">
         <v>0.00033445</v>
       </c>
@@ -15855,7 +15900,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="705" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="7" t="n">
         <v>0.00019583</v>
       </c>
@@ -15923,20 +15968,20 @@
         <v>0.318</v>
       </c>
     </row>
-    <row r="709" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A709" s="12" t="n">
+    <row r="709" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A709" s="9" t="n">
         <v>0.00033831</v>
       </c>
-      <c r="B709" s="12" t="n">
+      <c r="B709" s="9" t="n">
         <v>0.0029797</v>
       </c>
-      <c r="C709" s="13" t="s">
+      <c r="C709" s="12" t="s">
         <v>641</v>
       </c>
-      <c r="D709" s="13" t="n">
+      <c r="D709" s="12" t="n">
         <v>18</v>
       </c>
-      <c r="E709" s="13" t="n">
+      <c r="E709" s="12" t="n">
         <v>0.364</v>
       </c>
     </row>
@@ -16140,18 +16185,21 @@
       </c>
       <c r="G726" s="4"/>
     </row>
-    <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A727" s="9" t="n">
+    <row r="727" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A727" s="5" t="n">
         <v>1.8666E-005</v>
       </c>
-      <c r="B727" s="9" t="n">
+      <c r="B727" s="5" t="n">
         <v>0.0070719</v>
       </c>
-      <c r="C727" s="0" t="s">
+      <c r="C727" s="6" t="s">
         <v>648</v>
       </c>
-      <c r="D727" s="0" t="n">
+      <c r="D727" s="6" t="n">
         <v>21</v>
+      </c>
+      <c r="E727" s="6" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16167,131 +16215,161 @@
       <c r="D728" s="0" t="n">
         <v>22</v>
       </c>
-    </row>
-    <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A729" s="9" t="n">
+      <c r="E728" s="0" t="n">
+        <v>0.278</v>
+      </c>
+    </row>
+    <row r="729" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A729" s="5" t="n">
         <v>5.2376E-005</v>
       </c>
-      <c r="B729" s="9" t="n">
+      <c r="B729" s="5" t="n">
         <v>0.0418053</v>
       </c>
-      <c r="C729" s="0" t="s">
+      <c r="C729" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="D729" s="0" t="n">
+      <c r="D729" s="6" t="n">
         <v>23</v>
       </c>
-    </row>
-    <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A730" s="9" t="n">
-        <v>6.7318E-005</v>
-      </c>
-      <c r="B730" s="9" t="n">
-        <v>0.3159105</v>
-      </c>
-      <c r="C730" s="0" t="s">
+      <c r="E729" s="6" t="n">
+        <v>0.213</v>
+      </c>
+    </row>
+    <row r="730" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A730" s="5" t="n">
+        <v>0.00055539</v>
+      </c>
+      <c r="B730" s="5" t="n">
+        <v>0.0018864</v>
+      </c>
+      <c r="C730" s="6" t="s">
         <v>651</v>
       </c>
-      <c r="D730" s="0" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A731" s="9" t="n">
-        <v>7.427E-005</v>
-      </c>
-      <c r="B731" s="9" t="n">
-        <v>0.0754769</v>
-      </c>
-      <c r="C731" s="0" t="s">
+      <c r="D730" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E730" s="6" t="n">
+        <v>0.227</v>
+      </c>
+    </row>
+    <row r="731" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A731" s="5" t="n">
+        <v>0.00098877</v>
+      </c>
+      <c r="B731" s="5" t="n">
+        <v>0.0024774</v>
+      </c>
+      <c r="C731" s="6" t="s">
         <v>652</v>
       </c>
-      <c r="D731" s="0" t="n">
-        <v>25</v>
+      <c r="D731" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="E731" s="6" t="n">
+        <v>0.133</v>
       </c>
     </row>
     <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="9" t="n">
-        <v>7.531E-005</v>
+        <v>0.00039029</v>
       </c>
       <c r="B732" s="9" t="n">
-        <v>0.00747</v>
+        <v>0.0028429</v>
       </c>
       <c r="C732" s="0" t="s">
         <v>653</v>
       </c>
       <c r="D732" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E732" s="0" t="n">
+        <v>0.242</v>
+      </c>
+    </row>
+    <row r="733" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A733" s="5" t="n">
+        <v>7.531E-005</v>
+      </c>
+      <c r="B733" s="5" t="n">
+        <v>0.00747</v>
+      </c>
+      <c r="C733" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="D733" s="6" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A733" s="9" t="n">
-        <v>9.8843E-005</v>
-      </c>
-      <c r="B733" s="9" t="n">
-        <v>0.2547246</v>
-      </c>
-      <c r="C733" s="0" t="s">
-        <v>654</v>
-      </c>
-      <c r="D733" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A734" s="9" t="n">
-        <v>0.00011354</v>
-      </c>
-      <c r="B734" s="9" t="n">
-        <v>0.1858051</v>
-      </c>
-      <c r="C734" s="0" t="s">
+      <c r="E733" s="6" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="734" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A734" s="5" t="n">
+        <v>0.0011034</v>
+      </c>
+      <c r="B734" s="5" t="n">
+        <v>0.0116369</v>
+      </c>
+      <c r="C734" s="6" t="s">
         <v>655</v>
       </c>
-      <c r="D734" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A735" s="9" t="n">
-        <v>0.00013785</v>
-      </c>
-      <c r="B735" s="9" t="n">
-        <v>0.0432537</v>
-      </c>
-      <c r="C735" s="0" t="s">
+      <c r="D734" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="E734" s="6" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="735" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A735" s="7" t="n">
+        <v>0.00016602</v>
+      </c>
+      <c r="B735" s="7" t="n">
+        <v>0.0231793</v>
+      </c>
+      <c r="C735" s="8" t="s">
         <v>656</v>
       </c>
-      <c r="D735" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A736" s="9" t="n">
-        <v>0.00016602</v>
-      </c>
-      <c r="B736" s="9" t="n">
-        <v>0.0231793</v>
-      </c>
-      <c r="C736" s="0" t="s">
+      <c r="D735" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E735" s="8" t="n">
+        <v>0.403</v>
+      </c>
+    </row>
+    <row r="736" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A736" s="7" t="n">
+        <v>0.0018385</v>
+      </c>
+      <c r="B736" s="7" t="n">
+        <v>0.0245581</v>
+      </c>
+      <c r="C736" s="8" t="s">
         <v>657</v>
       </c>
-      <c r="D736" s="0" t="n">
-        <v>5</v>
+      <c r="D736" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="E736" s="8" t="n">
+        <v>0.486</v>
       </c>
     </row>
     <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="9" t="n">
-        <v>0.00019056</v>
+        <v>0.00013785</v>
       </c>
       <c r="B737" s="9" t="n">
-        <v>0.2528158</v>
+        <v>0.0432537</v>
       </c>
       <c r="C737" s="0" t="s">
         <v>658</v>
       </c>
       <c r="D737" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="E737" s="0" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16307,117 +16385,144 @@
       <c r="D738" s="0" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A739" s="9" t="n">
-        <v>0.00039029</v>
-      </c>
-      <c r="B739" s="9" t="n">
-        <v>0.0028429</v>
-      </c>
-      <c r="C739" s="0" t="s">
+      <c r="E738" s="0" t="n">
+        <v>0.278</v>
+      </c>
+    </row>
+    <row r="739" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A739" s="7" t="n">
+        <v>7.427E-005</v>
+      </c>
+      <c r="B739" s="7" t="n">
+        <v>0.0754769</v>
+      </c>
+      <c r="C739" s="8" t="s">
         <v>660</v>
       </c>
-      <c r="D739" s="0" t="n">
-        <v>10</v>
+      <c r="D739" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="E739" s="8" t="n">
+        <v>0.467</v>
       </c>
     </row>
     <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="9" t="n">
-        <v>0.00055539</v>
+        <v>0.00011354</v>
       </c>
       <c r="B740" s="9" t="n">
-        <v>0.0018864</v>
+        <v>0.1858051</v>
       </c>
       <c r="C740" s="0" t="s">
         <v>661</v>
       </c>
       <c r="D740" s="0" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A741" s="9" t="n">
-        <v>0.00090118</v>
-      </c>
-      <c r="B741" s="9" t="n">
-        <v>0.4039587</v>
-      </c>
-      <c r="C741" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E740" s="0" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="741" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A741" s="5" t="n">
+        <v>0.00019056</v>
+      </c>
+      <c r="B741" s="5" t="n">
+        <v>0.2528158</v>
+      </c>
+      <c r="C741" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="D741" s="0" t="n">
-        <v>13</v>
+      <c r="D741" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E741" s="6" t="n">
+        <v>0.189</v>
       </c>
     </row>
     <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="9" t="n">
-        <v>0.00098877</v>
+        <v>9.8843E-005</v>
       </c>
       <c r="B742" s="9" t="n">
-        <v>0.0024774</v>
+        <v>0.2547246</v>
       </c>
       <c r="C742" s="0" t="s">
         <v>663</v>
       </c>
       <c r="D742" s="0" t="n">
-        <v>16</v>
+        <v>2</v>
+      </c>
+      <c r="E742" s="0" t="n">
+        <v>0.272</v>
       </c>
     </row>
     <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="9" t="n">
-        <v>0.0011034</v>
+        <v>6.7318E-005</v>
       </c>
       <c r="B743" s="9" t="n">
-        <v>0.0116369</v>
+        <v>0.3159105</v>
       </c>
       <c r="C743" s="0" t="s">
         <v>664</v>
       </c>
       <c r="D743" s="0" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A744" s="9" t="n">
+        <v>24</v>
+      </c>
+      <c r="E743" s="0" t="n">
+        <v>0.292</v>
+      </c>
+    </row>
+    <row r="744" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A744" s="5" t="n">
+        <v>0.00090118</v>
+      </c>
+      <c r="B744" s="5" t="n">
+        <v>0.4039587</v>
+      </c>
+      <c r="C744" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="D744" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="E744" s="6" t="n">
+        <v>0.208</v>
+      </c>
+    </row>
+    <row r="745" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A745" s="7" t="n">
         <v>0.0013155</v>
       </c>
-      <c r="B744" s="9" t="n">
+      <c r="B745" s="7" t="n">
         <v>0.480748</v>
       </c>
-      <c r="C744" s="0" t="s">
-        <v>665</v>
-      </c>
-      <c r="D744" s="0" t="n">
+      <c r="C745" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="D745" s="8" t="n">
         <v>18</v>
       </c>
-    </row>
-    <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A745" s="9" t="n">
-        <v>0.0018385</v>
-      </c>
-      <c r="B745" s="9" t="n">
-        <v>0.0245581</v>
-      </c>
-      <c r="C745" s="0" t="s">
-        <v>666</v>
-      </c>
-      <c r="D745" s="0" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A746" s="9" t="n">
+      <c r="E745" s="8" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="746" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A746" s="13" t="n">
         <v>0.0041912</v>
       </c>
-      <c r="B746" s="9" t="n">
+      <c r="B746" s="13" t="n">
         <v>0.0295907</v>
       </c>
-      <c r="C746" s="0" t="s">
+      <c r="C746" s="14" t="s">
         <v>667</v>
       </c>
-      <c r="D746" s="0" t="n">
+      <c r="D746" s="14" t="n">
         <v>20</v>
+      </c>
+      <c r="E746" s="14" t="n">
+        <v>0.171</v>
       </c>
     </row>
     <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16452,158 +16557,194 @@
       </c>
       <c r="G749" s="4"/>
     </row>
-    <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A750" s="9" t="n">
+    <row r="750" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A750" s="5" t="n">
         <v>1.4057E-005</v>
       </c>
-      <c r="B750" s="9" t="n">
+      <c r="B750" s="5" t="n">
         <v>0.0033753</v>
       </c>
-      <c r="C750" s="0" t="s">
+      <c r="C750" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="D750" s="0" t="n">
+      <c r="D750" s="6" t="n">
         <v>21</v>
       </c>
-    </row>
-    <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A751" s="9" t="n">
+      <c r="E750" s="6" t="n">
+        <v>0.011</v>
+      </c>
+    </row>
+    <row r="751" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A751" s="5" t="n">
         <v>2.4498E-005</v>
       </c>
-      <c r="B751" s="9" t="n">
+      <c r="B751" s="5" t="n">
         <v>0.0163899</v>
       </c>
-      <c r="C751" s="0" t="s">
+      <c r="C751" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="D751" s="0" t="n">
+      <c r="D751" s="6" t="n">
         <v>22</v>
       </c>
-    </row>
-    <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A752" s="9" t="n">
+      <c r="E751" s="6" t="n">
+        <v>0.074</v>
+      </c>
+    </row>
+    <row r="752" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A752" s="7" t="n">
+        <v>0.0001066</v>
+      </c>
+      <c r="B752" s="7" t="n">
+        <v>0.0025984</v>
+      </c>
+      <c r="C752" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="D752" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E752" s="8" t="n">
+        <v>0.222</v>
+      </c>
+    </row>
+    <row r="753" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A753" s="7" t="n">
+        <v>0.00027365</v>
+      </c>
+      <c r="B753" s="7" t="n">
+        <v>0.015192</v>
+      </c>
+      <c r="C753" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="D753" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E753" s="8" t="n">
+        <v>0.214</v>
+      </c>
+    </row>
+    <row r="754" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A754" s="7" t="n">
+        <v>0.00058323</v>
+      </c>
+      <c r="B754" s="7" t="n">
+        <v>0.0173452</v>
+      </c>
+      <c r="C754" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="D754" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E754" s="8" t="n">
+        <v>0.308</v>
+      </c>
+    </row>
+    <row r="755" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A755" s="7" t="n">
         <v>4.2452E-005</v>
       </c>
-      <c r="B752" s="9" t="n">
+      <c r="B755" s="7" t="n">
         <v>0.0737432</v>
       </c>
-      <c r="C752" s="0" t="s">
-        <v>670</v>
-      </c>
-      <c r="D752" s="0" t="n">
+      <c r="C755" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="D755" s="8" t="n">
         <v>23</v>
       </c>
-    </row>
-    <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A753" s="9" t="n">
-        <v>4.8186E-005</v>
-      </c>
-      <c r="B753" s="9" t="n">
-        <v>0.163018</v>
-      </c>
-      <c r="C753" s="0" t="s">
-        <v>671</v>
-      </c>
-      <c r="D753" s="0" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A754" s="9" t="n">
-        <v>7.5177E-005</v>
-      </c>
-      <c r="B754" s="9" t="n">
-        <v>0.1113902</v>
-      </c>
-      <c r="C754" s="0" t="s">
-        <v>672</v>
-      </c>
-      <c r="D754" s="0" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A755" s="9" t="n">
-        <v>0.0001066</v>
-      </c>
-      <c r="B755" s="9" t="n">
-        <v>0.0025984</v>
-      </c>
-      <c r="C755" s="0" t="s">
-        <v>673</v>
-      </c>
-      <c r="D755" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A756" s="9" t="n">
-        <v>0.00027365</v>
-      </c>
-      <c r="B756" s="9" t="n">
-        <v>0.015192</v>
-      </c>
-      <c r="C756" s="0" t="s">
+      <c r="E755" s="8" t="n">
+        <v>0.211</v>
+      </c>
+    </row>
+    <row r="756" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A756" s="7" t="n">
+        <v>0.00072716</v>
+      </c>
+      <c r="B756" s="7" t="n">
+        <v>0.0793741</v>
+      </c>
+      <c r="C756" s="8" t="s">
         <v>674</v>
       </c>
-      <c r="D756" s="0" t="n">
-        <v>2</v>
+      <c r="D756" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E756" s="8" t="n">
+        <v>0.206</v>
       </c>
     </row>
     <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="9" t="n">
-        <v>0.00058323</v>
+        <v>0.0011466</v>
       </c>
       <c r="B757" s="9" t="n">
-        <v>0.0173452</v>
+        <v>0.0817089</v>
       </c>
       <c r="C757" s="0" t="s">
         <v>675</v>
       </c>
       <c r="D757" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="E757" s="0" t="n">
+        <v>0.154</v>
       </c>
     </row>
     <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="9" t="n">
-        <v>0.00060707</v>
+        <v>7.5177E-005</v>
       </c>
       <c r="B758" s="9" t="n">
-        <v>0.4357645</v>
+        <v>0.1113902</v>
       </c>
       <c r="C758" s="0" t="s">
         <v>676</v>
       </c>
       <c r="D758" s="0" t="n">
-        <v>4</v>
+        <v>25</v>
+      </c>
+      <c r="E758" s="0" t="n">
+        <v>0.138</v>
       </c>
     </row>
     <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="9" t="n">
-        <v>0.00072716</v>
+        <v>4.8186E-005</v>
       </c>
       <c r="B759" s="9" t="n">
-        <v>0.0793741</v>
+        <v>0.163018</v>
       </c>
       <c r="C759" s="0" t="s">
         <v>677</v>
       </c>
       <c r="D759" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A760" s="9" t="n">
-        <v>0.0011466</v>
-      </c>
-      <c r="B760" s="9" t="n">
-        <v>0.0817089</v>
-      </c>
-      <c r="C760" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E759" s="0" t="n">
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="760" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A760" s="5" t="n">
+        <v>0.00060707</v>
+      </c>
+      <c r="B760" s="5" t="n">
+        <v>0.4357645</v>
+      </c>
+      <c r="C760" s="6" t="s">
         <v>678</v>
       </c>
-      <c r="D760" s="0" t="n">
-        <v>6</v>
+      <c r="D760" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E760" s="6" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="F760" s="6" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16619,19 +16760,28 @@
       <c r="D761" s="0" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A762" s="9" t="n">
+      <c r="E761" s="0" t="n">
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="762" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A762" s="5" t="n">
         <v>0.0016064</v>
       </c>
-      <c r="B762" s="9" t="n">
+      <c r="B762" s="5" t="n">
         <v>0.655014</v>
       </c>
-      <c r="C762" s="0" t="s">
+      <c r="C762" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="D762" s="0" t="n">
+      <c r="D762" s="6" t="n">
         <v>10</v>
+      </c>
+      <c r="E762" s="6" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="F762" s="6" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16647,47 +16797,65 @@
       <c r="D763" s="0" t="n">
         <v>11</v>
       </c>
-    </row>
-    <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A764" s="9" t="n">
+      <c r="E763" s="0" t="n">
+        <v>0.103</v>
+      </c>
+    </row>
+    <row r="764" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A764" s="5" t="n">
         <v>0.0022187</v>
       </c>
-      <c r="B764" s="9" t="n">
+      <c r="B764" s="5" t="n">
         <v>0.5065797</v>
       </c>
-      <c r="C764" s="0" t="s">
+      <c r="C764" s="6" t="s">
         <v>682</v>
       </c>
-      <c r="D764" s="0" t="n">
+      <c r="D764" s="6" t="n">
         <v>13</v>
       </c>
-    </row>
-    <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A765" s="9" t="n">
+      <c r="E764" s="6" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F764" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="765" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A765" s="5" t="n">
         <v>0.0027533</v>
       </c>
-      <c r="B765" s="9" t="n">
+      <c r="B765" s="5" t="n">
         <v>0.0023478</v>
       </c>
-      <c r="C765" s="0" t="s">
+      <c r="C765" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D765" s="0" t="n">
+      <c r="D765" s="6" t="n">
         <v>16</v>
       </c>
-    </row>
-    <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A766" s="9" t="n">
+      <c r="E765" s="6" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="766" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A766" s="5" t="n">
         <v>0.0038317</v>
       </c>
-      <c r="B766" s="9" t="n">
+      <c r="B766" s="5" t="n">
         <v>0.2289818</v>
       </c>
-      <c r="C766" s="0" t="s">
+      <c r="C766" s="6" t="s">
         <v>684</v>
       </c>
-      <c r="D766" s="0" t="n">
+      <c r="D766" s="6" t="n">
         <v>17</v>
+      </c>
+      <c r="E766" s="6" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="F766" s="6" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16703,33 +16871,48 @@
       <c r="D767" s="0" t="n">
         <v>18</v>
       </c>
-    </row>
-    <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A768" s="9" t="n">
+      <c r="E767" s="0" t="n">
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="768" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A768" s="5" t="n">
         <v>0.004114</v>
       </c>
-      <c r="B768" s="9" t="n">
+      <c r="B768" s="5" t="n">
         <v>0.1371036</v>
       </c>
-      <c r="C768" s="0" t="s">
+      <c r="C768" s="6" t="s">
         <v>686</v>
       </c>
-      <c r="D768" s="0" t="n">
+      <c r="D768" s="6" t="n">
         <v>19</v>
       </c>
-    </row>
-    <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A769" s="9" t="n">
+      <c r="E768" s="6" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="F768" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="769" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A769" s="5" t="n">
         <v>0.0079553</v>
       </c>
-      <c r="B769" s="9" t="n">
+      <c r="B769" s="5" t="n">
         <v>0.3176951</v>
       </c>
-      <c r="C769" s="0" t="s">
+      <c r="C769" s="6" t="s">
         <v>687</v>
       </c>
-      <c r="D769" s="0" t="n">
+      <c r="D769" s="6" t="n">
         <v>20</v>
+      </c>
+      <c r="E769" s="6" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="F769" s="6" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16764,228 +16947,287 @@
       </c>
       <c r="G772" s="4"/>
     </row>
-    <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A773" s="9" t="n">
+    <row r="773" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A773" s="5" t="n">
         <v>1.6003E-005</v>
       </c>
-      <c r="B773" s="9" t="n">
+      <c r="B773" s="5" t="n">
         <v>0.0037366</v>
       </c>
-      <c r="C773" s="0" t="s">
+      <c r="C773" s="6" t="s">
         <v>688</v>
       </c>
-      <c r="D773" s="0" t="n">
+      <c r="D773" s="6" t="n">
         <v>21</v>
       </c>
-    </row>
-    <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A774" s="9" t="n">
-        <v>2.5648E-005</v>
-      </c>
-      <c r="B774" s="9" t="n">
-        <v>0.0589231</v>
-      </c>
-      <c r="C774" s="0" t="s">
+      <c r="E773" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="774" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A774" s="5" t="n">
+        <v>0.00022423</v>
+      </c>
+      <c r="B774" s="5" t="n">
+        <v>0.0010541</v>
+      </c>
+      <c r="C774" s="6" t="s">
         <v>689</v>
       </c>
-      <c r="D774" s="0" t="n">
-        <v>22</v>
+      <c r="D774" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E774" s="6" t="n">
+        <v>0.071</v>
       </c>
     </row>
     <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="9" t="n">
-        <v>3.3697E-005</v>
+        <v>0.00030474</v>
       </c>
       <c r="B775" s="9" t="n">
-        <v>0.099009</v>
+        <v>0.0011084</v>
       </c>
       <c r="C775" s="0" t="s">
         <v>690</v>
       </c>
       <c r="D775" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E775" s="0" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="776" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A776" s="7" t="n">
+        <v>9.7291E-005</v>
+      </c>
+      <c r="B776" s="7" t="n">
+        <v>0.0021595</v>
+      </c>
+      <c r="C776" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="D776" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="E776" s="8" t="n">
+        <v>0.526</v>
+      </c>
+    </row>
+    <row r="777" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A777" s="15" t="n">
+        <v>0.00021776</v>
+      </c>
+      <c r="B777" s="15" t="n">
+        <v>0.0079892</v>
+      </c>
+      <c r="C777" s="16" t="s">
+        <v>692</v>
+      </c>
+      <c r="D777" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E777" s="17" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="F777" s="17"/>
+      <c r="G777" s="17"/>
+    </row>
+    <row r="778" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A778" s="5" t="n">
+        <v>0.00030113</v>
+      </c>
+      <c r="B778" s="5" t="n">
+        <v>0.035105</v>
+      </c>
+      <c r="C778" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="D778" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E778" s="6" t="n">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="779" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A779" s="5" t="n">
+        <v>0.00034415</v>
+      </c>
+      <c r="B779" s="5" t="n">
+        <v>0.0565636</v>
+      </c>
+      <c r="C779" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="D779" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="E779" s="6" t="n">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="780" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A780" s="7" t="n">
+        <v>2.5648E-005</v>
+      </c>
+      <c r="B780" s="7" t="n">
+        <v>0.0589231</v>
+      </c>
+      <c r="C780" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="D780" s="8" t="n">
+        <v>22</v>
+      </c>
+      <c r="E780" s="8" t="n">
+        <v>0.286</v>
+      </c>
+    </row>
+    <row r="781" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A781" s="7" t="n">
+        <v>0.0013526</v>
+      </c>
+      <c r="B781" s="7" t="n">
+        <v>0.0715529</v>
+      </c>
+      <c r="C781" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="D781" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="E781" s="8" t="n">
+        <v>0.286</v>
+      </c>
+    </row>
+    <row r="782" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A782" s="7" t="n">
+        <v>3.3697E-005</v>
+      </c>
+      <c r="B782" s="7" t="n">
+        <v>0.099009</v>
+      </c>
+      <c r="C782" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="D782" s="8" t="n">
         <v>23</v>
       </c>
-    </row>
-    <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A776" s="9" t="n">
-        <v>7.9844E-005</v>
-      </c>
-      <c r="B776" s="9" t="n">
-        <v>0.1673231</v>
-      </c>
-      <c r="C776" s="0" t="s">
-        <v>691</v>
-      </c>
-      <c r="D776" s="0" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A777" s="9" t="n">
-        <v>9.7291E-005</v>
-      </c>
-      <c r="B777" s="9" t="n">
-        <v>0.0021595</v>
-      </c>
-      <c r="C777" s="0" t="s">
-        <v>692</v>
-      </c>
-      <c r="D777" s="0" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A778" s="9" t="n">
-        <v>0.00011905</v>
-      </c>
-      <c r="B778" s="9" t="n">
-        <v>0.2600791</v>
-      </c>
-      <c r="C778" s="0" t="s">
-        <v>693</v>
-      </c>
-      <c r="D778" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A779" s="9" t="n">
-        <v>0.00021776</v>
-      </c>
-      <c r="B779" s="9" t="n">
-        <v>0.0079892</v>
-      </c>
-      <c r="C779" s="0" t="s">
-        <v>694</v>
-      </c>
-      <c r="D779" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A780" s="9" t="n">
-        <v>0.00022423</v>
-      </c>
-      <c r="B780" s="9" t="n">
-        <v>0.0010541</v>
-      </c>
-      <c r="C780" s="0" t="s">
-        <v>695</v>
-      </c>
-      <c r="D780" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A781" s="9" t="n">
-        <v>0.00028016</v>
-      </c>
-      <c r="B781" s="9" t="n">
-        <v>0.1983943</v>
-      </c>
-      <c r="C781" s="0" t="s">
-        <v>696</v>
-      </c>
-      <c r="D781" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A782" s="9" t="n">
-        <v>0.00030113</v>
-      </c>
-      <c r="B782" s="9" t="n">
-        <v>0.035105</v>
-      </c>
-      <c r="C782" s="0" t="s">
-        <v>697</v>
-      </c>
-      <c r="D782" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A783" s="9" t="n">
-        <v>0.00030474</v>
-      </c>
-      <c r="B783" s="9" t="n">
-        <v>0.0011084</v>
-      </c>
-      <c r="C783" s="0" t="s">
+      <c r="E782" s="8" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="783" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A783" s="5" t="n">
+        <v>0.00046493</v>
+      </c>
+      <c r="B783" s="5" t="n">
+        <v>0.105332</v>
+      </c>
+      <c r="C783" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="D783" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A784" s="9" t="n">
-        <v>0.00034415</v>
-      </c>
-      <c r="B784" s="9" t="n">
-        <v>0.0565636</v>
-      </c>
-      <c r="C784" s="0" t="s">
+      <c r="D783" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="E783" s="6" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="F783" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="784" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A784" s="5" t="n">
+        <v>0.00066423</v>
+      </c>
+      <c r="B784" s="5" t="n">
+        <v>0.1420813</v>
+      </c>
+      <c r="C784" s="6" t="s">
         <v>699</v>
       </c>
-      <c r="D784" s="0" t="n">
-        <v>9</v>
+      <c r="D784" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E784" s="6" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F784" s="6" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="9" t="n">
-        <v>0.00046493</v>
+        <v>7.9844E-005</v>
       </c>
       <c r="B785" s="9" t="n">
-        <v>0.105332</v>
+        <v>0.1673231</v>
       </c>
       <c r="C785" s="0" t="s">
         <v>700</v>
       </c>
       <c r="D785" s="0" t="n">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="E785" s="0" t="n">
+        <v>0.226</v>
       </c>
     </row>
     <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="9" t="n">
-        <v>0.00066423</v>
+        <v>0.00028016</v>
       </c>
       <c r="B786" s="9" t="n">
-        <v>0.1420813</v>
+        <v>0.1983943</v>
       </c>
       <c r="C786" s="0" t="s">
         <v>701</v>
       </c>
       <c r="D786" s="0" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A787" s="9" t="n">
-        <v>0.0013526</v>
-      </c>
-      <c r="B787" s="9" t="n">
-        <v>0.0715529</v>
-      </c>
-      <c r="C787" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E786" s="0" t="n">
+        <v>0.217</v>
+      </c>
+    </row>
+    <row r="787" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A787" s="5" t="n">
+        <v>0.00011905</v>
+      </c>
+      <c r="B787" s="5" t="n">
+        <v>0.2600791</v>
+      </c>
+      <c r="C787" s="6" t="s">
         <v>702</v>
       </c>
-      <c r="D787" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A788" s="9" t="n">
+      <c r="D787" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E787" s="6" t="n">
+        <v>0.206</v>
+      </c>
+      <c r="F787" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="788" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A788" s="5" t="n">
         <v>0.0020599</v>
       </c>
-      <c r="B788" s="9" t="n">
+      <c r="B788" s="5" t="n">
         <v>0.0089621</v>
       </c>
-      <c r="C788" s="0" t="s">
+      <c r="C788" s="6" t="s">
         <v>703</v>
       </c>
-      <c r="D788" s="0" t="n">
+      <c r="D788" s="6" t="n">
         <v>16</v>
+      </c>
+      <c r="E788" s="6" t="n">
+        <v>0.121</v>
       </c>
     </row>
     <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17001,47 +17243,68 @@
       <c r="D789" s="0" t="n">
         <v>17</v>
       </c>
-    </row>
-    <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A790" s="9" t="n">
+      <c r="E789" s="0" t="n">
+        <v>0.238</v>
+      </c>
+    </row>
+    <row r="790" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A790" s="5" t="n">
         <v>0.0063868</v>
       </c>
-      <c r="B790" s="9" t="n">
+      <c r="B790" s="5" t="n">
         <v>0.0833557</v>
       </c>
-      <c r="C790" s="0" t="s">
+      <c r="C790" s="6" t="s">
         <v>705</v>
       </c>
-      <c r="D790" s="0" t="n">
+      <c r="D790" s="6" t="n">
         <v>18</v>
       </c>
-    </row>
-    <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A791" s="9" t="n">
+      <c r="E790" s="6" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F790" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="791" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A791" s="5" t="n">
         <v>0.0068406</v>
       </c>
-      <c r="B791" s="9" t="n">
+      <c r="B791" s="5" t="n">
         <v>0.2217931</v>
       </c>
-      <c r="C791" s="0" t="s">
+      <c r="C791" s="6" t="s">
         <v>706</v>
       </c>
-      <c r="D791" s="0" t="n">
+      <c r="D791" s="6" t="n">
         <v>19</v>
       </c>
-    </row>
-    <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A792" s="9" t="n">
+      <c r="E791" s="6" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F791" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="792" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A792" s="5" t="n">
         <v>0.0093967</v>
       </c>
-      <c r="B792" s="9" t="n">
+      <c r="B792" s="5" t="n">
         <v>0.00379</v>
       </c>
-      <c r="C792" s="0" t="s">
+      <c r="C792" s="6" t="s">
         <v>707</v>
       </c>
-      <c r="D792" s="0" t="n">
+      <c r="D792" s="6" t="n">
         <v>20</v>
+      </c>
+      <c r="E792" s="6" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="F792" s="6" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17076,32 +17339,41 @@
       </c>
       <c r="G795" s="4"/>
     </row>
-    <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A796" s="9" t="n">
+    <row r="796" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A796" s="5" t="n">
         <v>1.0766E-005</v>
       </c>
-      <c r="B796" s="9" t="n">
+      <c r="B796" s="5" t="n">
         <v>0.1156074</v>
       </c>
-      <c r="C796" s="0" t="s">
+      <c r="C796" s="6" t="s">
         <v>708</v>
       </c>
-      <c r="D796" s="0" t="n">
+      <c r="D796" s="6" t="n">
         <v>21</v>
       </c>
-    </row>
-    <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A797" s="9" t="n">
+      <c r="E796" s="6" t="n">
+        <v>0.089</v>
+      </c>
+    </row>
+    <row r="797" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A797" s="5" t="n">
         <v>1.2384E-005</v>
       </c>
-      <c r="B797" s="9" t="n">
+      <c r="B797" s="5" t="n">
         <v>0.0011149</v>
       </c>
-      <c r="C797" s="0" t="s">
+      <c r="C797" s="6" t="s">
         <v>709</v>
       </c>
-      <c r="D797" s="0" t="n">
+      <c r="D797" s="6" t="n">
         <v>22</v>
+      </c>
+      <c r="E797" s="6" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="F797" s="6" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17112,38 +17384,47 @@
         <v>0.0663546</v>
       </c>
       <c r="C798" s="0" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D798" s="0" t="n">
         <v>23</v>
       </c>
-    </row>
-    <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A799" s="9" t="n">
+      <c r="E798" s="0" t="n">
+        <v>0.143</v>
+      </c>
+    </row>
+    <row r="799" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A799" s="5" t="n">
         <v>3.0926E-005</v>
       </c>
-      <c r="B799" s="9" t="n">
+      <c r="B799" s="5" t="n">
         <v>0.0031829</v>
       </c>
-      <c r="C799" s="0" t="s">
-        <v>711</v>
-      </c>
-      <c r="D799" s="0" t="n">
+      <c r="C799" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="D799" s="6" t="n">
         <v>24</v>
       </c>
-    </row>
-    <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A800" s="9" t="n">
+      <c r="E799" s="6" t="n">
+        <v>0.082</v>
+      </c>
+    </row>
+    <row r="800" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A800" s="5" t="n">
         <v>5.2782E-005</v>
       </c>
-      <c r="B800" s="9" t="n">
+      <c r="B800" s="5" t="n">
         <v>0.0015249</v>
       </c>
-      <c r="C800" s="0" t="s">
-        <v>712</v>
-      </c>
-      <c r="D800" s="0" t="n">
+      <c r="C800" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="D800" s="6" t="n">
         <v>25</v>
+      </c>
+      <c r="E800" s="6" t="n">
+        <v>0.091</v>
       </c>
     </row>
     <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17154,10 +17435,16 @@
         <v>0.0018747</v>
       </c>
       <c r="C801" s="0" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D801" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E801" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F801" s="0" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17168,192 +17455,252 @@
         <v>0.2059166</v>
       </c>
       <c r="C802" s="0" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="D802" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A803" s="9" t="n">
+    <row r="803" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A803" s="7" t="n">
         <v>0.00011174</v>
       </c>
-      <c r="B803" s="9" t="n">
+      <c r="B803" s="7" t="n">
         <v>0.0021338</v>
       </c>
-      <c r="C803" s="0" t="s">
-        <v>715</v>
-      </c>
-      <c r="D803" s="0" t="n">
+      <c r="C803" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="D803" s="8" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A804" s="9" t="n">
+      <c r="E803" s="8" t="n">
+        <v>0.281</v>
+      </c>
+    </row>
+    <row r="804" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A804" s="5" t="n">
         <v>0.00011868</v>
       </c>
-      <c r="B804" s="9" t="n">
+      <c r="B804" s="5" t="n">
         <v>0.0013809</v>
       </c>
-      <c r="C804" s="0" t="s">
-        <v>716</v>
-      </c>
-      <c r="D804" s="0" t="n">
+      <c r="C804" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="D804" s="6" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A805" s="9" t="n">
+      <c r="E804" s="6" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="F804" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="805" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A805" s="7" t="n">
         <v>0.00032365</v>
       </c>
-      <c r="B805" s="9" t="n">
+      <c r="B805" s="7" t="n">
         <v>0.014724</v>
       </c>
-      <c r="C805" s="0" t="s">
-        <v>717</v>
-      </c>
-      <c r="D805" s="0" t="n">
+      <c r="C805" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="D805" s="8" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A806" s="9" t="n">
+      <c r="E805" s="8" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="806" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A806" s="7" t="n">
         <v>0.00034651</v>
       </c>
-      <c r="B806" s="9" t="n">
+      <c r="B806" s="7" t="n">
         <v>0.0456386</v>
       </c>
-      <c r="C806" s="0" t="s">
-        <v>718</v>
-      </c>
-      <c r="D806" s="0" t="n">
+      <c r="C806" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="D806" s="8" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A807" s="9" t="n">
+      <c r="E806" s="8" t="n">
+        <v>0.286</v>
+      </c>
+    </row>
+    <row r="807" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A807" s="7" t="n">
         <v>0.00043861</v>
       </c>
-      <c r="B807" s="9" t="n">
+      <c r="B807" s="7" t="n">
         <v>0.0011856</v>
       </c>
-      <c r="C807" s="0" t="s">
-        <v>719</v>
-      </c>
-      <c r="D807" s="0" t="n">
+      <c r="C807" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="D807" s="8" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A808" s="9" t="n">
+      <c r="E807" s="8" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="808" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A808" s="5" t="n">
         <v>0.0011725</v>
       </c>
-      <c r="B808" s="9" t="n">
+      <c r="B808" s="5" t="n">
         <v>0.0088062</v>
       </c>
-      <c r="C808" s="0" t="s">
-        <v>720</v>
-      </c>
-      <c r="D808" s="0" t="n">
+      <c r="C808" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="D808" s="6" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A809" s="9" t="n">
+      <c r="E808" s="6" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="F808" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="809" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A809" s="7" t="n">
         <v>0.0013901</v>
       </c>
-      <c r="B809" s="9" t="n">
+      <c r="B809" s="7" t="n">
         <v>0.0847856</v>
       </c>
-      <c r="C809" s="0" t="s">
-        <v>721</v>
-      </c>
-      <c r="D809" s="0" t="n">
+      <c r="C809" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="D809" s="8" t="n">
         <v>11</v>
       </c>
-    </row>
-    <row r="810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A810" s="9" t="n">
+      <c r="E809" s="8" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="810" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A810" s="5" t="n">
         <v>0.0014098</v>
       </c>
-      <c r="B810" s="9" t="n">
+      <c r="B810" s="5" t="n">
         <v>0.0069111</v>
       </c>
-      <c r="C810" s="0" t="s">
-        <v>722</v>
-      </c>
-      <c r="D810" s="0" t="n">
+      <c r="C810" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="D810" s="6" t="n">
         <v>13</v>
       </c>
-    </row>
-    <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A811" s="9" t="n">
+      <c r="E810" s="6" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="F810" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="811" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A811" s="5" t="n">
         <v>0.0015129</v>
       </c>
-      <c r="B811" s="9" t="n">
+      <c r="B811" s="5" t="n">
         <v>0.0122894</v>
       </c>
-      <c r="C811" s="0" t="s">
-        <v>723</v>
-      </c>
-      <c r="D811" s="0" t="n">
+      <c r="C811" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="D811" s="6" t="n">
         <v>16</v>
       </c>
-    </row>
-    <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A812" s="9" t="n">
+      <c r="E811" s="6" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="812" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A812" s="5" t="n">
         <v>0.0044888</v>
       </c>
-      <c r="B812" s="9" t="n">
+      <c r="B812" s="5" t="n">
         <v>0.0466439</v>
       </c>
-      <c r="C812" s="0" t="s">
-        <v>724</v>
-      </c>
-      <c r="D812" s="0" t="n">
+      <c r="C812" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="D812" s="6" t="n">
         <v>17</v>
       </c>
-    </row>
-    <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A813" s="9" t="n">
+      <c r="E812" s="6" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F812" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="813" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A813" s="5" t="n">
         <v>0.0045995</v>
       </c>
-      <c r="B813" s="9" t="n">
+      <c r="B813" s="5" t="n">
         <v>0.834387</v>
       </c>
-      <c r="C813" s="0" t="s">
-        <v>725</v>
-      </c>
-      <c r="D813" s="0" t="n">
+      <c r="C813" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="D813" s="6" t="n">
         <v>18</v>
       </c>
-    </row>
-    <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A814" s="9" t="n">
+      <c r="E813" s="6" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="F813" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="814" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A814" s="5" t="n">
         <v>0.0089622</v>
       </c>
-      <c r="B814" s="9" t="n">
+      <c r="B814" s="5" t="n">
         <v>0.0049203</v>
       </c>
-      <c r="C814" s="0" t="s">
-        <v>726</v>
-      </c>
-      <c r="D814" s="0" t="n">
+      <c r="C814" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="D814" s="6" t="n">
         <v>19</v>
       </c>
-    </row>
-    <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A815" s="9" t="n">
+      <c r="E814" s="6" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="F814" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="815" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A815" s="5" t="n">
         <v>0.0095502</v>
       </c>
-      <c r="B815" s="9" t="n">
+      <c r="B815" s="5" t="n">
         <v>0.0032744</v>
       </c>
-      <c r="C815" s="0" t="s">
-        <v>727</v>
-      </c>
-      <c r="D815" s="0" t="n">
+      <c r="C815" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="D815" s="6" t="n">
         <v>20</v>
+      </c>
+      <c r="E815" s="6" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="F815" s="6" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17388,88 +17735,106 @@
       </c>
       <c r="G818" s="4"/>
     </row>
-    <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A819" s="9" t="n">
+    <row r="819" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A819" s="7" t="n">
         <v>1.4658E-005</v>
       </c>
-      <c r="B819" s="9" t="n">
+      <c r="B819" s="7" t="n">
         <v>0.9801203</v>
       </c>
-      <c r="C819" s="0" t="s">
-        <v>728</v>
-      </c>
-      <c r="D819" s="0" t="n">
+      <c r="C819" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="D819" s="8" t="n">
         <v>21</v>
       </c>
-    </row>
-    <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A820" s="9" t="n">
+      <c r="E819" s="8" t="n">
+        <v>0.256</v>
+      </c>
+    </row>
+    <row r="820" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A820" s="5" t="n">
         <v>1.789E-005</v>
       </c>
-      <c r="B820" s="9" t="n">
+      <c r="B820" s="5" t="n">
         <v>0.1856801</v>
       </c>
-      <c r="C820" s="0" t="s">
-        <v>729</v>
-      </c>
-      <c r="D820" s="0" t="n">
+      <c r="C820" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="D820" s="6" t="n">
         <v>22</v>
       </c>
-    </row>
-    <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A821" s="9" t="n">
+      <c r="E820" s="6" t="n">
+        <v>0.026</v>
+      </c>
+    </row>
+    <row r="821" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A821" s="5" t="n">
         <v>2.0804E-005</v>
       </c>
-      <c r="B821" s="9" t="n">
+      <c r="B821" s="5" t="n">
         <v>0.0333956</v>
       </c>
-      <c r="C821" s="0" t="s">
-        <v>730</v>
-      </c>
-      <c r="D821" s="0" t="n">
+      <c r="C821" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="D821" s="6" t="n">
         <v>23</v>
       </c>
-    </row>
-    <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A822" s="9" t="n">
+      <c r="E821" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="822" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A822" s="5" t="n">
         <v>2.6244E-005</v>
       </c>
-      <c r="B822" s="9" t="n">
+      <c r="B822" s="5" t="n">
         <v>0.0652882</v>
       </c>
-      <c r="C822" s="0" t="s">
-        <v>731</v>
-      </c>
-      <c r="D822" s="0" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A823" s="9" t="n">
+      <c r="C822" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="D822" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="E822" s="6" t="n">
+        <v>0.077</v>
+      </c>
+    </row>
+    <row r="823" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A823" s="5" t="n">
         <v>0.00014789</v>
       </c>
-      <c r="B823" s="9" t="n">
+      <c r="B823" s="5" t="n">
         <v>0.0051614</v>
       </c>
-      <c r="C823" s="0" t="s">
-        <v>732</v>
-      </c>
-      <c r="D823" s="0" t="n">
+      <c r="C823" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="D823" s="6" t="n">
         <v>25</v>
       </c>
-    </row>
-    <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A824" s="9" t="n">
+      <c r="E823" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="824" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A824" s="5" t="n">
         <v>0.00016985</v>
       </c>
-      <c r="B824" s="9" t="n">
+      <c r="B824" s="5" t="n">
         <v>0.0113498</v>
       </c>
-      <c r="C824" s="0" t="s">
-        <v>733</v>
-      </c>
-      <c r="D824" s="0" t="n">
+      <c r="C824" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="D824" s="6" t="n">
         <v>1</v>
+      </c>
+      <c r="E824" s="6" t="n">
+        <v>0.099</v>
       </c>
     </row>
     <row r="825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17480,24 +17845,27 @@
         <v>0.4389243</v>
       </c>
       <c r="C825" s="0" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="D825" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A826" s="9" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="826" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A826" s="5" t="n">
         <v>0.00029028</v>
       </c>
-      <c r="B826" s="9" t="n">
+      <c r="B826" s="5" t="n">
         <v>0.0041465</v>
       </c>
-      <c r="C826" s="0" t="s">
-        <v>735</v>
-      </c>
-      <c r="D826" s="0" t="n">
-        <v>3</v>
+      <c r="C826" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="D826" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="E826" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17508,168 +17876,330 @@
         <v>0.0014349</v>
       </c>
       <c r="C827" s="0" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="D827" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E827" s="0" t="n">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="828" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A828" s="7" t="n">
+        <v>0.00092139</v>
+      </c>
+      <c r="B828" s="7" t="n">
+        <v>0.1588808</v>
+      </c>
+      <c r="C828" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="D828" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="E828" s="8" t="n">
+        <v>0.226</v>
+      </c>
+    </row>
+    <row r="829" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A829" s="7" t="n">
+        <v>0.00097997</v>
+      </c>
+      <c r="B829" s="7" t="n">
+        <v>0.0056658</v>
+      </c>
+      <c r="C829" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="D829" s="8" t="n">
+        <v>22</v>
+      </c>
+      <c r="E829" s="8" t="n">
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="830" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A830" s="5" t="n">
+        <v>0.0012963</v>
+      </c>
+      <c r="B830" s="5" t="n">
+        <v>0.1790334</v>
+      </c>
+      <c r="C830" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="D830" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="E830" s="6" t="n">
+        <v>0.059</v>
+      </c>
+    </row>
+    <row r="831" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A831" s="15" t="n">
+        <v>0.0025991</v>
+      </c>
+      <c r="B831" s="15" t="n">
+        <v>0.0393241</v>
+      </c>
+      <c r="C831" s="16" t="s">
+        <v>742</v>
+      </c>
+      <c r="D831" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="E831" s="16" t="n">
+        <v>0.167</v>
+      </c>
+    </row>
+    <row r="832" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A832" s="5" t="n">
+        <v>0.0033339</v>
+      </c>
+      <c r="B832" s="5" t="n">
+        <v>0.131221</v>
+      </c>
+      <c r="C832" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="D832" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E832" s="6" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="F832" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="833" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A833" s="5" t="n">
+        <v>0.0037212</v>
+      </c>
+      <c r="B833" s="5" t="n">
+        <v>0.0075311</v>
+      </c>
+      <c r="C833" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="D833" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="E833" s="6" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="F833" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="834" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A834" s="5" t="n">
+        <v>0.0039612</v>
+      </c>
+      <c r="B834" s="5" t="n">
+        <v>0.0032546</v>
+      </c>
+      <c r="C834" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="D834" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="E834" s="6" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="F834" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="835" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A835" s="5" t="n">
+        <v>0.0050502</v>
+      </c>
+      <c r="B835" s="5" t="n">
+        <v>0.0020429</v>
+      </c>
+      <c r="C835" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="D835" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="E835" s="6" t="n">
+        <v>0.826</v>
+      </c>
+      <c r="F835" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="836" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A836" s="15" t="n">
+        <v>0.0054268</v>
+      </c>
+      <c r="B836" s="15" t="n">
+        <v>0.0015947</v>
+      </c>
+      <c r="C836" s="16" t="s">
+        <v>747</v>
+      </c>
+      <c r="D836" s="16" t="n">
+        <v>18</v>
+      </c>
+      <c r="E836" s="16" t="n">
+        <v>0.167</v>
+      </c>
+    </row>
+    <row r="837" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A837" s="5" t="n">
+        <v>0.0063049</v>
+      </c>
+      <c r="B837" s="5" t="n">
+        <v>0.0852885</v>
+      </c>
+      <c r="C837" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="D837" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="E837" s="6" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="F837" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="838" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A838" s="5" t="n">
+        <v>0.008088</v>
+      </c>
+      <c r="B838" s="5" t="n">
+        <v>0.0026024</v>
+      </c>
+      <c r="C838" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="D838" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="E838" s="6" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F838" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A841" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B841" s="11"/>
+      <c r="C841" s="11"/>
+      <c r="D841" s="11"/>
+      <c r="E841" s="11"/>
+      <c r="F841" s="11"/>
+      <c r="G841" s="11"/>
+    </row>
+    <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A842" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B842" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C842" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A828" s="9" t="n">
-        <v>0.00092139</v>
-      </c>
-      <c r="B828" s="9" t="n">
-        <v>0.1588808</v>
-      </c>
-      <c r="C828" s="0" t="s">
-        <v>737</v>
-      </c>
-      <c r="D828" s="0" t="n">
+      <c r="D842" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A829" s="9" t="n">
-        <v>0.00097997</v>
-      </c>
-      <c r="B829" s="9" t="n">
-        <v>0.0056658</v>
-      </c>
-      <c r="C829" s="0" t="s">
-        <v>738</v>
-      </c>
-      <c r="D829" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A830" s="9" t="n">
-        <v>0.0012963</v>
-      </c>
-      <c r="B830" s="9" t="n">
-        <v>0.1790334</v>
-      </c>
-      <c r="C830" s="0" t="s">
-        <v>739</v>
-      </c>
-      <c r="D830" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A831" s="9" t="n">
-        <v>0.0025991</v>
-      </c>
-      <c r="B831" s="9" t="n">
-        <v>0.0393241</v>
-      </c>
-      <c r="C831" s="0" t="s">
-        <v>740</v>
-      </c>
-      <c r="D831" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A832" s="9" t="n">
-        <v>0.0033339</v>
-      </c>
-      <c r="B832" s="9" t="n">
-        <v>0.131221</v>
-      </c>
-      <c r="C832" s="0" t="s">
-        <v>741</v>
-      </c>
-      <c r="D832" s="0" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A833" s="9" t="n">
-        <v>0.0037212</v>
-      </c>
-      <c r="B833" s="9" t="n">
-        <v>0.0075311</v>
-      </c>
-      <c r="C833" s="0" t="s">
-        <v>742</v>
-      </c>
-      <c r="D833" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A834" s="9" t="n">
-        <v>0.0039612</v>
-      </c>
-      <c r="B834" s="9" t="n">
-        <v>0.0032546</v>
-      </c>
-      <c r="C834" s="0" t="s">
-        <v>743</v>
-      </c>
-      <c r="D834" s="0" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A835" s="9" t="n">
-        <v>0.0050502</v>
-      </c>
-      <c r="B835" s="9" t="n">
-        <v>0.0020429</v>
-      </c>
-      <c r="C835" s="0" t="s">
-        <v>744</v>
-      </c>
-      <c r="D835" s="0" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A836" s="9" t="n">
-        <v>0.0054268</v>
-      </c>
-      <c r="B836" s="9" t="n">
-        <v>0.0015947</v>
-      </c>
-      <c r="C836" s="0" t="s">
-        <v>745</v>
-      </c>
-      <c r="D836" s="0" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A837" s="9" t="n">
-        <v>0.0063049</v>
-      </c>
-      <c r="B837" s="9" t="n">
-        <v>0.0852885</v>
-      </c>
-      <c r="C837" s="0" t="s">
-        <v>746</v>
-      </c>
-      <c r="D837" s="0" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A838" s="9" t="n">
-        <v>0.008088</v>
-      </c>
-      <c r="B838" s="9" t="n">
-        <v>0.0026024</v>
-      </c>
-      <c r="C838" s="0" t="s">
-        <v>747</v>
-      </c>
-      <c r="D838" s="0" t="n">
-        <v>20</v>
+      <c r="E842" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="F842" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A843" s="9" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="B843" s="9" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="C843" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="D843" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="F843" s="0" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A844" s="9" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="B844" s="9" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C844" s="0" t="s">
+        <v>751</v>
+      </c>
+      <c r="D844" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="F844" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A845" s="9" t="n">
+        <v>7E-005</v>
+      </c>
+      <c r="B845" s="9" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="C845" s="0" t="s">
+        <v>752</v>
+      </c>
+      <c r="D845" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="F845" s="0" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A846" s="9"/>
+      <c r="B846" s="9"/>
+      <c r="C846" s="0" t="s">
+        <v>753</v>
+      </c>
+      <c r="D846" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="F846" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A847" s="9"/>
+      <c r="B847" s="9"/>
+      <c r="C847" s="0" t="s">
+        <v>754</v>
+      </c>
+      <c r="D847" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F847" s="0" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="47">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A41:K41"/>
@@ -17716,6 +18246,7 @@
     <mergeCell ref="A771:G771"/>
     <mergeCell ref="A794:G794"/>
     <mergeCell ref="A817:G817"/>
+    <mergeCell ref="A841:G841"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
